--- a/dummy_data.xlsx
+++ b/dummy_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,34 +466,89 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>nearby_location</t>
+          <t>nearby_railway_address</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>nearby_railway_station</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>photos</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>videos</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>type_of_item</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>status</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>verified_scrap</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>pending_department</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>lot_no_engineering</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>lot_no_stores</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>auction_date_given</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>fdp_date</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>phone_no</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>custodian</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>approx_weight</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>approx_rate</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>64bc1f3c1051ae135cc76ab7</t>
+          <t>64c2379dd2aaa08f50350940</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -501,99 +556,213 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>XY124</t>
+          <t>XX123</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-1.777752,36.924870</t>
+          <t>21.531127, 70.458050</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1°46'40.5""S 36°55'29.5""E</t>
+          <t>"21°31'52.1""N 70°27'29.0""E "</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5Q5V+22 Kajiado</t>
+          <t>GFJ5+F63 Junagadh, Gujarat</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>KAJIADO RAILWAY STATION</t>
+          <t>123 Main Street Junagadh, Gujarat</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYWFRgWFhYYGBgaGR0YGRgaHSMaHBocGh4fGh0eHBodKy4lHB4rIRwaJjgmKy8xNTU1HCQ9QDs0Py40NTEBDAwMEA8QHhISHjQrISs0NDQxNDQxNDQ0NDQ0NDQ0MTQ0NDQ9NDQ0NDQ0NDQ1NDU0NDQ0ND80NDQ0MTQ0NDQxNP/AABEIALQBGAMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAAEAAECAwUGB//EAEMQAAIAAwUFAwoCCQQDAQEAAAECAAMRBAUSITEiQVFh0QZxkRMUFTJCUlOBkqEWsSMzVGJyssHh8ENzotIkgvHCNP/EABgBAQEBAQEAAAAAAAAAAAAAAAABAgME/8QAJhEAAgIBAwUAAgMBAAAAAAAAAAECERIhMVEDE0FhkRTwBHGhMv/aAAwDAQACEQMRAD8A6qwWGV5KX+jT9WnsL7o5QSLBK+Gn0L0hrv8A1Uv/AG0/lEExshQLDK+En0L0iXmEr4cv6F6RdEoAoFglfDT6F6Q/mEr4afQvSL4eAKPMJXwk+hekP5hK+En0L0i8Q8AUCwSvhJ9C9IXmEr4Uv6F6RfDwAP5hK+FL+hekLzCV8KX9C9IIhxAA/mEr4Uv6F6RLzCV8KX9C9Ivh4lAG9HyvhS/oXpD+YSvhS/oXpBEKFAH9HyvhS/oXpC9HyvhS/oXpBMKFAGF3yvhS/oXpC8wlfCl/QvSCoUUA3o+V8KX9C9IXo+V8KX9C9IJpCiAG9HyvhS/oXpC9HyvhS/oXpBUKABvR8r4Uv6F6QvR8r4Uv6F6QTCgAX0fK+FL+hekL0fK+FL+hekFQ0ADej5Xwpf0L0hej5Xwpf0L0gmFAAvo+V8KX9C9IRu+V8KX9C9IKhoAF9HyvhS/oXpDGwSvhS/oXpBcMYAzLxsEryUz9GnqP7C+6eUKCbx/VTP4H/lMKBQW7/wBVL/20/lEEiBru/VS/9tP5RBIikHiURESgBxDwwh6wA4h4asQecgIUsASCQCQCQNTThEtCmWQoC9Kydmjg4mwKQCQW4VpSBzf8qkymMmWaMKZk4sGzU55wyRtdKT2TNaHEY9qv5UlJMCM3lKkLkCAASxOulIuF6Vmy5aqCsxC6tXhyhki9mdXRqQoz7mt5nIzMoUh2Sgz9XvjQgnZhxadMUPHLXhf01Jk1FKbDKqKUYlywrTEDRfnBN9Xy8tkVcAITykxTrSoGFanX1vCM5o6/jztezoIeOftN7OHmBGGBbN5ZMt9Kjv7ottFvmCxrOBGPCjtlkQaYst2sM0TsS09m3CjkvxFNLMFC7bKJFRquPAxOeehg21X462jAMHk1ZJbsdcbgmoz0GVYmaZp/xuonR0MNGAb0niabPgUzMQKvQ4PJ72IrWo0746ARpOznKDhV+RUhUh4xrDf4mPhWW9CzLiqpIw73QGqg8YNpCMJSTaWxsQox5XaFC+Ay5yvUAgppU0BNCaDnBiXrJLugcYkBLjMYQNTUihpBSTK+lJboMpCgaReMp8kmIxOgDAnwgkGukLRhxa3QoaJQ1IpBoUPDQA0MYabMVQWYgAakmgjGbtPZseDHlT16HDWumn30hYNK8f1Mz+B/5TCiq1WlHkzCjqw8m5yIPsmFEKD3d+ql/wACfyiChA13/qpf+2n8ogkRoghEhEYHn3jKT15iL3sIGTNvu2z0cBAwTBixIgc134gTkoG+BL1ts0S1ny5tUmKEIIw4GbIOo1Gdcqw163nZHdCQ7thZQZYZajIkE1FRr4wjfyBVRLNs6KHK0FMxkKxjCTPSutCKWmq3GtdnRJoWfjeUJNEbaYY/aOXtHM5wMLunzEswIdTR0Z6ZqjHLFw2cs4JftFPNAqy1rlvbd3iArbe1poP02GpocKBSMq5VrGuy3oF/MrZamkLFPMqUjSwGkzloQQA6A0qAN+kXN2fcvjLIAZruRntIxDAHmGEcjaLVPLKGnTGFa5uVB78MSdS1Kiue92NcjxEXs1uY/Ll4OrW6kAlrMtCBZaMoCsFNXJrnXSmUVLKsyBB54FeWWCOGWoVvZzqDHM+SFRsJrpXkeUXFyCowIM9zcj+7F7KM/lT5Onuy+bHJTAs8NttU0JLMSc8hSsFzO1FnBpVyOIRteFKVrHEWp22clG2N9c8+UXvOYgDCK1FKE1OfdGsEjk+o5O2a829rK7TccqefKsuLYYDZACkHca1iw3pZMTMZLuSFSrgtkBQUroYyXWYQNg6jef8ArEJkqdUfozqOPy9mHbia78+TT9LWRP8ARm4Shle0aqTkCSdnfEpV42RAw8jNCsmBs3bI7gCcu/WMa2ypuEBpdBjUb9SchpEzJmkEYK0IDa5HLI5Q7cR358m0l6WMYCZUxTKFEyYj5nfnFQtdhYOHlupZsWOjM9Sa+tSojNnSJ1D+jPD2uI/dhpkmbTOWdae1x/hh2osfkdRef9OiW/bIs7ypdwfJhKsj0pWuezrGinaazH/UGlakUHdnnWOJtqP5NqplQ57WnhFLu+DRKYeJ4bsoKBmXUk9z0EX/AGYqD5VRXLXMd43d8YsizoJ8t3tMpihZsYAV3BBoHcHCw+8cxNYlTUJ6p38u6ArXZwwphQ6/l3RmXTNw6zjaXk9DlS2EyfPR5bmYqrLGKmarv+x3wFdN0zpcyS5wOhV1crrt7Rx1O1tHcN0cg0rChIVRQH1SRSg7ousOIIlHcUoRtHIjeBxiPo2dF/LaTXOh193Xfh86mvJo2N2l1XMKFNMHI13Rk2NMC2WXOZpUlld3NTLDNViqs2VMqGkBWa8bQKOJ71pqaEeEEyb/ALTgAZkca0dK15EkmsZfRfg3H+WreS3/AMLhb5/kQsqY5xWkpJdjVmQDifWFd54xt9n72e0TJnuKibFACrtXEK0rqD4RkSO07llaZZ5bhCSgXIodKqTpBN1dqLKpdhKmIzuS5C4gSCfdOVKndGcJJmp9fpyi1WvJ1lIWGM2R2ksr6TkB4PVD/wAqRpy3V81ZWHFSD+UaPMB227kmDbQMQCAeEcp5mvAR3WGORtF0z/PFRXHm5XGxoMYbaOEfu1AFYjpmka02woklyqKD5JqsBn6hrnCg68v1Mz/bf+UwoEOFftWZcuWFlewoBZhuUbhAkntJaJzFQVTKuyOH7xB/KMifKdxKVUJODjWuS+EGXZdU9HqUGamlWpw6x6FGNHFyYS/lWYYyzZHJnJB05U+0D2icJeEmWq6jZOe47gOEX2ye6OoZKEg0oRy3wO9nmWiiqBUVNSaZZCCqyVyVS7bjdaLoDv8A60gpg5ocGVd55cSIpkWWZZpgZgpJBAoa7ucaFmkzHKuy4qsaVIIyB3GK3roSiuRJmuVIRaYiKlt4BroIpvRXRVZgtMVMjXceUTN6TEcqEXJ2OdNTUHQ6RO2yJ06WmyNpsWoG4mLF2HoZtmfG6KAa7R1pu7o2Lbd5RAwSlDqXruO6gjOsdgmS3RiBtYqUNfZJz+Ubd6tN8ntAUr+7wMWXshXNsbjD+jlet7xO48Yjby8pVdpUoAMPVGehipL5mu6LgT1xSnzHHnBt9SZ0xFTCNpxTMAVoTxMRDXyZZvhpry0VFBExWG4VzAryzjTti2jHKqsvFiOGhNPnGRKuidJmS3YL66gUauesa98WqahluVFQxpmKbuEHoEFTTaarVZeuWZ4jlFV5Wi0S1Lssui4CaEk+sQPzimx3jNmt6q7JGlBqefdBF6yJ8xGTCu1gGo97LQcYiIYsy+nmlUwqCXQjXUMKV5RtKLRWblK9dcWba0XTLTSMMXFOlMjtgydBk1cyRh1HMQbb71nSnmLRc2BNc86L3bhFdFNiabThbZlesN7a1HKKLTOtCSmcrLwrVjQtXJqmmUSs1qnvKx0XaauoGjU0I5Q9tSc8l0otGBX1hvNOFYhDCtXaV3ltLwABlwxtSxafICglYfJje1aYO7Wkc5abgmohmNgwgYjRqmndSL/xBOCYKJhCYRxpSkV+i7m3bJdoMlqrJpgOedaYe7WkU2yxzMDFks+moBr+UEWuZN8i9cNMB9pdMPdCtbzsB9WmH316QBylpvNHWglqvNaj5RtWK6y0qWQqioXPGwJrywEDxjEt1yPKTG5SmWQepzroKcj4Rp3Pe81jLlKUoMhUgHZG80P5QZS9LmmYUwlBWlKsTuJ90cIhKuecQlDLNRUVLbqcuca0t5uFM03U2190/uc/uIhI8rRM19X315H3IWQ5J7YUqhAqpINDlUGhplF1iD4AQuRJNc6a8hFd6Xe6NicptlmGfM1rkN9fCNPszaJpUqhAVBltBfWOdSVaukG0WtDPR2IIomp3nieUKRLIBKqimpzViu87wKxvyrO7lqhGzOZZD7babB/wiBpd0li1ABRiMnA1PDAeW6JuEwOzXva09ScwoabbGYuXJwTG5dfaKc0t5rqjvLYJRaoGBpnvp6x3bow5V1zHd0UoAjAZtWtRi1C5+AgqxWVhKtSABmDpkDkclOp5CMyitNDakzZn9spTy5ivLmISjDIB1zUgZrn9oUcVaZjqHDKFOClDUDRtBTWFGXBWVSYXZOzblEbylKoNAcgQOcEDs0+vlTX57/nAd3zDgWrvpT137uMFTq4cnfd7b8RzjjlLk6UuCbdmHOswnvFf684dezDbphHcKRIpvxv9b9YhXbAxvTCfbfivPmYmUuS4x4HPZUnWYx7xWJr2XYaTXFNIiVz9d/rfrDSW1239Y+2/WGUuSYx4JfhQ++fCJJ2YffNbLTLTuziyzNtpRnO0urud/AmCu0LUmIKmmA6EjfyhlK9xjHgEPZY/EfLTlD/hYnWa55RStN5P1HrE7IgYGlSatvPE01MMp8jGPBYvZT99vCJjsufiPA84rhNPz5xYMP8AhMMp8jGPBb+FuMx+XKHPZausxz3wK2HGOFG3nisTqn+VhlPkYx4LR2UFcnf7Q83s1QE43rSB5CoS2Xtc9KCLvIJuEMp8lxjwZd32ATJmBZjsAtWNKYWBApn/AJlGz+FwdXf7QZf0tQyZDPH/APmAGlrQGgodMoZyfkYxXgsHZdfff7RL8Lr77/aA5Kqa1A9Y7ucQtUtMDbI9U0y5QuXIxjwHHsyvvt9oi/ZdPfb7QJ5OX7qfSIqdExLsrv8AZHCGUuS4x4Dj2UT328RC/Cie+3jA3kU9xfpEUpJTE2wuo9ke6IZS5JjHgNPZRPfbxEOOyie8326QDPlIFOwv0jhG3figyJdQCKrrn7JhlLllxjwAnsqnvt9oieyie+32ipLtBAIRMxXQRXLu3acYFyI4e6DEylyyVHgIPZRPfb7REdlV99qfKLrBYVR1ZgqgZ4qA0NMvvSAignOWwICQGoABr+ffFuXIqPBf+FF99vtET2TT33ii0XbQA4FG0o3b2Ah2uz9xPtC5cio8F34UT328RF133dKMmdKRywZgGPBhQ0B7oynu4hxsL6pO7cV6xsXDYllIwQUDNipzIEE5eWGo+EZ9q7LoEdsTZIx14A9IUbd6itln/wC2/wDKYUMnyWkcldMvFJRsTZrXQU/KLrSDgO21cqacRyiFzI4s6AFaBRqDX84jag5QgFRmM6aGo4mLepBwZmGvlMq+6IazTXMzCZhJCE5ADUgcDDCxTcH64fQIos1idZmMviYoV9WgpUHcYWDXCn32/wCPSAvJvVsMygxHVQfvF5x8V8D1gFLJOdjgm4RU7OEEDPiYEsPsKusxCZtRjTLABWrAaxrdp5bNMTC5SiGtADWrc+6MKwWGb5WWHnFgHUkYAK0YHURq9q7M7TUwzWl7BrRQ1drLXTf4xHVovgzvMnp+ub6V6RO6nOCods61OWdCeUDej54U1tLfSIsuuQ6JhxA0rmQanM56xQTtAOBqO2ld3SBvKv8AGfwXpBMxHKsKgVFND1gDzGZ8Rfo/vFIEWZ2L4WmMdgnQDevAQd5Ie+326Rm2ezOj4i4OyR6tN684PSW5OVPA9YCykWZyzFZzKK6YVO4Z1IiXm8xaN5wxAIJBRcwDpFE2757MzCayCtMKqpFQBxziC3dPqK2hyKiowDMcIaC2db2tUt5KjMvrmq0r7PEGOeeU4A/TPStR6vSN7tVJdjLCvgO3nQHcOMc3PsU3CP05+gRmLSRqvJdYnOE1dycTCtdaE5xK0vsNtt6p38oGsFnemEMGNWJJFK58jSLLRZXwNpod3I84pmyfmpP+s/8Ax6RU8jCy1mOwNdaZZchAsy7p65G0v9KwrPZHDqWnF9RRlFBlrlF0KrNCg99vGMu1LOxt5NyFyrUjWnMRptZH/d8P7xk2mxO7lhNZNBRcgctdYlC2WS7LaSj1md2nA65R2t8STMkyUDlCSu0KE5ITvyjkbFdb4H/TOe+uWR0oY7G3SC0mWA1DsmufungRGX/0XwcgRaRkLSwAyGwugiyyz5oxBprM2L1qBa5DdSNg2F/iH/l/3hrPJdS4xg5jVST6o3lo2zI9xT2M5VZ2YHIA0pXWMGYk0uXkzygJYBcAOFa5Ad0aVxORaJeJhTEdxG484Fs1zTEmkGawyZsBFQAzVHqsNxiAFfzkUL2hmFVJGACuY398dAkk0BxvmAdR0gWdY3UA467SZENT1wPfgsq/vp9B/wC0UGXerOjy8LuKhq5g1AKZZiOmsqUXw/KOWvmU5ZCXXLFopG9f3o6qx1Kj/N0QFd65WW0f7cz+Qwoe8kLWecvGW4/4mFGTZm3bc7iUg2KFVOp0OfCIzbgmkUBTUHU7iDwgCy9p7QEQCzqQFUA1O4AReO1do/Zh9RjWMvX0xaD/AEPNw4aJ9R6RUlxTcYOxShHrHpAo7W2j9mH1GHPaq07rMv1GGMvX0Wg5blm1J2Br7R3inCJWa5Jy+0mdd53nmIAHai1fs6Dx6xI9p7T8FPv1i4y5X0mSNaXdkwOrHBQMCczWg+UW3rd7u6smGgWhqabzGE3aq0jIykG/2usWL2mtB/0k+/WGEuV9Fo0JlzzTXJM6e1w+UQstzTVGeA67+Z5c4FHaW0fDTwbrFq9o5/w08G6xMZcouSLGuGcRSqbvaPGvCLjc82gGxu3nnyij8Rz/AIaeB6w47RzvcTwPWLjL19JkhLcU7GDVKCvtHeRy5QS90TaCmAc6/wBoGbtFP3S08G6xW3aa07pKHx/7QxlyvoyQbZromrWuA1auv9uUSe6p2dMHdi/PKM38T2r4CeJ6wzdqbSAS0lAAM9esMZcr6MkdBe9gaYUw4dkNWpp61KaA8IzmuGbSlU4esekAS+1dpYBlkoQdMz1if4otX7OniesTtv19Lmv1F1n7OzlNapqfaO//ANYImXLNKFdipBHrHeDy5wD+KLV+zp4nrC/FFq/Z08T1hjL19JkvfwJtNwTnIOwMvePSKB2anVBqmVfaO8d0R/FFq/Z08T1hvxRaa/8A8y91TDGXr6XJfqDzdE2gFEyp7R3fKAB2ZnVJqmZ948KcIf8AFFp/Zl8TDHtRaf2ZfExcH6+jJfqCLPcc1VI2M/3j0jWtljdpaIpAZcOuQyWnA7+Uc+3ai0/s6+Jis9rp1cPm64qVpiNaeETtyu9PoyX6jaF2zP3PqP8A1gZLnnBmNUz3VOgFM9nWAT2stH7MPE9Iie1to/Zh4npDGXr6LRqWS7XlupfAdwoSTXPiBD2q7Xd8a4KZDMkHLXdA11X1MnvheTgCioNSa7qZiGvS/wCZKcokjGoAOKpGufCGL2FonabnmuKAoNDWprkwOWzyia3VNpQlO+p/6xnfiuf+zfc9Ib8VT/2b7npDGXr6LiXWm4pzMDVBTFvOhw/u8vvGjYW2fD8oyPxTO/Zvueka12mo+QMKa3Fp7Fs/9VN/gf8AlMKMntFezSEKhAwdXqSSKZU3d8KGLLZzVhvhWCqtCQorlwA5wabdyEcPZVZSpU0PKD7fanKHE1cqafLUd5iUhbNu03oEcUqa1JApTKmuUGSbcxFWVV4DXKOOsrAs5IA2MgBQCoA0jcnXiAF2BXATyqBqYUhbNtbYOQh/OzTKh+X94zbutaNKXygBYg1IyOvKDbFZbM2BVaZUgYqMdd+QGQhiiWBT73DUXAr48K4qspWrUIABofnBPaG1tZygXDRqg4hXThnEL3lyjPl+SlqihkUhRSrVr4xvTGs7shnyQ4KnCrrUqQ1Cabonmjb2szhPy1+wiXnGRz+wiF6WuSZjCWVC1UKoyAyz+9YNv6ZJyEpQuFSHoKVNRnz3xaRnUC89/wAyiE21E0IOY03DuOWkKfY8KK5KkNoAcxlXMQz3c5FVwbjtMBrFolk5dvam1QHgKH+kWy7WSfkTu3R0F4SLKJYoiBsqlRtAD1iOcYtts8pEDo7EMD61ARkdcuUSkLAbwvMy1U7y1NB94nbbcFSpGMVAK1w1BNNRnBNzzrNMRDOlhycsJWoyxbR+WH7xf2n82CrKRFV2wlcIpRVNWz3ZAQdIqtswrRe/kpEp1QAOzrhqTTCSBmYHXtYfcWIX9Zv/ABrMo3PN14Yo5wyM8OVa6xFTRWqOxsnaZXrUYaCvGK37WIDklecal02WwylSXPly5kwSqsVXEGYM5NWNM6YfCNqVYbtZMXm8lctCorllpFpEs5CX2iDkgqRQVBWm4Z1rB0q+cQqFy5ikEXnY5CuzyERVEsrQIAK5ktQ+1urGRarwLKBgl5FaEIK5MDEtbF1DZV+hmCilSaQWLU/D7f3jOszhnU+RkrQk1CCtQDrx/wDkPPmvjYKUArU4hxG6g0gkiNls+9ioBNBUHdXPhEXtJ85VMOZK7dTXCUDYcOlK5xiWjFgXNKF29UZ1oTv3R0T2X/y0bmnhgp+cR6GoqwuckyrYVBCgE5aVFamIWmVaEBJSlKVy0BNOsDX3fDSJk1FQMHRQTwqG6QPae17vjLSwMSqDSuQRmP3qRBLQjZ0N1S5izNtStQaZUr/lYFv+a6TCaUQ0AYrlWmYrGdY+00+faZKFURW2QVBJAamZxb8hyjMvG9bQ81iwV1luyqDkKoaVwjU03+EarQl+S6130yCoAJyyK0qDwgNe0j+0g+Qz8DDNapsx9tFBLLUVp7JI1zzBhpkxlc7CDZX2ubb+PSJSCbNCRe7MpJKjXVc9SNKx09gvFF1OeEZAZnuGseeS5pZmqle4jiTvIjoeyS1mvVSNjeR7w4GJszVWiztnbwUTCGIYOCDs6BSDQjPWFD9s5VVX+F/yWFFUtC4nFIMkPz+0Fu66Pk28Hh/lIFK0VK/5pE70nmZtgUqSBnwUCNKqsy9yV13POnHYQ4ScOPRB3ngO4xs2u4ZklC81lotUoM6A6NTgadY2bpm4pCFaqMOyOAGW6MntNfwnJgRnyBD1oFYClM655iMp2HEzfOABs0pnSnzOUW3deIQhsJYgdwPIxmKxCCK7NWmudTGjNHU2acsx0ZVw/pEy4HF99Y0+09rMrydaZ1BA4YueekcvZJxSlDSjA15jeItt9qLkY2Z6aFjWleERQd2VzTVFd6OGLEKVqVqDkecaFmtxZ3VwQSGYV1Ay1+UZzzA1cQrXWu+DVswYlgSGIpU51B4mNKJHJGws8NLRSclA38hAt6XnQbII0360NDv5iMlbM9cCOATQEHhxB7o3DdEqm1ibKmbQpmdCqXf4wYHqDlmcycqmLbTakmSRUjCFIyNMv/sJrts5yKnSmp0gG9bvRZLCXUDWhNdMzCimdZrwVGl0oVl1zGZqQR8oKtF4mbNRqMBiNGOprqPlSOeSTmMPhn89YOl1QJnmCT/njGXsajub16bVnsxGe3Op8mjm3Qh60NBn946K1j/xbL3zv54wZq0alQailB+UZiblsFTbzxPjCkUXDrxyrWNKz3wpSrVArQ5f147459JJK5DM7vnF72YiVmCDjGXLDXSNWc6N9rxxmiAlWR/FQd0A2Ygirqw0oMJ740+zNlrKRjUFWemdAa8Rvjd8nGG9TXg5dZpVyyjQEgEHgYZ7cwYky6llU8M6UIoe6OoaSGBVswRQg8Iw5l2I9pCbsIrTcoGf+c41FWyN0jnHtGEqrZbWLPuIjWuq/C9pls+FFOEHcAVGFczyA8Y23uCxEbSTG/8Aen5Q0u47ACD5FzTczlge8HIxpwsRlRjduJmG0stNUQ+GIf1jDa1bNBwp9ydPnHV9rruEweXQGqgI6ncudCKbgTQ94jnp1iOAlqLQD+LXh84m2gepr9m2QTJFKYqoCagk6dIpSciPOxlQ3l5lKkVAxa0i/s/MUPIAUDaTdnXKpgK00E2fWn616/UYWAZ7WpmMwIzdCPkpB+8UWq2AMd5KgchQnrFdomLVsO8r9hugQpVqDhETLQddc0VcswFaamkdT2UdTPejA7G413rHOXJK2n7h+cdN2el0tB/gP9Iy9zS2Jds12U73/k/tDxDtw1EQ83/khQjsaszLddCCzY1LlggY1ApoK0pA1judC7ozOAuF0yGauNc46aRa0MtVKVqigjLPZAMJHlAhggBAwg0FQOFYmTRnE5O9bN5JlVXfCFJzNOO4ZQ9y3UjlwzMMOClADXEuLOsdHaJEt3DtjNKUXZw5btNM4Ol2hF0SleAAiKVFcTE/D0s02n+lYFvG7ZNnTGS5zAFQKVPGkdSbenuH7RVap0uYpV5RdTqppu/rFyJjWqOFNslkAIpZiaBRr4GHmTcBpNlsm8Zih+cbz3bJR1eTIdWU+rjGFgRQjMmhoTQ8YD7Q2edaCoSUFC6EsteWhOkdl1TDgZRvCVwMWLeUsaF4Pk3AmHb8sWpmVMsCvIEHL5xNbgl8J/jK6Q7qGDFcQR3Z1U10xHPPuzi2zW6bOLKjps61UClTSmY5RjXuhksqJiC0rR8Jap/gFIzntRIAIHKoPSI23qmaco4pVt/p19uacmJxgCqBkCrV0GVRnWtYUq2F5RxqKnQUppxFI41Z1DUAA7qCn9IIs1tfGBioCc/nruiLKtWIyindXodVJ7NS3RSZk0UrRciFruBPcIjb+z6S5ZZGdmBGRA0qK6co3LhtyeRWoJzbP5xpeey96V5ECMOTsJGFZLAsyzyUmBhgxnLXaYnfEF7L2atS846nRN8dAbcm5PsIbz9PcP2jKlRXGzGPZ6QPVabXnh/pETcMvi/26RuC3J7h+0Lz5PcMXImIHY7MEXAoYipOdN/yggHk32i4W5Pdb7Qhbk91vt1iZDEpYV3N9ukA2dJFnbGFOHNeJoddTnXvjU8+T3W+0ZVmvRFnM1UCqzA4iABXjXTSNRky0k03sdTZrJZ3lh1QMKaVzrvGtAYGkNImMUEnTiAO/fnAYv2URVXlUOey6ivgYpF8ShmGl/WOsbk5aU/7JUben9B96zLNLHk3ArMGGgpWh41OlYyGuizEUMo/U275xcb/AJYYHHKBOQJKknuMWy7xSmYqc8xSkZk2VKNJJa+Six3TZ0dGSWQysCpxuaEHLImhiNquSzO7FpTElixo7ipJqTQGDpdvQsAFOZHDj3wp9uUMwwnIkboxbotamanZ+yD/AET9bH8zEjcVl+CfqbrBnpBfdP26wjeCe6326xLZaBZVzWZPVlsK60ZusEWaxy0fEiMGoRUsTlTgTyhC8F91vt1iUu2qxAAIOfDhBbhrQxe1tleagwqdnEx7sJrCjSt94oUcBW9Rxu9084Uai9CMzbOyBE1Oyu7kItJXn4f2gmxzBgTKuwuvcOFIIMw06CM272KAoBTMMDwh8Sc4NxGHrFAEjpnUHlz+dIadNXKinM0pB+OHDxKFgdV5w2znWsHBomHG4fM9BFYMiwzlmIHwula7LrRsjTSLHQbmPh/WNQuTv/pEaRNQcreHZ6XOfG7uCABQAUyrxFYpXstLFKTZg3aDLuqDHZUhRcmSkcjM7KoTU2ieTShJwnT5RS/Y6Tr5SYdM6DpHawoZMlIxrDd6S0CBmoPvxMEhEpXPUgV38400cDdU7q6f3hjMrqYzbb2Nme8yXwpQbj/aBRb08oqYXzUtiGaim4nceUbUNWKiPUAqh4+EO7oBliP2g8GGJigAxL+9ClstfVY7qHf4CsHkxOzvhap3V+8Zk9NEFuZTqvF/CMG13BIdy7POWuZoQAT81jrisLDFTYaRxY7PSBTDOmZmmeAnnnh3Qvw1IxA45leOx+WClY7TBDBIuTFI4mb2fkGu1MqfaDKNOQFPtGpclqlebKFD7JYfpKBzmSa0746EoIWEcBBu9wlwAWe0Jirh9Wh16CHtVqTFUqdo7jplXPKNBGpppwOkJ6bhlwMZt7UWluZiTE4N+cS2Tx8INw90ILyjQAtjnFtmZS+yMJz7tNYvrCUmoiLcj2Mu2uuB6a4W/KHgu2VwP/A38phRURmHZL0bAmyvqjjw74I9JtwXwPWFCjTMkhebcF8D1iXpJq6L9+sKFBAtF6zOX36xQL9m/u/frChQAhf839379Yf07NOuH79YaFAETfUzgngesL0zM4J4HrChRAP6amcE8D1iQvqZwTwPWGhQKL05M91PA9Yml/zeC/frChQIS9PTeC+B6wh2hm8E8D1hQoAie0E3gngesR9NTOCeB6woUCkvTUz3U8D1iPpqZwTwPWFCgBempnBPA9Yb05M4J4HrChQBIX9NGgTwPWH/ABDN4J4HrDwoEGPaCbwTwPWG/EE3gngesKFADNfkzgngesMb6mcE8D1hQoFEL6mcE8D1hvTUzgngesKFACF9TOCeB6w3pmZwTwPWFCgBjf8AN4J4HrEWv2bwTwPWHhRQVWm/ZuB8k9U7jw74UKFFIf/Z</t>
+          <t>JUNAGARH JUNCTION</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>AAAAGGZ0eXBtcDQyAAAAAGlzb21tcDQyAAAQe21vb3YAAABsbXZoZAAAAADg4CCs4OAgrAAAA+gAAB9VAAEAAAEAAAAAAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMAAAAmdWR0YQAAAB6peHl6ABIVxy0wMS4zOTQ1KzAzNi43Njk5LwAACBJ0cmFrAAAAXHRraGQAAAAH4OAgrODgIKwAAAABAAAAAAAAHxYAAAAAAAAAAAAAAAAAAAAAAAAAAAABAAAAAAAA//8AAAAAAAAAAAAAAAAAAAAAAABAAAAABQAAAALQAAAAAAeubWRpYQAAACBtZGhkAAAAAODgIKzg4CCsAAFfkAAK7b8AAAAAAAAALGhkbHIAAAAAAAAAAHZpZGUAAAAAAAAAAAAAAABWaWRlb0hhbmRsZQAAAAdabWluZgAAABR2bWhkAAAAAQAAAAAAAAAAAAAAJGRpbmYAAAAcZHJlZgAAAAAAAAABAAAADHVybCAAAAABAAAHGnN0YmwAAACac3RzZAAAAAAAAAABAAAAimF2YzEAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAFAALQAEgAAABIAAAAAAAAAAEAICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIAAY//8AAAAkYXZjQwFCgB//4QANZ0KAH9oBQBboBtChNQEABGjOBuIAAAAQcGFzcAABAAAAAQAAAAACsHN0dHMAAAAAAAAAVAAAAAEAABHPAAAAAQAADfUAAAABAAAN2AAAAAMAAA3rAAAAAQAADfoAAAABAAAN3QAAAAEAAA3rAAAAAgAADfcAAAABAAAN1AAAAAEAAA4GAAAAAQAADdEAAAABAAAN/AAAAAMAAA3kAAAABAAADe8AAAABAAAN4AAAAAEAAA33AAAAAQAADeAAAAADAAAN6wAAAAEAAA34AAAAAwAADeQAAAABAAAN+AAAAAMAAA3nAAAAAQAADfQAAAAFAAAN6wAAAAEAAA31AAAAIwAADesAAAABAAAN9gAAAAIAAA3jAAAAAgAADe4AAAABAAAOAgAAAAEAAA3SAAAACQAADesAAAABAAAOZwAAAAEAAA1xAAAAAgAADe8AAAABAAAOEQAAAAEAAA3FAAAAAQAADekAAAABAAAOUQAAAAEAAA2NAAAAAQAADd4AAAABAAAN6wAAAAEAAA36AAAAAQAADekAAAABAAAN3wAAAAEAAA38AAAAAQAADdsAAAABAAAORQAAAAEAAA2RAAAADAAADesAAAABAAAN9wAAAAEAAA3iAAAAAQAADgIAAAABAAAOTQAAAAEAAA18AAAAAgAADeMAAAACAAAN8wAAAAIAAA3jAAAAAQAADfQAAAALAAAN6wAAAAEAAA5oAAAAAQAADXMAAAABAAAN6QAAAAEAAA4IAAAAAQAADekAAAABAAAN0gAAAAIAAA3xAAAABAAADegAAAABAAAN9wAAAAEAAA3gAAAAAQAADesAAAABAAAN9QAAAAEAAA3hAAAABAAADe0AAAACAAAN5AAAAAIAAA3zAAAAAgAADeMAAAABAAAN+AAAAA4AAA3rAAAAAQAADmQAAAABAAANdAAAAAIAAA3yAAAABgAADecAAAACAAAN9QAAACxzdHNzAAAAAAAAAAcAAAABAAAAHwAAAD0AAABbAAAAeQAAAJcAAAC1AAADOHN0c3oAAAAAAAAAAAAAAMkAAP5pAAAucgAANDwAAFOLAACDcAAAflMAAH66AAB7ygAAfa4AAIQvAAB8kwAAfT8AAJLRAACo+gAAuikAANyVAAB6qwAAZlQAAIpTAAB9JAAAizoAAMvyAACMSQAALIoAAFTjAACIfAAAf6UAAMIiAACIGwAAM78AAUIsAABwUgAAeUAAAHgiAABm2AAAdNcAAIs0AABtGgAAjUsAAInCAACHzwAAfU4AAHT2AACHbgAAjrEAAH+SAABw2gAAhtcAAIXzAACKMwAAhgAAAI6OAACLkgAAaVQAAIrsAACAyQAAgW0AAH/4AACE1wAAhFsAAQwSAACe3wAAh4gAAG86AACICgAAePIAAIdyAACDUQAAf3kAAHqSAAB0twAAd/IAAHYCAACEdAAAe4gAAHwzAACBiwAAhHMAAIVtAACFpgAA2TMAAUigAABkqgAAJ8MAAEh8AACIyAAAdaIAAFVtAABxkAAAijUAARmpAAB8GQAAgmEAAIUzAACj7QAAd6MAAEVFAABudQAAgKwAAHy7AAB78QAAhKoAAI+zAACGgQAAdQ8AAIqBAACF2AAAjqoAAIyxAABzvAAAebMAAIxIAAB2HQAAkrsAAKlRAAC5rwAAdB0AAEuNAABpKwAAiHQAAT4HAACdywAAtbsAAJk7AAB9EgAAUlsAAE50AAB/FAAAfv4AAH5wAACNfAAAkYUAAHwTAAB7CQAAmrUAAKUXAACFWwAAnEUAAH5bAABnWQAAm1YAAIh3AACXWAAAhZkAAFTmAABfWgAArW4AAI0bAABS+QAAYfgAAMDmAABswQAARTQAAHrYAAChWwAA+O4AAHSFAAA9wQAAcGIAALo5AACE1QAApeIAAM0HAAB8HwAAjCcAAJQAAABcTgAAZdoAAJilAAB6kAAAarQAAI2PAACGUQAAQtYAAFSbAACAHQAAkAQAAGBTAACISAAAgJAAAW8YAACSxgAAhmoAALkZAADHkQAAXmkAAHDZAABgeAAAkLoAAHadAAA3dwAAbfYAAIiAAAB7UgAAgYEAAHgFAAB3rwAAecMAAHXtAAB9iAAAdBMAAAA0c3RzYwAAAAAAAAADAAAAAQAAABwAAAABAAAAAgAAABoAAAABAAAACAAAABEAAAABAAAAMHN0Y28AAAAAAAAACAAGYJYAFSYtACLBMAAwnaIAPpQFAEzfHQBaa3UAaNAjAAAHz3RyYWsAAABcdGtoZAAAAAfg4CCs4OAgrAAAAAIAAAAAAAAfVQAAAAAAAAAAAAAAAAEAAAAAAQAAAAAAAAAAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAB2ttZGlhAAAAIG1kaGQAAAAA4OAgrODgIKwAALuAAAXgAAAAAAAAAAAsaGRscgAAAAAAAAAAc291bgAAAAAAAAAAAAAAAFNvdW5kSGFuZGxlAAAABxdtaW5mAAAAEHNtaGQAAAAAAAAAAAAAACRkaW5mAAAAHGRyZWYAAAAAAAAAAQAAAAx1cmwgAAAAAQAABttzdGJsAAAAW3N0c2QAAAAAAAAAAQAAAEttcDRhAAAAAAAAAAEAAAAAAAAAAAACABAAAAAAu4AAAAAAACdlc2RzAAAAAAMZAAAABBFAFQADAAABdwAAAXcABQIRkAYBAgAAACBzdHRzAAAAAAAAAAIAAAABAAAEAAAAAXcAAAQAAAAF9HN0c3oAAAAAAAAAAAAAAXgAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAARIAAAFpAAABCAAAAPoAAAEjAAABTAAAASIAAAE6AAABOgAAAQQAAAECAAAA8QAAAPkAAAEJAAAA+AAAAQMAAAD4AAAA/AAAAPEAAAD7AAAA+wAAARwAAAD9AAABNAAAAPoAAAD8AAABJwAAAO8AAADxAAABLAAAARwAAADvAAAA9gAAAPQAAADqAAABBgAAARwAAAD0AAAA+QAAAPEAAADzAAABJgAAAPcAAADmAAABDgAAAPcAAADwAAAA+AAAAP4AAADwAAABBAAAASIAAAEYAAAA9AAAAO4AAAD1AAAA8gAAAP0AAAEFAAAA8gAAAPgAAADyAAAA9wAAAPYAAAECAAAA+AAAASYAAAD2AAABJwAAAPkAAAEBAAAA9wAAAPYAAAD/AAABMgAAAPoAAAESAAAA8QAAATUAAAEaAAAA6gAAAPcAAADwAAABKwAAARoAAADzAAAA7gAAARkAAAD4AAAA6gAAARIAAADuAAAA8QAAAO4AAAEPAAABBgAAAPQAAADsAAAA6wAAAOIAAAEoAAABAwAAARMAAAD+AAAA/AAAAR4AAADwAAAA7gAAANwAAADvAAAA/QAAAP8AAAEvAAAA/gAAAPYAAAEJAAABDgAAAPQAAAD2AAAA+wAAAP0AAAEVAAAA6wAAAPYAAAD/AAAA9gAAAQIAAAEfAAAA8wAAAPEAAAECAAABLgAAAPEAAAD3AAABAQAAASsAAADvAAAA8wAAAPAAAAD1AAAA/QAAAQQAAAD0AAABHwAAAPQAAADFAAAA/gAAAPEAAAD8AAABFwAAAQIAAAEDAAAA8wAAAPAAAAEDAAAA8QAAAQQAAAD5AAABBQAAATgAAAEHAAABMgAAAO8AAAD0AAAA6wAAAS4AAAD1AAABCQAAAPUAAAD8AAAA+wAAAPcAAAD9AAAA+AAAAP0AAAECAAABBwAAATEAAAD5AAAA+AAAAPsAAAD3AAAA9AAAAP4AAAD5AAABAQAAAPcAAAD/AAAA/QAAASgAAAEBAAABEQAAAPMAAAD9AAAA+AAAARIAAAD6AAAA8wAAASIAAAD0AAAA9gAAARkAAADxAAABKgAAAQMAAAD1AAABAwAAAO8AAADsAAAA+AAAAPIAAAD3AAAA+AAAAPAAAAEgAAABFAAAARgAAAD1AAAA+gAAAOkAAAD0AAAA+gAAAQ0AAAD2AAAA9wAAAPYAAAEAAAAA+gAAAP0AAAD6AAABBwAAATUAAAD7AAABFAAAAP8AAADuAAABKwAAAO4AAADzAAAA8QAAAOAAAAEBAAABAAAAAQAAAAD6AAABBAAAAQ8AAAD5AAAA+AAAARYAAAD1AAABMwAAAPgAAAEZAAABAQAAAPQAAADzAAABAgAAAO8AAAECAAABJwAAAQAAAADrAAAA7QAAAS0AAADrAAAA+gAAAPkAAAEYAAAA/wAAAOoAAAD2AAABEQAAAOcAAAEqAAAA+QAAAPAAAAENAAAA+AAAAPsAAAD4AAABHwAAASUAAADyAAABBwAAARQAAADuAAAA/wAAAPUAAAEaAAAA8wAAASQAAADyAAAA6wAAAPcAAAEnAAAA8QAAASQAAAD+AAAA5gAAARsAAAD4AAAA6gAAANwAAAEQAAAA8AAAAPkAAAEPAAABBAAAAOoAAAD5AAABJQAAAOoAAADOAAAA8gAAARAAAAD7AAAA8wAAAO4AAAE4AAABDgAAASIAAAD1AAAA9gAAAR8AAAEUAAABDgAAAO4AAADpAAAA6wAAAQUAAADrAAAA9AAAAPMAAAEtAAAA7AAAAPMAAAEsAAAA/wAAAPoAAAEVAAAA6gAAAOoAAAD1AAAANHN0c2MAAAAAAAAAAwAAAAEAAAAxAAAAAQAAAAIAAAAvAAAAAQAAAAgAAAAtAAAAAQAAADBzdGNvAAAAAAAAAAgABi4oABT3UgAikgAAMG7kAD5kYABMsDwAWjwTAHDKhAAGHY1mcmVlAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUVFRgWFRUZGBgaGBgYGBgaGRoaGhgYGBkaGRgYGBgcIy4lHB4rIRkYJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHxISHjQrJCU0NTY0NDQ0NDQ0NDY2NDQ0NDQ0NDQ0NDQ0NjQ0ND80NDE0NDQ0NDQ0NDQ0NDQ0MTQ0NP/AABEIALcBEwMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAQIDBAUGBwj/xAA9EAACAQIEAwUGBAUDBAMAAAABAgADEQQSITEFQVETImFxkQYyUoGhsRRC0fAVI2LB4Qdy8ZKTorIWJDP/xAAYAQADAQEAAAAAAAAAAAAAAAAAAQIDBP/EACcRAAICAAYCAQUBAQAAAAAAAAABAhEDBBIhMVEUQRMiMmFx8JGB/9oADAMBAAIRAxEAPwDxmEIQAIQhAAhCEACEIQAIQhAAhCEACEIQAIQhAAhCEACEIQAIQhAAhCEACEIQAIQhAAhCEACEIQAIQhAAhCEACEIQAIQhAAhCEACEIWgAQhaFoAEIsIDoSEW0IBQklo0GfRVZj0AJ+0jnov8Ao6SK+II3FHNbyaTKWmLYJW6OEPD6wNjSe52GRv0kdbDuvvIy/wC5SPvPpxCCAxY6rdjZt7Dny/xPO/8AVSqamCpuQR/9hRrvbs6m/jrb5TGGNqaVcluCV0+DyCEIToMwhFhAdCQiwtAKEhC0ICCEIQAIQhAAhCEACAhAQAIR1oQKpjYQhAkIQhAAj6aFjYC5jJe4WO98j/aKTpWVFW6GLgnP5TE/Bv8ACZ6f7McHpVqNigZ3Zkz31pWTMjBeYLXv4CMocCpV6rlWFKmrLRUkEs76i5HItlJt/mcTzdNquDvjlE1dnmhwT/CYn4R/hM9TxnD6AL5VVlXh+cNltmclstSx1DbSnhuHqcOc9EI6tRKtY3dazlbNfQ6ai3SHlbcF+EuzzgYVvhMBhm+Ez1PC8OpCviWanT7AVWp94HMMubu0VU3Lc9jtOe4FgkfEU0qDus2oJtfQkKTyuQF+cfk/gTyiVbnK1OGVVQOUYIxYK1jZitrgHna8rNh2+Ez1Dj2DRKNNbMpqt/KpMxyYdgwFY673Og8NfNvtNwegMOHpmjdSq2pXdncqMyu4uPiI2vbrpCOZutipZSNbM8tNJuhnb/6W8Tp4bEVGrOEVqdgWvYtmU20HnMevh0z2y5e5VOXvC2VHKFgdQ2g08Aees/DuGi6s5WxA7veLd9WKbCwvlvv0m05/TTMI5VuVI9rT2m4YV1xFG/Lc6jY6i++uk4T/AFI4tQr4UU6NRXIqIyqtycoDXO3jOCp6geQmhhKWYqMqd5igZ8/vWBAORtL30069JgkotNeiI4TlLTfJzH4Z/gb0MVcK/wALf9JnW1lW6LTSm10DZszgFi7JpmdbagCx1ljA4imhu1GmwFItbM9s2cruGOgAv5zZ4zq6NY5Ldpvg40YRvhb0MQ4Zujehnsv8OoBFL4emGPaBlV3OVhSNZQdbg2GoPUTMx1DDrh2Y4dVqFVZAjVWyB72Z2tlXSxAJ1mCzbbqjTw1R5Z2DfCfQx5wjWvlNutjO34HQRmfNR7Wy59ahp5FBGZrgHNuPrOtxXD6Qo0qfZK2aqQiLiGKrmQMHz5eYBPMW1jlmqfAQyia39ni5onoY00jPXqnCsKtWmRTzo1F3IVnrAEG2ZgADlFmHW/lrDi+EYVe0Ao1GK1kUKrhWtVTOoIsbEHu7wWbXQnk/yeSMkbPUuO8Cp0sN2vY1aTmoECu6sLFc2bQDoRPNscLOf3ym+FjLE4OXGwPj9lWEITc5ghCEACEIAQAIRcsIDpiQhCAghCEACaHCmAYkkDTmfGZ8cDE1aoqLp2ei+yfFaFBu0d7Mu1gGVkIsyWuCG2sb26yLCe0TUi/ZlLOxYZ7OyNdsrg394BiL7eE4EOesmwzXdf8AcPuJyvLRts7Y5p0kjuqvHSwcZAM1BKG57qr+bxJ6SvT41V/lqzFkpsrqh926m/6jwvKlNbzpOMcKpKlUqlmVsMim50z0wz+pM5XpTpo6sOU573wRcN9qzSZmNNXLVKlVbkjI1S4NiNxY2+W4nPYjEZnZmOrMWPLViSbDpczsf4DQYV1VLMEo9l3j/wDo1LtCNTrmyka7XmeOD0jiKQKnsxQStV1OtqZdjflfQaRJxtsuUJP3/fzMvinF2rJRRgoWiuVbD3tFF2vpsqiw8esm4jxtqtPIKaICys5QEF2UEKSL90C5NhNB+D0lr1yylqNFe0VQ1iwYDIubkO9v4SDGYFXagEotRaocrKbldWUKyM24IN7crR2vQ9E65Obq3uWJucrITzbMrLmY8yAwHjlhTruuUaEKQdrEhb2BboLm3n4CdliuD0Di6KopNGobWubkozI3e81v85FR4dQrGm6Uyg7dKToXLAq+qsGsCDoRaX8xCwprdOji1SwA6SxhqxXQMVuRewBNuoB/MLmx0PiJ1nFPZ/saNd2TKRWUUjmB7hLX0B6AbzlgmsaxFJWc7hLDkmn/AITVai2QISMq5SwupIzZlFsza3LEnTW1hpIlFhYWtkyjyzM9/wDy+k6ilwyl2QbL3jhK1W9z76PlDb9OUucO4NRdUvdS1BiGubdp2opqx8O8LyXi0jo+Of3WY2H49UDIXYuqKyqpIHvIUuSBqQCNTc2FpYb2kJw7UMi3ZVRnub5V0UZds1rC99gNJbp8JpqFZ0JCUXqOuaxZ0qmmFv8AlG1/KQUfwrVl/lsVcAMga2RywGjEd5ba2tz8JlcXvRemVUYWCxjUnDo1mF+hBBFiCDoQQSLTU/8Akj5bm2cVEdSAAqhFKhAttrEfWXMVw6iWxC00ZTSU5czZrsKgUtoBpY7R+I4TRJrUUVhUooWzlrioUAzjLbTc21O0bcXyhRhNLZoqt7UENRdEWm1NWVlUlUdSxOUC5IFjbc66yunHQnammGBapSqIWYMVZCxYux94m/SavEPZ2kodlLFfwxqLr7tVezJB8Mrgjz8J55xnQr5H+0vChCboyxMSUFfZ1GP9oDVoujKAS9MoEAVUWmrrlAvfZhbfnOK4j7/mBIMxkZM7cLCUODhxsV4nIkLQhNzmCEIQAJKm2nzkUcDEyk6Y6EbCA7GwhCMgIQhAAhCEACWuHi9RfO/pr/aVYoMGrRUXTPQOD42mmdaqsyOmQlSA66hgVJ0vpb5zSPG6dRq3bI2So6uoRhmXs1yqCTobqNZ5n2rdTHNUNzqfWcbyybuzthmXFUj0ipx+5dlUqzVqTrY3ASipUKTuT7vLrLVf2iTPWqJTszolNAwVlVVyh7jmCAQBPLe2bqfWBrt1PrJ8Rdmnl/39+j01+PIzZnQkPQWlVC2W5DEqyW0BFh6Sf+P0g1AqjlaHalQzBixYLkJPIAg6DQC1p5V27dT6w7c9T6w8T8h5f9/yj09faEE0WdQWpVC3dCqCjKLqAOeYAyE8XooaS0kcItVarZmBdmXRQLaAAX+Znm/am17ncc43tm6n1jWVr2LzDvavEVNKqmUgvVVwdLAAtofHvCVuGYkU6qOVDBWBKnZhzHpecUap6n1h2rdT6yll6VWZyzLcrZ6YOM0gyqqP2K0nolWYZ2WoSXNxoCCRby8Yr8Zp2ZUVwgoPSTMQWLO4cu9tALjYXnmfbN1PrHmq1hqefPxk+L+TRZx8nqGI9o0ZkLISOyalXBIGfMbsykbG/e1G8zMXxGkXp9mhVEN9SC7ktmJYjTlYTgO3b4j6xO2bqfWCyi7F5ex6G/F0L4l8rWrK6oNLqXdWUtr/AEna+8tVOPUznqKjiu6FGN1yXICs4G+Yge7tc7zzHtm6n1jkrMSNT6weVXYLNtHp49pky1VIco9BUHu3WqKYQnf3SL+Oi6aTgeMm4U+J/f0lAs3xH1kbgnc3mmFgKDtMzxcZzVURiNkmXxiZfGdBytMZHDY/L+8MsW0LFpYyEUiJGSEIQgA7NCNhCirYQhCBIQhCABCLCA6EtFAhFiGkOTcecKm58z94tP3h5j7xH3PmYDEheJFgMSJHQgKhfy/MfYxkl/L8x9jGQChsI6LaAUNj3PdHziR590fOA6IYR5iWgLSNlmjRO9rf4kMsUaxG+t4pN1sNKhaqgKP9x+8hlqsO55N95VkotcBEMW8WMBkLRwEkpj+m/hCwIMhMOxbpLOKvlF1A1+e0qq5HOUm2jJ1Y4UG6Q7BuknpMTvHsZDk7DSVOxPSEs5oR6mPSUoSf8O3SO/CN4eolWiSvCWDhW8PWJ2B/ZhYyCEn7Ew7KFhS7IRCTin+7xLDoYrKSXYxesbJrjpC46GFlUuyG0JNdeh+kLr0P0hYUuyKEmzKev0iB16H1H6QsKXYy+lvG8baT9ovQ/T9IZ16H1EVvoemPZDCS516H1ETtF6fX/EdsX09kcU7AR5qr8P1i9qPh+phv0H09kQhJe1Hw/U6w7YfCPUw36D6eyKKCRJO1Hwj1Mb2n9I+sN+hvT2WmIK+hPnKto0vfkBBGkpUJNcIdaKlMttaIxio5F7R7jB0K84JWZdjaI7k7xkddiHNUuLEk+kaHA5X841o20aM5bMl7c8tPLSNLk843IehhkMKQWwv4whl8vWEBWdTxzCIuHplECkspJ5kBW1J36Gdn7O+y2GNOlUqozsURmVnOTMyDMco38jppOA41Xza3vcEdOXwjbeawwzOxCK5yhr2JIAVVAJsdFvoehMUXS3MpJ8Wei8V4PhsQmRqKaAhSoCMvgGW1hoNNp4/jOyV3Vs+ZWZWsbjMCQbHnrNenhmcHKGIUXPe0VbA3JJtuQB8RIA1ImBTB7xA0zN0+14PcrDVB2lPYZ/nExlYHKuihdRZRmOYL7zbttfXa5kNdrN8oY9LPY/Cn/osSW5oxKLDMut9Rpl3185Y4lSKsAFtp4ax68KqJ2TsjAOwABVhbUAXJHOWON0ijIptfIpJHPMSQdQOX6xNq1Q4pNbmO6kW1mhiaaI6EqxUkFl2uARcA+so1eXnLnFGuyX6H7yuRPZj8fVpF3yqFW4yi1rCw6TtfZThGGFeoSmdQl6ZqWJCs9NVbLYDMFYcp5ziPeM6DBYt6dZmRirZFFxpplTT6TLEi9OzKjuzsvaPgGHL0yKLAsCGNIhNviG2oO9ryxg6OGVDT/AKVsAcwQlvHOe9fxvOcwGPrVdWqk5SLXUNvvbpNOm9TMf5g/wC2PvHhr6UmZzW5k0+HUEx6KMMzIaZbsncP3u+Ab81FhobzU4lhKNTunBKgtoUyJbxBUCZjF/xqXcFuz97IBpd9Mv8AeavfzElw3hkAv5kazRk2J7NcDoq5Y0w2ikZrOVN7G19p1lf2awVcA1aC5h+ZcyMdtGKkX+c4TEY6tQV3RxfOhTLpsCWRweQtfS+2/KOr+3WJRlUJRYMAymzi4bUaZtNpHL2Kp0ekcMp0cOgShTRFBOijU2Nrsx1Y2G5JM4LjOAotxekvZLkZFZkCgKzEv3mUaEmw87Skfa7FZSwSj7xB7zE5jc+7mvbfXble8xcdxerVrLUfKrhCgKZh3QGsdSSD3jCnT/QLk7zjnFqNMtSdQ2mqZRYgk6WsSR5C04jhi9jRxLMmr0SgGlxmqizW3Fgu2kdRxLGzklmGl2JOnTU+JicTqs1Jn0GZQrWG/fcjy0Uekyw6S0o1lGtzCVgwJIFwRIKu8fhdm+X3iVZtwxCVU108PsI1VkjnbyH2jZTY4rYIkWJEUJCEUQAfRS7AdTNRMInQ+szKRsQfGa6VReY4jfoI1ZFWwyg7epJlesqqpOUegmlTpdo1hoANTHYqkgXKBcX1vz+fKRGbtJmksPZv0czr0hNBsKOTesWdOpHPpRJjCCUXT8t9OuX1H+ZvYqpUoaNen2hUs17ZVvqxyncDlzvOarK+cAhs11sNc3hbnH4qjVawZahF9Lhj94N8EKJp4F+7carmFibbXYan+/I7TmxUI2M1qeHqqh7rgAE7MAOsyLQTTKqhzE313mzicDUNQuEzIrDU2t3QtwddtJjBek6gcFqPVdnbIhLkDUm2tu7sISaSF7J8ZUOcBWZ1VlLqNdFNwTcixuB87TJ486mrdWzDKuvrfz1vNniT5aedFGZQO0UgEsFPcZiNbbn7zlquILnMRY2tp4THDjwzRUQ1Nx5ybGG7Lzt+sgqnUSzj1sy2IuQD5XJtczdeiHyVKu585t1cO6q1UKShAGZbMASBoxHunwNpk4iiymzCxIB3BuDttJKOOdEemjsq1LZwDbMFvlVrbjU6RNWkNOtzV4W6kHMD8W+wW3jc+8NgZpipQupve4HxDW+3nqPUTD4Zi2ClFUOc2bLlLMRlykb7a7Ac95Fh8bkGVlzjMD3gbqy30AvYb6xJNbCkr3NTEMi4gXHc0U6k2ckne/ltNFK9Jc9iRdbN7+oI2nO47EFkRgMvecgAnTvC1rk2G+k6D2eqPXRzdQykA3uo1F9ABbrtKulbIcd9iHLTdiGqqmW7DNcAmwte4tqGsBe+/Sc/xhwarBWzKMoU2IFgouAD43895tccwbBnuRoBqDpmVVYAE8+UwcbhmQIzW/mKWFjfmRrJjV2i7dFvBVTlAzA7gai9ri1wftFqtdxrrY879djzm3w7htbskyuoUoGAzH83e2t4ylxHAVO2pKXUswNjc2FvlpvJ1ptoVEeHbu/OScQqMaOT8oDsdNbnbXoAD6nrLlbhbJlzMl2NtDYFrX526H0kfEMG6obiwyuCfP8AZmUXUjV7o5rCbN5D7xtYwN1OnQX8fAxlQ3N9PIfpOmt7M3sSNsPIRI1WvpFMHyVHgIhhC8RYQgTAQESUjrNbNrMdTNJH8OQmWIrGma2FeytaVKoJkmBa+YeEKw0mUVTNcRtxRQYQkTs1zoPrCbHMadeurY5Wt3Qy/Rb/AHnTtxFB+Uek88XFtnz2F9fqLSduJOeQ/fzlShdEpM7LifEg1J1FgWRlHLcEdJw34M9V9T+klfiDkWsv7+cr9u3ONJx4GiajhyGGo3H3nYt7RgXa1rXM4kV2jatQtvE43yDRcxXE6pDozlg5DkZiQrXvYfLS3l0lGntG5JJm+1vSXtWw4qmMq8oy5vFqG8VR4RrZCatklamRYMQTve99Ol5ARJrRAvlFY9JPhMIzd5WA1sDcg/Kwl88JzG7VD43F9eZuTM1ajDZrfMwNVvjPqYnYaTSfBKzpSLGwX3reLHb0nScCpLhwwVywY3INt+v0nNOt2uBewUX6i1paQm2gtMpz2pj0O2dg/EVPIHznNe2DK603A90stvBhcHToV+sq97pK+KpM4tY285EJJOx/HLo6jhmPAoUhppTUb/0iZnF8UPxFBrjRjfXxWZlKmy2BGw6yTE02NrDaPVFOw+KXRsYzHozU/dIDkna1ijrr6xlTHrlKOAyEG19wOhI1+c5vHULAtyNrgdbjWUEcA3F7/KWoqStBWl0yZgBre5P9+krMeXzk9VwRcCxJsenUEfWV7TVCk72QJvJbyMaRwBOwMGKOwpjbxcp6RQh6RFDYR3ZmHYmO0On0NvLCV7keVpD2JiiiekTpiqXRucLe7fI/eT4pSRoZn8Jch9drGaNRpztVI3f2GaaT/wBPq36RJctCXqMDETCkyYcPPWaFFbGWQB5w+RmnxIx14f8AESPIA/3jTgvGbDjSQZfCJ4ki1gozxg/GL+CPWaIEdaS8WRSwEZv4A9YowHiZoWi2/f8AzD5ZFLAiZ38O8fpHfw7+qaAP7/4j7fvaJ4shrLxM3+Hf1SY4BbAAeZPPxHMS7p+7mO/fISXiyL8eJnfw0dfvEPDwNen76zUW37Eeyi3+YLFlfInl40U8Ftr0H0BlpRIcKO6u/uyVvl63kTdyZrhRSih1oKsaPn9orNbmPlrIo0pDnXSM5SdRp+shYAc/SAbEVVb20vrr5WtK64NQbW+stFflEDjxMtSaWxDw4S5RUbCrmAtvfTyEccIo5AR9Vu8nLU/aPv0HzluUqW5EcKFvb2QDCr0HzjDh1B0H6SwxA318BC5PgIapF/HHoj7Mc/SJ2Q6WkgsNtYhXqYrF8aIsg5D5xCgHiZKW6RAoGplWLSiE0+sTs7+UexvFZrCO2TpRGe7tv1jmxLDex/fhEVb6mNrylyY40fpsPxTeH1/WErwl0cppUVkykD9mEJmdYjtf92kLHy+phCQUhUP72it42+8ISfZoKP3sIh8f1hCBSEVvP7Rx03sPUwhGUhBUv1P0kmvgPrCET5ABU8TJHqWG0WEXsXoq4eqMqjXQWlix8BCEc+RYfC/QwkcyTFv00hCIslV/EmIzE+EIRMFyRsR5mAJPgIQgBBVNiLcjfXyIikkwhL9IlcsLgRLkxIR+hjswEaLmEICAkCMFzCEPQgawkYN4kJSJfJIxtIGhCOJli/aR2hCE0OI//9k=</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>5</v>
+          <t>AAAAGGZ0eXBtcDQyAAAAAGlzb21tcDQyAAAWI21vb3YAAABsbXZoZAAAAADg4CCR4OAgkQAAA+gAACwAAAEAAAEAAAAAAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMAAAAmdWR0YQAAAB6peHl6ABIVxy0wMS4zOTQ4KzAzNi43Njk5LwAAC0p0cmFrAAAAXHRraGQAAAAH4OAgkeDgIJEAAAABAAAAAAAAK8UAAAAAAAAAAAAAAAAAAAAAAAAAAAABAAAAAAAA//8AAAAAAAAAAAAAAAAAAAAAAABAAAAABQAAAALQAAAAAArmbWRpYQAAACBtZGhkAAAAAODgIJHg4CCRAAFfkAAPYzYAAAAAAAAALGhkbHIAAAAAAAAAAHZpZGUAAAAAAAAAAAAAAABWaWRlb0hhbmRsZQAAAAqSbWluZgAAABR2bWhkAAAAAQAAAAAAAAAAAAAAJGRpbmYAAAAcZHJlZgAAAAAAAAABAAAADHVybCAAAAABAAAKUnN0YmwAAACac3RzZAAAAAAAAAABAAAAimF2YzEAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAFAALQAEgAAABIAAAAAAAAAAEAICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIAAY//8AAAAkYXZjQwFCgB//4QANZ0KAH9oBQBboBtChNQEABGjOBuIAAAAQcGFzcAABAAAAAQAAAAAEiHN0dHMAAAAAAAAAjwAAAAEAAA3uAAAAAgAADe4AAAACAAAN4wAAAAEAAA3+AAAAAQAADeEAAAAEAAAN6wAAAAEAAA33AAAAAgAADeYAAAABAAAN8AAAAAIAAA3lAAAAAQAADfgAAAABAAAN5QAAAAIAAA3vAAAAAgAADeUAAAABAAAN/QAAAAEAAA3fAAAAAwAADewAAAABAAAN/wAAAAEAAA3WAAAAAQAADfkAAAABAAAN3QAAAAEAAA33AAAAAQAADd8AAAAHAAAN6wAAAAIAAA33AAAAAQAADdUAAAABAAAN8AAAAAIAAA3mAAAAAgAADfEAAAACAAAN5QAAAAIAAA3yAAAAAQAADeQAAAACAAAN8AAAAAIAAA3jAAAAAgAADfIAAAAHAAAN6QAAAAIAAA3zAAAAAgAADeQAAAABAAAN/wAAAAMAAA3kAAAAAgAADfQAAAABAAAN4wAAAAEAAA33AAAAAgAADeQAAAABAAAN+gAAAAEAAA3jAAAAAwAADe4AAAABAAAN3gAAAAsAAA3sAAAAAgAADeMAAAABAAAN9AAAAAEAAA3rAAAAAQAADlsAAAABAAANkgAAAAMAAA3jAAAAAQAADmcAAAABAAANdQAAAAMAAA3vAAAAAgAADeYAAAABAAAN8gAAAAEAAA3gAAAAAgAADewAAAABAAAOiwAAAAIAAA2XAAAAAQAADfYAAAADAAAN5wAAAAEAAA31AAAABwAADeoAAAABAAAN/AAAAAIAAA3iAAAAAgAADfUAAAABAAAN4QAAAAEAAA5kAAAAAQAADXMAAAADAAAN7wAAAAEAAA5ZAAAAAQAADXEAAAABAAAN8gAAAAIAAA3lAAAAAgAADfIAAAACAAAN5AAAAAMAAA3yAAAAAQAADd8AAAABAAAN9QAAAAEAAA3hAAAAAgAADfAAAAADAAAN5gAAAAMAAA3xAAAAAQAADeAAAAAHAAAN6wAAAAEAAA4EAAAAAQAADdUAAAAHAAAN6gAAAAEAAA4IAAAAAQAADiAAAAABAAANoQAAAAEAAA3sAAAAAQAADfkAAAABAAAOVAAAAAEAAA2OAAAAAQAADdEAAAACAAAN7QAAAAEAAA5hAAAAAQAADXgAAAACAAAN5wAAAAIAAA3yAAAAAQAADeEAAAAFAAAN6wAAAAEAAA32AAAAAQAADeEAAAAEAAAN7AAAAAEAAA36AAAAAQAADdoAAAAEAAAN6wAAAAEAAA5eAAAAAQAADdoAAAABAAANlQAAAAIAAA3nAAAAAQAADfkAAAADAAAN5AAAAAIAAA3yAAAAAgAADeIAAAABAAAOaAAAAAEAAA13AAAABAAADesAAAABAAAN9gAAAAMAAA3lAAAAAgAADfYAAAABAAAN6gAAAAEAAA3gAAAADAAADesAAAABAAAOcQAAAAEAAA1oAAAAAQAADfAAAAADAAAN5wAAAAEAAA3zAAAAAQAADgsAAAABAAANzAAAAAgAAA3rAAAAAQAADfcAAAABAAAN4QAAAAUAAA3sAAAAAgAADf4AAAA4c3RzcwAAAAAAAAAKAAAAAQAAAB8AAAA9AAAAWwAAAHkAAACXAAAAtQAAANMAAADxAAABDwAABIBzdHN6AAAAAAAAAAAAAAEbAAJOvwAAicsAAJZ0AABhPQAAYaEAAGvpAABvcAAAaaoAAGpdAABcIAAAbOkAAGpwAABjQgAAhNIAAHscAABglgAAjtcAAJg5AAB+kQAA2vgAAJlqAAAclQAAM10AAGcnAABrOgAAo3kAAHvsAABZ3AAAirAAAHNLAAFP0QAAauEAAIlXAACYQAAAeZMAAFzFAABcxgAAcHcAAG5HAABpUgAAadAAAHToAAB8uwAAfk0AAGyYAAB8JAAAaqsAAGZqAAB37gAAbacAAHRIAAB4QAAAZmEAAGyjAADMugAAZxsAAFDMAABzJQAAjY4AAG8SAAGhLQAAbtEAAKTnAACDaQAASNQAAFxEAACZEAAAipoAAFkqAACGlgAAf/YAAIsQAACOLAAAf2oAAIJZAACClwAAbYMAAIpPAADNYQAAZL0AAEnKAACSBgAAbLQAAFDmAACK5QAAh7oAAIaaAABzSAAAagIAAH7mAADMbwAAcEYAAJGTAACCfQAAWmoAAIVaAAB/4gAAhtgAAHjSAAB8BgAAj2AAAG8TAAB2+AAAe9gAAHqAAAB1+wAAcw8AAH8RAACFzAAAZoEAAIi0AAB/5AAAdk8AAIANAACDPgAAhykAAIWfAACKEQAAkSEAAIlTAAEOFAAAkNwAALPpAACMrQAAgG4AAJNPAACE5gAAjLIAAI4wAACUwQAA0+0AAJAVAAB/TQAArBQAAHYyAABaxAAA9+MAAL62AABLJwAAfmkAAKlSAABwkAAAibcAAMlLAACX6wAAVVsAAF4NAAB07gAAbCEAAG65AAID0gAAjLsAAGQGAACRYwAAjJkAAFemAACTpQAAk0MAAFkrAABnOgAAjRcAAI0SAAB+jAAAdYgAAIiCAACNAQAAj6UAAIPUAABxPgAAa1QAAK0IAADnUgAAte8AAEYFAABjhgAAZ6AAAFhgAABGJAAAY+kAAHdBAAEpWwAAjM4AAHLFAABToQAAc9IAAJQxAAB56QAAbwwAAI/iAADR6QAAbD4AAD6mAABbmQAAYvcAAF7bAAB7lAAAfFsAAGyeAACHjAAAi2UAAJZxAAC6/QAAZgQAAEegAABeAAAAk3UAAH3PAAB7+gAAf0UAAFvxAAB//AAAtWgAAKHNAABw0wAAXGIAAFfyAACRwQAAmegAAHDeAAB2wQAAk2EAAIoMAACdsAAAhEUAAHlVAABw0QAAXAcAAHWxAACaeQAAcBkAAHKQAACXsgAAnyIAAIiIAACBmQAAeUsAAJqMAAB1XAAAZ6AAAHSKAAEKDQAAkDEAAJ54AADx7QAAvDsAAGqbAACQIgAAj+UAAGXUAACF8AAAqsYAAHGSAACLdQAAjnoAAJIdAACmMQAAk7QAAIU9AAD/OwAA0PoAAHPqAACzPgAAjGYAAEEcAACMgAAAroQAAHYWAABHgAAAYQMAAI0RAADQ+AAAXtsAAGCxAACEbwAAj5MAAIFaAAByRAAAmT0AAIGXAABRXgAAj7IAAK4yAAB2VwAAADRzdHNjAAAAAAAAAAMAAAABAAAAHAAAAAEAAAACAAAAGgAAAAEAAAALAAAAFQAAAAEAAAA8c3RjbwAAAAAAAAALAAZg0QAVHe8AIdr4ADAm8gA88l4AS77rAFsD1gBoWIgAdN+ZAIJQ/QCSSDUAAAo/dHJhawAAAFx0a2hkAAAAB+DgIJHg4CCRAAAAAgAAAAAAACwAAAAAAAAAAAAAAAAAAQAAAAABAAAAAAAAAAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAJ221kaWEAAAAgbWRoZAAAAADg4CCR4OAgkQAAu4AACEAAAAAAAAAAACxoZGxyAAAAAAAAAABzb3VuAAAAAAAAAAAAAAAAU291bmRIYW5kbGUAAAAJh21pbmYAAAAQc21oZAAAAAAAAAAAAAAAJGRpbmYAAAAcZHJlZgAAAAAAAAABAAAADHVybCAAAAABAAAJS3N0YmwAAABbc3RzZAAAAAAAAAABAAAAS21wNGEAAAAAAAAAAQAAAAAAAAAAAAIAEAAAAAC7gAAAAAAAJ2VzZHMAAAAAAxkAAAAEEUAVAAMAAAF3AAABdwAFAhGQBgECAAAAIHN0dHMAAAAAAAAAAgAAAAEAAAT5AAACDwAABAAAAAhUc3RzegAAAAAAAAAAAAACEAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABWAAAAQAAAADfAAAA7AAAAUUAAAFSAAABGgAAATMAAAEUAAABFwAAAP4AAAEHAAABBQAAAQ4AAAEEAAABKwAAATAAAAEMAAAA/AAAASAAAAD2AAABDQAAAPkAAAD6AAAA2QAAAPcAAAD+AAAA+gAAAP4AAAD/AAABBwAAATMAAADyAAAA6wAAAPcAAAEbAAABIAAAAPAAAAEHAAAA8gAAAR8AAAEVAAAA+gAAAPIAAAEBAAAA8QAAAPkAAAD3AAABKQAAAPQAAAEWAAAA8QAAAO8AAADwAAAA8AAAANsAAAEKAAAA9wAAAP4AAAEoAAAA8AAAAPgAAAEkAAAA9AAAATMAAAElAAAA7wAAAO8AAADsAAABEwAAAPAAAADrAAAA8QAAAPIAAAD1AAAA+AAAAPcAAAEGAAAA/AAAAPoAAAEDAAAA9AAAAPwAAAEaAAABFgAAAPcAAAD8AAAA/gAAANgAAAD/AAAA7wAAAP8AAAENAAABNgAAAOwAAADAAAAA/AAAAQAAAAD7AAAA/gAAAUEAAADTAAABFQAAAQ4AAAEDAAABCAAAAOIAAADtAAABCgAAAP4AAAE8AAAA1gAAATAAAAEYAAABBAAAAOoAAAERAAABKQAAAN0AAAD2AAAA0QAAAPcAAAD6AAAA8QAAAPEAAAEJAAABAQAAARoAAADjAAABPAAAAQYAAAEhAAAA8gAAARIAAADoAAABMQAAAO4AAADwAAAA8QAAAOoAAAEiAAAA9wAAAPkAAADjAAAA+gAAAOoAAADyAAABPAAAAPwAAAEDAAAA9QAAAQgAAADmAAAA/AAAAQMAAAFDAAABLgAAAPIAAAD9AAABDgAAAPYAAAEEAAAA8QAAAPoAAADzAAABKgAAAPIAAAEqAAAA7wAAAQQAAADzAAABIgAAASEAAAD2AAAA4QAAAOMAAAD7AAABDwAAAOwAAAD5AAABFgAAAMgAAAD8AAAA/wAAASgAAAD4AAABGQAAANcAAAErAAABIwAAAOIAAADxAAAA+gAAAQ0AAADuAAAA8AAAAO4AAAEoAAAA/QAAAPUAAADyAAAA8gAAAPIAAADvAAABCQAAANoAAAEWAAABOgAAAOAAAADRAAAA2AAAAQ4AAAE8AAABCQAAAPwAAAD6AAAA8QAAAToAAAD1AAAA+AAAAQAAAAEwAAABJgAAASgAAADnAAABHQAAAPcAAAD3AAAA8AAAAOsAAADWAAABJwAAARsAAAEeAAAA7gAAAPoAAADrAAABHQAAASAAAAD1AAABAgAAAOcAAADnAAAA6wAAAOMAAADxAAAA6wAAANwAAAD9AAAA+AAAAPIAAAD8AAABKQAAAPAAAAECAAAA4QAAAPcAAAD8AAABMQAAAPoAAAEOAAAA6gAAAPsAAAEqAAABAAAAAPUAAADcAAAA9wAAAQMAAADqAAABFgAAAP4AAAD9AAAA+AAAAPIAAAD8AAABMAAAAQ0AAAEAAAAA/wAAANMAAAEWAAAA/QAAAPYAAAD5AAABEwAAATAAAAD3AAABIgAAAPgAAAEHAAABIwAAAS4AAADnAAAA6gAAAPAAAAD7AAAA8QAAAQIAAAEIAAAA9AAAAPcAAAEwAAAA9gAAANgAAAEtAAAA8AAAASoAAAEoAAABAwAAAOkAAADvAAAA+QAAAO4AAAEhAAAA8gAAAPcAAAD+AAAA6AAAAOoAAAD1AAABCwAAAPAAAAD1AAAA9QAAAPQAAAD7AAAA8gAAAPUAAAD4AAABFQAAAP8AAAEGAAAA9QAAAPkAAAEkAAAA/wAAALQAAAEIAAAA/QAAASkAAAD1AAAA8QAAARoAAAEkAAAA/AAAAPcAAAD9AAAA9AAAARoAAADuAAAA9QAAAPcAAAD7AAABAAAAAOYAAADcAAAAvAAAAT4AAAFAAAAA2wAAAPMAAAE8AAABMgAAAQcAAAEeAAAA+AAAAPoAAAEvAAAA8gAAAQ0AAADyAAAA7AAAAPMAAADxAAAA0QAAAPkAAADSAAABEAAAAP4AAAEAAAABNAAAAPcAAAD4AAABMwAAAOYAAAD+AAAA9QAAATcAAAD+AAAA/QAAAOQAAAD2AAABNAAAASwAAAEKAAAA9AAAAPIAAAD7AAAA7AAAARAAAADzAAAA/wAAASkAAADsAAABCAAAASIAAADFAAAA+wAAASMAAADvAAAA6AAAAPIAAAElAAABJwAAAO4AAAD9AAAA9gAAAPMAAADwAAAA/AAAAPIAAAD6AAABFwAAAO4AAAERAAAA8QAAARgAAAEOAAAA7AAAAO8AAADxAAAA9wAAASsAAADTAAAA/QAAAQoAAAEtAAAA7QAAAPcAAAD5AAABBQAAAPMAAADzAAABJwAAAPcAAAD2AAAA9AAAAQMAAAEsAAAA9QAAAPMAAAD4AAAA8AAAARsAAAD9AAAA3gAAARQAAAD2AAABLwAAAPcAAADzAAAA9gAAAQEAAADxAAABEgAAASkAAADzAAAA9wAAAPEAAAD2AAABMQAAASYAAAEKAAAA7wAAAPMAAADyAAAA7QAAAPoAAADxAAAA/gAAASwAAADxAAAA9QAAAPcAAADyAAABAQAAAPgAAAECAAAA/gAAASkAAAD1AAAA9AAAAWsAAADqAAAA1wAAADRzdHNjAAAAAAAAAAMAAAABAAAAMQAAAAEAAAACAAAALwAAAAEAAAAMAAAACQAAAAEAAABAc3RjbwAAAAAAAAAMAAYuKAAU7uMAIawTAC/3qgA8w54AS5AYAFrUhwBoKbcAdLCeAIIh2wCSGTYAnLT2AAYX5WZyZWUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>ENG-5678</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>STORE-1234</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>26072023</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>555-123-4567</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>10kg</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>$100</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>64bcb4a50949ddf4f3eed98f</t>
+          <t>64c29c3f425cc1bb0a4c33cd</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>999</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>XX127</t>
+          <t>POR-GD01</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-4.04348,39.668206</t>
+          <t>21.699382,69.727468</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4°02'36.5""S 39°40'05.5""E</t>
+          <t>garbage</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>XHHH+6M Mombasa</t>
+          <t>garbage</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>MOMBASA TERMINUS</t>
+          <t>Pole needed</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUVFRgWFRUZGBgaGBgYGBgaGRoaGhgYGBkaGRgYGBgcIy4lHB4rIRkYJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHxISHjQrJCU0NTY0NDQ0NDQ0NDY2NDQ0NDQ0NDQ0NDQ0NjQ0ND80NDE0NDQ0NDQ0NDQ0NDQ0MTQ0NP/AABEIALcBEwMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAQIDBAUGBwj/xAA9EAACAQIEAwUGBAUDBAMAAAABAgADEQQSITEFQVETImFxkQYyUoGhsRRC0fAVI2LB4Qdy8ZKTorIWJDP/xAAYAQADAQEAAAAAAAAAAAAAAAAAAQIDBP/EACcRAAICAAYCAQUBAQAAAAAAAAABAhEDBBIhMVEUQRMiMmFx8JGB/9oADAMBAAIRAxEAPwDxmEIQAIQhAAhCEACEIQAIQhAAhCEACEIQAIQhAAhCEACEIQAIQhAAhCEACEIQAIQhAAhCEACEIQAIQhAAhCEACEIQAIQhAAhCEACEIWgAQhaFoAEIsIDoSEW0IBQklo0GfRVZj0AJ+0jnov8Ao6SK+II3FHNbyaTKWmLYJW6OEPD6wNjSe52GRv0kdbDuvvIy/wC5SPvPpxCCAxY6rdjZt7Dny/xPO/8AVSqamCpuQR/9hRrvbs6m/jrb5TGGNqaVcluCV0+DyCEIToMwhFhAdCQiwtAKEhC0ICCEIQAIQhAAhCEACAhAQAIR1oQKpjYQhAkIQhAAj6aFjYC5jJe4WO98j/aKTpWVFW6GLgnP5TE/Bv8ACZ6f7McHpVqNigZ3Zkz31pWTMjBeYLXv4CMocCpV6rlWFKmrLRUkEs76i5HItlJt/mcTzdNquDvjlE1dnmhwT/CYn4R/hM9TxnD6AL5VVlXh+cNltmclstSx1DbSnhuHqcOc9EI6tRKtY3dazlbNfQ6ai3SHlbcF+EuzzgYVvhMBhm+Ez1PC8OpCviWanT7AVWp94HMMubu0VU3Lc9jtOe4FgkfEU0qDus2oJtfQkKTyuQF+cfk/gTyiVbnK1OGVVQOUYIxYK1jZitrgHna8rNh2+Ez1Dj2DRKNNbMpqt/KpMxyYdgwFY673Og8NfNvtNwegMOHpmjdSq2pXdncqMyu4uPiI2vbrpCOZutipZSNbM8tNJuhnb/6W8Tp4bEVGrOEVqdgWvYtmU20HnMevh0z2y5e5VOXvC2VHKFgdQ2g08Aees/DuGi6s5WxA7veLd9WKbCwvlvv0m05/TTMI5VuVI9rT2m4YV1xFG/Lc6jY6i++uk4T/AFI4tQr4UU6NRXIqIyqtycoDXO3jOCp6geQmhhKWYqMqd5igZ8/vWBAORtL30069JgkotNeiI4TlLTfJzH4Z/gb0MVcK/wALf9JnW1lW6LTSm10DZszgFi7JpmdbagCx1ljA4imhu1GmwFItbM9s2cruGOgAv5zZ4zq6NY5Ldpvg40YRvhb0MQ4Zujehnsv8OoBFL4emGPaBlV3OVhSNZQdbg2GoPUTMx1DDrh2Y4dVqFVZAjVWyB72Z2tlXSxAJ1mCzbbqjTw1R5Z2DfCfQx5wjWvlNutjO34HQRmfNR7Wy59ahp5FBGZrgHNuPrOtxXD6Qo0qfZK2aqQiLiGKrmQMHz5eYBPMW1jlmqfAQyia39ni5onoY00jPXqnCsKtWmRTzo1F3IVnrAEG2ZgADlFmHW/lrDi+EYVe0Ao1GK1kUKrhWtVTOoIsbEHu7wWbXQnk/yeSMkbPUuO8Cp0sN2vY1aTmoECu6sLFc2bQDoRPNscLOf3ym+FjLE4OXGwPj9lWEITc5ghCEACEIAQAIRcsIDpiQhCAghCEACaHCmAYkkDTmfGZ8cDE1aoqLp2ei+yfFaFBu0d7Mu1gGVkIsyWuCG2sb26yLCe0TUi/ZlLOxYZ7OyNdsrg394BiL7eE4EOesmwzXdf8AcPuJyvLRts7Y5p0kjuqvHSwcZAM1BKG57qr+bxJ6SvT41V/lqzFkpsrqh926m/6jwvKlNbzpOMcKpKlUqlmVsMim50z0wz+pM5XpTpo6sOU573wRcN9qzSZmNNXLVKlVbkjI1S4NiNxY2+W4nPYjEZnZmOrMWPLViSbDpczsf4DQYV1VLMEo9l3j/wDo1LtCNTrmyka7XmeOD0jiKQKnsxQStV1OtqZdjflfQaRJxtsuUJP3/fzMvinF2rJRRgoWiuVbD3tFF2vpsqiw8esm4jxtqtPIKaICys5QEF2UEKSL90C5NhNB+D0lr1yylqNFe0VQ1iwYDIubkO9v4SDGYFXagEotRaocrKbldWUKyM24IN7crR2vQ9E65Obq3uWJucrITzbMrLmY8yAwHjlhTruuUaEKQdrEhb2BboLm3n4CdliuD0Di6KopNGobWubkozI3e81v85FR4dQrGm6Uyg7dKToXLAq+qsGsCDoRaX8xCwprdOji1SwA6SxhqxXQMVuRewBNuoB/MLmx0PiJ1nFPZ/saNd2TKRWUUjmB7hLX0B6AbzlgmsaxFJWc7hLDkmn/AITVai2QISMq5SwupIzZlFsza3LEnTW1hpIlFhYWtkyjyzM9/wDy+k6ilwyl2QbL3jhK1W9z76PlDb9OUucO4NRdUvdS1BiGubdp2opqx8O8LyXi0jo+Of3WY2H49UDIXYuqKyqpIHvIUuSBqQCNTc2FpYb2kJw7UMi3ZVRnub5V0UZds1rC99gNJbp8JpqFZ0JCUXqOuaxZ0qmmFv8AlG1/KQUfwrVl/lsVcAMga2RywGjEd5ba2tz8JlcXvRemVUYWCxjUnDo1mF+hBBFiCDoQQSLTU/8Akj5bm2cVEdSAAqhFKhAttrEfWXMVw6iWxC00ZTSU5czZrsKgUtoBpY7R+I4TRJrUUVhUooWzlrioUAzjLbTc21O0bcXyhRhNLZoqt7UENRdEWm1NWVlUlUdSxOUC5IFjbc66yunHQnammGBapSqIWYMVZCxYux94m/SavEPZ2kodlLFfwxqLr7tVezJB8Mrgjz8J55xnQr5H+0vChCboyxMSUFfZ1GP9oDVoujKAS9MoEAVUWmrrlAvfZhbfnOK4j7/mBIMxkZM7cLCUODhxsV4nIkLQhNzmCEIQAJKm2nzkUcDEyk6Y6EbCA7GwhCMgIQhAAhCEACWuHi9RfO/pr/aVYoMGrRUXTPQOD42mmdaqsyOmQlSA66hgVJ0vpb5zSPG6dRq3bI2So6uoRhmXs1yqCTobqNZ5n2rdTHNUNzqfWcbyybuzthmXFUj0ipx+5dlUqzVqTrY3ASipUKTuT7vLrLVf2iTPWqJTszolNAwVlVVyh7jmCAQBPLe2bqfWBrt1PrJ8Rdmnl/39+j01+PIzZnQkPQWlVC2W5DEqyW0BFh6Sf+P0g1AqjlaHalQzBixYLkJPIAg6DQC1p5V27dT6w7c9T6w8T8h5f9/yj09faEE0WdQWpVC3dCqCjKLqAOeYAyE8XooaS0kcItVarZmBdmXRQLaAAX+Znm/am17ncc43tm6n1jWVr2LzDvavEVNKqmUgvVVwdLAAtofHvCVuGYkU6qOVDBWBKnZhzHpecUap6n1h2rdT6yll6VWZyzLcrZ6YOM0gyqqP2K0nolWYZ2WoSXNxoCCRby8Yr8Zp2ZUVwgoPSTMQWLO4cu9tALjYXnmfbN1PrHmq1hqefPxk+L+TRZx8nqGI9o0ZkLISOyalXBIGfMbsykbG/e1G8zMXxGkXp9mhVEN9SC7ktmJYjTlYTgO3b4j6xO2bqfWCyi7F5ex6G/F0L4l8rWrK6oNLqXdWUtr/AEna+8tVOPUznqKjiu6FGN1yXICs4G+Yge7tc7zzHtm6n1jkrMSNT6weVXYLNtHp49pky1VIco9BUHu3WqKYQnf3SL+Oi6aTgeMm4U+J/f0lAs3xH1kbgnc3mmFgKDtMzxcZzVURiNkmXxiZfGdBytMZHDY/L+8MsW0LFpYyEUiJGSEIQgA7NCNhCirYQhCBIQhCABCLCA6EtFAhFiGkOTcecKm58z94tP3h5j7xH3PmYDEheJFgMSJHQgKhfy/MfYxkl/L8x9jGQChsI6LaAUNj3PdHziR590fOA6IYR5iWgLSNlmjRO9rf4kMsUaxG+t4pN1sNKhaqgKP9x+8hlqsO55N95VkotcBEMW8WMBkLRwEkpj+m/hCwIMhMOxbpLOKvlF1A1+e0qq5HOUm2jJ1Y4UG6Q7BuknpMTvHsZDk7DSVOxPSEs5oR6mPSUoSf8O3SO/CN4eolWiSvCWDhW8PWJ2B/ZhYyCEn7Ew7KFhS7IRCTin+7xLDoYrKSXYxesbJrjpC46GFlUuyG0JNdeh+kLr0P0hYUuyKEmzKev0iB16H1H6QsKXYy+lvG8baT9ovQ/T9IZ16H1EVvoemPZDCS516H1ETtF6fX/EdsX09kcU7AR5qr8P1i9qPh+phv0H09kQhJe1Hw/U6w7YfCPUw36D6eyKKCRJO1Hwj1Mb2n9I+sN+hvT2WmIK+hPnKto0vfkBBGkpUJNcIdaKlMttaIxio5F7R7jB0K84JWZdjaI7k7xkddiHNUuLEk+kaHA5X841o20aM5bMl7c8tPLSNLk843IehhkMKQWwv4whl8vWEBWdTxzCIuHplECkspJ5kBW1J36Gdn7O+y2GNOlUqozsURmVnOTMyDMco38jppOA41Xza3vcEdOXwjbeawwzOxCK5yhr2JIAVVAJsdFvoehMUXS3MpJ8Wei8V4PhsQmRqKaAhSoCMvgGW1hoNNp4/jOyV3Vs+ZWZWsbjMCQbHnrNenhmcHKGIUXPe0VbA3JJtuQB8RIA1ImBTB7xA0zN0+14PcrDVB2lPYZ/nExlYHKuihdRZRmOYL7zbttfXa5kNdrN8oY9LPY/Cn/osSW5oxKLDMut9Rpl3185Y4lSKsAFtp4ax68KqJ2TsjAOwABVhbUAXJHOWON0ijIptfIpJHPMSQdQOX6xNq1Q4pNbmO6kW1mhiaaI6EqxUkFl2uARcA+so1eXnLnFGuyX6H7yuRPZj8fVpF3yqFW4yi1rCw6TtfZThGGFeoSmdQl6ZqWJCs9NVbLYDMFYcp5ziPeM6DBYt6dZmRirZFFxpplTT6TLEi9OzKjuzsvaPgGHL0yKLAsCGNIhNviG2oO9ryxg6OGVDT/AKVsAcwQlvHOe9fxvOcwGPrVdWqk5SLXUNvvbpNOm9TMf5g/wC2PvHhr6UmZzW5k0+HUEx6KMMzIaZbsncP3u+Ab81FhobzU4lhKNTunBKgtoUyJbxBUCZjF/xqXcFuz97IBpd9Mv8AeavfzElw3hkAv5kazRk2J7NcDoq5Y0w2ikZrOVN7G19p1lf2awVcA1aC5h+ZcyMdtGKkX+c4TEY6tQV3RxfOhTLpsCWRweQtfS+2/KOr+3WJRlUJRYMAymzi4bUaZtNpHL2Kp0ekcMp0cOgShTRFBOijU2Nrsx1Y2G5JM4LjOAotxekvZLkZFZkCgKzEv3mUaEmw87Skfa7FZSwSj7xB7zE5jc+7mvbfXble8xcdxerVrLUfKrhCgKZh3QGsdSSD3jCnT/QLk7zjnFqNMtSdQ2mqZRYgk6WsSR5C04jhi9jRxLMmr0SgGlxmqizW3Fgu2kdRxLGzklmGl2JOnTU+JicTqs1Jn0GZQrWG/fcjy0Uekyw6S0o1lGtzCVgwJIFwRIKu8fhdm+X3iVZtwxCVU108PsI1VkjnbyH2jZTY4rYIkWJEUJCEUQAfRS7AdTNRMInQ+szKRsQfGa6VReY4jfoI1ZFWwyg7epJlesqqpOUegmlTpdo1hoANTHYqkgXKBcX1vz+fKRGbtJmksPZv0czr0hNBsKOTesWdOpHPpRJjCCUXT8t9OuX1H+ZvYqpUoaNen2hUs17ZVvqxyncDlzvOarK+cAhs11sNc3hbnH4qjVawZahF9Lhj94N8EKJp4F+7carmFibbXYan+/I7TmxUI2M1qeHqqh7rgAE7MAOsyLQTTKqhzE313mzicDUNQuEzIrDU2t3QtwddtJjBek6gcFqPVdnbIhLkDUm2tu7sISaSF7J8ZUOcBWZ1VlLqNdFNwTcixuB87TJ486mrdWzDKuvrfz1vNniT5aedFGZQO0UgEsFPcZiNbbn7zlquILnMRY2tp4THDjwzRUQ1Nx5ybGG7Lzt+sgqnUSzj1sy2IuQD5XJtczdeiHyVKu585t1cO6q1UKShAGZbMASBoxHunwNpk4iiymzCxIB3BuDttJKOOdEemjsq1LZwDbMFvlVrbjU6RNWkNOtzV4W6kHMD8W+wW3jc+8NgZpipQupve4HxDW+3nqPUTD4Zi2ClFUOc2bLlLMRlykb7a7Ac95Fh8bkGVlzjMD3gbqy30AvYb6xJNbCkr3NTEMi4gXHc0U6k2ckne/ltNFK9Jc9iRdbN7+oI2nO47EFkRgMvecgAnTvC1rk2G+k6D2eqPXRzdQykA3uo1F9ABbrtKulbIcd9iHLTdiGqqmW7DNcAmwte4tqGsBe+/Sc/xhwarBWzKMoU2IFgouAD43895tccwbBnuRoBqDpmVVYAE8+UwcbhmQIzW/mKWFjfmRrJjV2i7dFvBVTlAzA7gai9ri1wftFqtdxrrY879djzm3w7htbskyuoUoGAzH83e2t4ylxHAVO2pKXUswNjc2FvlpvJ1ptoVEeHbu/OScQqMaOT8oDsdNbnbXoAD6nrLlbhbJlzMl2NtDYFrX526H0kfEMG6obiwyuCfP8AZmUXUjV7o5rCbN5D7xtYwN1OnQX8fAxlQ3N9PIfpOmt7M3sSNsPIRI1WvpFMHyVHgIhhC8RYQgTAQESUjrNbNrMdTNJH8OQmWIrGma2FeytaVKoJkmBa+YeEKw0mUVTNcRtxRQYQkTs1zoPrCbHMadeurY5Wt3Qy/Rb/AHnTtxFB+Uek88XFtnz2F9fqLSduJOeQ/fzlShdEpM7LifEg1J1FgWRlHLcEdJw34M9V9T+klfiDkWsv7+cr9u3ONJx4GiajhyGGo3H3nYt7RgXa1rXM4kV2jatQtvE43yDRcxXE6pDozlg5DkZiQrXvYfLS3l0lGntG5JJm+1vSXtWw4qmMq8oy5vFqG8VR4RrZCatklamRYMQTve99Ol5ARJrRAvlFY9JPhMIzd5WA1sDcg/Kwl88JzG7VD43F9eZuTM1ajDZrfMwNVvjPqYnYaTSfBKzpSLGwX3reLHb0nScCpLhwwVywY3INt+v0nNOt2uBewUX6i1paQm2gtMpz2pj0O2dg/EVPIHznNe2DK603A90stvBhcHToV+sq97pK+KpM4tY285EJJOx/HLo6jhmPAoUhppTUb/0iZnF8UPxFBrjRjfXxWZlKmy2BGw6yTE02NrDaPVFOw+KXRsYzHozU/dIDkna1ijrr6xlTHrlKOAyEG19wOhI1+c5vHULAtyNrgdbjWUEcA3F7/KWoqStBWl0yZgBre5P9+krMeXzk9VwRcCxJsenUEfWV7TVCk72QJvJbyMaRwBOwMGKOwpjbxcp6RQh6RFDYR3ZmHYmO0On0NvLCV7keVpD2JiiiekTpiqXRucLe7fI/eT4pSRoZn8Jch9drGaNRpztVI3f2GaaT/wBPq36RJctCXqMDETCkyYcPPWaFFbGWQB5w+RmnxIx14f8AESPIA/3jTgvGbDjSQZfCJ4ki1gozxg/GL+CPWaIEdaS8WRSwEZv4A9YowHiZoWi2/f8AzD5ZFLAiZ38O8fpHfw7+qaAP7/4j7fvaJ4shrLxM3+Hf1SY4BbAAeZPPxHMS7p+7mO/fISXiyL8eJnfw0dfvEPDwNen76zUW37Eeyi3+YLFlfInl40U8Ftr0H0BlpRIcKO6u/uyVvl63kTdyZrhRSih1oKsaPn9orNbmPlrIo0pDnXSM5SdRp+shYAc/SAbEVVb20vrr5WtK64NQbW+stFflEDjxMtSaWxDw4S5RUbCrmAtvfTyEccIo5AR9Vu8nLU/aPv0HzluUqW5EcKFvb2QDCr0HzjDh1B0H6SwxA318BC5PgIapF/HHoj7Mc/SJ2Q6WkgsNtYhXqYrF8aIsg5D5xCgHiZKW6RAoGplWLSiE0+sTs7+UexvFZrCO2TpRGe7tv1jmxLDex/fhEVb6mNrylyY40fpsPxTeH1/WErwl0cppUVkykD9mEJmdYjtf92kLHy+phCQUhUP72it42+8ISfZoKP3sIh8f1hCBSEVvP7Rx03sPUwhGUhBUv1P0kmvgPrCET5ABU8TJHqWG0WEXsXoq4eqMqjXQWlix8BCEc+RYfC/QwkcyTFv00hCIslV/EmIzE+EIRMFyRsR5mAJPgIQgBBVNiLcjfXyIikkwhL9IlcsLgRLkxIR+hjswEaLmEICAkCMFzCEPQgawkYN4kJSJfJIxtIGhCOJli/aR2hCE0OI//9k=</t>
+          <t>Porbandar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>AAAAGGZ0eXBtcDQyAAAAAGlzb21tcDQyAAAQw21vb3YAAABsbXZoZAAAAADg4CC64OAgugAAA+gAACOVAAEAAAEAAAAAAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMAAAAmdWR0YQAAAB6peHl6ABIVxy0wMS4zOTQ2KzAzNi43NzAwLwAAB4Z0cmFrAAAAXHRraGQAAAAH4OAguuDgILoAAAABAAAAAAAAI0MAAAAAAAAAAAAAAAAAAAAAAAAAAAABAAAAAAAA//8AAAAAAAAAAAAAAAAAAAAAAABAAAAABQAAAALQAAAAAAcibWRpYQAAACBtZGhkAAAAAODgILrg4CC6AAFfkAAMZXkAAAAAAAAALGhkbHIAAAAAAAAAAHZpZGUAAAAAAAAAAAAAAABWaWRlb0hhbmRsZQAAAAbObWluZgAAABR2bWhkAAAAAQAAAAAAAAAAAAAAJGRpbmYAAAAcZHJlZgAAAAAAAAABAAAADHVybCAAAAABAAAGjnN0YmwAAACac3RzZAAAAAAAAAABAAAAimF2YzEAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAFAALQAEgAAABIAAAAAAAAAAEAICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIAAY//8AAAAkYXZjQwFCgB//4QANZ0KAH9oBQBboBtChNQEABGjOBuIAAAAQcGFzcAABAAAAAQAAAAABsHN0dHMAAAAAAAAANAAAAAEAABS1AAAAAQAADfYAAAABAAAN1AAAAAsAAA3sAAAAAQAADeIAAAABAAAN8wAAAAIAAA3kAAAAAgAADfIAAAABAAAOAAAAAAEAAA3QAAAACwAADewAAAACAAAN4wAAAAIAAA3zAAAAAgAADeMAAAABAAAN9AAAACkAAA3rAAAAAQAADfoAAAABAAAN4QAAAAMAAA3uAAAAAgAADeMAAAACAAAN8wAAAAIAAA3jAAAAAQAADfQAAAAuAAAN6wAAAAEAAA31AAAADAAADewAAAACAAAN4gAAAAIAAA3zAAAAAgAADeQAAAACAAAN8gAAAAIAAA3lAAAAAgAADfEAAAACAAAN5gAAAAIAAA3wAAAAAwAADecAAAACAAAN8wAAAAIAAA3kAAAAAgAADfMAAAACAAAN4wAAAAIAAA3zAAAAAgAADeQAAAABAAAN8wAAAAgAAA3qAAAAAQAADfQAAAAPAAAN6wAAAAEAAA33AAAAAQAADeEAAAAMAAAN7AAAAAEAAA3jAAAAAQAADf8AAAACAAAN3gAAAAIAAA3xAAAAMHN0c3MAAAAAAAAACAAAAAEAAAAfAAAAPQAAAFsAAAB5AAAAlwAAALUAAADTAAADpHN0c3oAAAAAAAAAAAAAAOQAAUEjAAA2BgAANbUAAFL1AACOLgAAfAwAAGb1AAB7gQAAejYAAHc6AACDjgAAfJ8AAIL9AACvOgAAlSwAAFfYAACQFAAAmp4AAFjsAADCHAAAn44AADYrAABSOAAAhDwAAJe6AACKfwAAbOQAAI0dAACHrAAAjVUAAS97AACjtwAAhIIAAIB9AAB8yQAAge4AAHd+AAB0QAAAgwgAAIxjAABzfwAAbVcAAJCAAACHsgAAdJQAAJJEAAC5yQAAhswAAGmrAACBkwAAvCoAAIdXAABGcQAAkyUAAJjlAABV2wAAgHMAAQZYAACblAAAOZsAAQKTAABwwAAAcEcAAGmOAAByKwAAjHMAAGloAACCBgAAhoAAAILhAADPKQAAhPsAAHjUAABwZwAAQxUAAGmUAACIlQAAgmkAAIUHAACDCQAAja8AAIFkAACXAAAAgtMAAFgqAAB7jgAAslwAAH2KAABj2QAAg2UAAPjEAAChiwAAiIQAAH4QAACAOQAAVqYAAH/uAACQ6AAAeAEAAHQ4AACUhwAAkzMAAFd2AAB42gAAiXEAAHrvAACHugAAcCoAAIiMAACctgAAoT8AAIjvAACUpwAAf18AAFHQAACIlgAAm8gAAH0mAACAwQAAfNsAAPpxAACjVQAAvAAAAGMYAABW1QAAhQQAAID9AAD/5AABX4UAAD9iAAAaRAAAOigAAERHAABs9wAAdREAAGVxAABs3wAAjh8AAIXFAACC3QAApdQAANk3AAB5ngAARQEAAHCsAACSigAAkVUAAIlAAACL/wAAiyAAAQphAADMxQAAv3kAAEktAABowwAAfB4AAItfAAB0owAAWE8AAHa1AACd3wAAcegAAHmoAAB1sQAAdC4AAHQEAACF2wAAa+wAAHC5AACbbwAAns8AAL4eAACoMgAAWl8AAH52AABeggAARHsAAJN3AACKOgAATnkAAO3GAAChcQAAjN8AAGVZAAEcCgAAovcAACq1AABw9AAAgtoAAFU5AACP3AAAu+MAAL6wAACJZwAASskAAGOqAAB9PwAAeoEAAIf8AAB3RgAAbFMAAIccAACC+QAAeNAAAIpCAAB9QQAAg4QAAHagAAB3tAAAiysAAP9UAACK0QAAfA4AAH2gAAB7JgAAgp4AAH2gAACFOAAAhyQAAIGjAACEXQAAgcAAAJC5AACJEQAAlGAAAIpdAAB1pAAAiWsAAAA0c3RzYwAAAAAAAAADAAAAAQAAABwAAAABAAAAAgAAABoAAAABAAAACQAAABIAAAABAAAANHN0Y28AAAAAAAAACQAGYMgAFJtOACL6EwAwsXMAPmX2AEztlABa42oAaDUWAHXERAAACKN0cmFrAAAAXHRraGQAAAAH4OAguuDgILoAAAACAAAAAAAAI5UAAAAAAAAAAAAAAAABAAAAAAEAAAAAAAAAAAAAAAAAAAABAAAAAAAAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAg/bWRpYQAAACBtZGhkAAAAAODgILrg4CC6AAC7gAAGrAAAAAAAAAAALGhkbHIAAAAAAAAAAHNvdW4AAAAAAAAAAAAAAABTb3VuZEhhbmRsZQAAAAfrbWluZgAAABBzbWhkAAAAAAAAAAAAAAAkZGluZgAAABxkcmVmAAAAAAAAAAEAAAAMdXJsIAAAAAEAAAevc3RibAAAAFtzdHNkAAAAAAAAAAEAAABLbXA0YQAAAAAAAAABAAAAAAAAAAAAAgAQAAAAALuAAAAAAAAnZXNkcwAAAAADGQAAAAQRQBUAAwAAAXcAAAF3AAUCEZAGAQIAAAAgc3R0cwAAAAAAAAACAAAAAQAABAAAAAGqAAAEAAAABsBzdHN6AAAAAAAAAAAAAAGrAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAFcAAABGQAAARsAAAE7AAABTgAAATUAAAEaAAABJgAAAP8AAAEZAAABEgAAARgAAAD4AAAA8gAAARQAAADpAAAA6QAAAS8AAADtAAABGQAAASgAAADqAAABAgAAASAAAADtAAABJgAAAPcAAADsAAAA6wAAASEAAADyAAAA8AAAAOYAAAD3AAAA9AAAAS4AAAEkAAAA5gAAAQIAAAD4AAAA8QAAAQEAAAD6AAAA7QAAAQYAAADvAAAA7AAAAPQAAADqAAAA9AAAAPkAAAD6AAABMwAAAPsAAAD4AAABDQAAAQAAAAD6AAAAugAAARkAAAElAAAA/QAAASkAAADwAAAA/AAAAS4AAAEpAAAA7QAAAPYAAAEBAAAA8QAAAP8AAAD5AAAA+AAAAQ8AAAD+AAABJwAAAR4AAADvAAAA9gAAAQQAAAECAAAA5gAAAQ4AAADsAAABGwAAAOgAAAEJAAAA7gAAAOkAAAEmAAAA7AAAAOcAAADxAAABAwAAAQcAAAD6AAAA7wAAAPYAAAEHAAABIQAAAPgAAADwAAAA9AAAAPsAAAD3AAAA8wAAAO0AAAEGAAABMAAAAPIAAAEjAAAA/QAAAP4AAAEHAAAA8wAAASIAAADuAAAA9wAAAPsAAAEXAAABIAAAASUAAADyAAAA5AAAAO0AAADgAAAA8wAAAQ4AAADxAAAA+wAAAPsAAAEGAAAA9gAAANgAAAE7AAAA9AAAAQ8AAAD4AAABMwAAAPEAAADwAAABKQAAAQgAAADtAAAA9QAAAPQAAAD0AAABFQAAASsAAADNAAAA/gAAAPUAAADsAAAA+AAAAP8AAAD1AAABCQAAAO8AAAD7AAABBAAAANEAAAErAAABEQAAAPYAAAE1AAAA8QAAAO0AAADvAAAA+QAAAPYAAAEDAAAA/AAAAPUAAAEWAAAA4AAAAQ8AAAEWAAABHgAAAQ8AAADzAAABBwAAAPcAAAEqAAABDQAAAS0AAAEhAAABAAAAAO0AAADsAAAA8AAAAScAAADqAAAA7AAAAQUAAADuAAABDAAAAQ4AAADvAAABKQAAAPIAAAEGAAABLQAAAPAAAADyAAAA8gAAARAAAAEIAAABJAAAAOIAAADkAAAA6AAAAPUAAADwAAABAQAAAO4AAADgAAABFAAAAPIAAADzAAABLgAAAQkAAADyAAAA9AAAARMAAAEmAAAA8AAAARIAAADrAAAA7gAAAPcAAAD1AAAA+wAAAPUAAADzAAABAQAAAQQAAAD4AAAA+wAAAPYAAAEKAAAA+gAAAP8AAAD4AAAA+AAAATAAAAEOAAAA9gAAAOwAAAD4AAAA9AAAAPMAAAD/AAAA+AAAAOcAAAEVAAAA8QAAAR8AAAEKAAABLQAAASkAAADsAAAA+wAAAPMAAAD0AAABHwAAAP0AAAD/AAABJgAAAREAAADnAAAA7wAAAPQAAADzAAAA9QAAAPAAAAEDAAAA8wAAAPoAAADtAAABAQAAAQAAAAENAAAA+wAAARsAAAD9AAAA9AAAAP0AAAD6AAABBQAAAP8AAAD/AAABBAAAATAAAAD1AAABGwAAAO0AAAD2AAAA+wAAAPkAAAD5AAABIQAAAPUAAAD5AAAA8wAAAO4AAAD5AAAA/QAAAPgAAAD1AAAA/wAAAP8AAAECAAABFAAAAPgAAADrAAABMQAAAOkAAAD6AAABAgAAAQkAAAElAAAA9AAAAS4AAAEFAAABEAAAAOsAAADiAAABJwAAAOwAAAD8AAABGgAAAO8AAAECAAAA8AAAAPwAAAD3AAABHAAAAPgAAAEdAAAA9QAAAO8AAADdAAAA/wAAAOoAAAEBAAABJQAAAPkAAAD1AAABFAAAAO0AAADkAAAA/QAAAO0AAAEzAAABLAAAAPUAAAD5AAAA6gAAAOkAAAESAAAA/gAAAMkAAAE5AAABNgAAAPcAAAERAAAA9QAAAPIAAADvAAAA7gAAAOEAAAErAAABDwAAASwAAAD3AAABIAAAARwAAAD0AAAA9wAAAOYAAAEtAAAA8QAAAOwAAAEiAAABDQAAAO0AAAENAAAA7wAAAR8AAADqAAAA9wAAAOUAAAEKAAAA7gAAADRzdHNjAAAAAAAAAAMAAAABAAAAMQAAAAEAAAACAAAALwAAAAEAAAAKAAAAAgAAAAEAAAA4c3RjbwAAAAAAAAAKAAYuKAAUbEQAIssqADCCeAA+NnAATL8rAFq0NwBoBjkAdZTcAH+PLQAGHUVmcmVlAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAYGBgYHBgcICAcKCwoLCg8ODAwODxYQERAREBYiFRkVFRkVIh4kHhweJB42KiYmKjY+NDI0PkxERExfWl98fKcBBgYGBgcGBwgIBwoLCgsKDw4MDA4PFhAREBEQFiIVGRUVGRUiHiQeHB4kHjYqJiYqNj40MjQ+TERETF9aX3x8p//CABEIBkAEsAMBIgACEQEDEQH/xAAxAAACAwEBAAAAAAAAAAAAAAACAwABBAUGAQEBAQEBAQAAAAAAAAAAAAAAAQIDBAX/2gAMAwEAAhADEAAAAtz82nOBy7VZmG3FvOTPuCzDTYDoDTKWrIcutiTNT8GjV1UJNXBpTkhUmRNkx6Q5IslLQMc13CCfduM9K4ybsMTo5hJc/QxZWeq7nNa21mkugsGgfKtqSQEqsiXLSAhVz08+jLNZt3L67JQCbuSEkhJADkiySEkhJISSEkhJISSEkhJISSEkhJISSEkhJISSEkhJISSEkhJISSEkhJISSEkhJISSEq4g3cKuQkkJVwkkKQ8EzPW1CkSp8bbbKmZHY00DhiTr5l561QrDVRiVbMdOPFozdr1XK/RjKuhMmndcmqHFlDLUfMo2JBeZvLAwaC6D0YmVrfzpb0UrZbnIETLLplkpqVOwGmPSEu6Ra3R4q33ibKxa4y1+PUq+d1MdmiYNcZulyeiQl6Lc2nLrlWRUXSXkkiySEkiySEkhJIkkouSLJISSEkhJISSEkhJISSEkhJISSEkhJISSEkhJISSEkhJISSEkiSSEkhJISSEkhJIDdwkkB53SRcrHXRyDVOd1VUCx6wZwAvVrMULkUFhVHJGl+cs61Es5bYuWb0IdsmWjAyl4LdVaLICGnnKGNC4CxYBneou8urRkWzYSHOMcnTSxFnNKlVoQyaJVvZXNPTlhrseoYg1VcWGV6Qx1138vdanZiYurLQ1m6imwUS5qrghSQkkJIIVUQJSEkiySEkhJISSEkhJISSEkhJISSEkhJISSEkhJISSEkhJIkkhJISSEkgKG57nVeVytkksqUWho2DYCzoPOxo8mlaA1Cczmkh00ehD7YpOZkWiVzokzRoWOlEjoQEcOVt3WaS5dgizGbpnZBWsY0lmMSzTnG3k2CLgDWIKHUox2PSdYGuXTEtRRuxaIMllldktRW9dlNvJptvE+kHbIsbZWe4UKrQmq0UoehOsfFO20rsmseus0bbWa3BpTEFoLLcSSLJIskhJISSEkhJISSEkhJISSEkhJISSEkhJISSEkhJISSJKuhZ49DMkgyl5jYNHSuN0omfbm1oTudJrYfJYnSRnOMbtGdNMzUbVZSW1XfOOXopcs0jbi53Y5u0VvSMlwS21odFaG9Dc0rCZUrQNjAW2AWQVpSLzHN4FlmZF3cqQ6yzxpUopUHYhWjOvUCdXlM+hdA4WVJcwTbiEK1r0yMp+lQ88EsVj7ql0rxabIazpqGBlfSx6OgnKXq6eeSI6eTVLRLPUmhom1JUW5IskhJISSEkhJISSEkhJISSEkhJISSEkhJISSEkiSSLJIkWcSWBqtWiICNGaxqxkjmZ1w/LWWRonlsmiOpSOsC4ldDLzEaCgYp2iXLIoSONkq5RshKSyznh0U6qijDITirM3Vng6oVhy5Bp9VlIjkSppplFwoWjEK7Zlo2zMZoIai4BRUsqCNuMrKz1pkkMWk5CcArpoaIJ0MpTJBjB1cdk2s+qCKGnKpO0USeZtNal2S35rNUzh0C+5XQyEi0GzNmdVvM33R0orXSRZJFkkJJCSQkkJJCSQkkJJCSQkkJJEkkWSKRkymmgIAOjmOTZnLKM2YN9ArRJclvJF5ztEBtxSLzG7mxM2ZLHszOUN+DTW5bZ03nTqTMLYgi0iOZrmNyqJJ5bLGSnY2RbLAsgKBpGVpqtMSuxVMUFUbGPL1Zu83fS8jVRMjGSMz4MRJpNK8x000PIee5No5W2tbm05VneopoEWpqUsGXaAkg06OfpkfQVKw8egqmBpLVijoTO+mqNkc013o8gkDGTJbaOmhLqMzN0JZqL0ZtI1qNW9FJGpBIkkJJCSQkkJJFkkJJCSQkkSSQCyouKiNpGhRKQkkMo7KTJzOyNzzutRy3UFoph0MuQCZNWfExKeiFXQ2Dp2va4+hTrnSeM2qjmGatmczHpozhFZggc5mM5xW9GZ3BWEGxcDqyirES1RdXE5pNxYXUxuUgpUDXVFtAA0lDG+Nkwkd0OjPK6OW9EqgOAPC4O06CVkYjW5DJcpRXpoQ6l1qJBjSzt5wqhasW1ZYwgSGzEWiVk2IOjlDDFGENsk1GKgyDQUauGNz3W0MV6vVLHr3qxIVqElHzI0dJFkkJJCSRZJEgkIltMSSRYBqRlqasqqE2AM6yzVRIStN5YdZVRMOSZ1ytHSicnXkVJ3sx67tJNGXNopVgqVTBqOQOjFcdbEWbVuLXI0SVzrLEMtStq9XmV0c1LdjE6B8hhs1c1w9bzMl7M5IpsiVXkp952Q00qs3VynruIDXNGAEzKUmgsThilhW0spGm8roNcskWKOWpwTVFGpcCUDrNWpiVjKExlqMda2F1V5LNqoi5exMWcDClZ83RFM7GWqaMBsB0LjFl1Q00hIlNqh35m9KdXVpqfJoLKJUsVoHKQiqy5BUqXjTbOc5NlXaoOZ7NwqKUud0ciY98dZi0uiow9QTEzYa87ZZJhLUZg6FXLKulrJoyXCGLJneXE2TW3m6s9i5EYaaSOFXa6a3LDaCTCEkjEuPTbVFmgrSJmp1nPHow5jNYaG8D3MufpHHLKrwzo62OM+82qnP0UnNrZdc6dPjHQpLoU3RnRdOWmdrH6YNeRrRWqLco5CBhJbkuFso4oU1VMpMPCmEchwRRI+LOCpdGpUXDKqBOUtNJZnQcFJpCjtzC5FQs0k2gzPabxGBZcooCjbeaba3YNmq0kPakkWSQlXCSQkkBo4ZtEtKl0tpdCpLKRogByEkhS2wklFLy8mY6zuSadteV1qmYgk66AXoKhVmUrQrIn5DHIflloyKQgNNXRyIRVaNkosqUa9HG2W9G8zhtCUUDKBoqKdzte5tRT7Rz6cSBE6sVhLmBS6ApStHRRZL5/ZXpjLciTNamaVZnXNroIathCmZ9RRaNSQkmjzUMZtLVW2xNoT0sBs0w60HTBsIADuLYtxYg7JK9/N1AetsaFmKg+rKUQyLmhGmihu1oUWQHdirG6Kiz00qqtOvAe70ItjckhJISSLJIkkhJISrhANQRjQcGy5BCkhJIJzbBuePfXyslk2iY60ZMRqUViuqI1GPQxDoBUiAEU0ipUK4ka/VxMvpaYT6Ztczm9rnMoJF8zj0Iuo9NmpuVlPtdZFBXiLokbadCXCGWMWu2WhcqGWFwm4ump2jlkjU1ppTYFIjY+Gq0s+kDO7NsrOt0XG2pStWfZAFneiG0q1kYKMibg6CyMWMmhuJyuCjsM0rjWg2JcSUq7axE3Fq5dnJFzKblooYwM1bBU9SNIQYNOkLcqo6gNTchmx2PR002ChXMzaC5IskhFsUNkhJISrhUGwquCrZCqIAWpNDmPWUDOYjTyS4JGgIwjpVgpQb9GJtOR5WGgRsoNefuW8VXaGxRgvV09BYTeik4xvLPJMJ0E3m6anV1uEdkjNGFLmM1oNsoWVUMpbIa4V5pVVyENEt2K6NcqHFjdWhY0J0IooGqk0sMM1LWK0wvvLq7gcOYhcHVXa9xnfeaZ2Jjaxs0YVIHUOFLAQakj1GacskjIJF6cBpuPHB9qLJ8S3JRWrV0oBiKFdaEOk4zDozmsLZLlek6sWADWlYZS4G7GjBhUGlIW7mYg1ehM2hqwqrGxZKUqF1QpTcbxtRA+JsbMZpo5+6HOYOW57a4hrJg6jmMp9DBLWRlQSdufUQ6ghz7DTPrLHCOrmDneuvJ0N65828/WS0Y1SbsGnJK+84841V3l0bGXVy60UnUkC47cYA7NQBp658/STGOOXCxcvNCjRloECEr2FlzB3HWK9SUZGHCDArWOqoJBWIxdANrKSKxdDMZdKNOrechzkyVJNmU22qTuTaldirCWaZ2aEWkKW5jTCSPSVlEtiXHAOZmZleLcemHSoCKemr0KYXJDLokhSnjTXiWbRDIs1kCYnJIAGha2W1IqtBpKNJCrtTyb+XZr1Zky9UENUXrlMwOySa9OGVp5WllIa9xhrekyOauuaT9UiNgAtZdaJJWcczs823WherBDki9MjaxYdRnLYujG5e5GDBlRRHq10olMNVXfLQy5FS5Q1d0NXVlsSXQxA1Wg2DqJF2XFhpvnSqm5Z22s0Vj1xFGFCeXUDn05zUGZ8lvUVqoVaZXpehMykmcnU1S9C5BUQ6k2Y3ytxPeuNJ5tV+jBtGAwJkDTaylnJoYTExxgjwo4B62ZMku0wqkmczMjkPqxbAgNeEz6W6sgSCU/IMPDssIlVB1OfWpWc7NlpbLoYhsaRU7VsYIIEvIxpejqUegKaIObQ1C6OI96bLKkMtsWcjWTUp1lyBNEp1JxX68bFkp2UzA8x534ZDjtNmA9iqOlNzTqiFZ25k6gZ9GytB7KGFXn1dCwGrpboqFkQ1ajsGQqFq8+5oUm8jpYyvJVD6GRSn3SXpuKiHj06FxkOr0B9jktiL0INWIK1lqNENEpJfmRLczrda4aVmcKqaKTQSNFRVklY9AyhI1nQ1bDI/I/LQt0E2dxH5osLExC04XFG/EbbU2WhfSiloQq1adQ8zyMpaoZRFlg4+rzhBgWo52HVGsAXm9Cs5qLUWGt1mde9UCFP6AUEk2sxtl1KMtoyx00IRnXqXm0W2efRLKuLQTJZuyDqTmzoZrnLjejlM5NdDCS7QhfNsqrHAgK4y6Fa7GLsNNDchZu+iHlRK4VJa1V0XVQgnQNyVBOzPn2hGJmmqRbs9EWZoxiZDREzOOwCtGNgIa8IOly4CgcVnedYVa8mx68kjUCX1j0kEjlNtFAZXSktAZsVeZyXx9udRnQdDnPZ2WSYQ/Nqg2ZkGwlsEjpDKWyaZSag0pXWD34ppsvDRuEEmwMwmm8g2dQsTpSJDFuhGG8/a05rWusBRZK3gd5qiq0YedsESnqGfTenOrWnUNoHLHKA054zYdCysHTk1NW3Odr5QNFRwx5emhjLqQCZ1ky5zVrLNyN3800RAxtx6KrIQzJmjI2zr8brYd6TYo5TsWssUwKBQSBAhMz0vWSGksDWiGqqikVV3QrOoVl2hWGtaqZeAF6pcnbJpQbDMrZz67FBMFw1EYQFczpc/aSN1RYEk2ZdJogWLoKz61TdskHFoDVTrQ2UkzXM4mO0IefWEYNlac0c+2GU7CxtKOHGuqDPuDLI4q0zg+jko6/PsNKi015wg4SEfrUmTQ4Nk1kW3k10tXNdJ0BRolrE1Vmp6my4XOUaBGDRtcuihDEcow1WglshgzPqkedvQL8T4ckXDspVpogXprPnaGtWLSFczr8p7Ozn6Uy8xj8sx00Z2AiaMntyuUlFKWVnJoSE1czBZhsbc52FVlVdUmmKlc1JIdiVDVgFBYokJFXKKlQqiIWhqgcW+7eGHZVu4N+RNdmuNqxC3JQdKZ9GZcWUBz9XO3XRyqJ4RC0ZtMSQbF4uph0zp35U0MJublfd1kVswyNavSayo+dRoFcUDF0nPu52s6NnP1BRGgazOOTUhWlqIS8z5WTdl3UqXcnN07jtw6X5hh4sa9jhUWqZZWp0Xcws56WdVLtdg0Zutam24dDVI0rSrRK8GUcrMwXSUrSm3Duh6UWcqYgyggqqpitCHn2BrSqqzLT2SS9BmPH2z6Xg12MTOBeisSnoktuS2qA0poCooGePLuSq5WUYBWhtXcAu6slFRLkJRAUY2t3JUqQglYAsULZdlUyVzF9Sq4q+wq3ltanWtxc58N0ZGyL53VxW7QfgmWjcibqGTQuHZKoaNTBssGjLa2IsqrKAarVnTV3My5QxQv5tNZhLeXacbBiXNyQzSC5cz8mpTczUukaCxNKhnNGm9nKYdseftjJlOa1KFiESOlJzS3c63VBZmI7J4ppXQ4m+51IrOvSNElbaVZnRqhg1ndo01AjZnfqNirUoNFqbUIl6MFPCtHKK6AbpdDMx2ayxH10WTViuRBysxIbEmhdILperMTqxmqNIkdS1nx1dSkgHa1RgFAOwSXYUgh1ZCilg3VSlclCVXViQl1dFyrBhUVRSk5t4mJHUy284tFWoIsmrqFZA9DNpzLhs55VDVqQpArWyIYgOqikUOiW5TcIomBEoSguVvw7VNibkGYHR0Chq2rHJBus4A9rm7hMdkiwi7Bxs7WtcVzDRDBeYHW4ykcWurw+9KKOgjDNtKkRw/QKt4vXvfXlGd46yW0czIWi6QJPgRpdjaW7NFuOVrYiD7SUrn4rrcjM3B15Ngs8rkNV1q3RBqS8orpizsCnBAlorpbBW3c5+rA7nCMb50o3Lu77ucrYwgIQjaWQQS4ujoGyVVlUkhjdBdHFVDpculs13V0VElFAlQ0cqEq6KoqFK0ysBaFVkW8jEWgda0OwS66K8z2WwSzEEdYyrRQwDRGHik0IjXBgBaVGHLzy21ucjRshkrdcZWNz0wctSbW5tEp2piSESoTsqslbEWJydNVufLpFFMDotcRutsZ3aqyVpzPkK1nmgvQGoR5WhkMpZktRKyDQ5ZykdatThbA6lvMDq8tIZsGC4ZXpcmGVqyD12MLXckdYlqiRylU9uWfQo7M1Mfqnmse5mc8iK0J38aCTqzqYnYet6tWHmpwDBG7AKqg1kldIHSEMsESqLIGWAUKFlJUqqCICtqVIu6hJRVJBLqrCqrKlwXGDSF6wOeWlKIKjFq6Ia1z9jErovKnV6Z42yGai5xiqvGXDTKTTKRjBoMSsSGoKUjaBlp1aYdDlQnVmljXZ6y2Wq5SNdkaqyyEqFGmqQvUGQnIpBZUuMCQrVdXQEqzs4o6KgaNkJcGUJAixZnacgef0704+23mbRUyzHqRTUnUCQFZaXCMztG0xK5CNTpQjB0rPpwl7sG3oRh6GGifnZzK3Z2dY3lb8VvaCm8KghaS1mSySOGDBSUpGMSEoohqMuVCyGUBSSVLlSS1qiolSgrGyqi6YRVQ2RC6ZQIsgsG2YWvpAW6qBNkt0DbrHl6WHdty12tdmKNd5gy1p0MzhL6qQoqsZ1RDabS5FiUAMSKW2xNPqszWCCs5C2lCqu1AhBCsRUoErRM5I+kugLJatWwauliHFFIslOtjUsJoCosTgF3JCEpQmoogkNDLSpQSpiLZCoxNhOzM5o2VoUu8pIvd0CF6EJVtQgeFCSpLQxfQBuVLvsHwgwqCIbUghEG6yB41TBkgYedXiNoRjZV1ZLqEsbS6ErZJZVS6G7orNqlIu8K9O+V0el1qCQ4QmcvEYWMGKXolYcXWyRn6eFnXfWnC7NstIprrKUr11VMALS8zhmhshZXn6ScZzMzhzxsmIstpZG6LW3i731NHB6u9dEA088IfSMZeC5aYrAsLTYevmbZWSSk0HLs6OnEUdG+fqW6RUlmh5pSxMZW5OrqovUoI4ORjLiQU6miDIYq5AlQjAaujsIsgyKA4jFEyFkY7I0ovLQmj3aqLq6QuzYfMdlruUtUutHrymnTJTJYu7lGMXIVicFUlDcouSqkGS0yrgZIMsCqDYQyKYXUKqliXUuqsgIQyoJwym6gZdiylFMUWY4QOrG5qkWJe9b+SxN1KJS9C8DU1HzhXrFxyOsXDYnaLhBL6GvOZj1p+W0anY5aNmcqFZcubaz6kPm6s2t8zv8AKb16ehPl9LEBSx5cqHGWj3YegqnvCWLZJENq7LxMq1lC2QItVPXqyyEda1zjpKXCZvpq2pioQyQLimI5bNRZ3URicpUNQxbBKSQyENQCaZWc3DakdAyCymat5NFVjmmIhG4IyPdQk13pmJ7YgivTpQpz1RidJhhEo1ZjlNqpQymCSw6uqMCCHillHKIkG1upIuVUhDdWkNyrlCFV0S6ou5RLG0gMUSmQKlN3qUSNa0UD9syt3ls3q48WGzt7/Od9daddS8ZmgpV1shjXpozV0liNGddmh2YTali5MjNOWYeOcrd+rjdm6Q/z/fXnqvjXO+9SsYm3I5oxQzGGjktNKYYsHurNHAQ+dpwaD0lixhRFRCA7SVLkUOmlzjtCEMuGPUAWNU2KttWGaRRgwyiiYZCCpaTwuVWjarNRkllMukQbVMiLcGrlmoLFihWprmJh3DWXPV2ADCWarIwQoNlKOw6Cirtgq7KlxygjS2ioYWVSAuDBFAW5dkugCqWENiHVSrqWLoV9N6rz0aQW6QLtmwkp+rdVJUc/VySPATv3xyjRhN60GzGbeT2sw3GcOjldwToj0+TLo53S4VnUyaQOPr5rLn0HT5zpro49VI/yvoxrFi6FyJaGWTXnyszzWQNi3h0M6yuB9hLhRmJwEolyGSzWykkuCK3Vqpym5x9JZI8AK2wO4uZDqmQxEJdWOaM9BmXTikMqhXK0til5PTmXptFG6Ekl2TagdRJEQ0gijWpY+4s9Ka65acInVyBT1jUGuzi4J2RdMoaYGQMWyghLDFiinhejFmRAKyoNrJVxAYMSxskqyQl0UhUtDZvacOzmujdGVy9Q8V65q0tljoDNS1Y8Odaep5lh2cqeVL3eh5Donc5WjKm+iTSOT6HMFze1yY9Dm5mhbx7+XKrq8npayLtczpB2tLz4E6nS6nmetEoOksCyTFyfRPmeTW4OeAZTKGoqRtRK6KQEmm82gYJpVoIZJdDQwTuqmbTko2CEdDS1urJwDWqdquATqTY8LsjMx0yDeVLsC8ZDqZtZtly2rRsnTWaNlUFSLvLlHH7uZGqUyMHM7Ts7OemgVU5NkUJ2CYAh1dRIBK0srKcAUjDA6WticmjRFsQVNIL0lZ3BjcghGwoIwwSLVTHy1V5HdNishlRztgNXoz4I67LC51LJdhaeW2yud19C+VD1WiOPx+9jXnP2uZwq6mamt4ipfRs83qr0PI6SZeQy9Zj08t6c/r8ka9jn86k7WfPsFa6uXP0uf6I4Po+O4u9JRaMHasTh3VMZF2nnnTMG6xyRvNIVOzKBmRdFBJG5qybm88G9q1aRBLC/M1pXcCwwoywsNhZHbDRULqkm0+b0ZZj0BI40lkK2KzLQ7L0GWfOPi36oRuaRkt+qSEoNWUrtmqpJYFcdVkrGiEBWzOks1Qau5ZdiMti6kQbaUbU0hrKoNlCjUaUtsKKpTQE6kCDaqgkkBWjHVvUrA/er5vQZbza6lS8G9WJt51sOP0tFXOLRnbSzGtczKn8+xEN2NSxrPEz+kws8lvalvEQlNvR6Hn+5GbsZMS6OVlXc9FCdapz9lxWToedHTGdnUXkGNPd4Hemn0Zg6s+gPn66TWGTSmfndzmznmEV4jdOE42LBOTiTqMppTpqwaLTfecpScipNCguJl2FakNQWo1WovI8LL00mXRi1GATBhOHrBnOW9GIcOa9NSm46ap+MNtqttaKp+vm2oHbCmRNaFy5CoGx3VaMuduQxkRLVobFMgLsKYNUHCGxgjaygZFDQ5aILNAorsCXS3VywKMihMSDcqmhVKDShayaBp0G1Y3nruupn0Z5EsC1ZapdNxvRvIwG1Rq43Pp6Wi4R3s5MsvTh0WHndDzC/W408/wBbDyz2CuVsXl+i837JF0ilefPeB5PRl1kezxurHVZTJorbUpZwzWMHTkOqWJ8ufpY8ydRuJ2s5ON6zi55qScxHuS4yHqz5FE5615GXpRyYidKNMBLEY/Oy1wnkUlOUhs5nUtBWqoqWqH0KDQkmSJHK1LRaquxPVusxUZglQgzTSKikbRqDCSUXAxENYs9HZVjSGHeQjm0aoNzOjPqWxFiwDQBrBhiMsKpufQAVrYlXFB3QDAllmMpTCqljoUXVLhsk0qpN6wGSZXZtPM3dHc4hG4elklxs0J44Qhy+qnC5u6Yybz5tZIbLdqCjZmTKzNqWSqlfytxJ5zR6ErOLn0YqylqKF97jejVXkvVeWsw6suiztacYZ1uTpYYud0/O2dBnM3j/AFfkuga3YulLzQ05DUrOrPKOhZgPyUmg1ZZOjkFq4Njg1TS9GI4ABHihRtfyuvdGNNi8WnOI3c7fbpJIwFqkzAC7DvGCm3G3QBYi3TmqqkPKPvMdppJgwbolpkjz0assENdAUSetCTnSAWQQXBUOlKpVhATBFnUUtoB1CDAIVcuS4F00BO2qlRGBdgMCWtQ9aLMIE0VaFm2cjeh7mDVrXNTrUDkfol09fgaR7dOOzCruc3nnLvzFyycQ1tiTvt1I0q1nfmRrSdHK2r52rzkdyvPdOXcQ3K5YFZwud7ROp5T0PMho6WLfLyVdkEi+gg8tlfns6/MvtHK7fE7lOeznyuRPOnc1804s+vyJmnY9WOblsUY76hGfMDYOZ3DA08utDsQjsc1WzZrxZuwczueXXkLTQmMqlBmk6CMVar1Em2714tVfX4j66OQcybF0ErMj1gK2Z7UaHgkE8qHUXdP6fJ9FnODT0Ak5rYUamC3HSFncgHISCMMkkFFlqVTAyErsXYyCaqtKOhCJJxZUNOXDBBogWVFku7FU5VNWShoK19Nc8N6rvTzNG6uJucqVINuVvT4OzWD3XhqsXc5vLHLK0887yxcbr09IObH0u/dzujK5g3KXI6cPKYvc8yzB1Ryr05ztmNNG7sN+OUHTyaLkOV38Vj2YOoZPN+tyS+P9Ehxxs/q8JwH9VNdBWjzEvseB6DIDOd2k84rtcCc9aUaJN+zl7czkMfeqjD0s9uLS1w4Znkzb+T1l2aue/lhZWVLllbnZh32tHAVFartETRUTHqq2UgNU5TXoRbl0sUjQDRCF6EJQ6BMta0Wzvc9uMlg3ZY6SqWnUY6Z6c7oVBqTJBlXANCFrNMOqjkogIiyrVXbFj0vCFWSsmwr1FMWcQhhCRoAl0SXNF2VGPXV9DVnG8eic7d61A0xVqyygjQFzs6Hn+nZW6sq5uL6/kYz51nYya0q0b6HaPTVK9eaLETll3QSHQzsuTSY6IlkWGJWR+eU+1NudqY/WcNwM7vF0eeODL1QkwR6Ss816Xg6zf5L2HHmcXRT0+fNPI9EBi0mcnODocan5wLdZyeii3M/Yg29DhN55eEWjx3c66sxG3CzRVHRnai32cuukoRelIonBbWbYso1AbFmkqTTJn0aqzObvFpgfozsrDbit3Dg1R6KgLO7okkOpiHYxLqwJk2BdAxY5jqoqW+iqlNMSVGiB0rVlIegxDotWjNK6ZNVgGMhw1LLsZUCFoZBWqeLct0x7sOrbRnfLMFaVSrToXZt2+f6yVrrGN4no+avn5ri4e7g6oHmOpyD1O7lyOgK85qnmuhL1aoixKgblgb8fQswgPJl68ljXZTuX5TYuY30oNxWmwFcE9CfmvQHOxdbFHUg1JhcOjHMWLbCiu5DwVrF4uhNXzzu3Kx87q8e22LTW0ivOU6soaupbyugBuM0OVpXIx60qBqtHJlKHKGAEVspY7PbT8tq7Ri34yxp4eeSXp52mk1rgLtPTWjTkRXqSk41BEQEgw2gZJcNVEtkVRtmrncK5GGMSDdBkq5bupUqQU2pEFOe3ogJSLqNkK1lUHMQ2mrsFwhTzVNWluVvpotRajMz7MS3qBVoGOho4PXsDZWNcPE9vw0z9HPJrj5w69mvDtz50GLr+YsS9OzUZ1OGUvq75vVlCS4J6bsXx+9DkuPEbm81UvYgwY3IqzoZ8+g0obS+c6iuui6EM5ath4yhGxciWMulUu4GwZJTDqrghCufuVqgnpurjdCaJEINtc/ZButClHrWB2xYq0rBOnilhVQlXIRCwDMyqvO5gj0PD24dZWPbzwkidHI1RGrsWGiMOfSrre+K9HLSn5ySksFTbRYyUVehKeFL0pNYSiShuhcvMuoYxacAow0FRwZF49stzp1Zx8gyHKPMFimaDIKCBAW4S3WrK99MugFF6hx6mvNrVSauoSDajqO4nWsXsDNTPO+q4ebx+3571K4h0jLk8/wB3j6i6rcmpJZa6HUF2NTGzFZ1Twb5aJcXRYt1jByvQjLgydbnBwOadFvH6U1p1ZGy624zsaAMZQTV5xY0WZZDMwYUFyOrmq6XPLJhotrlWkl6YzG5kmYxPTA3VdqIu7QJbLpN1VibElSVAl0JUYaspR3AdIHBVfZxMzM6sTWJDiCvS/pVcvfnTmo7OjemaRvnpZEqDpq0tdzJ1S7BtR0QHBJJ0wGld7tJfJKKj1aUVQa5clKed1VgTMG5aBXWQUBqUI2c5ouDNRWNFDN11jW7anDOpCJmDflDeNCtKVzMAosHDHQPladRuzNRz8PqONDZxN00jjbEalbFabMGzP6rnNYcbq7vOxbnS4etkatcDq+Ss9m7xPWj0FofLTOXK3oa9ObxPWNrm6MunNyFBzsmUG+e3TyD1ndmQ/nWg284pi6yaIhmOiD0WzM0ajRmpVahkGgYUt9CLCUCNeJXQHmRO0dsL2WKz9RK8/S6qXVkJq2CNFNGZh1S5NC7Rr82jlCEzxBz6D3RglJsNN66Go2ZgHL0oSTlbsz4Xa2WHYNFkSxejFqtK1yRliO9ENzGRFirWCyIuHAiWOqyhPJNnENDAFC5A8lywDz61Roi7G2BdNlk0ravnbyqWDbEDqVKuVJV83VgufQv893WprzoQsnRQnAxegzLl1bNExxO8i+bkPZq6a805zLfSTlbbOL571Hmkpybt3O59R6YsBL0igZ1enK3NfhcquNt0xDXL6chXdamjSE5dnuyKud6c7pEvcrnhRUMFKCSxZVEtIyNflfpeR2KGAWpMiOpK5FbuaaW4TuuglUSPzZ7drEFQJakLPCt0LTph7eeyTobuRqxMsd0dXIasuJuAJVpfzk9CFodd1UMzCowBo4GCa5damCnS0Iagk3DQtUm3RFXBiLcoQ1YqUYyqPQaiLvQebRjNhd2SVRLsKAHjGTcghqqGzQAK1ddrPpscXWyNXh3ZE6IYthnQzMqUM0o1Dcid2+P2JrNrWoPN0Us54xWMPkloDXnovqc3qdNp5vR47PS56O2nIH0XDus10w6md6prb1fPxO2WdU1srBvlz3UuRFiunKOWU1qvzPZxvZlvnS9UorOjZzT1O8HP2a5iL04wpkrMy6F806AIWmlUKDfllmq+Y0LFqOmJEyYifWA3saTFiFjMtUyarMANQjxXcdjR5/oyaRSPNea9SJ1ZgrdzXs1rpy1q1JVFtVRd0xcmqIDKjhD1lJcQNaRTqqs2iWoaQlWBwVrZIEKqpwQiH5bppBIIYGZpql6WUiVVSBp6CCFFNmLo6Cyzdb2g5mVrqlh1TSWElLwdMTlb4AtBjKW1LI6w4+nvOFxomgzblc8VKJnOjeuszxZrYcXVw01+h51XWrKnZZzEdzETPoyzWlelKOJHbOP2UWpZ892NHHp1jWdO59EmwF57GlI7PM+AxR3qOzI7fPRo5rrnoxTJKU3BnIjvVnOZxKSs2lJi0bxEoplHb1oxC31jZ0MeS8ZTWs2jV08zlq7QxwNHay25tbQlwK6HI1D63Go7PPRthmXSmQ9WDUdUGZZtg2MPoSDqikJLEU0HCqmpNVugpRiyJYlqYpqG2k6KgGixFjclhruRq6bq0NRDVRZUJS0odokHVaEYKLDQIfL6BaAl97Iap1YMXoVTrxXMRXUfy9li8/RQYGEzO7YDEfd1rDsnM2h9Hjbppoa3sc5fSyYzx9TZbzcujfqrrSbeHN1c5j1J6NYfPEFz0N2jaouRizrohyuql532vO5PX5Nz1deTNHUtTJbKUudUmema21c23RfTkgkaofo57smct+jGA1LzGrmbWmKaVo8cWtLTrAxp6aSyz6kiVPXmV0jrih1wA3ZqwjOV2NDzFpy5uc3ao6dJnLPZhhGba6zDtcPOdNcPfXM8bzBBWmA05n2CI2uhJhSbs1sotM/Qwaw4srLAgWGssrpi5Mukb1TgjIwRZVLqsHUEowKU2S6tTaqqu4C0GAUhzemo9BzvuxkLN03pRSppeXosrndrlMxndm2BveQmBK9NquVPsQjqDNOFsz01sDbArQrlH2nd00hexdZlOXnWDkUczyvUH3NXCO3mypw6zgtemVnxHlTOvWqzfqz3GhWVvPLsj6jCb1OqNadHQwKG5fv55gU28Yzm9OMgtuaNQhqrPpXzdXevQVJysmIZ4FJreGasQ9JNX0eSSaW59S3nvLVbMQHYHnb+SPzPFMrMmxEG10XUFFFZo1CDqrWvOmvE27Y20QGiUWJXJVgYeV6ahqesY1WpcQcpKEoOKdIMYsFghTEaUSELqhbhuhdUqgvLltpDNCG1RJTYG13pa2NRazlp2BVy8PouT065+3we3UwdTNjE28jo01ba1rLbalzVl02OgvkSyZefPsu4fe7dEc3r82F7ec9ejJN5R5v0nn83N6c2RFVjUEHuVXQtUXzLQowUGqj0XIcvXqzBAnc+dXULPMo1ZOizpvkO6SdarlbuSdDa7ODm3p54Q3LsznK+iqsbrplFIcsl20MSmwsSZHYtiKY5aUa/G2Cdn0QFNsyjWVd7kZ43sx6UdiEbdIgVY9JAdWVeNkBIt0jTkXn0hEK1UUuCXrK0XBQwc1LtpRsmqiyEiKlC1VGLUwxTVkZViXWOJYEGli2ihKoaBjVVCBJTCUcpLQORcvNVvS3VMRLelN1VrWcGCY078eMbH8o7ellAbcWlVtbDQ5g+N0+TF+u8t1LvU/n6hmV0q9PL6iSllZeYmZ0LZa1dqsrmWCSyZKgnCDmNkas2y2eXrUvnz1rBlZyYvI92bBuu2aMnTW7g9Vx5zUklPp45GhQVzxASpNiNEpsWiNKlvhG1dU7ESlzu6FWcudDjVo6HP35hrzrhiVFTEUWmsT1cyVaMmpe9bJaZd6Y8uvmL6QTvnq82jPbourS4ASaVSrXBVomyZvSwuS2jWgkamQjWMaKXByjiQKoZbFVcg5Lbay4JimriMUYw4lMoRGRZpIIgbpcobBTa83XmW/ZqVu1T053W0jQq1eXTnzldFeYWdx5me3o1Zp5nQ6aFW4bcWi6zrQxBGm4O4blMzee3HF3XadZ2sSuU+fdM0rRSkcSAXl+udzRk4J6c+Z0jBTQ5c6oayKxGwoIVWvKvV1aucVvR5GigxMcwXZTzDQyULkNNGc81TPvacl7G5cougygciobyeq3priM6T854wdeJyXOGM7t/NrROS46Ds7sH5isQUbXPz78OnoThZ1YJflRgVASWNMogQ5BDW1eqs4ZBOkBeioBTwVbgqSXUWUMRwmoIlMgkESgUJAiG2lLNAOs8jxFUrVOzU5izSisqoCIz5egitHH6pUHO6mBdbUZdTUpvNw2U2WYtSjhlCoF2PRq9IWh02CdOeaU1QZbNWDfdUh4azywYZuPDui8zD1M1xskK1rn5ZCc9tqs9Rk2pl4fq/M9s0Y+hzMYcFljIldqNXELIT4QrYmoUVGggrSqGZKfl2Bqcoj0RKakrRqIrNteiKgvI0FU1udOrtyLLGc+xJxnahpoLPoAhsxAzPzaXaG60zI5e3dXdcbn3LYCedmqLKpCuIl0KYWrQTHW60tJVXmXY2ljR2kpoCyGpVqdKBsRDM2k6U8Qh9QkGSUvQAZOVarRp+QY66kEluopCFZH2Wy4kS2opL61QwMcmeNZJT1N0DPNEYr0HmYMO7F0129HJ6+9itlW5l6Obm9DoY+gQbVvOIF1TNGZ2NaYYWVdKB5JIOpfN2WdHzfqcct6+T0jLe0BmHWnMysSfLm21OtoLaJh3IaTu1TLAskvSKIgLqso1UoYZoiUwy7c2zVTTEwVI1mV+ZGjMvR59bG0GJWTa3V47tmaXogqueSYCtKYBICAHWt14wrvrZXPUOzoFkYBwYsaYWQ3Q53Xqo0ZtIlthkRAaTNsz2uBgGd1rh4GpMzXLuowDkBcOmiY5zVDWtPpbs5URFqrU8oQt+eK0ZnjRWVC1LYoTSj7A6UNjq5dNjFkFJHI1SZRNMmhdZ9WAWje+f1+V0Nb2CWewebsyZuvveR9VrLMW2t58u9dzWrVl6USmKF81+nNwHumXMLanTVSWWECmrCTiXs3l0JlydLBzwTFnnLGZn2g0ACupElLgqqSNtdUxT0wy5YllIGhRpVkFHmaqnUd28vVow0LC0mUtnMkF51k+1nlTTxdBJXUOtdwyYn1WToZN30CinLWHphVCdVao8+jNMpbFMUy0oo6rO1NrDSeYTRKSVSta0UBVlTvxjiCZMWSpGncrk9KL1XWp2YEG1KquRlTNWgxKSKIFCx0UKXrtl2OYwJYLLBFtzla5LLsyHqSWdwDPpSiWbj3vDWxN6JOKZ2JsKwLgyh2ORrPRWJdeefB1+NE1c3TNdarOMi9/PkU3PfPOoAGnZ2s1uVWjRAtxwnVHwvPpy5ytljnLBGDKUZdiMExdDISVIaZIs2BbJQSMmTQglTIU0r3cy9tAWLkS4+fG5aTABUrYpd00FFgefVl0U4VlU9OrAY4zr2Bb1bA+SnJG1oEAwcOi3QCWo24oYYwz6KYZCqs3WtbLDqjpVECsxapq0ATEN4wYmkDGJbSHXIyuckY0LQAdnU9OZyXKCiKhzGAJWga5kVhSHnfVoMptJMqRTwVWhZ0QHnqquufbvHlXJ0ncvoa2pLYvPHpqrC+zxrpbeL2+vK+X1Qs8xsyac76O/kdWy1Oq541nk82Wuzt0mpTNaxESt73N5pmtB3CrOsc1DoDEAWDS7ZUKo5FQYPz2ZLEB9ZX1chmV6wGksiGu7Ggu4C5cCh6DTYXorSSIgKpFRma3aIZ6esla1siIVNGKGnm1V1iquVE4YoiPTm7hvJG3PaOEDJYFUOCLGnXSW5dttEqYydy91Q6FFZN0ggNMlqbGs2sSsBisi9Ac5pH3choMaU2TKVj0WtEwkNdFao6uLBqkbndl01ml4CjdCZakhqeiaZgtcJI0zl0Oadg+Ng309KHm+5L0Fvx1a6KFdfkajsyr6c+Ti73AzrXt5+g6sE7M3F9FxOecmlR845ih6bpiTdDS1mswkacZaussltzrmdaqOCWdgkI23n1IAIwyOGpIBQOmjQEBEU1lIj1xd0CUrRgrdkjTaS+fbozbUSIRozjADTQRbLVaM7qPK90JzdKW8/Rrz10H5S410CDbGWSllldMAWUBXGqWPGmIswvVyagZLlN2HVe1LoaqlGm1sF3CkAIV0chIqMWC5TZANGi1TIEi0saubbk1IEhwm5nutBEtGFASS7tXRSQXZyQxABqVVGjPorTNGyy8u3NScfVya3n1Ipe4zk9fVBGgDGcvGuw7ldXpynH7CbeJs5+zN27eR07DWcs5CtuTjN/O3Z99M8us7cS61y1jV4yS4yF3z3SPGiChMMwaKgRaijXn1yqfFJRwVZSojgJdVVOkinDbRjSGCzluqmlYullzK1Z9WmDJ2UryWanJl2r2LzGQbDVAuibVma2Yq9HGK4BbRUNEsWymRRocUd5dHSyCCqGLS5Q0DRWXXn3oqfeYKnVF0q6NdGA9So15ZRtzWSES7CYqhiNChuXWosTGAoxUTyuodCNBnYsS9NSQkPVZn0Mq1BOzwluV4VjrpaNi7EzIUmpdKt56tydaH0HI6N04bHcWp6ZQ7nC6SbpJrPGX1eLnWrZgfXUgFYPJ7HGwa/JsUUbENYg2ElWac5EojOKz3syzaQg+BZDAyhKiWVWqsxioYAXVIOfXVoNWKaAQ6GVaKcpuSTUqFCtKK00JuCGwygkrnurcaIdW5acus+fq54waqCusdTjbXd09NigKdntJuXTmzQN6kQ3JK/m9bm6ujSByNzA1TsogqNMaFuAMaiWpta1nrUAsHKV6GpQnrZmQ1nQicDobkljdo5zppUcuSta5TkPzMkwYoGJxRhKAH2YNkqxGkKLJZmOyuFnquzBm2L1Q0qlu7NqTvZDGJlas5e3eTXvM4nbyy8jVh1xs2cvo0QXLML2Bm2srlyXoULCXjC16LmcewM8arSxVMbUh3mMYsaCYqxkXdpJYJabLMiNKrXCuIczNCKRGWq7aZj1RSnLkHLuHRWkHrlmnAjG5dI3PeW1+jg7q6Rc0Sj1tp6LnE1Vtlkg0lytGrF2qNSNIWcvqLOVKd4UGPeAl0gTKkg5XRRmXVBkjSjFOV00oxmQ2LwMPR5idCpmWOsaeKjg6FklGBSKG61o0kLWsF3MNy6VDDC0C6pRckhl3ViiNYlhHQoeuLA1h3edKW+VnV0M1D0+N1t7gnW7mhhms7Pn+tc6ZBt4Y9LkS7tONtnQqSyAUF0VZ0ORqswYRZyazy5jwA4LIySNsGAlqUIK7qglBkswoDaFZQXDAAtKJWWhsjeftDbM5N4h0pJodjZRMx6KjEojRFuqQVDXZQtujdXNvpQmrJnOtg1VytMKFEQaSUUWDUw2IOjlWCxVhqNglhUVa3ClRpmNBrpq7kZdD0tAJ5K0DACsVoFXa0QUaK5vWimgCGwDkoAlrFmYDaKKoCLXUSxVqBMLg0GvVatmZnQEkkZSLXKXIOmhUdiOmZzzyFsyBq9cZXbVZ9KZc+rNZ3hBmoPC72Ew6MGvN2a+Z0qqEOoCtC8aVncnMlsXjNrJkziYac22EqBYs5NS6bu50PSNpLZHjnsfdTQmJPBlgWhqi9qKmZqqOD1aAsx8b0mY5rtdQmNhWffnDyvaJp6qFsfSoUMrJcZzYytEAualkUo5Xs0vDvOAIZUtOgBbShaHoGFapNMx7dUZVibeqMzUFLrBoVGVEVKZKVZitaDhrC1Oi1iHjIlwOrMUCXUDIi16SRLLqLGxhbkOVYx2lESZkqtNpnz9ttMGplufSgC4MCrQuGUnTosylis+ipVrNCdJmHod9gJVbmhjGvocXr2FVzU863ZgxvXpzXZ1RhagA0c1GfRmytL8vPL7WzOQGMXnNgo4HFCNoBpeZxRmLWmFI1JNDV0Mdlum2o7bBhIq7BaFiZFa8jTfkMKoSqLUR2USqXQGC02JLNb0qUFNLMeY8Abpa7GNKNeTOyehmIzOOjR+YlA6VLEjW3RwLdkKdVaiCz6cWWtyMGs+rqyuSc/aemVDJSFAbblYrRLmJplWDEC2LBWT7VqYckUVW2xczIxDYoTlLq8tutqrFuWwtQGDz+onVy70ukUZVI4Dy1aGwJWbQG3PJnRj1Z6q8m8z5zWM7HG371rWdddKVoRFbcRR15J0lcTuY4y2phr38npQdXFzZN2GLGs/PGiGrMlMioJ6zLpqpNCGr1TqOkTNGMtejNGiJKBaSaJvP2hCMq2LMRrphhPSFqyhmRWvNIrWqSalQbbaAhEstDxXeZSNl0nNvAJTQOhyemedIOyhVJ1rmF+STURjRwWklClUXHt7CTPMo876WMJRap4dKMGqq2xcooqWtNHGbot8ljRUsxXKRDVVoUUjFSou1jrTYwJKwdSrQuojBHFWkk7YSpgxVtXTRMJIQxFGI2jg3Y60sfaYK1ZMzSo21yWt0ViY7KdiwPv0WDlme5Muhp5XW0qFNTnKbycuo/BpOnS20GPcqMfP25+OdFLdJBTavgUGeciqMTNsS+S8+6VhQ6stayYDn1hoktC4TFFDDqtKcgVeQ3VEmooSGSqZYIFCJYNaAABgZWVoNRJY6MyrcZWNzNbz0yKym4CXThZgNIsXAOS6RhKZpYC1cpDeI2jrSrWNCdyUHJINWhVMJLCEEiuf07rKZoVgwsiy6gttZOkzMZDPWhGqLVuhgLMgMXbn15dheXXnst+eoYsdQDBkksUh2nWZQ0Z9amsQmRdhaapSEXoSdVWFiUqhjf0OJ2+u6A63UK0Igepy3x1botl+Z9Vxc0NOZ9mjdzOhDAKaYMfW5fLNQr55qo8QN1KwRdYstGe3QeaGldLqLJ2WZyCiqKkeSKpmQ6htWvR6mLg4Oil2xNOzvzQ5NqGhRBruyhhiSPMhOpMaiwXq7aGUzRkvnq3DZYrfZdrMVLyRrZj0hyUgFcoruUs2ZxJvVkV0KocV0qEBblSGAaYcxa6el1C1sEJw1aQVeY5LE6WDrhQtC6SwllslgEcSZdIrlQ9tuforOS0NXmNy6c9J6GZGroYsR2d65FaF2GQrQ7gpjmvOZUdPPq4u7ytWr0hMemgRoUIury62jl9LSlMquObEZaHZyl6sUzWQybQOPZzhkSo5KOqHJOlSaXouMCWmpNGUutDfnaOQFrLlIAb8kIfSxrM5Q7QodGZdQAisgxCgxbdo59pJzTp2WJlHWfTpyjcz1BmGg052FNZNSmVEvXmMJVUzOrTSHWGE0oYmd4lTaWu11BeYSDdaJCdUuygUdCqztzPFVbJUtXZNCisTV3kLRO1dtzyEcbop6bFA4JbZK0iXhlbKlIu2Woo3RmKrh6jBGq05rZnfQEcVLLI4fec5m0sqFmtoQRdimNDVxTdlOmWbV10sWAuazCK7HF21uqx1F8vr83Olvy6JdO3l9DWWVc1MfP7PO4zK1a+WdQruGsGqgmqmwaIhtwVVRGVZFtzmglTSzs5cA78MizcSSqC3QzOwdYnWY4erLU0TbAhVy0iWWEFBGnPSTQ1MDJ+TOh1qGtSoQum0mTZVLOb1sZrlFINHQNAwtZsgLRoKB+eidm1orOcVxWuyzJduZ+duSNFOACm0DlPik2ylNTYYlEXbVSko1w9dXRCDrbSozShwg0wpEMvOptzvpdLYtZHpt1HWWZ0jLzGLoKhMCw4hpaJk1dS4Oc5u9wez16NA61Up0JFyDHdrNq2BGmjiNi8XQ/MVdWLLWbzaaThOleZV2vOXlldQMzvM641T0oiOUEHWkSyGgTPMdCs23SZDMXF546BZnxTVqo24t9otpdXYyrIaM0TqzKYuAU6GI35ZDYMNGR62+hQpGmIw3NUHZdmawl5t5FEWUeqFM5ztXTArK6z6LLsLjTYMsGKO2Xa8xqDq0WUNqdCWyXBYUApjWzO+wbyutZMe1IJVLnmiUuUUoMo7AujBuLhl1RFMlqzlCnJ0mdO0BXM6nKuu1jF2YJNlyuCUmdzKXOVHohzM8mPQMrs1V9ugKeszCwJWdjgduw6k1M3J7/Ezo2Z3y6tnM6OslYzUVg6mHnEgd8Zl1JcWNEJcVRedwWBb1F0l8ZNOhNK0SaA7Fsh2R5BIoB4VcNvNVbYK1pcy1rYh4EaAIEssIMgw1QxgUIDXVmsl6ZrIvQhWaFTJelEqjkQrUyrBems9tXkWV51aW5h58/rViPUnKnZ4h5YUu3K9VNYMszrctrVlrTIswVQ6cz1Oz5KbCXQrclsMZnemNjpbKpNPsVhqNGWoIRUGlcBhUo1hqKLZrJEYN0trRQ5loYiS3XVWqxGKaGpQjcGp/J07LuB3+vSDdCk6c8q9WS07tDe5MmuHAcEzvTpyMTqBRbwInDAh6vNGLs4WF3kdgdiGwVIWXSgcKEtlGmZ5aKtueSPzmpLY6xNqymtJyGXdraWjpnmgZNIIqmnCl57dmezMNqh70HDRWVbkCc1i3c3rlUFQC9SqcliZCrDutjsbS9fH6ElENix1Zjnddq65WlWvIFbgsBl1K6879M5NoTAWB0ADIGR2ihTrguZ0V1ncpwTsLI01dpnbU1aIM0bhSyIttkW0LZY1C6HUFl05RoMlpFQIo7Zam23Mp0Zs9vRyuzzL0tzB3VgEMsxE21T1eTr6a2CSd6cltS4xYqOjt4/Y1Ko61MPN73Ezprcz416ud0NZq5VVzerz+cUwJxhpuRRiaMUJlaMrqznrUDldAc+wRpIoB0sUnXhTaGXQNXvmrhYDM1TWJsGWA5cSa4k7TZlaJQy5IB0MXpXVZ4bbH5XSWnVzcm6kvogbjkPBem7Tv5nSZp4TEim3oTufuS8GlA0IwVdVEfi16riJVLs0YKcyqYWXZYFpdblexUWEkYtGxa85jWyNJTKUJiCqMqTK7J7lloK82m2rBuZZwBGdx61dGuBJTywATUBDJFsTWjK5OcuWxercatAaJVePTnrE46t61Ld12BVZmRqzZp9Hm6Dpyx3msO8DhvQWdatOMzo3V6zEvqOXds4ZTcGU7ZlQ2ZGQwHKHsS3WcoaZLk1QqzL1lGPSwKmXUqTK5mkKZjurXoyJpGKpD4qFsUwYa21bVWtQLMuiSQTAh1tl0lJHGgROTI07Ih6zMbGW8/UT4yvuZi4yaUa7zFmNWthwEEaqVoFNa6zZo2Lp8vNo1D9lJke3Leo2+fvmrdkFHEMWjx75FMvPo8ZYuQxKHMBO0jAF0qjRaaZRUhewrc1kMua0vqmZnQQsGQVagolkMgFoRajLuqwtARE09UK59j03u6md27d1di8u3LnS7Eo6ruZ1N5GiGudg73Azp7cr5rdr5fS1grqamRPRw8YiU3nIg6jKbTsNYSEsCV0LzsXQkJR5niiWpeJcsAXZNGZWhWi1RGei8fQCEJZpMRa8Y+1WHLu1TCXBocgk02PqiFLenIyzODNcp6hEbVIkY0V1bFGopuD2LNJi0KXVlPAbTkGK18qupaaAszjE5lCI/LlqTp5O02ReQdRTKUN5xrqbJkUTlVqGKxUpAJmW1uZ2K1+hoSSEaKJioM8r6Zl1pOczUluIY8UxLbISzTOYpjppRq1MsEYKwfmOwORu8zo1u30fL4+nalXYKXDGKmVLXY42xOjRhuVyusqXgPzNxvXrxOs6dSbxAOGAWr4ZBG1UShYCtgQrUuU0soRvVY1dyzG12ORs0BWLWs5AVpzStZTNAbZrito0qMOTMw0DzoaKXFrM5ok1Cb7QnDaqro8+jKE3Lnt06UIxDMmjcjsmmjQKhywbEaokFL61TyN1Qq1mid2DZq1kz516+di8SW7GNfJDcWzPZlj9Vq2pbZnybsua/UhdabWiH2rVWW6kW5AKD6K0WQWbsRy0Y3IGPTooWDVDke9eVuy7LoQi0dFsRQMGTSt92BmNK2C35XRv253QG96Z4f2Xid32rseouYzg1ORKN1Je7eHfvA0VVxMvd4OOmp+TTls2crp7xKualcvq48RLM85DZBS5WUeVXALagcWB48qGGBRWGxeatSlMiZ8xHR183ZbdLuiVnbITAbUFigQjYEzXUrUFqgKRAVrxSscibFwdUE6ufW1WnlxvPNok1Z2CHm0YzRLVmNsW208C0ymZSAo7DzaLjlm/Zqyk6DMHSRCV1WT5McO083bsd0AwWWIVrJcxrclA0YgtTVUKlNq80r9KqRmjnag03aMzZ9a0BOo7uWZiIm+dIStDSpnPrE5kSXDQDUWZtIXlGJOk7+V2/Rvm+P9d5xfQa+N2ZeWHYEBbRhQsXms7XB6mpoxNxW68W0M7xlqqM+rJLjsVR9MDChgXtwcYVUWZmvUlaPPojJoirEbsjsjfyt9EnViNBo11zqMpCoXBsq7cYjnTfTCM+rO4Iby1pZmIepiBhqlt5tQRNOV3NjXpTu7sL6LbmZWrPtSc7pS8zMppSoLSzUWsH5KesqNTqs0LAjATqzZabiDqxVbmEGsVSBoIGlYdezUrIWxMxxktkA1ZBIYFmJJR0ZkkDlsyXfYyvKRV6BARtx6bUL1S8jspqR8Cs5dSX2roU6rVJ6CZ49CxxXIC3pkKmppMdhzCdTeuh2Ldu8bnac2tD6LyvpJNdFQEKGdWnNjc05iH56o6Yp03S6IJVp047nb0eH19YbyXci3tiB41FtkAo7zxTTbhGbQlGmZRi1TPTSrRGINySXY0FDUm3GHUXi65LMvU5HRGULYVdKq3URoULtVQWEFmcKEGi8aMee/YWm+FDGw3maQ00RWbJ2Ny600QI40NI/K6CmeJoxaERtPmt1dRLKQs20aTUmaPP1M1dORpZgPWzQYypAE5CA0EoHF2FlYUt6c1owcOqU+N2Ga1geb0vFbqVm1KaU7MZplyZGAmNhWujCnW5dUjOW61tIYtsiyQmTo1lunLa1M5ty6rRLm9NqpO1ON0qw2+nJL5RopqLy7M+NZyG86hrbcj0ufpaaLQulZ9Qxj243XCMfQwmno8frKdjbQ59S5ilsDHJmDaAUi6aJlJmpueNYVDPoYeiRY+Tn6NGdUKbhGamNkWyirLVmKYOkEHJtbUGwLNcOYylUcrCLbWgXSWmpY9nHh6XHutHVByKw6MMbHVUjafDObEKcGTL5mz262pqzRabhlrw1086yl0I1JCU0KiCZkUpSzVnYlHatAs7yzk265246I/K8pb89UcXDkMYcrQzRrVkWeZzw5k4gMWWPTrWgEyAYZCzi5kFHotwE5A/TlbYzPlejuVtzdNrpG3VsNeHGT6fjezrfeoq1AU9cuIXK57hDEO4C9UVt1QBy1BTczLeduzJn2c51d2lMmyGWiowcccOsLZNOhNoPTeJefbVIuZo1nleWxT9SgNcBRBKLgOQjXNXKQHAaFCmmkP0ZFJpjFty0EoyrU2UApF1NOZtUV3mMzaMWmullGZpNDEhRb+V0TRlmVdDsrsxTMW2n5nXZlfTMFVoXagNFQx6puJbTVWxBLa4+TKxOqBlM1cOxGuBB6plKtBW1oTcKsBVekLp0zMkeSh1SzaWCwdnkYazXIL1W6lQZaeLUHMypBmherlZppEp1YIavStnTz9PH3rbM2nWtGTSuZw5u15232t5361QGCJz68+drW2QY1aO2c7Y00Zdqk6VGJqiuMIa8i7urw+pNNl0tiYsWlyc8Vsq5cq98SZNtqCHKhW7ldKKjRQXKy7GAuyZVBDczJUzbLoLU6BJTRbsGxCITpZg7GrEL0zi3TQK2ZKbdTEyZ7fqtt2XJovNIumVw+9mGLE8tdFD0RzOxk0BkvCnRVl1q3FWusuzI6GrtqQFPXBpsyL0YtLdzetnUUY2Dpq8yZteeEuXatwM0aDT1CWsEuregrbVEfM3rWXXzct8dlqxJg3AcugdEyMDO+sWs1Gh2RrJrUyAUwZKybs2mXS3jbvbvBeUxPxb36tuHddUF5bHUjQIhIzUasJpsZiqb7ExnbqUmqHHqxM6chjYvZjqX0NYHTWqZaHrBWeWu8ZMsvPnOqeG123kZJao1aZjqZ2ZUp1djue3E2Bks2XlutSVLG6sydOlhuQOnNrioQo2LOaIL5tHtsK2YnXBZNQRk6KXyRZDq2kLzHxN6NU4MuL1VhbtJb6zIDWljoqTJtTmXXStNLOjFAcyUrYwyNpuloxdSuPvgzemlgy7LfPl69JdJlV0K1VPLMUZZTWtisxlhJNChbq2SXlKYYCHpGXKhVENrEtBHKcFWi5C065UbRSKzVrMGokCsbTpW47TBlvB012ex5bvt7FQ9EmQg8Tr8iMI913Xlwh9EGHDPtcW9JJozrNDEGhBIDqA0rinI1VSWgxqZkZdBSWUwbiS2UmShdNqEuS5BGEFRQGVQd1Qayhr6/D7uckY1GYzLOqzbIgsQ0F2dgxDKkaAqpynlF5zy3WDsg4QtGjUbzupmlIwxp0MXV5cnQg3llO2aYOhldTiQ2GQSMuyq0UaHQi2hGbQV2427MQI5Oot2zOzNXP22jm0gQR0QoTQPXk0Sk/PYxuXQNkBDz60USzTlbszjNoBtoCtsjgBqYdUVo8sOrKsXSDdxkDswEbskmjm9LJu8lO891HSbil6mjPp1oAJIvmdPmS7Hrd08/C7HO6XH0XwvQ+b9PD1YavO8u3ouNvxL02JKzhd7z3ooz+e9J5kv2PivXrxWbrNXlPS8dksHfGONs7nEOeHo/OHX6N+Wr1fmAZGxXR6R5lm6jnN9BjPN9DX1TzSPW8gy5e7yDRh7Ow891uV2OeYLBk5+/Jua0ZdIzNc/fkXl9nn77RKDma8sZTGrkCB5t6dRXJnfEUsNAg2rVmPoHIN2pVauZ00zVpiFl0jkMjN2YrdKG1TLlZBM1cdW6lG8DidDB05WshzKLvKu2rrUWOnnZbUTTSyircm4Vg6M2tUsjIrO1WYzNoHVIZWRnVSWLQ1QdmbM0rbntBeqjn5+4GnO1jch41aqj8W5Lobp2DTz7d7sWvWxzsQ0XL6PMTraOMzp5+i3j3w31vLdbk9New5nG6zp2eLjA7vBNAfa870U6nMvjh+y8bvXrBxaPUzgAducUJn1nI6PDOp5s856UeD1Dp5MOQ9Pq84uujhzpj0+LmidTf5jQdNXPQb9PKWeg2+fWD2OT2MZG6LOcu3B0G2DOfWkuUjo7DeMcvVLM2Uw08Q7WXk77Gq5G7TVq4JSdnNyWHcfxal6iuIuz0p+V1J3b4IzXV1+dXZ6hnmqPRI4W+G6eLok0bjnKaM+HibeovzcuvSzzRavpJ5qZna1eZlegLzwHpsnEmZ6aech6GvOnXc0eZOPRZuLenoF8MV77/LnJ22+cte9l5IL6kfMPT0a/Poj1SuBDst4E1fR8zCMemz8K5n0FefhvvmXq91fJkm93Hh3k8lNdsuEUd3jrVp2eh5XRdd5XIG3sc7PQNEJKOipLgyltVVyBlgBay1l6HQSQHK6iijchUsGTqVM1Li3F2GQkSwsoStJAsYF2KOWVUIAxo0d7z3oMwdGbRJg25tGdFi2YujJl0I7a0WkjpXgzS97Jm0xzuli22Yddajlo156VuLnl0L7FrKw1jSM34hmmBF2Wd2WZpgtfP6WXUWQ+Tnxef0cPfZFr3W8abMlSLOS5XQONoE1GUUlypRSWBD2nPuELKpbV3UMW3sVwp1uIMKhgq63KINjBXdJdWNphqzSWlyg6uEphUlgwXUKBu6piiGltS5XVLtETqgE6ipIglIOs5NKs4KjSM1a5ZkY4TEw7lEqktwSLCDckEqSyU2hFtQUokGDS21bUCmULOWtBS0Nq2lVcNPY43bzBTu5WZranZKrkb+f1qVHOtarVnAEqrsZNPIzWvx6rH615M6avm3vO3A5aUdxWkmKFhqkWMWNLO6rpestWnNKnZj1s+hzLd5c8XNv5fTXbw7deqXOZrB5AdyLvKVMy87umLZn3nF6ScJqj2gL5fWLWzYcs3+eDqqzPQ8ftcXV2D2MhyNiOoZV7MZr5Heyj8UCNvP6Oaut5Tt8IoqDM9hhx93VpR8s16Ob1zCrPvNXlfT+RBToXIBAFbSUy6lXLBl0DLqKAxNR5tRUlVcklGBhrpzNqgJdgwoDR0ZqMZClhIDRtQYNgsuWKs0SsJTC5IGFxBAhGEJA2MNXe4XoswEsXIJnxproc7Xg6Vei1dbpg9DN4tdnNYzmdkZeXoys1kbSumUB2KsqJBuQxYC6GryTWkH5kMVPoSGjTM8lPTh2zPXbafPng5H5966mTLdrexxRT0vN50t6LOZUegTxWWd1vnrOhjQqXu1xKPR5+PD0leeldjm5dkmnla8Zu6/m2L3eXnE9EPBKu5nDkHo8nFZG/RyBPQYuM872Xk9GsixrMY3PK72bmQ1dDjLOi7lQ7fCsQxuxY1VFoxarWVLoasQhuAUQxNWZhoq6qSQvLpsy6pChMA6lEkhSnLhMuZQxsuS0EgIpZ2oXcJLoslmgEdgVcJVrNva4nZxLEhkby+jnunYN+fdxHlnVualMvQw0cdTl6+dU0Z5YKHBYMcoUVHQyqg5IU8SV2WQ053ILoxKgOQNGTXmdu5XmnEydLm9NKnQG3HetQhe9ZA2gZrfSKHTBC9qBUIAi6mheFGKSiHoGFZXAkSA7W22TZiLV0txwb09COLO1iMR93jWZHd/IvInR2nDp/XOHfQ5cjUMdWRh6DJNZnPHZKzVsUc9trXWQFVCwaA6sATEl1I1WptSSqlWAV4bN1ZLjSWfQVJCVcrJbbwUSzgiXEs1kVLoBtQobi3KkhEBVViJYHF09rg+gzm8bURtsalz5+zw+lWqtHYq7aXuxvzeY1DNQCWwK8xJoyPWAUCyHDlsNWdbel0q0GOoQx8Z3RFmgs+3OsXQz7ZOkzHg8+FY9nP3rt9Tks1ejSMldGsxD8LccdhApNqws6HkvT+cMupRRurYNLxbQDmhYp2mzPi1c86APzm/y/oPPh9zCBo6GMirag5XYxaI386aaci8Bc1rD4nf4sZ+5xGJ6FyW23hbzq7fKdoNXB2c0xIeiRp5GW66uVVXRQMAklxWrK6mSVUkhgXtyRZicpuSSaKk0kkBW5ESS8AF6SSohlVkksGFCgaKwYoYQWXLtHej4HZzMGo6geb3OabMO49a4t7cnW53LbZ1edpxTWJugNZS6nRnpgGyIbNYx3WmJizsja0zWGthGJmtYiCIadlALbnsvZj3R0OduT58czJrzas1YHarUGIjflI0ZSgRAuTXmozRu5J1BoDfeKAdPnxdu7h2bxyCjkWtennz2bMqmh68KqmjEyXckInQ5t2mpWVS7tfH0F7sENHT4tIAHa1oVRoxEFajzGaM0BCztOMlMHV2Fn0VVEJKuA3cBuqjVQnpKuFYdyDOY3mssbscaHkklkq4ZrYvFhVUDJIJijskqlKSkhjCs7DtgHUWYXJr9B57tyLK7xKdnddUpmLpdS0a9b5WbuZ9ZwdJG6Xljqz1BfZz36QRNwW23XK831OzADp5mlinbwuepMrXWwQp2OzZeGSuFIXOrRz9MvRuD5sc3DuwdKyaU20NiU7NtrKc0yZh7XFVbuhgklP6dcQNWtede7Miq7PLVJ9CjCOjoJx1ady8qtxGInogc+wKWDMw9inxQGBefQmrcBpJLgSoqWWeWvsTkEG0QSgImqqKpCRjdVXQwbA6uqq6slEINWMHpx6quSWVRUuKORBkBBNVY+SWSSFKcEKKixRq7KISQaIS6MFlHaDTKUaKi5LG97jdrGVDl2wyXVXj6HO6V4rZvdZNDIyMMTogupTnPRZ2g5bBqn6prl49hef64uyN6+PWGPP18XaycyXJAOizMS9S0vWyXn6XyMjr2SbI1fCcnBuw9L3OL2eJWvp4N5i7XNacHfz7k6ZafP2+m8/2ORHZFnHrVrhh0/mGHryjNv5nUjNTMNRWo4cHNznU5YlJYygcuxdseJEBmcKU+BqokJOioBKU5VFko0sShQsAXAKjAzjKy11cWxdck0GXRdXAQIYtqrrTJLJJAce7MqjAoK6sY3O+pJElXDPGpxbICiWNIYjFMgtCg3UurKuqUhhyae7wO3mczbmOXcWQkNBL6aTGp6mPz3GZWqlVuyZk1vTnmqy6F6wTc8B6PP08fciaFdfGJ6alz3pcc9+ujG+WlGZqm5SBqy6E2p0L4zjYdmLV36uKquvs4RG1/Nkg78Nr2eZnhtnPId1uLQ/o8UzcrLJO7yFS3sBy6Nm/iAaexwIdblSpJIZSylpCQBgJCyFgMKQQkBbFmg1JbazSMtbSXAQWUBBddKK1lreAiyivZl1VUkqSQGjCKkg5mfRpLqJBKGGzXKZARbFEPlXZJJUzaRzU0I4NoKG0ayztYRCAyk6BVsoolGmjt8bt5RGZkdOwVpp5nR4+ruSvbrWRULUWd1ZEaAQ3Z2qCyfCBCDT5pW9JabjQeek0FkIaI1V1Uso1mXUkRydEbkMR53EzdDFu0S2VdMCSHVlDdRcsQkvOkVVylcCwgMwLuyhORWd9ULEPUgclLqOEQiBqhUs7VKTxKRTBujXZEqikggdsErEldFMSZayAI1lY5RGLFgQDlHStGTTaySVKuiAdA0VRT0lT5JZJIBk3ZVAhuCsbGNQ6rklkkkZqfnzbZBiXKhlVdkXa1bY3FjVB1CTX1eV3JF59q8NCxfu408+ta6F89PR01quV6tLEUvWoRWi6yEyWJhSxZgZVQVaMoKoAdSkujZGY9BmOum6XkP6OaKA8nBhx7sm3d4/X5VX0W8wm7ZmjFOiRk53Z5lF1Mugx7BWP5PZwGfseY9HCG8TfW/MvKei8509Bt8718g/K+wiFpi3cEox3Vio2i6NURbrq1lcXRDZQtipaJArYsuQhJiY0F2GUBClGJugo7VDZBLVlSEkhVFQNFRotLrJJCLbS4bsYIgMs1kPlXZJIUl9RkcF4suWkglbUqwTsC0kUUwSHej813sZ0CFFlOfqzP1MeqsWV0EWFZ1wxuG0tda1Z7DvInU6NDWVZM4bhWpsnU0cnvZ2F6lwRYlHRHmprrFywy6852M6nPXVz2gM+F4mTUjV67OIqu4/zjo6Qc9J23cDqnV890uOP7PCidW+FF9Hh42itmjmXB+l8kR1X8WDdmEU9Fxc9HfRx7XuFwap2WHJLgKwTFKo4XUoohUrTqJKhg1KLURKJxCGNRTZBSFKKBoFrOzO4wLbj2atS6qSQlXAaISacrRskskkE59uNYQFBXUGNQ6y5LKkgpehGbILclyXQPES4QgXJEu6pvf4Hb5RwR9mWOrV08vXzNQ8ddrpqw89oh9QKXt1ZTUpOs4i9mizNo3ZM1ODvJOG7p5dZrpxM1j1IZS2ZNJzmQ7my1hLnPnaLFbcu3M7yiT59cKmK1V2V1QktKdmdbcOQF0RDS1KGxWEUKS2Cm1ZLqJYyg5QhWFg2VEq4WshVtEElGNlFJQC2lkMUiXIVi2LLatiRLgUDsCiYKWEGjS+ipcBgyCNUrRLrVqXCVLBq6KkE1wDqSVZEvqMVySnYGRi7HyrskkKBlCCCYpAxRZXcAam1UIAkmk2dvkdHEfEQ2A7Pkzi9vh9Zl73BLqXs65Y1pHEhcXdFBq8/1NAyudsOb0H5xuvk6jPyutwbPTcTp8LU0kqtTJsR0YyM6HJl2ml5zt7my5WNblq53RXxnHybsWr1NHn+7ojbyQOlztRK5w8ZOgxnJO7zSeBo8/2RG7jMOr5b1nmjo9DgdyFlxe9WDDOvHU8l6Li1r2Aw89d7JO35r0vJt6/lfUc46Xl/YeQjT2MuE7GPSml5+ooI04Tred3YBWmelPL9zLrG8u9o7mdHMZXc1Z6Ll9fIaUZdxxAiUgwYaDF1rinatSQklEG4UJUE/Jqq6urJJZnVryRZActyQYxDrLlXUq5ALcrNEhLIaugGJYEJVUoxjV1+P1Mh1MUhMW6A8/3+P0mXqYNvW0euZuZ3M2WA84qcu1Zg38nDZ67gp15rcWo9MTNZJeReW53MBk0GbRjuelzmrG6M5TTN/FlaX5Dk9ElteVx+f0ef010Ox5ka2eg8mJ0X8PohdPzzDou5IldrjbQux5Uo29Hgqr03nguL7nChO5wmnTDnhXpcHLGO1t8wkb2+ARv6HDznpNfnKrtedcuNHc82072Tgvrs3yBjuc/OuulzqgnscgY0dzh2ei5eCzur4ya7M5WM9Nk5kPTI4cBtRgEohoWAzRmbRy6qVcKkhQkJTAo1VLsq6hM+kDNdXKUqyzWQ2SWSSFgdCZKxboqKkWE2iFCwDV3eB3MHDSpNDROxXG7Ca4WrZo6VQvGXKrp3ZieZxfG7WSuPO0qzOHSEzZ9y1w10GnmXdZtmO2dCXlK6a4DNs0qrn9nAnGZ0NycXY9qbGirhebg9Crd4FdcLeLO0kwh3cMc+dLRXJPotk4Lem2Xk11STlD3edXNLXqXmnt2HGvquk4QdezkH0Ycu/QIrhX0Dy5pdRWnOZ1DOTn78jiH26Tg309C8W+1lrnDuavPrrY6xL2a4wD1jk499ck4gd7FrXPV2zk499DQcVXXuuJo1srlztrjlq7IHKZtEXOq3d4s7MOLO1Rxa7IJyK60XnN2dGzhTu3XBneieYH0nOl5t9EjmX1Ljmn0NepxJ3bODO5a8APQ4sOQfQmLz67FpyJ2FHNHqHWTsDWVc/r8+XWBvZyPAYsgeqbBtMyuTJocISI18/oLAtWo5Vgp1R6rM+qq5PTpeSGtJJytaJXHk2Skpi9QNSqy1qyuQVkca6C9M1NpacBWc8HHKx2bZII5d6ZBRnmuiciMy6DrlacpXW5yGSPW1TNxDxbU4F6S2nIlerHbrxr6CqoXzNrZltW6seGhqD3dmVy7MexN50qPybY+4p2IvSkmWIbmFJ6M3oQNMhMyttxGKU0McVYt2Mg16ubGldiaOhyOz1oS6qVcgVtAXTBE9Lnw6dc6V1Zzm1s5PR58ihhDrq4rRnldUalVY0Hk0LjnkD/ObeHVTM9qNIp0rRiSFzda1/8QAAv/aAAwDAQACAAMAAAAhlGAUjCwF6fIBqMBPvEOUyrVbPBBAT+W3IBBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAARwBBRBWFaGmCH9WpyT9sqWknvjGhOuH6KGz8M/vQEShCTLBBAAABFAAAAAAAAAAAAAAAAAAAAABBBBBBBABF8iCbGOcpG+NpRTj99Y0S66EAZB9ZNH6NE7UYLIBBBFZhAAAAAAAAAAAAAAAAAABBBBBVgBcYnopRo8REWmMM2tESS2mKMyIEWk9yCXl9nZh8+MRNWrEXKBAAAAAAAAAAAAAAAAAABVz6iVEdGrXjVyUj/5SwIxznDLN4IyIOsT+wCeIemadNrKmRJKZYQxbNAAAAAAAAAAAAAAAABABZKq4WHjHrotrpFD0hrcLHOKyQkdHkm0mswyYixu4c9RwtCQq4+0QgAe2BAAAAAAAAAAABAF6KG+dfRfxeduSkbg5KQIyqcnGh5TvEBMaugCjEOmKvckFOKYoAKMGGeXug5kBJBBBBAAAABBQPIBBWMHc/Tk4OJq6ELm2ktTkULEIOElJOA9HNoSCjo9zkOA0/iEI+moJaEyKmSCAELLBBBABE5BVII2R63V7viIi2vatxB17sB4970or8YNyE0/uwADsDWf0QGeOIWSwuA3TYMqVdfbhSxkmhBCvb5TWJ9Io1cDU2cYyEkgIGUoKSOsxiAU7UhV3+nn1mklZguZC2JNy1h4lJzU</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>3</v>
+          <t>AAAAGGZ0eXBtcDQyAAAAAG1wNDJpc29tAAAAGGJlYW0BAAAAAQAAAAAAAAACAAAAAAAJUm1vb3YAAABsbXZoZAAAAAAAAAAAAAAAAAABX5AABEUdAAEAAAEAAAAAAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMAAASRdHJhawAAAFx0a2hkAAAABwAAAAAAAAAAAAAAAQAAAAAABEUdAAAAAAAAAAAAAAAAAQAAAAABAAAAAAAAAAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAQAAAAAKAAAABcAAAAAAELW1kaWEAAAAgbWRoZAAAAAAAAAAAAAAAAAABX5AABEUdVcQAAAAAACJoZGxyAAAAAAAAAAB2aWRlAAAAAAAAAAAAAAAAAAAAAAPjbWluZgAAABR2bWhkAAAAAAAAAAAAAAAAAAAAJGRpbmYAAAAcZHJlZgAAAAAAAAABAAAADHVybCAAAAABAAADo3N0YmwAAACzc3RzZAAAAAAAAAABAAAAo2F2YzEAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAACgAFwAEgAAABIAAAAAAAAAAEAICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIAAY//8AAAAqYXZjQwFkAB7/4QATZ2QAHqwbGoCgL6agoEBA8IhG4AEABGjqQ8sAAAAQcGFzcAABAAAAAQAAAAAAE2NvbHJuY2x4AAYAAQAGAAAAAOBzdHRzAAAAAAAAABoAAAABAAAN/gAAABIAAAvgAAAAAgAAC88AAAABAAAL6AAAAAEAAAvLAAAABAAAC9cAAAABAAALzgAAAAsAAAvfAAAAAQAAC88AAAABAAAL4AAAAAYAAAvUAAAAAQAAC70AAAACAAAL0AAAAAMAAAvgAAAAAQAAC80AAAABAAAL4AAAAAEAAAvRAAAAAQAAC98AAAACAAAL0AAAAA8AAAvfAAAAAQAAC+kAAAAIAAAL3wAAAAEAAAvTAAAAAQAAC+AAAAABAAALzwAAAAYAAAvfAAAAQHN0c2MAAAAAAAAABAAAAAEAAAANAAAAAQAAAAMAAAAMAAAAAQAAAAQAAAANAAAAAQAAAAgAAAACAAAAAQAAAYRzdHN6AAAAAAAAAAAAAABcAADAWQAAGD0AAAnHAAAEbwAABk8AABqDAAAJ2gAAHTQAAAlzAAAdLgAACPsAAAxtAAAZPwAACgQAACHeAAAIagAADPIAABYXAAAMswAAD4YAAA+0AAAPTAAAEGkAABCZAAAPXQAAEIkAABEhAAAR6AAAC6YAABXwAAAO8QAAI78AAA6aAAAijQAADqUAACKKAAAObwAAItMAAA8RAAAT6QAAFD8AABVFAAAVLQAAFgsAABWRAAAWpQAAGL0AABlsAAATCgAAG/wAAA69AAAjrAAADlkAABJ8AAAbjAAAEkEAABqEAAAQ0wAAEY8AABITAAAJHAAAJ08AAAvuAAApcgAACosAACKsAAAN+gAAJCsAAApJAAAp0QAACRwAACGmAAANCwAAIPcAAA6jAAAVdwAAGZUAABSyAAAYrAAAELgAABhmAAAP4wAAGGQAABN6AAAYkAAADa0AABl5AAANugAAED0AABX5AAAI2AAAJNYAAAAwc3RjbwAAAAAAAAAIAAAJigABqpEAApXdAAO65QAE6W4ABis3AAdudwAIjz0AAAAUc3RzcwAAAAAAAAABAAAAAQAABE10cmFrAAAAXHRraGQAAAAHAAAAAAAAAAAAAAACAAAAAAAEOAAAAAAAAAAAAAAAAAABAAAAAAEAAAAAAAAAAAAAAAAAAAABAAAAAAAAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAPpbWRpYQAAACBtZGhkAAAAAAAAAAAAAAAAAAC7gAACQABVxAAAAAAAImhkbHIAAAAAAAAAAHNvdW4AAAAAAAAAAAAAAAAAAAAAA59taW5mAAAAEHNtaGQAAAAAAAAAAAAAACRkaW5mAAAAHGRyZWYAAAAAAAAAAQAAAAx1cmwgAAAAAQAAA2NzdGJsAAAAW3N0c2QAAAAAAAAAAQAAAEttcDRhAAAAAAAAAAEAAAAAAAAAAAACABAAAAAAu4AAAAAAACdlc2RzAAAAAAMZAAAABBFAFQADAAAB9AAAAfQABQIRkAYBAgAAACBzdHRzAAAAAAAAAAIAAAABAAAAAAAAAJAAAAQAAAAAWHN0c2MAAAAAAAAABgAAAAEAAAAVAAAAAQAAAAIAAAATAAAAAQAAAAMAAAAUAAAAAQAAAAYAAAATAAAAAQAAAAcAAAAUAAAAAQAAAAgAAAAGAAAAAQAAAlhzdHN6AAAAAAAAAAAAAACRAAAAAgAAAVUAAAFVAAAB4wAAAcEAAAGmAAABkQAAAYMAAAF/AAABfwAAAXYAAAFsAAABWwAAAWwAAAFmAAABXAAAAV0AAAFjAAABTgAAAU0AAAFFAAABPAAAAUUAAAFFAAABQAAAATYAAAE5AAABLQAAATsAAAFTAAABUAAAAUYAAAE9AAABRwAAAUoAAAE8AAABOQAAAUEAAAFDAAABSQAAAVcAAAFBAAABRQAAAUcAAAFIAAABTQAAAUwAAAFKAAABUwAAAU4AAAFUAAABUAAAAVUAAAFSAAABTAAAAVEAAAFPAAABUwAAAVMAAAFUAAABVQAAAVAAAAFZAAABWQAAAVAAAAFvAAABTQAAAXMAAAFLAAABXwAAAUkAAAFaAAABUwAAAVIAAAFRAAABWgAAAVEAAAFKAAABUAAAAVMAAAFkAAABTAAAAVMAAAFXAAABVgAAAVQAAAFfAAABWwAAAVgAAAFbAAABWwAAAVEAAAFPAAABVAAAAVgAAAFYAAABYwAAAU8AAAFKAAABSwAAAXIAAAFHAAABUAAAAU4AAAFUAAABUgAAAVEAAAFTAAABWgAAAVsAAAFUAAABYAAAAWMAAAFSAAABUwAAAVEAAAFQAAABTgAAAVYAAAGvAAABRgAAAVkAAAFJAAABTAAAAVIAAAFVAAABUAAAAVQAAAFQAAABVgAAAVsAAAFMAAABVAAAAV8AAAFUAAABhQAAAUMAAAFKAAABTwAAAUwAAAFTAAABWgAAAVIAAAFPAAABUwAAADBzdGNvAAAAAAAAAAgAAY1+AAJ+BwADoMQABM69AAYQgAAHVSAACHRaAAi86wAIu1ZtZGF0AADAVWWIgABAAA/+vWX0yvSROA/grpqiQUGPZ2RS78M1epAw91MVxOFm0X1zyltWeCxdwEq71yP/EydKRmPtsjr7WajfNjZflXvYl0UbpeapfiJSPYCLJE3Eq/ZqawhHG6WAb96DN+I8I0iGupCZ51nfri2QlYc1cwWKbN8F8/vBy4f77XwzftzVahXQIWiNDlvAnqNydciFbzMZoDLHT9my1jQOEuQc4stA6hLlkhHTDEKii0J9hlLHEF/wXtoajkZkvzL4uoYxodaNEPqzA6MqmXWqHph2hR2dKA9ibzXpBsUBNBjyuCb7eOXRLpp6d1VK87yFkvyiOLXTpzrJcadvx9xA5l/1MuZH4L7dV3yJw6i/6Q5+cumoNWigcnqIHfrxVp8GT1E89QsnOqxQq8p6mMSbJk0jQUEf14qesLldjZnTdNEGH5RXwxQf/6JHtWqAx83pIedbFxrwYfLc6rhzo/ZDOISs7kIt7wGxxrIyHP2Mu8OiNd67omCaxGMz7iJBnwG/Hd6qwuAIvE1a2/XWfzex0TgA/mZqXjW24P+CwgBoYV05UoNri2WcwPYqLVCoeEXlacfjT8jW7BQqp4WYPMHjlQQGjOLWPOprkHSYLhgHSdV4tlkdQovsJwmth2a6nVbIr8IPIhVYvvCx2o4LTu6UyKp1PU6rcOEavBPtH8yrZ7Ny5O/5+ZvjM7H7T7d8DRz7ods/4KH9knIv2GI3lCMHd2blTrtOJ9qZd/XfaZ2VXUl02/7YZ7snVYB0am5KR6QjPFwWlLo2CWPArsq+8wDvmalu0W5Z+K7Qlgohb4a+rByGCWw70VcbWsfMiuMM9K4nC5+mjqEPJMsQ1w3M8NE+zBolsyEo2QUKM13sva5FIbq1OgrOzAOwXgVJ0086vXpSGOsKcDt9SRnrV99eBwYeE5mf22Y+6SUX+xjM/Qhpb+EKiVRMk1OqpFwseKBOFrGXeQvhp4zLDkNZ6GUZ/8+baGWIz6dnWvJuymz7SNCbdnuY39i8RsH6LINl5dDi/cusrXk9Kn45E/ymOs7Auwj6Fnlcyd9xa6yWQ/SZ6u1SDTdBVQ2CHGNq5DjdaxGulRPNSfmhBE5aIBNFxpKeJLc6nx3OhOOUuiKZkq2gUgVTR/k3564jvilXpwKIV47su7vdHfhqhxxft2XrhEjbzpEDQigAVhw9dYDNDcyvoI3+iPvekKGwW2n1VeXdNLC97DEoOCCD/8K3pc7DtpcXXF1Wlz8tQHqBMj4Nfy/1pJBh+6zZVmJVAg6yu3JfuqLy9loheHd60xHN2ogdOZTMnSsOrMeXOS8ajUgKsHC9qDDtf48YX5CiNRm4yz5Ahek+Kbnlf+o4i2vC4PONVzmBRkbOrHr3RdJjGkVhh6RPyJE8AvX2JMgu2hA2XSeoj5KtLa8UGzgQO9oyhrb68OYQva7+VT8+GD8Jvp+2LQkflSLiC1V8CJVONDidNqFKsJc3FmTCakld04S22hYS8LH/pdSx5v2IhfRcitFZQAxOgWIMghhuUHC8pzLYLPVwL3JTvnmfq79HNvGf7SgLEIfnqtfk0CooZoLVYT+mm9OGCk9CY47jK9y7gwSj00NqsyXhLplrlvieic/CSy5NJbS0vpC7TyB/Ag8jGczdKqOJ+CUXk6dIv7EPMFkKIc7fkVUyG+rBS6awOLZKfT8/2fUA8X60vwOjNVd6gi4NgZslHMTJ21O/akNJDbg+IUteV4pmKePMSDaRvfbISxf2BglKCfTCE62EqJ1S5Gk4EeYUjqrb4iZgBlUtwpoPied+wYcRmNvTm36A6oPU6TB762zeSnDuj1xG3wB5nhbydXKNdr7bcgoQjUf8Y+MpbtQDawuikuOwPGhy2P+AkC7Ui/jT/uekaECeLitqFA8E6IClJf4yNAc/SfDVTGJByGFbwMMwFaABrQjiwx7xCow2JlMNPorbhwXVb0U1DANi0Sl+aZwtg4vNmzdrozNJbabho25eGN5h4OcHZqWTvL+tJI+03yajZvBebt/7etjQmF+6I356tfjqngApEaQeqqPgpZwqNQxJSM8E1RZcuc1PUVwi8n4AB48VcWmWoxxqOVrMAGWYzmG3+DxTsMBeG7y3KR7WGDxXy0ghPxZ4l9ubNNHZTsKNSEhKmLA5NyDy1/ImhVil4J9WayeSAKRJu5sDogpGbuW6S7c/Fgnv9//WF9lBkLXC1WNzC9UP41pp5ziOkHd+fEuqh0cGTxZHOO1drh39nZXEDIxuwRtdeq0fZIwiyhylGjNfXhwa/mkxIOxxLl8K9tCMgOLTEMnb1KMV/o/Frlwn7duScD1wzRAstRjvluQIFTz240QiNur0lrL9cs9SLw2hKRZhFPw//MP2R41iJ4nagFm+9krQ7SXZyOgEJbPs2FMJjdgmrty3HJxCJZZRlUQ/zrX3ep1cRaCyTprRVDzS7ZBsK27dbZnRfRO0j2PU03BPqIz5GoZ7FHtXi0KhzK3AwgV4HIIuJERFt1YTr7McMmACRudFMTz957QDWLmVmvQV5Pr+Zhp0JWoYXh8oaabgJY9gGcn6Amq+KmRFzMWo06rWEE4mxMdb2dwa2dUuZbpMlZglPKVx1A0CEKG5rnq5uy9Wh7cfpgAvpDcE7zXQ/m+JSgc62f7MoBzzrzcUolLhpH3/g6sspB1Bf06UQWDXO7LqaWi33Ad+DQe27Oidewe3x3HeFczs47+C8fA/S81+jMqwT4bM4lpNSarqTbUKnF3PhRuDtR7CRT48GLlQrvC36RJh7OVT+4nMrwpk5bexwwc9NGkpZNOXRJHE2fyNm1LjOBEy9GanHes3kt2btp5uqbP4mcNo4Nm85KGgTJe7cPYNfzI7EYvjjqtuJiSpmHyTDsnb+8HcIbzqDGr/+ZBmiYhey+KBnOIY3UECo4LyhURbkqhQiy1U9FobWBzU8QtGPB6WkhVu1TEf5zs/P9HgUDRPsONkoBrM/1Mlx/Cuw37svXYdYO6fM2jP4or2cp+Pf1TaCwEXBRd1JdgYfapL7N0BZHTG0RC50eqq/dTQp6W2mt2D4NkE9/X56TgU/Gn3G6FBKp2DtZn+v/HhhWI4VJrwnBA4mg0TSzicqFHvx6bM37U4VbEd1UxP9WqlFkJZPj1qLnNXVwToVSF5uraBzSFBKHo2/V8jAKjKTsYr74ENgpmndyq3f/Otqhec3HdjjP5Xw0CUYTW/VDUVo2HVp2iTDQs/Fshzpt8JyfjpAOnDwCqBjn4/7gGxderUyr/5WjjuVd6B4mizoq06/kCmKIaDWMIRTxGh8PKF3Ul+vN3rKLSAp8Ff2F7aX4XGYULBbaVjXNpWXECbpqJudsPlCdFh/lQqY7jl8qVVKKYgPBAVeHgdXe2ZQNTbX1WVIv189lflzADHltsPpeg69fo52Shb4ynjwoEgc3VHipEbggCvDTQf+uCv24TWnRwaKgapUZ2vH5jxKdPJDa8UjiA8AHrCCHFVLj1aKL5B/hzeKWbT7GSBaeNmeA+yZp1IheKUvXvRjkStQOyksT5hcOA42VedU4heCfmpYsSnQMXFZZmx0Dm0vTq4zcdJj5VxSvSyu6NAFqxjes66nenBjn9SbukAGXXfxA2weyhES5qHKjJcUlq9+Cqr9QNZ9hfYgc0QPQPpFKbEQ+D7DPxCSjQI/gMdh8640kQVX//yv+rf+uAOZmez7SqXAW5iLxnZd2TSBWdCGNay77m7OqLkbU71VCcBb8hSxVLZLGq4Q9TM6lKf3gjosVeOIUErbRGGO/D/giGAFrhx+Sz2GtuCoFhoDzPySkmpAGqJJFfXV6t5I8NlrBt+tGybAAi3NYF+ZQd6VFXQVXJ5ztjzJDYkI6QmUh45tG1zUG2SL2/KFQNJ/wwE+rxN15fZTYlI9Gye8kXbzzfrjElD+i9/VT6Eab/7Nx/2tcUqQN0p4yVwCLGiej3pHOzGFl8iLbULp9dcRIV6waPFvNJfsUpnrBDirwsPttx5eFEpVHW2Y53rdfr697MBJ6wrHFa08Dd5jgXcGQLXgFnnw71g4ovvOGL148D77Ymd2rqvX7pSgRjty2O+kxVUedcye4y+BNjg76xr5jK1B+0LU1ykKT1s/0y15lkvFaAYEvWNJE+rLkeyLiMuOuwi8VEIQu+S3ww06GWAgRSdfo3M8wgAFA4fpHPmeTfRjJyvXJUkmn6GZr44SY7xkLuo08E95wz9PLQAckR4psbMuEzDlufFzwzJbJRPv8PkKA7KuZnd8wY/ZM/+cuyyGX+piMcZ6dlB2vW/koJAhusDXvxU9CrfUlkdW8Bhv5vLPGsZc0gaN9eF8d/jBs2Xbz7RMZFuTogaN1d6AtPdJgBzIRO9eGxbWjl7rarYLliFll3anuGr4B1cFoFnufgPlw0Edd4mGiN95Ur9RGA/dz4ij6f6AkekgYJLl6osUjeQqqmPdJpabfAiAedNK1hgQUpLtsPqW7IZrSs6ceVXrzWqdSOEj6/ellOIbp/yZS+Cdu1FIGJl8YgnQHAhkJoJoYMjQ82/n9uB/6WjIVF64Q/rwVgtiyVhFLsVrqRgpHmf1WBpjzhx3AS4gBytGIey6cxznFk5PR+PkmDE25NbeK9DBScsryr4HPi+nY/JRZmGFw+m00mEYYW0pDRxa9oc/Q0woa78UwbGFgFwR+aSEBPqjV2fN2xfjyh/mH7x1bzaUVXjFHGXydEdUvL1zs51jGtiPaO4waaDLn3SPzao+mgtUxYGx4acPFtCtP29M78XKSRb2IlBzmIk+TvN7y9pIsZrP9XagfyuyrQwtXBSfzcDOyZJPXB1uBEo1pDiTPaJq+bSyd3pz95bII2aEP3oXVAEuFWqlY8uUZD/AQMh88KBcCQEl4r4cJ1tSDveNtVhPOZ5E3zkdWRaBqB6mVaIPM0jTABDaiY7oMC0xTXeKJtzhj7HG2+lY2Teni00jUCnglr5iAneUdTYd6e/8h+Kup79Dt1ui3CevE4yumgzHiQ//OOjOIhOpWhYllj9xHjdTeV3efDO5RTCz1y2laXhhjYrG5Rw0T5RWc62ViydBe8tktViQjDHHTfmQzIx5okeepxkVnMLncqeJLHdX78Z1NtJlMoETsy4tvnqNLYLSjU6TH03oTidEiU05MF7IPzuIit9jilZkMJkm4Uw/1PscYE9L2MpsYL9LLu6K6m7wtrlSQCOTofdeYjxzZoD+ihMZOQQuJEhBkcZvKG7+rZpf9uiLifj+s1prvUxgZuYWnTuzdWDA5+VHq7p0Y/S/Bgxe63he74G6qUw84y6GFeFmgcaZkfiqvuj+LyILX3eJ8YQ2aZGDMrHDzFX/duf3tGLx36rmKp5VxdVtMIWTefaJ3pvIF9ZFrpdRD2h6gnVVddlHsUxA43U1gWn+nV1vBohJErtlx5E78jdkUgqa72vFqBff7++squ9Z/zKt9xHXL6ezTdUxLePFJE+ppAbK3wYWKvhM1ESOMONJPuXpJrwzIA1ifkOsYP+m8kF13Axm74TO+5Je2f45bbNu/8JBRM0p73Ng88tZqLFSR5oITZAPdAMHHKdTVMXFZ4ucAIskL1zB0yHITOclGSv2qGGYi6NB+U/2q3+H/NdHP9TXVs1ESxEsSufVbczfzqCjyMRNW9Fo9Qon40OzYP+32iifv2t88EoGoJQQVv4ebvRFZTfXlNyRBXsVRTQA3nvYsuwLqFsGW9PSg37mG6k1aednFiScEhm4F3GPoqA6bB60KNaQAON3/1ZlUDycL9AldPECU/ztqtWmJIptLavS6E4cIgxbEdzTjak/BtzeksPdEI1ajeJE7eUjv4Sbxbiz+xQiTRiqwMUKwYTAA8yI+DF2yknfyVuk9NQ+kPTvahfPD114X1++g4Uwp/3EOJqOUgHiwTijw8S2n+Ef3sAi8V3aglIKa5QYYtDzQdFbpHG2n3CACgmNEmj/tB45GL0Y5v5/Ihk9FqRTASCeLvhfnTqWXRZH0g6VCUCo8hS+7nkxJVQDTTQqW1ATb7TOhCSf8vouw3GC5UPxE+f6N19CmWa9bt68B7WK2UacDoxBb0yieyF4g2wS6/w76HVfWP5tgQBzLdVJ5gdEo//Pe4NRgGQ+6c8pUSR3CVWEvEeL2TobrcES4eR2PJ2gPuZ/0sblXVtOjYHDvrVfEmx2ekFqi1FKwcHmyPECsdVQmTki9Qy4hGLySA4pUBMfg0shtTec1P+LnRzjABKGJlnhp+inKtY/i6ApOywkcRgOOtQXdSysrlP6rHALBoLuCtN7Uztv8m7kRBI4mSAY7CE1uDNmtYvg8tGj5O/pRlgeIizbthsqbKmZ9iBVqNM4U8mxdjJWq7V/z4ako4h41jDyI0NAVVFgvYfUsefCWoQh78tM5r/Fn29VVHV0+BZBp2ku9D3z1NRksvIj61duE/uX40ABsn6t8VqZ6uESj9RJX0FZ3kHfNzdMKu/xDDMLALv8YPp1MfET3GZ85VnGrbwRMQhQXX+8kYxmLFTukEhEMU21b6GYOfb6+kZi21fQWT89Abd+8rLkT9HbM88PUE7P9Xvq93aLHc2pj4fpGqsRyVLGeP9awaH0AvqreQlZYAUkPWQyBzYK3Ur01Czr3LcxXkcWsx7zUsETMgt0mT1plUPUFURPWo+lRWNsSa9j0hRF2wPo+GYb8FA34EhJ7YQQ/6FisQ7Rd5h7ugeByx+6EqVSmHQn068vskSltpCsIhth2gqA7IPbK6OKzJIN/IglPzU2trstRXNZbsHCN6kLC1qds3Y22aMEBR1TwV3rcZUxsIAJS5fX9Iqzy1rxqW8bfye7a6Pk6hKutzQbaSAGBPRdZshOjOBqsrs4WLO+LhL+EpdTOW3cqAOgEWLk34nsMlGE+yx8sgmu645xJcI1rY3Ctet7Lg5V/rlZR1tnAG6KyN7GrmgGCJt8NUdAG/sR1TdtweAArKQcq72VKIUAjx5POKt1LECpgjaQjmR2fYJ89NX6RgYqZWAyei04U8SikYBe7XEzMLG4P9yx9eqvfsBX5w3P7T3IfMS9OR+0R/4w/zRBH0MdOEufLQwlUh/j0h/6sHvUmx+LL6bpjQpSZegFkEmO8Wd5g60H6R2DtnAvWjEcwKP3RYgSDw4pu/IA9ozbiBx/gYWytx/PLm5JFKEaVjv0qztpF1Je6x2KAiWfo8b1jolSNOdBvAw9VDwermh4i4b99PEFpKu5e9ZJsPa7iMo9j8/J0iSVZe2gbyHMD3t7B3CwepP2gBaxKcBG03SWNC/yZ5V5tSJcDOHTJoyr2ClmQol987Z1OMQpRZ+Nb7UJfAUEf7m/hVOhtBvrv4d6dzcQYnON2pecU7C2ZNZBF0UjAwCC04VoGWVZHuZ6UD7n2TpVqBYbpQtfZXgXzV4iuv2man5wpaDjG4A2VvdsNSV6Or7tJk3uIGG8QriS/Vi/33om0vQuGcsiCNhMoh7O5FK7ksk98yKv3dHrlB4PDW+XcWAS0rAVHp2CRlGhgPVH/8uEHwOcv6OjIe7u1vX2IU+pxtTnTY7oUrcjS66WWURU1KGmirwZrW7pSnwKTmr+X/6K2n0N1BG5lD5qKG28g0gFLHxX1Q5QB/+/wVmEGZN2mn7XqiNTyIFk5qiIRW+/NDeMdM+mpi529q2f0RmzkHlMDggjNdnT9EiRgkwJRtMF+cUqxHA8ThKTp+OQltdgoqfqzwEFkJr+PHNGYYEgUSgzu8L115Py/z3SUi4qvCZXv117L1joKP6QAT+tyeGIxcHhZI4jmTsd+XOVv7AF0ZKsF1WRrs/9YI8Ubt63VGlTnk6kE4q+jbyjg9Aod40nZxMZDskqJIE4cGF06FrzVQkXTrgACzbQnGMHHZvSslSdrYOqBMs2F3ngeGJHHKlDY/zBLz+zCfeCa30HcjO08C42KN5bOtGYpXsTtX0+xEXJlt9DVxWRul4UkixwLTuYK+wClS+OiVzcxTz534cgOWx+9OA/hPdHV0IMt9zkFITufmSxQLIa2eIOF9MTT7NibelieM2F/sWd0jbP6GfsMRJbope5/hQJtkvzrxCyLI7cPIwm5XRGK8w4yAIRLDysn5GSM+D8hheicfcjh3npjfpQYl7eZJznEmYzhyhG2oScqa1ZfeTX9kK1t02v4QvL+LomQNT99k8fVDkcZcgvunxfY/9I5InmJrNaD8qGjWTyEhFmW8pt0dbg7T1mDm3zLBWHdNj0MnIasYgl3n6WBnb5GXa5IqqSYAPFFCP/bTZjs+4AEfjTtZ7nmnIDfEltoYcq/SYeMyW38awT9iiAhJEshKxy4+MBSPy/i7p7R4r0YwfcwuE9eIefwlH2sW9Yc0hbttKh1Ss7UUAYZK47q8+Wg3BI3X9p6kSF3jKrMguW/FDkNbwaD1pLaueWjaK7LNALwvxT/lfv2f3F4PVe8VKg+CGSvNICHYvNAWJ4Qan7lhGRB+/a1CKlOFzOriaXe84PfAhKV350YotLKyLZZV90a3LqYjyxO3K4zL2h0hpdvdduFmbjm7opvqRfUuAYytqEPRaABlzH4hBfjkgHJ11ovxN+Utns20GB7vcpjxbKVCtoFUoBMDoxRVylzo0AHQZv5jfXYW8ZOLVrDZIsdcRJuWdIMCXMoh7sF/dIwl7nl3+5Su23jKVcYgN1nsFJTuxiB7oFB1aP3cVnyBING7JRoVX28HTDjHZOpGKtY+OIVaWIwgN+2pMmLHy7L++GD6tzcBR2jycXMZKAYC61jKP7PqSHvjyF2YGN0xpcPFBQmOXSpvybPAn4Ua8ISKcJcK+F1P9JZ0JAbX2XzzivqcnClMG6OG0v0A2TbBBu/Beo21ZgNisL2PZKIYhsS1GpLxxkCH6d2u7ivlsmdImoXzE8Qf0tmXwNc9UsLc4B33hZm2tpVHNk0pae2rLy4RBwc2kqHS2gYKjC65qwh6jLM3J4KN1L7BvdNBF3fuhjGeDczgagRc+6/zbojHxDzSWw4Mo+WY8KZOBtEn4C0aiKleJmJk3UJl0g0NSVKAEKGDXAKkThV25YkgIgN8Il++zmz8ukFeF6UrzmZcynSPfxWH71niM124AsHzBXClVrtiNXd1Q3TXA9JU5kjfYXAiY+ngilpYad8sNIOyVao1Yt/qoUI0dl4L0PMUEXQ3enwVv+wWWwdXHa0Ff5JxgDlo4jiZt1havrmyxI8ytyX7BN6QD/uWwbSGkHUo+9T1tNXd6eemmPgJOuK7Cs7dK8Y0iPev4fAuNfksIqxkP782krvzSoPN1tALcFQ1r0BDa+yKW0fguv5rSe/8ZIIn49CHwQCo8fkohZzPrmEZLBFLWJ1pNkwtoyDMNqo7AU4Swi1DkYrNq7jhmbcChA/AOJ9KM2So3X5vHTh43xS2QFAQAMheR4nGQhUyvPNj0/kSpsP5U9SHRamWVkLEc/BaEW29SJqjH/Eklf1cUT02GIdx2WWqY0jAo3T/C/8XJKiQsypbCAYjJSL0PN4hjmMQm5a6S+dQhoFXR0TydhWDKj1pt5KxotEC/XkrZFh5YSs6ZP+I/jblng1ESVaJ8+/5tMhFp9r1CrtKV/zl7TnYopLF6Y9k9YHY16Vnj7KiJOnJmMnsSkVYJE2y7QFlakmGegaLU9wRLXjSZ/Lba2txH4MSmx/06N1/LLGMh1jquSVu2kknJehH8cwrtqsXPfEgl3kpAY5bUKywoshE6jCo3rGzq0XV+/y/B4P5W9wxh2N1IPY2BI/kLfbN3oHPrjZ3A8skAaSGAzFRJUpVu+y3BhFw3WIcT465JsrbzbegloMxIM/5tQwLvUujyl4/VsLGDXFp4N3CeyimQf8ktGOfzaxaEEIwlQegFHpp7VXK+O7AkmUbA5uSACoL/5iUDUydd+wezQhA6hq5m1Pi3gmJB5MPgqqpeG4BHGPzTYJehqIi5mwqBfNvp/uMlNf79aW8VkzGY/F+3oa5rXSLwOzB8cYNzj55Rj62jqU+/XfJanwWcQCKsYj4duUwf/gy74qQhexdzohGJn1tWq+r42xydCF4Q+6Hu5tG69jklDPSvZjcqjLuL6nDra246XwHBzjPpRl/K5cxBWGXt5nZN4ZN0joU1s16AaRgr5SU4lr7Xmy7VQBAi7R7V0Q1L19VZmz1NwCKsnhotIbMqtAoEiPSx5xoKzRGjb57w2Qw/Wefm5VAgIF8wk7K1h+wcJwB8aBGJtqBbX9/V/gycRlbjquVmPlwvVKvNLhsk6tPa/YvhJLFHUrCdVcOboiCWlzS3cwOOEZ5MIZweu8qk06ykHneIxBaebeN7n2hYM8LRKkxd3Fwdqh9bwqEkSLm6BmiReXu8BCbUW+X3ITZ4NQ4797xWn373a864+gzSpscmrAv3Phduvek/hfLgFhd1sWN+PC/z/AK2GvejodzzxCWkpVZ43pN7WTE878HWo7zs+OslOv4FGoujf5pKdWw19ALWN8JZw9eWOi67H8ElonvwqR+zprjt1OeJ81IIYEZmY9PnHbjLDGcZ0Lu1RE1hWgTrLlPNevbVs8gjyJa0yUv2FS/AU3KyWLx9ozB17SuYjpXaubmOOkMuvWifrUWy7elPG9IOTaCYBefuzMOtpbMfzTvRMH/OFAAQ3IJ0IqgjTmZI45U8EUDZ2z2ZevSbIzenUQTI2kJUqrxs1U+tCA9sqoa2Vg89uiclIfgcXDpJj2TwfRLqJ4tUe184Wj30VAtf3hZzvXzJzCPBX9RdaSB+yh5zFjVGlFAmNm8aFRC7JVjDY1XMjaZDo5MbsmWnEi1W02PhMhndeSzQH/fSKyGofCLnsxbUJPyYXto9N0+YQE3H9bVXSvuxy4Kn6qoCiFyRNd5o197WrnlYclXS0t4KZkPgO1ZW61pbz6OSCJ1BAKv5N9Hq6bO+Z9DvBJ+y0X8vdsnTPFQPiHnskN/Q2CsugEa4E4FVo1UrTD/auadzqFo5C3ZmE0svFZbhpY35yV1cG/i+bJ/9eO7YBI+iKOUpgQzU0JtnaotghENEjOBL8wy6BYoZ6+qU9ar7P71M5OOdNWOVu71glPh1WKRQYuEcyIId/o/wXQ+SFWm+rw3WenWi6Oeynu+NpM1s8GovUvtM8cgJIWn8hnJJCAP6thtKDwiu2lJgf8YkR4ySyVxJKk41VJMTo8tLmbZzOcVlql+tYBWBTTEeyDFRLzoKZdDSADj5QncQlXw1z19H9VwVzCrCXfNywZOUj6o5s7Se/wA5spsBmrACY7sDws+9mykGD8Yk6PNNV/Mwbi4fE9uwqXljsn/PmGcW4RBLYGZiraX9/jyMxCb4XTgcjrLN5y17gucWcs6ZwJ74beOe96CZKrnGIQlNk4tP+vsU0Ro9iyr6EDtP4UDJsZZ0jC4gxI7f2YU8Oaewsp+3O234m+FPUvLdGREkrAZSHz/NSLxNARP8WV62cd9O5zvDcRLRGgHiw08IWlTckbK6UvuXI9HzPy09ZH/rXerDMpgn6gfvq8JBrwTKDrmaj/jreQKILm1OMz8p5dvFRE+BQrfWtwcWpIbnAfoYbfsXIcP4h93dlSyJT5GlCWAQ0uy3Gs46d8puftk7pAxuBIQ+jY1r5jM4XhXfxQTRB0CfeRweYuhB0+m8iUCE52v8Xak9dXlIKZ1x82Qsi4B69GUmjKj8FgBYo27k4PB5g21CY/kuZEFV95ZpcvMaWFEArVcDxeRRW4Ob+2+8RyywPmfmANdt5GpvjPO04M7B8rMcfOMLFJaqs/H3kfwQfCD7b8KPMSrK2ZEAwX4OCwD9KQ4RdyNvlGpkChwNB38DFVpWCRjr3Pm456vKVCQZQZ8HajbvRYwXZhmyDA82bOti0kf36+G/eQEO96qinAEoEtIwjtucdfcXT+Myet0rLteeaD2AhfHuHlqXldSmrTmyMsNG+x4dt3PvU3CvHxMPzz9g0FKJo5UxIaYQUeC4gFrELeuJ7IxdUSWBRqtIUwKHnz4ofUJubXBjnxGy6Ce87P0SLrQCe3g1t0SPx/GQcZc1mEUqtoFbjg/x3hBbQnoLzkLGBlrf0Te2JtAANHvJ1xp21qjrAvhw70yD6pkv3TggkiPNnI5U9A7XTeWvUzeRSNYoYqJFErIBob3036ccz+pf/+9YABBMB9lDKv4WvINoMOCYEqo/uEukkbBCZohY9UXRuQL/fgrgf7D1R4uIAWpjvPvGwXtRJ0a61qjGF9GoNkyd/OAO7/e31I5eWISE3Bdn/cKUSSHijmGc5haqNI+jt8BNwIilGdCPNo10kOuLxlJDmzIJo3HWoJVZoStXl5rlUAQOHl4hUB4JZ8i2Qq5P/Q1ZOVj6RDRxeELEnO30U7YIZswIikHDCf8X9AloO6OdeorZXfK2mgqTMQiANYlHb/RwzCb73WMmtS2Hrxo/X2GUhv7+5tW6lZv2DN3MMdnspUowHiAMvQMPoZgMzl2u1VE3oGvJ+Yt8X0uMViImPze3H6z4bfrpCN2ZX8oMflYu6g5Ms/yuw1hO1IDxFDgPF/9hCcAqYO3u7zL1o6wcyeo4JstmnZU6FkCIEh2VlfE63hwG1Va2dpI/p0qvr2SLdYCqSwczk/DnqEWC1Kt81iYMGQD02R8P4KKe7NiXySW3X2zBNDh0jWv5tYd1WK6svyyqV+HizEYS8KC+pu9MbhSKuPpS58EtR6WEgOMJtOCMs9oYB6kb7/d2fhMjZqCmwcRvrO0bmGYuysDDpaidbosGIfJNLQvMk64QpPQyseOY/J1P+N7nyva9RMzv3JYzrs4bHMhxXhIGG91TqbBnsDmK8hCreF/10o4DulhBnKTtJ4ebX1OZ+Fl4bVaZnCJx7ajjYegz7h4wQuq+gnMKS2JXjntP5SoQUcPq24+gC0UDeV4XsMMZNt+kGRkCmGQwHaMFsx7qHs+FMY0r6zAV6wthAJkW8pj1FVc96Oj5rI7FntxeLkmSK4sH5jg3niNTouL3Z9lZsV5hN+jaxxAHssjGwLbJdIfsv7bzCkKCoaZ/LH2lMN7nGKoe97G/WlLYLLpuIBPdTZBuwUzUNVR/xUjQdisNpetd3/IT7MNvWtLNAbscpftTS9yW520Ci9G+/zZ7YyMCB+g/2OohjnH/EIWaynCdutgxC5TGqa5EQjePGqdqKTHFP+wQAgi716vBRYenVv/NjVcuBl1zMTpU2b7ZXSn6MhnprQV/KlYQy4/aEHq7V5RP7ysoSYN2YaFr0stQqrP+SQJo4lYYVbi3doeOgMmz5at8r274iJ3X4OXv93SAkM9hFfP0lUXFjediT7ULB4lADhT6q85y76n0OAMquS3v7QbLhzbAp6HweIPdNjF5w4SgeXV5fY6LsV+wnCnOX3l26o2Wt/UMxe2gIg5v+Bw04WomL3yLiPi21M9odDu9qh4MLZ/94QM64r8v39nmur85mD85ImqmwP/SO5QpV3Vd/4q7k3Yh1CceGsVHaPQ8OvDnMQ2Epon23uB5vGcNBwvWTOTg0cp6COOAJTa5K0izQfVG5LVVz28J9MFjUXHjDSO5BoxZXc7788p4qC+gZxeW5SjMfsJ5FRuVgEwHKWSMbvHMGn01HQeg7UKNNit3CoFELCnwSHU9PvcoHDsDUcs4FeuskfLdQTt6e3LATv6hXqU4QdKga01glubuByUoMX7ns6z/CW4Zw9M98TAN+nGCUjCtKt3b8Peb1SvFX4ZAC9ZEUvuXRV1KlwHPJQZOhYFnEaGORRlDoulzT63gQDgukmxgjx2vo5uackhlhP5obJo2ASvhvkjqYpcRRtdiOODbcihThiRLN0yldLSUyGIhzajx7J0yO+hQyF2SJR1FfEXLfk3hWcOfdwgRuY3DhhygDzRKNDZXPVk/u2GskujJAq2QmpvH0ehxN3GfIfXlau0W4npyIFzfRnJXKkcaTtl1UzZH9mnoMyNtYYaGbzEsOpi6ObC2UkMhYBPruYsmoFt0x5ZwUYnLjn1OxYArlPayuaJEU+Zw/oLV26wI1mjiiqB+OCz61/c+qqmiYS+aSJTLVqLrQSHm1JeW/2ccRimvoLrboS9lDCnP7w8poxQdpFBusT/VpKZrBG0+QTDN59GzL6kR/PJdRGBsVleepc1C6I+K2PcEuqgtY3ViNCo/Sm9rm1cEJ7GcpNjyyh1i53raNLqIB+ndtkiabciB8QdQdepl51xPUCZXEDGMDr8vEs2wAd/B4t0E0gHoUnsVQVZAtCTeqJkPXF63z8UvLdOb7t6FjCDRzYEF5kFSeyoKeQF7Fz80oSAczm1d0gf7QOnkj5+5eVmnVVGAApmZ7goeHgmO+oFkZRRJjeVqFAaLVT8ppFHDtDfrWvbjFmmlbkBKn1kfzbdJ+iqWgWInzrTDawUk+b7UPMuHKL7EfOAdZLMFjbp0KpyYrPuGbP9VY6VEQjRlOA6lgYICo/8so9YTOtngM23dw+K9Ka/eFojDBVNLZBbyyN+qi7OPXS/qjQIXfaJLPSkF863i/ua+c6Bb3gMARiTgIN2bUoHvApmNTxSjYrFrC7gjBRpDZA9U2kOeM1H8xP80BoVvQ+vPnqHR9dDcAhgEBpwKFhH+SIzA70BwcJ+GIg4VsIAJ7aiTQQAmjCuez296vaflrhcYUEMNNLW1CFWidXvW2TPUI6XqhgCwSxyeenHON8iDGJN6Y4YkLhffg/WWx+oucwWUdbMCx1Nz4FigvAtzpbLaSRFdpcMBdR8jqQ/y4BMyM4qywGMk82LMrYJBPG81ocxJwSQ8QK8NKmoZh61KI59ay4pMRXuK/ekVYFO41lReHibliFHdahSgiR4QVIMtoyZAJ6nMISLrSNTtiXK2+7qvDDhsJcDZJkbvhJHxyZxAl6VI391y3KatduWqs3n7/4EsA80osW3TSnzddfWzz+qE29HXjyVhPtgXo4spbq3AfO89Xk514f+omVGXDdRiJi+XJh/SnpsocfsrZJp7vvIwgTUN6WUbjYTBalliaYBsigBeDcbuLGB97YoZ279dQMBWgLEIJpWCtTDL7EEe9mRGGZG5gr9mNWLXRPj/XDAaxTWjIDVxkcUTH1zF+g159zx91P6N+OlF9JIMBIKSdu3MXaYPlqvFRI2eHVYSWssEFffPxyuelCnyYlj9T5DIeDASnI2tft7PgpjrT90bGrCaL1Ex3AQyn2N4VdRKfU37tfGWiDZJgDG/OzM6GMEEIuOOtJgEconIrv2/6W23YTdBqP1G2h46eTy6iAW1zt7wpOSL3E9XJj4qL8BsJXzf5DU85NZgB7atJdUK0xuCZHvubp9FKQLV2p2dMYoVX5zxvPFAPsn/LUwCEJbnDIhn3sPquEXHk+2fHXlsjbuEKMoO5Jow+xi2U+NL0UTkM/eB9vbk79G4ScYImTqWi1CtWn1y/xwYfTCR3q1yUtpbIB5CVPUaDHaMPjqjTo8sjDgzCFnmZ90W+KwJQlH2IFw+Kc4xsIy0J9d2hEf6RRJ2m9xbcCFgViIlP+CYk/ez5yf2dOAS8I6/0jSUtzzJf0NJE50Tu4ub9GgvvVjL8HBAuuD9jUSGVCDmuKuRpg034ZisEg/8R/FdoOAWG8QoOfxUFa/q6+UsJ8a9BgEKBRdabtG1nkvuDlPFcMMx+ryhWmEq52fapCrr95C0Kvux1+xY7+N9Yr5exvaS/DYO1Wt7oJsy3DH6FGZVq6M7gbHwr5567q1EyFOxV5oeQlt3ervoSbfGDgFexWT2lAFIcU1K++RwhQ/XKve4Xmc9du0DAwvXZTPBzvwxz2NbWTBDMCB03UQS/gsaftYRWIWjgd9Pi6d12zMnKNZYNg112U1GCVTLL2/WJTWsoQiBGhFMqv+/Pp6PVnNwRwRdHl69vyfinwtP+yS5DVIhrEc2sf4TFZxpLLsZJ85MwtoWGbUO1X8xa3wsRTpc9lAMlmZHZJWncCROBh72sBebXc8PCIM6wt3vrsb1bYnfel2rKzKoJ+RdHzzh0HJOnp9Ucc2vwlgVy0pH/QIQqgZzioorGK8EiKuHhtF4tPqrCeGpcRNXm73xuPns65nb4cl6HNabKnDsWZYGb2DSSCHlzxkuXaCld896tMYbiVxfZtG18R3m2f05hfXeautMZyIOZSBIYe9sXSlP0SLOC4xJ75MiRrUmGsqwstNUPkSGs5SkmMcN3Kh4sHbTiTct5dTXZoo6r2lwWluAHqlXfBjgHrxW7kMwnD9j6Vhwvq68potg22JPGBbRAHru0avTM4bGnjqdumlq74CJLjZOqM76VD4cMU/05D9PgeyzVXN560a4rEKCYnBFLmnTkad/Yoi1rQRNlb/CItxk1Ms+WI/xHFa7knfCbjyUxVbkbwf12bAoLeWPK/vgygFa0R3kpJXDGQ3Cqv8JIhQ79mMepXvKWOM39eGeTcEM9AVVKga+ExH1aGinuiwFnQxX0Yq573LGCf6B7bo1wSytOT+7ZxxbRLlAPnxh7HwxZW3hN28Q5WXp3WhtluRdljy5VyJxtyW654kRK4InSnq7Kak5BCOZwi4UuFcxK++cWkHs5XNeMyUcmD5gApnvtM+hHIraefxKs0QCx+RNawrpprY4yW/1QShc+okkk6UOknxB4a8A7ZeVCEiZTwmabsFquWpDAOtgykH2AHkqHZBxP6AHiEmsmEOnVL3xDurGB1r096sTug2K1KXQ5QjYF2DO6tatu4+2JOaUOEPbahzXXU2T6gH9KrU9qsLYaWs1BiUNo0w5ni7byYx/K0TZXc9GFbRur+NaPkf6hO4FJ9e7qn1Rw0YdHs77vwsfAGGbqJyHGZD1peXxbwXkF57I/bClBPIxrH3OyegQ28JwEfQ7aRkoF0HXLX1Vo3vRldJCTWgC0hUmgKMeiYW/NzTPt6NOVwHPRSAb0Dl0XsrZghs7kxDLnJTEfY47Xna2egSp3BRv2DnjOJoWZXwMA++rwlhDIlrF/gggR2rVH/rlv2J2kOJw6rzkskUOwBCy6cfpLxiHA0qdResE1M+/Z+PvAcSHICyOaaUkNOWZLOW6OamUOHFJPRsUNizV1EQVKcZSu8z4gOcb0LlU732lK54j5MpcceTh24BS9kIcVaiqvGaphqk+bSl64eiNNMRvf/muikpr2+zFxDCNxcAZyNeLOnZ7sjRTqnzSI0E8fK+AE4RiAsu7/m815J+jzS549XeX7bmLx8jbhaUpR3d95pc0Ibq8NLqxwZxiKViw3N0Kf5lHXGs73GC8MrGKAVclwKfV4RxjbKeMQHNhZOZFjbMKxtPQoovrDEKaX3y+VwnXjEOxp7NpyqwCX0KPYCYO9THQM3LEuJVqKecGC6wC4P/XrZj5XOLl4c1hPwUx9IWyIGaI3vftVftW4P7JXVz1hVwY+9tqMjZPIegDjqkMqlgeafBh9OIeTVnbolPV5lNw8/e/BD4ym2ZwYij9/87yk85GT8SnW5jE2tfUkHun8jl/LYbiUXU7sBHHVoG12KbLLg/r1Zkp6LWaiZsp/FUhgZlpcITqndEsSROsGYoH9cvGgDlxZ3b4latai+8v7SBH6lKqKTmOeNugx3ga74aDBZw8Nr2ebUnwvrCK5GFDLXvqNn2TvIoAWguFZ6wIhle7YqxWHMkLFwtTi3CUpROHIp8EtNV+VW3gEhCIx6xa4IeFviQ01r6B4zbv2pUQH/o8K8WAvjgrTsrgXkURXHpJE15Mt3cSUWayWq2iV0gM4mqwZc1oZwHeM5UvV/KhR9wJK68QOmEwQ/L3PnmKdZNKUqpMYJxxCfNgtDIl7YLtCx7oqY8gejZcC/EFtx63dbqrK9qH5SRwjz7AVOoVUdZVwPDXqckxMFG6Yl730KwZZFapukkFwU1Wx6YCZZzRIHH/yJbrEkTcB3Ij5OzoJROru1+1b/xq6aH1dTOeU4XYY37AHGbyAt/o7lK6NCuYzWJMd3C5aR612ZiXIbvg5s9TNEj5W4gXadfsKa+KI1WR4+qieEKKFVJDqZihDZL8G4zBpnr5xKxkOFzsRTwwO/Y2me8IMFguG7wLm8fbMoRzz+vHKh3g4f1kMUdiK58z8IrA7Y5g78ryLGUJXytc5OTnqQbH6pGV60GO6nNV+fk7u07k5lBQJSKOwBrRIUDZuQkyjsw3x4ZhWFxu63shO4w+d7nCXidn5Ao/lSNGXZyeEMJgPMnE45uwP/oQVyacelXpYEVUB3YEfYq7ReMaBhXE2qP4CsllkNNTKR78LH/EeX7DcplmwWT3d937pUl3VpG6se0ARtWqc9gAl6tUSwvNUU3gPmhZOLcgFRy1xHT2FQxJFfHefQymzl9Jw1BUalIrt95xfo97XLiHq5PLGvRr+9OwOB8ua5c/hcwd8QG9hLebCANSZ4fV9JTKXOrTa3N/BxDmScAd9ZM7SBfLfuQmitJJRdkAgX3dXEuVsx6h+yq1w1cfZxqs/0mOtYuDs/QxZupQ3+29BvjVqHBQXDOwv/yempuasB+fS7l4E/MGn0OWGd7ocdpiO5xTs9Py3KfMHd0UqEkqtTQMidiot5LbUi+6jussGcp7CH361IpiZwI7n5V1BxwaEqhCXSuxO8gtOuVpiLXKA8P6r2gJHfv2XxzWnhx+WTAnBJXEVsHidAtwJfUTN0mzPWWpFmBYObfgNSEew6LCOyreHdpoGMlabMwXjaR7oOgkzaY9po4tbINxA3q6WB1zaaS4hE8OjTxS/R+D+eVCr/DCMgKRNq5vVbscvzP+E+3RyAnDCGUQj0zx45XcIoDBJ1Pr/gKSRGbjSTFiW41QOG/MYRQahdBxidjkhwRcRzTDqaKIHfdP3TQOyI6NfC4/Dll39qQhLctdF1W6uZWXZOKs/HRX7s7AoAc7jB+pFmSfa60k40EyWU97XI9ScKI4bCqwW5wIICdioUGv7lI7zkeLZeF1blnMS1EBkcp4uqcqMweeXXo1OdKKmc8YlJknXvRdKZPW4NbO06CsjbzV3Zf2x6uell6CIA8hOiU2IsSgRSaDZkxMpwVZ59h3OmPdG8FzpVhUT+nm8wlXbI7HNxoel33nLS40QXroLn1Ut4KtgE3xdM0jrRPI6Yq14CTWkEm2Rq2PfpbsqzASV+BrdEeWVdP+HeWicPtgR61TUrenkzGilUZYSKX2LrDwDjUARn4MUA+OYJEUCNQPH/nyiipfkoVrFRdsbHRj0pYqP8N45Evl9g8gdgfe02oNL6qmgr07FmeqWrxWvdqAmwAGh8baNwFtEmFB7G19VrBH/BzoDhbxNiO0kdosJE9+1YiiUbeBQzk5tiNXd/cMtoK3sdm73Ptim+LkbYjvNIVLZRlsCxF330VXCtIPd+zZ6GyI/yod5Mma8pVYpSVpxe/4AgT7SX3v2OQX2A/3id3oc/nKncdaB4vymA5zQ+fV5vfRiBRRaJhLztMflEVrv22nsiyByIEYm4XkroElA35Zhcx2AvjjLtf+fP5hzZAfDhO3fUJ5CW0+PfUcrXMiNzdrnwn2vGjXN4l/YYH/L08zrkRxSBfL8hCBy3loe4MWT6+r8pgQO/Dcf513vAC9bRA9Q0xcNheuJUhMLj0y9STriQkDxUEtvuyAoONsA7+6NYwQDPSXesYVpmay4NVZKQmway8fDoHOjGXV3wTwvfud1svMHf7/nPrAQ5Cz9tR8Q7RPu4vGx3uTXj7TKH9tnaFu9jf/p8zSrwVEeVWpfYRhSy7pTzV3ADZZhJXp9F2Eb8gq9qML3yGCza97rhAA1VJkIiV0Xc24aoKIJ7hEMr6d9G0hK+U691InzNLmX6a8a25VdvG+EY5KIeQlwGGttcgmDWNLQmfjAFcRv73JZT6uR4hNUx2IXYzFuB+IQntTyJ49MshIvZbj2s3kNxfXbqqsIYfw3aTEmUoVuebHYjXHITl/cz7csAefWHWBvzIYcIN3MTNyuir0eOU0DaDxNC+rkAxOUEa8JkQA/zMPCwrgY7dGXuE/lbKk1MsQpXhj1ewUSoF0P5NuUKWeGcVwFJoMxHZCJUg5hgb+OHINILxa7e+c0ZIaa+ERNlVLnpbGOECsQ9+xgq108a70KsDK+Rdnrx7+XAdrtDip5yXVHwVipk7gkv78PVFLyQf6KIQTHDSpeTwGbvz2h5vEM1clipB87WKtr2GxsJCAJrwzOS9ia6wKPGxl/z10b3DjAk3CQbBfxqpXJFvm8NPfvY3LKuDTI54IjkaMjbd0Ni4ngrLUwr3wazMbuaQ1uOWkraFUyhoAFruPTZOjEj5RjAgS5he7XXMJQU5xvsnyXnWTB3LijoPipHdKBE6Nnw5xQ5OJMLEM/udAxhDRFk9HsMOQciE5wA2Xsj/1IeMc/hLkN62NJq+VJAEIyASCAI+6Z0vyIlFUJGEGUDnL8IiudQuMuPUPu2FbDx7ia4JsOTCoM253sn9fGbt615ntmAVfKxU4EGfsp2N7UpMqR6MJOH8/t/gRQUHh30cDvVz/CjEOMNLfUBCTu68IKac7zHvaAlZ4Nv0U9ZJLASTTr171MKhr3MQfCHAXAHHfkk145FTSX43tVlP5ZY2rbGfr/Sx7BBKzusBQmg0uKqQ1/5FiQRXRoEtsbTo/4K+At/w3GnIYUCd7pYW8J+7znFsfgUbkPmwh1Khz7ip+q2ygt9WdiB/SKEne2AyyWOEYG98iLQba8vfTBHFeMZcy0bn+aLmlhWZsGb4/XCOhb0q5BCpIBFBXCocL3zgQ9aH0OGOZKaLvg19vOxS4WjN/f4ZN0QpxpJytSsKClAmTIjWGAWJN8E5c/Zi7shrMUA8OcmFti2CqVtUwOVHswItqWcCFblmu9lRdsevMECpsPKavfU9NjJIVa8kAh7+KtBeBGjoKbfSFOA8TcJZ/OsNZiVZM2U5mBhnIb5oQmCgzQAhaP6uMsOzENhXiyfRs+nBgl1KyPqhpIs9vXb1bFBwhs9dR46t3vUZWY2X9g+KEIgeVDR+z6kV7Td36BvyBiI1uReNCgy2XLKv15NfNUVmeJHAx8Y9M+kk/thWQE3Ep6veMZcDXzV2GgYGEehr+J96+0+4bjBhcRpYa28V3Hfb1fP4A9ZNLgrssiFSoH/imTmhhtPZ9xslDDkCmId0DqF1YdL0MSLsJIPYe6NQMIxL2xYs+ZDgHPLGNnYtKwW0kDWjXEer3ALK2VS+lSoOdFq3wuSa+zG+npzEPZaztrKe6tAhbKTakiwZ0eFdt8+3tKe9NYwwnojkpLBfcvae475AAcMFMvFEWqbE8MwKEUtwkwMveVRTHk3qIY0fBsFssVmcATp86mQ5bkqSESD214d+Z3WLJx2EoPr+/dijxwfcLAxoy3Pq8gPlgQoIA7I+9MQy8OO4YiFqlnkpjB/YZe6ruXinbDG1Ec8GZ8xtsHOCPcI++YbtIoGHlwshipxYH8H6PP1Gw4MRWFY3G+vNjz9WOsZHMKXO8kccFh9WzQkLejWJ3dvL/Y9/BIC2Rm3ac0zpJjgne1nKFZSLy/z1LzNJUXmx1h2fMgHm35OGTtuau29eY0Kh1xfdYusxl95+6RNEg0M0wN0LX9aYT3oZ5rt/GNZmKEm02SLtIquSTXLnhQ41hwdyt2K72pN0yCErjkfHKKXj9tWGQb3XnR8kriKj3/ubYdLJpMpgCP6WL1MWNk1sB9CHYv16fu2Q2E2BukHNsZpzSTAcq6knowGRXstJWTediPhPrNS/WcX3Zvkr4ve7njFNol/DULnEuDmZ4nkNCXWxlJVGlIDId7IqOu/vK74CuX+mcsAc1GG3vHoyO5WpG73eHvWOpnYvWMUPpHebkPdldry+eKmtOjFoZKk+p+as6lWwNaO9DhzGLIA8eeHBrg74TQ0MMovI/BAZh842gDoaAs139jxMo06RwdVu+Fzgn4QGPuDKmznnrV5MEVut5Si1voRr9I+Hn0SUsNA7klUlSla8E9Mu2j+mIOjXqCLWMt6oPUjv8uB0W4p3B2aupXgAM/8modE0PhGzImOWOAPyNxSTJaznmoLeGkqzDzPMLLYHN/BYUe7pa4RQxncT9YTjz9MKgSvlG8vEmWQiv+328h5t4PAyBprf6IaVWDPdJCx/Oq+ICu5jeUUQHf7dQk+IHyFo7B+uVo4SKxLMKagkT5Ty+yecDx6hUI6EIjTRXOVuOQkafxrdK1yFVCS0PeFV3dlToHohbbbpddeUZs3b8mCwmdkvm4BRWAUkS2lB9Ku+V3GaO6ZWsJKNDNN3WdejHfXUceMfja647VDjyLnjlQfm9rxRSoQwVkbjdVOeBtOcyT4xt6qZKFNZ5kvk457bCzNvm81G8Jl036Xf6HB4i1atEICYWpw5p+05aqXiEOs2mj7mYf2hqKGHJSzg73yJZmlt5sQlmXrZv6DPpZe6JSN08H6/B069gxUHHOaVFj/rQFvz3sbAg///ytjUB9jyJVRhxxfQUBdmbfEAKovQvi31ztFZEjr3WVRRRjxLPg1lXkc62tKSFdP1YQYc0XWiNUzEJp47ITKVjVW4ZGCNL9Izneb6PcPC7QmkcXCCimULgmiopA95fWI322slNifmq605/JAfouX7ASBhRDxKYTV+1TOVM3qAVx7oO6SBQru4ldqI05ftjQm3pXuuKTbxzL1toMyqokHprzbm++UBPXjk+KK1Rv3e//bKhc9QIlLcMQpiDpIvtAAY0YTR79hZ7OijXDTycNigbbDvdm9Vm9IF721ZC3Hriidpbgi1AtQ8KtqYM/p2VzGP6CfJMju/8Mc7oHssuOZiv10McVeivUS+z52iZQlODGW4vsYx684it4rzOO/5nGU0rdx/I+mmfp/JQJ6MLjsMGybj6XthhUrjHQMFaD6hp87+BE+J4sY6y535rTa9zRkV7OCrrqcKJvbXXOxhLtmb0VmTlsrbKA46QYTookUBEnsrZ5CjOyH18R81Znt/6yKDAXmdUGkDir9jTh5wAq15wOjydrPZEdGEKanvZYZNHMSDAcYdFRTSUdzzPD29REKOjUvgw7/sB1Dz1Hg4YjfLuYqOlWN17deSbBCnogFWdiC4fhArxFGNY5tJTVodR7b8bt84xk8s0oIQaApsUsbFFRTuWuAeHF8Wr3jtW1OtiiByPxe08S8vADcb/C1alhI7nCt3NNYWg9AFCbdbRjpWO4MBnzs8e2hcmPjOg55wQQeA5BELm8ro+xvskjx7+kPrBNvm53zspMTWNnWeJ3Wq8va+wnuZy4aF3bVzHKeMZD9zpt5BEa91hYFgp8YjYxhYNU4nwW2veHnJQu2nEmYPTKlJjPlCEa544DQ9iMe39rzRlQMH9KP+sb3jkFNBB1qZRjMFV7xld0+GoS2ACxJl6WwNHs6n7TwaB+PddbIdmdqfwkcTb8ss8pOrZ24vvETAbCZUkc4V7BbvvLiYd1YE8IrEzRo7rgKrKshj3Je1AZf+/daNXqsnmHpqo0JvZEwz4tNzB5mixKZ0GNv5YnBgJNaoDuVaZ0fJ9IyoWJKvq8HeJpIGFYHjPGVoGEV7vk2FRyfNJmn/1ZOACBZXFt2m3RSNO1TqNDSVetUAuZ0GPul6MX8YLT29ZB/yn/CVR846yH9tWLW382Tzs9g41Oe8Nd07PhIq7RiVWk9wfsHNLvEuitRWUZzJeJ9zZKQGdxjxbhGZsRImKEbfyWTH87SRKuOvv3ASSTkECWJGDgnKl/wMi0GFLE7WkJ02z2l68OQco4PcntcqjmIT3x6wOV2/kSUT/Nh70rgfEBY7QBLzCugwr/UMvQWnjN5e8kI8livZDikiU4elX9VXb245FYTbyJsmd14VYx9t8V6a3tBxSvCeQY7k1xm6tffPxyBHRljhahG76lquF0r+23ewkvilhlJcqUEXZ79YZLMXWgdB4kOfS+NtNgayQiP7bpD1D3bhjWT7jZM/p4OwN973O4ZpZtBR3Lp+QCqXdEb3M2/nXiJACxqdFtdiC2UDyKICzuKKuEvKxj8jnmNIUvdRcur9A6XXp1dj3nAkJvKd+TKHTZF0RFeO3DNPmzZoQ5mcKmvZY6tgWZAyxD/Mr7SjA182h7x6TdohgOMXPP/1XkpABykMhZp/G+sQ81Y87o+k6GufP4z/m79jvEdGq4W5inDuRasfB/EP4vNXOm/Hy9yoJnkdk2kNvsS/w8rwC7HORJqunqMazdCYPR3TlvKjE0M8P1FZiEMF1PhAwoQqtmZPvVO2n2bMGZbq1y7pb0fnAsMR5ZCcTCeRajeoX3HKTOODzsI6wpEjvfzncz6RQdtOvfqPcXV6WwlyQEeeEthA5F3pvxWEwcoHl6fVnLJwjuNjT3DR3F+FDdmgYZSvhGLxE02FTsovNMhv7g6iuJl34qdSugV0qFcMVYsLwSlInTY05QtJfJIYzRm9TdNkts30nDclzUTwn5A8JaC81OM34DqRoXXo95h3r1dqFlJ3tReET1rLNAT4lWzMyvSdeYbJ2I5s5GFo7fD69VshICpg1LexxChKxsbis9iN8A/ioTwIwEdARmxyJp2wk4sANfJoPDxOw2XrT0i7MhMpoIi6K9yLOX7fvcOr/PQqTMbkYtYv6gYket7prAQGxMn/syKutiaenxp+PMfM3CctssET1IRwt0WVrIDiv21vkknmzOTu1r5P3VgkUG7XC9O9NlrnWuAeYK87dMfVpWHp8snyKvAPRVlm62B/SDJXaUOeIvjdLCa2w0xSPFV+oRivS8LjO81XDHwkP/9iBq77hh2hwsKHZOjhP+Z81u2LzURbxbMSSgEQT8ipyMUq7AqO+87g8deSGjG4Va7IvazkbjsiXe0dl6yHLNJFfHO3GCnWzzfhdT5N06bMLn8PK1/hU8xwhJCX9o/zqKlKPfuawkTJxuD1mEzPQBnQXDM2sWRKhzuBvN7OVW6FrxvSAePJNdz9IBdaFYmu50JOlwMxpN2W7qcuj9FDAWgdy091n/yACNwAqomCZQWQk1TzyW9hnY1jVyRcDUedKqXcx7w4TWiJspHssO+cj34EB6cu5OlNB1Yme1IJcPlBl43RyPD0G6OX+xWvUjfFo5XIHR0Yk/axgkXQ2b32sGYNbdZOHi5/9ysUWknvCu6O2rHLDrYow6AEzXcHAkTqS9OfClNvARcEosNraeqJP7aqQdF3sPfGPbjdALP6dsb7ht4T/t9oXzMjJvZDYwbeN/Vhvd/yrXXfXge6Mlu8cNfQJ0esgetX/NfVKCS3ct+d93V34SFpLu0TqB+bgt1LGIEb+vyqmf577Yb3q31tp5bpPig9V6Zwf/xwfRewlUBo6dQ+/HkGBxRiE0IthEql8lyM1thMHDzP4kVZMxuCaHroroGnwXmFZFokLDCMJrGrSMvG8psQS1j9RSRn3BULyBCGQ15VjBzY2o2kmVXhbUtFLIZQKXbtUrdtHXxeV1QMEfjBgcYnyVvf8Uv+lpGM8zBLF7GjvdXY7apZZP5NJ6sSyngC+npua6GTw/bqDJFdbjamn2mfoAQFlVb0+s706XVKSM7DHuk7nGJwrrLN0UJ4CBLpCWg2iwSQ0GE/UTiE9lWwTfAa5dH6+kWar6HPxaDGoE2zq7R0/Mvce+c9cqAB4zW26aPJcED6CGAakcMn6gfQ9CDuFeIXmp7tPNFUf3rT+ZJ+AOW4nUjSPmYxbcz9GKW99kf3tn9Y+movtmkBOaHQ1aqAVjpa8O3roUIZCtG80tB7Ujnm+wmYllSNo7S9iZ2CFj7bumrxAIqXB6e5W3Ku2WrxrYd6LyjqD4IyLSBbfluzKESYgcGhRBaPGc4W2pcWV4z+H8s9bxy44vEVQseeElWw/NPYE/3AEXl2yGo2LutaTAhKzl7FU8GzQoBcuqvf1tDRhXxBK94YuRIQFvGS1Qm0ymSfRLgt2m2S9+DP7rwdNxmK6YOpLPLa1zH/7BRfVeMbyYXMgvvWDJ5g005dI6TQQmbZKPX1LeR6QJcgn++BiVKNSGGP2eWSs3bJ23DAF75/CX8btSIMjDb/mn4SN+3dlvQAWbiEr9JsV6fGmF4WiprV6dQPA5i2UExrBeKkg0UI3SFnPV8ZMyrMb48Z3Jpec/5yzYpMi0Nvy7Ho1ibKrIS2bZxWcTsYh5U6bZytlf1FpbLlMtrpGqzKZ0QYex58Jc8yWHaZAOQCPuzTmF7JA5jlsCrvlSsjmnKjyu23BbxOwd+x7BRBQk9QEwKikJnJHTLdlhZbL0ZXhyhGYGdLfUbHsvNdqb5Wy75OdHqw2RnGReVdWdyEjfgH0Yjni7+Fq4NDH3t5Na+6qgITSapmDlh59jJZqDHE1Xa6e9dOYhQh3/OJnrGYzOGWgnWOEUWod6svsElh0dNMv5xcO/Qfm/+A42fKWdJcj+LLOliFNWd3eI+5QPsqyj3hH29nYpO2ltj3oaZtd1375hWgjepp/89RazmYIn7wBAwi2N/pFsZZ6fdFNTsyF6wYxke/bVeUV96J9J9oJqn1lX5aYPmYT979DHeh4uE+yglHkp+03+Hi+E9+NiWD5R8+chis4MlIZWhZDfVZhTN/GDSJSeK9jOUKVfp27QZ4afltwg92d/pB6jT3yiMbblA/5vNy2zwjWBF6KqfLKPu2QFCSkMSt8YyBusWmQHFUdxN9uGSeUKKoCIr3PFiCjMW5HNZYoh6UhlfoDA0wn0Uow2aaqAwttoKXHEbRasGGPKVe5k7Not9qsKrddQvqYxhlsi6vegAZLxsBrwOVgnBu9R9Mt0rD4h1XGqvK5th8Bpz1PmI7VqJNuXuO6qE3xUFTBAjYM0GKFKT6ainsIvzdjiZYFnzOJ60uR/2IVT/UR3PIBBsNtA+KXQq6uZjqq+YbFVhwHaw8JmIt4kRgYuNHNWr07BSOCLoDTdoemCgmvTiyJfQt4IFf8Yl85A4hsDbGFxZuORySXAQoUTYaqQebfouyvJaBN018s0RopkqCWeiNqqQ8cJiVd7VY490N+2159SEgWkoDriM/y5leCs8nKeaUS2fC+qbEW3ShYaUM8ZzmLAooGVhM3DMu3d4l8yUAXkfPJUaE591eilzwDx/PPZOWpiEClrnID42EFQOYIMK6J0STcUdEhveSvwCIdhA+OxCVNhKa95DdirJfZ6QU5VRNFHho4z0AZJ4NdtB95+yqjgP5jcfdOjqyiAgzv0keNiOTKoJybCraRd6G9U33Su5HX5hBGYiBy3DKLzm71EvDVCgg58GL2GEBJ9OIAXNJfMiZUeeGHFl+Hkg22DSASJvKURuKBQMjvF1HVtXtrLAsL6W+Wv6psRLzsHnKFN+2NQFozgCFG3w54LCg/YJB+fQDjSWjcjDWfFa0xCTwRqmVWu7xlOoLNUl40ptpe1OPvvD1komk1abXociuY00VmEyOUMih5RxiDZucruAMs6eD2r9XmdxmLEccaDjInad+NpZht+yQVgW4TIGacP440Ny2rG3CAH4mdeLokDKGHzwN1dFWJ7XQpjdtadYutELwQ7cHVjGs/xWPGL1CQm//UEWMEmfD1QMjRalZmvDT8RwnZghOthMy4Q2erNX03otWqaYRcMtl3ng3O+CHTQlw9axDdoZ3pKV0sTU2xuWai7Y2uSKFTkHva4B3XPUpO+/c7yzzIxtzkA/2pOsJ4RJCp+C1Dw2GgchSUQJepf6VdBde/CTieQ4+JsQx6hILX/QrlYQHCOeI+L+9qLARznK+a2Um/q3IupoeclGot2zhDFCmUD7mQTJjWzeMuFfpUWyhy+5FF0No7AQpJDAN1kRFTMIGRluIWHDbYUtV6V3eKlERM4XsvpTibWEJMG7PS4Hso4bTUrICLRvWxuuVsBy4GqOY4XHQMUCPrt9U+bNM+0QtoV9w0oTA7fmMraA6KWrWjNjMM1ULr0hlK5/73nllT764V3lDR+1G0A0CfrrsIsDesLXM1nNXrZv8EDS9yq9/t/fMlDHY4j09yQTNoP0W/7cebVQjTGZKS6uwE9qDGwYV8y67+wM3PS+wmE32AleXh2syvBJVLswY+mgeygPRi8sMqP+SG6UpRBPvhP3MDunXIAymWOaJXoRwdDqnVNougtQk6jGIlwsIh52pleFN+mW0ByhRsgkojCJJ01cwegspXmLjtGjlip5CX3MwF1+C3P6qeEThFL38Vyphruphy1e02QhU+LvQIowQCpX+5sxon80TrjDfA8YFVHmGlguxm69jnODQFwNrVYJeKLS1PyLTmYDDEP5Kf3E7omQ1dMEN0bajEYUB/p+ZP4GC+TPEmnOm3BSBi+d9faIdOAadiO4Bs1mWFqNOiTRCjzZVpqgL8t1BK66i5ypR53QC2LcmXrOXMh/ZMp36OZSvLTXC8avMG5WN80xVmyMRgYp7zRJL4Pjn0xTImy0DR3IIomoM0xWtDoNCWqKstiOVvfrIua4F2vb6iMJb+P3sV15Mv+/QW1r4XfkLRRhYkCiwRGr5JuuK+W+mbZCNOhLFmjbPDGDufQ1rOgPLnRO4Wi3DdBo5b7gAdj7F4gGcIwipLS4QdFsN/R+fxIqluM5uqE+kXne/1aVfjOhZEgbwNaTrploDX+JVeOjOe7sAu3NifuvukFMWsOBBXGn7XXFT6Lo7MRvPWoh0VZUuHU3boxNhlPK/7aBElsAzIaEq3aIUVrAtHyDxS1WntrJPKzSBnaZqFOP6uqjLBqAY9TkGcQRvWm/KuaZErR3sUrJq63uPh+0/LODoAMbQHzqitbToSBVnt/9m1ZTYc8DFwsBOtLKQhf2tjKV1zySHJZGvHbT3ncYDnIDoTX4ErIi3I020+NBFzyF/+leu0Ojg0+yMVeaa7CDfvy+A1vI0nmoGN5bQ60aWsZW+Ui2dlryPz0h2FpGxn0mQb6FtL2VmYX3m8Lr1DwCqxO4ugfHrmgyivtTV6tEcbQ2Na3PGl15hX4kxEPIpWDcPgZALQre3qaDvqYmcYicNUIRJK3xpXeS1uYu7mx9SiMHD8YQCab3y/3CeeE+vxmDCdzUkoifAW/kr1LgToRsHqIGK0tYBHoTh1NiuD4NcU1Ln6/JoRiBCGSfThJtTBmK861YAVHMMyk5yNffSC8Na7JaFKeoe6m4OlTk5RDjrWlsl2DquSvoT2cAdkHJ5cgHDGFjsV3Ug82qyijMgDrarSffltBrXV+6oxLDNiTI3ESJCqyJTXTBqg3jsvEY6fmhGC9aQgyHPvZAtdue+sQMHamXlcsNoI/y5QzYv8oYHiegoTM/Qb9lj+JHtwKKt4tVngbnLxFE9prdzVkSEQ5ERFeZgdYkYNddsXtosKRGN80KzBWCEkAE0Kg4EurG/uu4UVe+/d6Gz6vi6hzYUbdUhZ0ODTJ1tb7pUWQ7bTI6B2hCwC3rheVWqcKuaZnbRkSUWi92g0dll+ra1S9V+DEj1t6nNkYgQH3jYtyYfI1jSkZRVGL6jR10n+xUiJ6WctugAnM9DAZsmxv1bhrEjvSSLftnOxhEwF/Kzc8lDUa4I0zX0/csuqw7sFUSi0F5xrQBJ6j94ZL6oP2PYAq5ZnOUmPKzp/Pqo4cJF6Z7y606i3sPUEe+x4j1z/rQ+HBGocJbvVJBXzWq1updAOAODnv+D06uBoue/7XA+MR+uzBFqtc1IYDygdKkvA8u2nDOiGsHpQlMHPjB3LWfsDpMi2Jq1dQznnOidhd1LLlpHjDgMXarAdNkk6Ok4OBn/zsJ7R53026L5bOnha4N4l+5UMK6u</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>ferrous</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>identified</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>POR-NAN</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Pway Porbandar</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>garbage</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/dummy_data.xlsx
+++ b/dummy_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>sno</t>
+          <t>unique_id</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>unique_id</t>
+          <t>surveyor_id</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -456,312 +456,226 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gis</t>
+          <t>nearby_station</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>plus_code</t>
+          <t>scrap_location</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>nearby_railway_address</t>
+          <t>scrap_category</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>nearby_railway_station</t>
+          <t>sub_category</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>photos</t>
+          <t>scrap_status</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>videos</t>
+          <t>verified_scrap</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>type_of_item</t>
+          <t>pending_department</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>custodian</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>verified_scrap</t>
+          <t>custodian_contact</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>pending_department</t>
+          <t>approx_weight</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>lot_no_engineering</t>
+          <t>approx_rate</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>lot_no_stores</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>auction_date_given</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>fdp_date</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>phone_no</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>custodian</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>approx_weight</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>approx_rate</t>
+          <t>remarks</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>64c2379dd2aaa08f50350940</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
+          <t>64fea7c6ac02bfd5324c059e</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>mk01</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>XX123</t>
+          <t>mk01</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.531127, 70.458050</t>
+          <t>22.194581,69.952183</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>"21°31'52.1""N 70°27'29.0""E "</t>
+          <t>Lalpur</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>GFJ5+F63 Junagadh, Gujarat</t>
+          <t>poled-5/67</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>123 Main Street Junagadh, Gujarat</t>
+          <t>DEPOT FERROUS</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>JUNAGARH JUNCTION</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUVFRgWFRUZGBgaGBgYGBgaGRoaGhgYGBkaGRgYGBgcIy4lHB4rIRkYJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHxISHjQrJCU0NTY0NDQ0NDQ0NDY2NDQ0NDQ0NDQ0NDQ0NjQ0ND80NDE0NDQ0NDQ0NDQ0NDQ0MTQ0NP/AABEIALcBEwMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAQIDBAUGBwj/xAA9EAACAQIEAwUGBAUDBAMAAAABAgADEQQSITEFQVETImFxkQYyUoGhsRRC0fAVI2LB4Qdy8ZKTorIWJDP/xAAYAQADAQEAAAAAAAAAAAAAAAAAAQIDBP/EACcRAAICAAYCAQUBAQAAAAAAAAABAhEDBBIhMVEUQRMiMmFx8JGB/9oADAMBAAIRAxEAPwDxmEIQAIQhAAhCEACEIQAIQhAAhCEACEIQAIQhAAhCEACEIQAIQhAAhCEACEIQAIQhAAhCEACEIQAIQhAAhCEACEIQAIQhAAhCEACEIWgAQhaFoAEIsIDoSEW0IBQklo0GfRVZj0AJ+0jnov8Ao6SK+II3FHNbyaTKWmLYJW6OEPD6wNjSe52GRv0kdbDuvvIy/wC5SPvPpxCCAxY6rdjZt7Dny/xPO/8AVSqamCpuQR/9hRrvbs6m/jrb5TGGNqaVcluCV0+DyCEIToMwhFhAdCQiwtAKEhC0ICCEIQAIQhAAhCEACAhAQAIR1oQKpjYQhAkIQhAAj6aFjYC5jJe4WO98j/aKTpWVFW6GLgnP5TE/Bv8ACZ6f7McHpVqNigZ3Zkz31pWTMjBeYLXv4CMocCpV6rlWFKmrLRUkEs76i5HItlJt/mcTzdNquDvjlE1dnmhwT/CYn4R/hM9TxnD6AL5VVlXh+cNltmclstSx1DbSnhuHqcOc9EI6tRKtY3dazlbNfQ6ai3SHlbcF+EuzzgYVvhMBhm+Ez1PC8OpCviWanT7AVWp94HMMubu0VU3Lc9jtOe4FgkfEU0qDus2oJtfQkKTyuQF+cfk/gTyiVbnK1OGVVQOUYIxYK1jZitrgHna8rNh2+Ez1Dj2DRKNNbMpqt/KpMxyYdgwFY673Og8NfNvtNwegMOHpmjdSq2pXdncqMyu4uPiI2vbrpCOZutipZSNbM8tNJuhnb/6W8Tp4bEVGrOEVqdgWvYtmU20HnMevh0z2y5e5VOXvC2VHKFgdQ2g08Aees/DuGi6s5WxA7veLd9WKbCwvlvv0m05/TTMI5VuVI9rT2m4YV1xFG/Lc6jY6i++uk4T/AFI4tQr4UU6NRXIqIyqtycoDXO3jOCp6geQmhhKWYqMqd5igZ8/vWBAORtL30069JgkotNeiI4TlLTfJzH4Z/gb0MVcK/wALf9JnW1lW6LTSm10DZszgFi7JpmdbagCx1ljA4imhu1GmwFItbM9s2cruGOgAv5zZ4zq6NY5Ldpvg40YRvhb0MQ4Zujehnsv8OoBFL4emGPaBlV3OVhSNZQdbg2GoPUTMx1DDrh2Y4dVqFVZAjVWyB72Z2tlXSxAJ1mCzbbqjTw1R5Z2DfCfQx5wjWvlNutjO34HQRmfNR7Wy59ahp5FBGZrgHNuPrOtxXD6Qo0qfZK2aqQiLiGKrmQMHz5eYBPMW1jlmqfAQyia39ni5onoY00jPXqnCsKtWmRTzo1F3IVnrAEG2ZgADlFmHW/lrDi+EYVe0Ao1GK1kUKrhWtVTOoIsbEHu7wWbXQnk/yeSMkbPUuO8Cp0sN2vY1aTmoECu6sLFc2bQDoRPNscLOf3ym+FjLE4OXGwPj9lWEITc5ghCEACEIAQAIRcsIDpiQhCAghCEACaHCmAYkkDTmfGZ8cDE1aoqLp2ei+yfFaFBu0d7Mu1gGVkIsyWuCG2sb26yLCe0TUi/ZlLOxYZ7OyNdsrg394BiL7eE4EOesmwzXdf8AcPuJyvLRts7Y5p0kjuqvHSwcZAM1BKG57qr+bxJ6SvT41V/lqzFkpsrqh926m/6jwvKlNbzpOMcKpKlUqlmVsMim50z0wz+pM5XpTpo6sOU573wRcN9qzSZmNNXLVKlVbkjI1S4NiNxY2+W4nPYjEZnZmOrMWPLViSbDpczsf4DQYV1VLMEo9l3j/wDo1LtCNTrmyka7XmeOD0jiKQKnsxQStV1OtqZdjflfQaRJxtsuUJP3/fzMvinF2rJRRgoWiuVbD3tFF2vpsqiw8esm4jxtqtPIKaICys5QEF2UEKSL90C5NhNB+D0lr1yylqNFe0VQ1iwYDIubkO9v4SDGYFXagEotRaocrKbldWUKyM24IN7crR2vQ9E65Obq3uWJucrITzbMrLmY8yAwHjlhTruuUaEKQdrEhb2BboLm3n4CdliuD0Di6KopNGobWubkozI3e81v85FR4dQrGm6Uyg7dKToXLAq+qsGsCDoRaX8xCwprdOji1SwA6SxhqxXQMVuRewBNuoB/MLmx0PiJ1nFPZ/saNd2TKRWUUjmB7hLX0B6AbzlgmsaxFJWc7hLDkmn/AITVai2QISMq5SwupIzZlFsza3LEnTW1hpIlFhYWtkyjyzM9/wDy+k6ilwyl2QbL3jhK1W9z76PlDb9OUucO4NRdUvdS1BiGubdp2opqx8O8LyXi0jo+Of3WY2H49UDIXYuqKyqpIHvIUuSBqQCNTc2FpYb2kJw7UMi3ZVRnub5V0UZds1rC99gNJbp8JpqFZ0JCUXqOuaxZ0qmmFv8AlG1/KQUfwrVl/lsVcAMga2RywGjEd5ba2tz8JlcXvRemVUYWCxjUnDo1mF+hBBFiCDoQQSLTU/8Akj5bm2cVEdSAAqhFKhAttrEfWXMVw6iWxC00ZTSU5czZrsKgUtoBpY7R+I4TRJrUUVhUooWzlrioUAzjLbTc21O0bcXyhRhNLZoqt7UENRdEWm1NWVlUlUdSxOUC5IFjbc66yunHQnammGBapSqIWYMVZCxYux94m/SavEPZ2kodlLFfwxqLr7tVezJB8Mrgjz8J55xnQr5H+0vChCboyxMSUFfZ1GP9oDVoujKAS9MoEAVUWmrrlAvfZhbfnOK4j7/mBIMxkZM7cLCUODhxsV4nIkLQhNzmCEIQAJKm2nzkUcDEyk6Y6EbCA7GwhCMgIQhAAhCEACWuHi9RfO/pr/aVYoMGrRUXTPQOD42mmdaqsyOmQlSA66hgVJ0vpb5zSPG6dRq3bI2So6uoRhmXs1yqCTobqNZ5n2rdTHNUNzqfWcbyybuzthmXFUj0ipx+5dlUqzVqTrY3ASipUKTuT7vLrLVf2iTPWqJTszolNAwVlVVyh7jmCAQBPLe2bqfWBrt1PrJ8Rdmnl/39+j01+PIzZnQkPQWlVC2W5DEqyW0BFh6Sf+P0g1AqjlaHalQzBixYLkJPIAg6DQC1p5V27dT6w7c9T6w8T8h5f9/yj09faEE0WdQWpVC3dCqCjKLqAOeYAyE8XooaS0kcItVarZmBdmXRQLaAAX+Znm/am17ncc43tm6n1jWVr2LzDvavEVNKqmUgvVVwdLAAtofHvCVuGYkU6qOVDBWBKnZhzHpecUap6n1h2rdT6yll6VWZyzLcrZ6YOM0gyqqP2K0nolWYZ2WoSXNxoCCRby8Yr8Zp2ZUVwgoPSTMQWLO4cu9tALjYXnmfbN1PrHmq1hqefPxk+L+TRZx8nqGI9o0ZkLISOyalXBIGfMbsykbG/e1G8zMXxGkXp9mhVEN9SC7ktmJYjTlYTgO3b4j6xO2bqfWCyi7F5ex6G/F0L4l8rWrK6oNLqXdWUtr/AEna+8tVOPUznqKjiu6FGN1yXICs4G+Yge7tc7zzHtm6n1jkrMSNT6weVXYLNtHp49pky1VIco9BUHu3WqKYQnf3SL+Oi6aTgeMm4U+J/f0lAs3xH1kbgnc3mmFgKDtMzxcZzVURiNkmXxiZfGdBytMZHDY/L+8MsW0LFpYyEUiJGSEIQgA7NCNhCirYQhCBIQhCABCLCA6EtFAhFiGkOTcecKm58z94tP3h5j7xH3PmYDEheJFgMSJHQgKhfy/MfYxkl/L8x9jGQChsI6LaAUNj3PdHziR590fOA6IYR5iWgLSNlmjRO9rf4kMsUaxG+t4pN1sNKhaqgKP9x+8hlqsO55N95VkotcBEMW8WMBkLRwEkpj+m/hCwIMhMOxbpLOKvlF1A1+e0qq5HOUm2jJ1Y4UG6Q7BuknpMTvHsZDk7DSVOxPSEs5oR6mPSUoSf8O3SO/CN4eolWiSvCWDhW8PWJ2B/ZhYyCEn7Ew7KFhS7IRCTin+7xLDoYrKSXYxesbJrjpC46GFlUuyG0JNdeh+kLr0P0hYUuyKEmzKev0iB16H1H6QsKXYy+lvG8baT9ovQ/T9IZ16H1EVvoemPZDCS516H1ETtF6fX/EdsX09kcU7AR5qr8P1i9qPh+phv0H09kQhJe1Hw/U6w7YfCPUw36D6eyKKCRJO1Hwj1Mb2n9I+sN+hvT2WmIK+hPnKto0vfkBBGkpUJNcIdaKlMttaIxio5F7R7jB0K84JWZdjaI7k7xkddiHNUuLEk+kaHA5X841o20aM5bMl7c8tPLSNLk843IehhkMKQWwv4whl8vWEBWdTxzCIuHplECkspJ5kBW1J36Gdn7O+y2GNOlUqozsURmVnOTMyDMco38jppOA41Xza3vcEdOXwjbeawwzOxCK5yhr2JIAVVAJsdFvoehMUXS3MpJ8Wei8V4PhsQmRqKaAhSoCMvgGW1hoNNp4/jOyV3Vs+ZWZWsbjMCQbHnrNenhmcHKGIUXPe0VbA3JJtuQB8RIA1ImBTB7xA0zN0+14PcrDVB2lPYZ/nExlYHKuihdRZRmOYL7zbttfXa5kNdrN8oY9LPY/Cn/osSW5oxKLDMut9Rpl3185Y4lSKsAFtp4ax68KqJ2TsjAOwABVhbUAXJHOWON0ijIptfIpJHPMSQdQOX6xNq1Q4pNbmO6kW1mhiaaI6EqxUkFl2uARcA+so1eXnLnFGuyX6H7yuRPZj8fVpF3yqFW4yi1rCw6TtfZThGGFeoSmdQl6ZqWJCs9NVbLYDMFYcp5ziPeM6DBYt6dZmRirZFFxpplTT6TLEi9OzKjuzsvaPgGHL0yKLAsCGNIhNviG2oO9ryxg6OGVDT/AKVsAcwQlvHOe9fxvOcwGPrVdWqk5SLXUNvvbpNOm9TMf5g/wC2PvHhr6UmZzW5k0+HUEx6KMMzIaZbsncP3u+Ab81FhobzU4lhKNTunBKgtoUyJbxBUCZjF/xqXcFuz97IBpd9Mv8AeavfzElw3hkAv5kazRk2J7NcDoq5Y0w2ikZrOVN7G19p1lf2awVcA1aC5h+ZcyMdtGKkX+c4TEY6tQV3RxfOhTLpsCWRweQtfS+2/KOr+3WJRlUJRYMAymzi4bUaZtNpHL2Kp0ekcMp0cOgShTRFBOijU2Nrsx1Y2G5JM4LjOAotxekvZLkZFZkCgKzEv3mUaEmw87Skfa7FZSwSj7xB7zE5jc+7mvbfXble8xcdxerVrLUfKrhCgKZh3QGsdSSD3jCnT/QLk7zjnFqNMtSdQ2mqZRYgk6WsSR5C04jhi9jRxLMmr0SgGlxmqizW3Fgu2kdRxLGzklmGl2JOnTU+JicTqs1Jn0GZQrWG/fcjy0Uekyw6S0o1lGtzCVgwJIFwRIKu8fhdm+X3iVZtwxCVU108PsI1VkjnbyH2jZTY4rYIkWJEUJCEUQAfRS7AdTNRMInQ+szKRsQfGa6VReY4jfoI1ZFWwyg7epJlesqqpOUegmlTpdo1hoANTHYqkgXKBcX1vz+fKRGbtJmksPZv0czr0hNBsKOTesWdOpHPpRJjCCUXT8t9OuX1H+ZvYqpUoaNen2hUs17ZVvqxyncDlzvOarK+cAhs11sNc3hbnH4qjVawZahF9Lhj94N8EKJp4F+7carmFibbXYan+/I7TmxUI2M1qeHqqh7rgAE7MAOsyLQTTKqhzE313mzicDUNQuEzIrDU2t3QtwddtJjBek6gcFqPVdnbIhLkDUm2tu7sISaSF7J8ZUOcBWZ1VlLqNdFNwTcixuB87TJ486mrdWzDKuvrfz1vNniT5aedFGZQO0UgEsFPcZiNbbn7zlquILnMRY2tp4THDjwzRUQ1Nx5ybGG7Lzt+sgqnUSzj1sy2IuQD5XJtczdeiHyVKu585t1cO6q1UKShAGZbMASBoxHunwNpk4iiymzCxIB3BuDttJKOOdEemjsq1LZwDbMFvlVrbjU6RNWkNOtzV4W6kHMD8W+wW3jc+8NgZpipQupve4HxDW+3nqPUTD4Zi2ClFUOc2bLlLMRlykb7a7Ac95Fh8bkGVlzjMD3gbqy30AvYb6xJNbCkr3NTEMi4gXHc0U6k2ckne/ltNFK9Jc9iRdbN7+oI2nO47EFkRgMvecgAnTvC1rk2G+k6D2eqPXRzdQykA3uo1F9ABbrtKulbIcd9iHLTdiGqqmW7DNcAmwte4tqGsBe+/Sc/xhwarBWzKMoU2IFgouAD43895tccwbBnuRoBqDpmVVYAE8+UwcbhmQIzW/mKWFjfmRrJjV2i7dFvBVTlAzA7gai9ri1wftFqtdxrrY879djzm3w7htbskyuoUoGAzH83e2t4ylxHAVO2pKXUswNjc2FvlpvJ1ptoVEeHbu/OScQqMaOT8oDsdNbnbXoAD6nrLlbhbJlzMl2NtDYFrX526H0kfEMG6obiwyuCfP8AZmUXUjV7o5rCbN5D7xtYwN1OnQX8fAxlQ3N9PIfpOmt7M3sSNsPIRI1WvpFMHyVHgIhhC8RYQgTAQESUjrNbNrMdTNJH8OQmWIrGma2FeytaVKoJkmBa+YeEKw0mUVTNcRtxRQYQkTs1zoPrCbHMadeurY5Wt3Qy/Rb/AHnTtxFB+Uek88XFtnz2F9fqLSduJOeQ/fzlShdEpM7LifEg1J1FgWRlHLcEdJw34M9V9T+klfiDkWsv7+cr9u3ONJx4GiajhyGGo3H3nYt7RgXa1rXM4kV2jatQtvE43yDRcxXE6pDozlg5DkZiQrXvYfLS3l0lGntG5JJm+1vSXtWw4qmMq8oy5vFqG8VR4RrZCatklamRYMQTve99Ol5ARJrRAvlFY9JPhMIzd5WA1sDcg/Kwl88JzG7VD43F9eZuTM1ajDZrfMwNVvjPqYnYaTSfBKzpSLGwX3reLHb0nScCpLhwwVywY3INt+v0nNOt2uBewUX6i1paQm2gtMpz2pj0O2dg/EVPIHznNe2DK603A90stvBhcHToV+sq97pK+KpM4tY285EJJOx/HLo6jhmPAoUhppTUb/0iZnF8UPxFBrjRjfXxWZlKmy2BGw6yTE02NrDaPVFOw+KXRsYzHozU/dIDkna1ijrr6xlTHrlKOAyEG19wOhI1+c5vHULAtyNrgdbjWUEcA3F7/KWoqStBWl0yZgBre5P9+krMeXzk9VwRcCxJsenUEfWV7TVCk72QJvJbyMaRwBOwMGKOwpjbxcp6RQh6RFDYR3ZmHYmO0On0NvLCV7keVpD2JiiiekTpiqXRucLe7fI/eT4pSRoZn8Jch9drGaNRpztVI3f2GaaT/wBPq36RJctCXqMDETCkyYcPPWaFFbGWQB5w+RmnxIx14f8AESPIA/3jTgvGbDjSQZfCJ4ki1gozxg/GL+CPWaIEdaS8WRSwEZv4A9YowHiZoWi2/f8AzD5ZFLAiZ38O8fpHfw7+qaAP7/4j7fvaJ4shrLxM3+Hf1SY4BbAAeZPPxHMS7p+7mO/fISXiyL8eJnfw0dfvEPDwNen76zUW37Eeyi3+YLFlfInl40U8Ftr0H0BlpRIcKO6u/uyVvl63kTdyZrhRSih1oKsaPn9orNbmPlrIo0pDnXSM5SdRp+shYAc/SAbEVVb20vrr5WtK64NQbW+stFflEDjxMtSaWxDw4S5RUbCrmAtvfTyEccIo5AR9Vu8nLU/aPv0HzluUqW5EcKFvb2QDCr0HzjDh1B0H6SwxA318BC5PgIapF/HHoj7Mc/SJ2Q6WkgsNtYhXqYrF8aIsg5D5xCgHiZKW6RAoGplWLSiE0+sTs7+UexvFZrCO2TpRGe7tv1jmxLDex/fhEVb6mNrylyY40fpsPxTeH1/WErwl0cppUVkykD9mEJmdYjtf92kLHy+phCQUhUP72it42+8ISfZoKP3sIh8f1hCBSEVvP7Rx03sPUwhGUhBUv1P0kmvgPrCET5ABU8TJHqWG0WEXsXoq4eqMqjXQWlix8BCEc+RYfC/QwkcyTFv00hCIslV/EmIzE+EIRMFyRsR5mAJPgIQgBBVNiLcjfXyIikkwhL9IlcsLgRLkxIR+hjswEaLmEICAkCMFzCEPQgawkYN4kJSJfJIxtIGhCOJli/aR2hCE0OI//9k=</t>
+          <t>UNSTACKED SCRAP A</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>AAAAGGZ0eXBtcDQyAAAAAGlzb21tcDQyAAAWI21vb3YAAABsbXZoZAAAAADg4CCR4OAgkQAAA+gAACwAAAEAAAEAAAAAAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMAAAAmdWR0YQAAAB6peHl6ABIVxy0wMS4zOTQ4KzAzNi43Njk5LwAAC0p0cmFrAAAAXHRraGQAAAAH4OAgkeDgIJEAAAABAAAAAAAAK8UAAAAAAAAAAAAAAAAAAAAAAAAAAAABAAAAAAAA//8AAAAAAAAAAAAAAAAAAAAAAABAAAAABQAAAALQAAAAAArmbWRpYQAAACBtZGhkAAAAAODgIJHg4CCRAAFfkAAPYzYAAAAAAAAALGhkbHIAAAAAAAAAAHZpZGUAAAAAAAAAAAAAAABWaWRlb0hhbmRsZQAAAAqSbWluZgAAABR2bWhkAAAAAQAAAAAAAAAAAAAAJGRpbmYAAAAcZHJlZgAAAAAAAAABAAAADHVybCAAAAABAAAKUnN0YmwAAACac3RzZAAAAAAAAAABAAAAimF2YzEAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAFAALQAEgAAABIAAAAAAAAAAEAICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIAAY//8AAAAkYXZjQwFCgB//4QANZ0KAH9oBQBboBtChNQEABGjOBuIAAAAQcGFzcAABAAAAAQAAAAAEiHN0dHMAAAAAAAAAjwAAAAEAAA3uAAAAAgAADe4AAAACAAAN4wAAAAEAAA3+AAAAAQAADeEAAAAEAAAN6wAAAAEAAA33AAAAAgAADeYAAAABAAAN8AAAAAIAAA3lAAAAAQAADfgAAAABAAAN5QAAAAIAAA3vAAAAAgAADeUAAAABAAAN/QAAAAEAAA3fAAAAAwAADewAAAABAAAN/wAAAAEAAA3WAAAAAQAADfkAAAABAAAN3QAAAAEAAA33AAAAAQAADd8AAAAHAAAN6wAAAAIAAA33AAAAAQAADdUAAAABAAAN8AAAAAIAAA3mAAAAAgAADfEAAAACAAAN5QAAAAIAAA3yAAAAAQAADeQAAAACAAAN8AAAAAIAAA3jAAAAAgAADfIAAAAHAAAN6QAAAAIAAA3zAAAAAgAADeQAAAABAAAN/wAAAAMAAA3kAAAAAgAADfQAAAABAAAN4wAAAAEAAA33AAAAAgAADeQAAAABAAAN+gAAAAEAAA3jAAAAAwAADe4AAAABAAAN3gAAAAsAAA3sAAAAAgAADeMAAAABAAAN9AAAAAEAAA3rAAAAAQAADlsAAAABAAANkgAAAAMAAA3jAAAAAQAADmcAAAABAAANdQAAAAMAAA3vAAAAAgAADeYAAAABAAAN8gAAAAEAAA3gAAAAAgAADewAAAABAAAOiwAAAAIAAA2XAAAAAQAADfYAAAADAAAN5wAAAAEAAA31AAAABwAADeoAAAABAAAN/AAAAAIAAA3iAAAAAgAADfUAAAABAAAN4QAAAAEAAA5kAAAAAQAADXMAAAADAAAN7wAAAAEAAA5ZAAAAAQAADXEAAAABAAAN8gAAAAIAAA3lAAAAAgAADfIAAAACAAAN5AAAAAMAAA3yAAAAAQAADd8AAAABAAAN9QAAAAEAAA3hAAAAAgAADfAAAAADAAAN5gAAAAMAAA3xAAAAAQAADeAAAAAHAAAN6wAAAAEAAA4EAAAAAQAADdUAAAAHAAAN6gAAAAEAAA4IAAAAAQAADiAAAAABAAANoQAAAAEAAA3sAAAAAQAADfkAAAABAAAOVAAAAAEAAA2OAAAAAQAADdEAAAACAAAN7QAAAAEAAA5hAAAAAQAADXgAAAACAAAN5wAAAAIAAA3yAAAAAQAADeEAAAAFAAAN6wAAAAEAAA32AAAAAQAADeEAAAAEAAAN7AAAAAEAAA36AAAAAQAADdoAAAAEAAAN6wAAAAEAAA5eAAAAAQAADdoAAAABAAANlQAAAAIAAA3nAAAAAQAADfkAAAADAAAN5AAAAAIAAA3yAAAAAgAADeIAAAABAAAOaAAAAAEAAA13AAAABAAADesAAAABAAAN9gAAAAMAAA3lAAAAAgAADfYAAAABAAAN6gAAAAEAAA3gAAAADAAADesAAAABAAAOcQAAAAEAAA1oAAAAAQAADfAAAAADAAAN5wAAAAEAAA3zAAAAAQAADgsAAAABAAANzAAAAAgAAA3rAAAAAQAADfcAAAABAAAN4QAAAAUAAA3sAAAAAgAADf4AAAA4c3RzcwAAAAAAAAAKAAAAAQAAAB8AAAA9AAAAWwAAAHkAAACXAAAAtQAAANMAAADxAAABDwAABIBzdHN6AAAAAAAAAAAAAAEbAAJOvwAAicsAAJZ0AABhPQAAYaEAAGvpAABvcAAAaaoAAGpdAABcIAAAbOkAAGpwAABjQgAAhNIAAHscAABglgAAjtcAAJg5AAB+kQAA2vgAAJlqAAAclQAAM10AAGcnAABrOgAAo3kAAHvsAABZ3AAAirAAAHNLAAFP0QAAauEAAIlXAACYQAAAeZMAAFzFAABcxgAAcHcAAG5HAABpUgAAadAAAHToAAB8uwAAfk0AAGyYAAB8JAAAaqsAAGZqAAB37gAAbacAAHRIAAB4QAAAZmEAAGyjAADMugAAZxsAAFDMAABzJQAAjY4AAG8SAAGhLQAAbtEAAKTnAACDaQAASNQAAFxEAACZEAAAipoAAFkqAACGlgAAf/YAAIsQAACOLAAAf2oAAIJZAACClwAAbYMAAIpPAADNYQAAZL0AAEnKAACSBgAAbLQAAFDmAACK5QAAh7oAAIaaAABzSAAAagIAAH7mAADMbwAAcEYAAJGTAACCfQAAWmoAAIVaAAB/4gAAhtgAAHjSAAB8BgAAj2AAAG8TAAB2+AAAe9gAAHqAAAB1+wAAcw8AAH8RAACFzAAAZoEAAIi0AAB/5AAAdk8AAIANAACDPgAAhykAAIWfAACKEQAAkSEAAIlTAAEOFAAAkNwAALPpAACMrQAAgG4AAJNPAACE5gAAjLIAAI4wAACUwQAA0+0AAJAVAAB/TQAArBQAAHYyAABaxAAA9+MAAL62AABLJwAAfmkAAKlSAABwkAAAibcAAMlLAACX6wAAVVsAAF4NAAB07gAAbCEAAG65AAID0gAAjLsAAGQGAACRYwAAjJkAAFemAACTpQAAk0MAAFkrAABnOgAAjRcAAI0SAAB+jAAAdYgAAIiCAACNAQAAj6UAAIPUAABxPgAAa1QAAK0IAADnUgAAte8AAEYFAABjhgAAZ6AAAFhgAABGJAAAY+kAAHdBAAEpWwAAjM4AAHLFAABToQAAc9IAAJQxAAB56QAAbwwAAI/iAADR6QAAbD4AAD6mAABbmQAAYvcAAF7bAAB7lAAAfFsAAGyeAACHjAAAi2UAAJZxAAC6/QAAZgQAAEegAABeAAAAk3UAAH3PAAB7+gAAf0UAAFvxAAB//AAAtWgAAKHNAABw0wAAXGIAAFfyAACRwQAAmegAAHDeAAB2wQAAk2EAAIoMAACdsAAAhEUAAHlVAABw0QAAXAcAAHWxAACaeQAAcBkAAHKQAACXsgAAnyIAAIiIAACBmQAAeUsAAJqMAAB1XAAAZ6AAAHSKAAEKDQAAkDEAAJ54AADx7QAAvDsAAGqbAACQIgAAj+UAAGXUAACF8AAAqsYAAHGSAACLdQAAjnoAAJIdAACmMQAAk7QAAIU9AAD/OwAA0PoAAHPqAACzPgAAjGYAAEEcAACMgAAAroQAAHYWAABHgAAAYQMAAI0RAADQ+AAAXtsAAGCxAACEbwAAj5MAAIFaAAByRAAAmT0AAIGXAABRXgAAj7IAAK4yAAB2VwAAADRzdHNjAAAAAAAAAAMAAAABAAAAHAAAAAEAAAACAAAAGgAAAAEAAAALAAAAFQAAAAEAAAA8c3RjbwAAAAAAAAALAAZg0QAVHe8AIdr4ADAm8gA88l4AS77rAFsD1gBoWIgAdN+ZAIJQ/QCSSDUAAAo/dHJhawAAAFx0a2hkAAAAB+DgIJHg4CCRAAAAAgAAAAAAACwAAAAAAAAAAAAAAAAAAQAAAAABAAAAAAAAAAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAJ221kaWEAAAAgbWRoZAAAAADg4CCR4OAgkQAAu4AACEAAAAAAAAAAACxoZGxyAAAAAAAAAABzb3VuAAAAAAAAAAAAAAAAU291bmRIYW5kbGUAAAAJh21pbmYAAAAQc21oZAAAAAAAAAAAAAAAJGRpbmYAAAAcZHJlZgAAAAAAAAABAAAADHVybCAAAAABAAAJS3N0YmwAAABbc3RzZAAAAAAAAAABAAAAS21wNGEAAAAAAAAAAQAAAAAAAAAAAAIAEAAAAAC7gAAAAAAAJ2VzZHMAAAAAAxkAAAAEEUAVAAMAAAF3AAABdwAFAhGQBgECAAAAIHN0dHMAAAAAAAAAAgAAAAEAAAT5AAACDwAABAAAAAhUc3RzegAAAAAAAAAAAAACEAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABAAAAAQAAAAEAAAABWAAAAQAAAADfAAAA7AAAAUUAAAFSAAABGgAAATMAAAEUAAABFwAAAP4AAAEHAAABBQAAAQ4AAAEEAAABKwAAATAAAAEMAAAA/AAAASAAAAD2AAABDQAAAPkAAAD6AAAA2QAAAPcAAAD+AAAA+gAAAP4AAAD/AAABBwAAATMAAADyAAAA6wAAAPcAAAEbAAABIAAAAPAAAAEHAAAA8gAAAR8AAAEVAAAA+gAAAPIAAAEBAAAA8QAAAPkAAAD3AAABKQAAAPQAAAEWAAAA8QAAAO8AAADwAAAA8AAAANsAAAEKAAAA9wAAAP4AAAEoAAAA8AAAAPgAAAEkAAAA9AAAATMAAAElAAAA7wAAAO8AAADsAAABEwAAAPAAAADrAAAA8QAAAPIAAAD1AAAA+AAAAPcAAAEGAAAA/AAAAPoAAAEDAAAA9AAAAPwAAAEaAAABFgAAAPcAAAD8AAAA/gAAANgAAAD/AAAA7wAAAP8AAAENAAABNgAAAOwAAADAAAAA/AAAAQAAAAD7AAAA/gAAAUEAAADTAAABFQAAAQ4AAAEDAAABCAAAAOIAAADtAAABCgAAAP4AAAE8AAAA1gAAATAAAAEYAAABBAAAAOoAAAERAAABKQAAAN0AAAD2AAAA0QAAAPcAAAD6AAAA8QAAAPEAAAEJAAABAQAAARoAAADjAAABPAAAAQYAAAEhAAAA8gAAARIAAADoAAABMQAAAO4AAADwAAAA8QAAAOoAAAEiAAAA9wAAAPkAAADjAAAA+gAAAOoAAADyAAABPAAAAPwAAAEDAAAA9QAAAQgAAADmAAAA/AAAAQMAAAFDAAABLgAAAPIAAAD9AAABDgAAAPYAAAEEAAAA8QAAAPoAAADzAAABKgAAAPIAAAEqAAAA7wAAAQQAAADzAAABIgAAASEAAAD2AAAA4QAAAOMAAAD7AAABDwAAAOwAAAD5AAABFgAAAMgAAAD8AAAA/wAAASgAAAD4AAABGQAAANcAAAErAAABIwAAAOIAAADxAAAA+gAAAQ0AAADuAAAA8AAAAO4AAAEoAAAA/QAAAPUAAADyAAAA8gAAAPIAAADvAAABCQAAANoAAAEWAAABOgAAAOAAAADRAAAA2AAAAQ4AAAE8AAABCQAAAPwAAAD6AAAA8QAAAToAAAD1AAAA+AAAAQAAAAEwAAABJgAAASgAAADnAAABHQAAAPcAAAD3AAAA8AAAAOsAAADWAAABJwAAARsAAAEeAAAA7gAAAPoAAADrAAABHQAAASAAAAD1AAABAgAAAOcAAADnAAAA6wAAAOMAAADxAAAA6wAAANwAAAD9AAAA+AAAAPIAAAD8AAABKQAAAPAAAAECAAAA4QAAAPcAAAD8AAABMQAAAPoAAAEOAAAA6gAAAPsAAAEqAAABAAAAAPUAAADcAAAA9wAAAQMAAADqAAABFgAAAP4AAAD9AAAA+AAAAPIAAAD8AAABMAAAAQ0AAAEAAAAA/wAAANMAAAEWAAAA/QAAAPYAAAD5AAABEwAAATAAAAD3AAABIgAAAPgAAAEHAAABIwAAAS4AAADnAAAA6gAAAPAAAAD7AAAA8QAAAQIAAAEIAAAA9AAAAPcAAAEwAAAA9gAAANgAAAEtAAAA8AAAASoAAAEoAAABAwAAAOkAAADvAAAA+QAAAO4AAAEhAAAA8gAAAPcAAAD+AAAA6AAAAOoAAAD1AAABCwAAAPAAAAD1AAAA9QAAAPQAAAD7AAAA8gAAAPUAAAD4AAABFQAAAP8AAAEGAAAA9QAAAPkAAAEkAAAA/wAAALQAAAEIAAAA/QAAASkAAAD1AAAA8QAAARoAAAEkAAAA/AAAAPcAAAD9AAAA9AAAARoAAADuAAAA9QAAAPcAAAD7AAABAAAAAOYAAADcAAAAvAAAAT4AAAFAAAAA2wAAAPMAAAE8AAABMgAAAQcAAAEeAAAA+AAAAPoAAAEvAAAA8gAAAQ0AAADyAAAA7AAAAPMAAADxAAAA0QAAAPkAAADSAAABEAAAAP4AAAEAAAABNAAAAPcAAAD4AAABMwAAAOYAAAD+AAAA9QAAATcAAAD+AAAA/QAAAOQAAAD2AAABNAAAASwAAAEKAAAA9AAAAPIAAAD7AAAA7AAAARAAAADzAAAA/wAAASkAAADsAAABCAAAASIAAADFAAAA+wAAASMAAADvAAAA6AAAAPIAAAElAAABJwAAAO4AAAD9AAAA9gAAAPMAAADwAAAA/AAAAPIAAAD6AAABFwAAAO4AAAERAAAA8QAAARgAAAEOAAAA7AAAAO8AAADxAAAA9wAAASsAAADTAAAA/QAAAQoAAAEtAAAA7QAAAPcAAAD5AAABBQAAAPMAAADzAAABJwAAAPcAAAD2AAAA9AAAAQMAAAEsAAAA9QAAAPMAAAD4AAAA8AAAARsAAAD9AAAA3gAAARQAAAD2AAABLwAAAPcAAADzAAAA9gAAAQEAAADxAAABEgAAASkAAADzAAAA9wAAAPEAAAD2AAABMQAAASYAAAEKAAAA7wAAAPMAAADyAAAA7QAAAPoAAADxAAAA/gAAASwAAADxAAAA9QAAAPcAAADyAAABAQAAAPgAAAECAAAA/gAAASkAAAD1AAAA9AAAAWsAAADqAAAA1wAAADRzdHNjAAAAAAAAAAMAAAABAAAAMQAAAAEAAAACAAAALwAAAAEAAAAMAAAACQAAAAEAAABAc3RjbwAAAAAAAAAMAAYuKAAU7uMAIawTAC/3qgA8w54AS5AYAFrUhwBoKbcAdLCeAIIh2wCSGTYAnLT2AAYX5WZyZWUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Sr. DEN(PRCL)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>SSE(P)PBR</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>9574237045</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>100 MT</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>ENG-5678</t>
+          <t>4000000</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>STORE-1234</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>26072023</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>555-123-4567</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>John Doe</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>10kg</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>$100</t>
+          <t>90 R rails</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>64c29c3f425cc1bb0a4c33cd</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>999</v>
+          <t>64feab01ac02bfd5324c059f</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>XY124</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>POR-GD01</t>
+          <t>xx124</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.699382,69.727468</t>
+          <t>21.531127,70.458050</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>garbage</t>
+          <t>test_data</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>garbage</t>
+          <t>test_data</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pole needed</t>
+          <t>P-WAY</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Porbandar</t>
+          <t>P-WAY MS(MT)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAYGBgYHBgcICAcKCwoLCg8ODAwODxYQERAREBYiFRkVFRkVIh4kHhweJB42KiYmKjY+NDI0PkxERExfWl98fKcBBgYGBgcGBwgIBwoLCgsKDw4MDA4PFhAREBEQFiIVGRUVGRUiHiQeHB4kHjYqJiYqNj40MjQ+TERETF9aX3x8p//CABEIBkAEsAMBIgACEQEDEQH/xAAxAAACAwEBAAAAAAAAAAAAAAACAwABBAUGAQEBAQEBAQAAAAAAAAAAAAAAAQIDBAX/2gAMAwEAAhADEAAAAtz82nOBy7VZmG3FvOTPuCzDTYDoDTKWrIcutiTNT8GjV1UJNXBpTkhUmRNkx6Q5IslLQMc13CCfduM9K4ybsMTo5hJc/QxZWeq7nNa21mkugsGgfKtqSQEqsiXLSAhVz08+jLNZt3L67JQCbuSEkhJADkiySEkhJISSEkhJISSEkhJISSEkhJISSEkhJISSEkhJISSEkhJISSEkhJISSEkhJISSEq4g3cKuQkkJVwkkKQ8EzPW1CkSp8bbbKmZHY00DhiTr5l561QrDVRiVbMdOPFozdr1XK/RjKuhMmndcmqHFlDLUfMo2JBeZvLAwaC6D0YmVrfzpb0UrZbnIETLLplkpqVOwGmPSEu6Ra3R4q33ibKxa4y1+PUq+d1MdmiYNcZulyeiQl6Lc2nLrlWRUXSXkkiySEkiySEkhJIkkouSLJISSEkhJISSEkhJISSEkhJISSEkhJISSEkhJISSEkhJISSEkiSSEkhJISSEkhJIDdwkkB53SRcrHXRyDVOd1VUCx6wZwAvVrMULkUFhVHJGl+cs61Es5bYuWb0IdsmWjAyl4LdVaLICGnnKGNC4CxYBneou8urRkWzYSHOMcnTSxFnNKlVoQyaJVvZXNPTlhrseoYg1VcWGV6Qx1138vdanZiYurLQ1m6imwUS5qrghSQkkJIIVUQJSEkiySEkhJISSEkhJISSEkhJISSEkhJISSEkhJISSEkhJIkkhJISSEkgKG57nVeVytkksqUWho2DYCzoPOxo8mlaA1Cczmkh00ehD7YpOZkWiVzokzRoWOlEjoQEcOVt3WaS5dgizGbpnZBWsY0lmMSzTnG3k2CLgDWIKHUox2PSdYGuXTEtRRuxaIMllldktRW9dlNvJptvE+kHbIsbZWe4UKrQmq0UoehOsfFO20rsmseus0bbWa3BpTEFoLLcSSLJIskhJISSEkhJISSEkhJISSEkhJISSEkhJISSEkhJISSJKuhZ49DMkgyl5jYNHSuN0omfbm1oTudJrYfJYnSRnOMbtGdNMzUbVZSW1XfOOXopcs0jbi53Y5u0VvSMlwS21odFaG9Dc0rCZUrQNjAW2AWQVpSLzHN4FlmZF3cqQ6yzxpUopUHYhWjOvUCdXlM+hdA4WVJcwTbiEK1r0yMp+lQ88EsVj7ql0rxabIazpqGBlfSx6OgnKXq6eeSI6eTVLRLPUmhom1JUW5IskhJISSEkhJISSEkhJISSEkhJISSEkhJISSEkiSSLJIkWcSWBqtWiICNGaxqxkjmZ1w/LWWRonlsmiOpSOsC4ldDLzEaCgYp2iXLIoSONkq5RshKSyznh0U6qijDITirM3Vng6oVhy5Bp9VlIjkSppplFwoWjEK7Zlo2zMZoIai4BRUsqCNuMrKz1pkkMWk5CcArpoaIJ0MpTJBjB1cdk2s+qCKGnKpO0USeZtNal2S35rNUzh0C+5XQyEi0GzNmdVvM33R0orXSRZJFkkJJCSQkkJJCSQkkJJCSQkkJJEkkWSKRkymmgIAOjmOTZnLKM2YN9ArRJclvJF5ztEBtxSLzG7mxM2ZLHszOUN+DTW5bZ03nTqTMLYgi0iOZrmNyqJJ5bLGSnY2RbLAsgKBpGVpqtMSuxVMUFUbGPL1Zu83fS8jVRMjGSMz4MRJpNK8x000PIee5No5W2tbm05VneopoEWpqUsGXaAkg06OfpkfQVKw8egqmBpLVijoTO+mqNkc013o8gkDGTJbaOmhLqMzN0JZqL0ZtI1qNW9FJGpBIkkJJCSQkkJJFkkJJCSQkkSSQCyouKiNpGhRKQkkMo7KTJzOyNzzutRy3UFoph0MuQCZNWfExKeiFXQ2Dp2va4+hTrnSeM2qjmGatmczHpozhFZggc5mM5xW9GZ3BWEGxcDqyirES1RdXE5pNxYXUxuUgpUDXVFtAA0lDG+Nkwkd0OjPK6OW9EqgOAPC4O06CVkYjW5DJcpRXpoQ6l1qJBjSzt5wqhasW1ZYwgSGzEWiVk2IOjlDDFGENsk1GKgyDQUauGNz3W0MV6vVLHr3qxIVqElHzI0dJFkkJJCSRZJEgkIltMSSRYBqRlqasqqE2AM6yzVRIStN5YdZVRMOSZ1ytHSicnXkVJ3sx67tJNGXNopVgqVTBqOQOjFcdbEWbVuLXI0SVzrLEMtStq9XmV0c1LdjE6B8hhs1c1w9bzMl7M5IpsiVXkp952Q00qs3VynruIDXNGAEzKUmgsThilhW0spGm8roNcskWKOWpwTVFGpcCUDrNWpiVjKExlqMda2F1V5LNqoi5exMWcDClZ83RFM7GWqaMBsB0LjFl1Q00hIlNqh35m9KdXVpqfJoLKJUsVoHKQiqy5BUqXjTbOc5NlXaoOZ7NwqKUud0ciY98dZi0uiow9QTEzYa87ZZJhLUZg6FXLKulrJoyXCGLJneXE2TW3m6s9i5EYaaSOFXa6a3LDaCTCEkjEuPTbVFmgrSJmp1nPHow5jNYaG8D3MufpHHLKrwzo62OM+82qnP0UnNrZdc6dPjHQpLoU3RnRdOWmdrH6YNeRrRWqLco5CBhJbkuFso4oU1VMpMPCmEchwRRI+LOCpdGpUXDKqBOUtNJZnQcFJpCjtzC5FQs0k2gzPabxGBZcooCjbeaba3YNmq0kPakkWSQlXCSQkkBo4ZtEtKl0tpdCpLKRogByEkhS2wklFLy8mY6zuSadteV1qmYgk66AXoKhVmUrQrIn5DHIflloyKQgNNXRyIRVaNkosqUa9HG2W9G8zhtCUUDKBoqKdzte5tRT7Rz6cSBE6sVhLmBS6ApStHRRZL5/ZXpjLciTNamaVZnXNroIathCmZ9RRaNSQkmjzUMZtLVW2xNoT0sBs0w60HTBsIADuLYtxYg7JK9/N1AetsaFmKg+rKUQyLmhGmihu1oUWQHdirG6Kiz00qqtOvAe70ItjckhJISSLJIkkhJISrhANQRjQcGy5BCkhJIJzbBuePfXyslk2iY60ZMRqUViuqI1GPQxDoBUiAEU0ipUK4ka/VxMvpaYT6Ztczm9rnMoJF8zj0Iuo9NmpuVlPtdZFBXiLokbadCXCGWMWu2WhcqGWFwm4ump2jlkjU1ppTYFIjY+Gq0s+kDO7NsrOt0XG2pStWfZAFneiG0q1kYKMibg6CyMWMmhuJyuCjsM0rjWg2JcSUq7axE3Fq5dnJFzKblooYwM1bBU9SNIQYNOkLcqo6gNTchmx2PR002ChXMzaC5IskhFsUNkhJISrhUGwquCrZCqIAWpNDmPWUDOYjTyS4JGgIwjpVgpQb9GJtOR5WGgRsoNefuW8VXaGxRgvV09BYTeik4xvLPJMJ0E3m6anV1uEdkjNGFLmM1oNsoWVUMpbIa4V5pVVyENEt2K6NcqHFjdWhY0J0IooGqk0sMM1LWK0wvvLq7gcOYhcHVXa9xnfeaZ2Jjaxs0YVIHUOFLAQakj1GacskjIJF6cBpuPHB9qLJ8S3JRWrV0oBiKFdaEOk4zDozmsLZLlek6sWADWlYZS4G7GjBhUGlIW7mYg1ehM2hqwqrGxZKUqF1QpTcbxtRA+JsbMZpo5+6HOYOW57a4hrJg6jmMp9DBLWRlQSdufUQ6ghz7DTPrLHCOrmDneuvJ0N65828/WS0Y1SbsGnJK+84841V3l0bGXVy60UnUkC47cYA7NQBp658/STGOOXCxcvNCjRloECEr2FlzB3HWK9SUZGHCDArWOqoJBWIxdANrKSKxdDMZdKNOrechzkyVJNmU22qTuTaldirCWaZ2aEWkKW5jTCSPSVlEtiXHAOZmZleLcemHSoCKemr0KYXJDLokhSnjTXiWbRDIs1kCYnJIAGha2W1IqtBpKNJCrtTyb+XZr1Zky9UENUXrlMwOySa9OGVp5WllIa9xhrekyOauuaT9UiNgAtZdaJJWcczs823WherBDki9MjaxYdRnLYujG5e5GDBlRRHq10olMNVXfLQy5FS5Q1d0NXVlsSXQxA1Wg2DqJF2XFhpvnSqm5Z22s0Vj1xFGFCeXUDn05zUGZ8lvUVqoVaZXpehMykmcnU1S9C5BUQ6k2Y3ytxPeuNJ5tV+jBtGAwJkDTaylnJoYTExxgjwo4B62ZMku0wqkmczMjkPqxbAgNeEz6W6sgSCU/IMPDssIlVB1OfWpWc7NlpbLoYhsaRU7VsYIIEvIxpejqUegKaIObQ1C6OI96bLKkMtsWcjWTUp1lyBNEp1JxX68bFkp2UzA8x534ZDjtNmA9iqOlNzTqiFZ25k6gZ9GytB7KGFXn1dCwGrpboqFkQ1ajsGQqFq8+5oUm8jpYyvJVD6GRSn3SXpuKiHj06FxkOr0B9jktiL0INWIK1lqNENEpJfmRLczrda4aVmcKqaKTQSNFRVklY9AyhI1nQ1bDI/I/LQt0E2dxH5osLExC04XFG/EbbU2WhfSiloQq1adQ8zyMpaoZRFlg4+rzhBgWo52HVGsAXm9Cs5qLUWGt1mde9UCFP6AUEk2sxtl1KMtoyx00IRnXqXm0W2efRLKuLQTJZuyDqTmzoZrnLjejlM5NdDCS7QhfNsqrHAgK4y6Fa7GLsNNDchZu+iHlRK4VJa1V0XVQgnQNyVBOzPn2hGJmmqRbs9EWZoxiZDREzOOwCtGNgIa8IOly4CgcVnedYVa8mx68kjUCX1j0kEjlNtFAZXSktAZsVeZyXx9udRnQdDnPZ2WSYQ/Nqg2ZkGwlsEjpDKWyaZSag0pXWD34ppsvDRuEEmwMwmm8g2dQsTpSJDFuhGG8/a05rWusBRZK3gd5qiq0YedsESnqGfTenOrWnUNoHLHKA054zYdCysHTk1NW3Odr5QNFRwx5emhjLqQCZ1ky5zVrLNyN3800RAxtx6KrIQzJmjI2zr8brYd6TYo5TsWssUwKBQSBAhMz0vWSGksDWiGqqikVV3QrOoVl2hWGtaqZeAF6pcnbJpQbDMrZz67FBMFw1EYQFczpc/aSN1RYEk2ZdJogWLoKz61TdskHFoDVTrQ2UkzXM4mO0IefWEYNlac0c+2GU7CxtKOHGuqDPuDLI4q0zg+jko6/PsNKi015wg4SEfrUmTQ4Nk1kW3k10tXNdJ0BRolrE1Vmp6my4XOUaBGDRtcuihDEcow1WglshgzPqkedvQL8T4ckXDspVpogXprPnaGtWLSFczr8p7Ozn6Uy8xj8sx00Z2AiaMntyuUlFKWVnJoSE1czBZhsbc52FVlVdUmmKlc1JIdiVDVgFBYokJFXKKlQqiIWhqgcW+7eGHZVu4N+RNdmuNqxC3JQdKZ9GZcWUBz9XO3XRyqJ4RC0ZtMSQbF4uph0zp35U0MJublfd1kVswyNavSayo+dRoFcUDF0nPu52s6NnP1BRGgazOOTUhWlqIS8z5WTdl3UqXcnN07jtw6X5hh4sa9jhUWqZZWp0Xcws56WdVLtdg0Zutam24dDVI0rSrRK8GUcrMwXSUrSm3Duh6UWcqYgyggqqpitCHn2BrSqqzLT2SS9BmPH2z6Xg12MTOBeisSnoktuS2qA0poCooGePLuSq5WUYBWhtXcAu6slFRLkJRAUY2t3JUqQglYAsULZdlUyVzF9Sq4q+wq3ltanWtxc58N0ZGyL53VxW7QfgmWjcibqGTQuHZKoaNTBssGjLa2IsqrKAarVnTV3My5QxQv5tNZhLeXacbBiXNyQzSC5cz8mpTczUukaCxNKhnNGm9nKYdseftjJlOa1KFiESOlJzS3c63VBZmI7J4ppXQ4m+51IrOvSNElbaVZnRqhg1ndo01AjZnfqNirUoNFqbUIl6MFPCtHKK6AbpdDMx2ayxH10WTViuRBysxIbEmhdILperMTqxmqNIkdS1nx1dSkgHa1RgFAOwSXYUgh1ZCilg3VSlclCVXViQl1dFyrBhUVRSk5t4mJHUy284tFWoIsmrqFZA9DNpzLhs55VDVqQpArWyIYgOqikUOiW5TcIomBEoSguVvw7VNibkGYHR0Chq2rHJBus4A9rm7hMdkiwi7Bxs7WtcVzDRDBeYHW4ykcWurw+9KKOgjDNtKkRw/QKt4vXvfXlGd46yW0czIWi6QJPgRpdjaW7NFuOVrYiD7SUrn4rrcjM3B15Ngs8rkNV1q3RBqS8orpizsCnBAlorpbBW3c5+rA7nCMb50o3Lu77ucrYwgIQjaWQQS4ujoGyVVlUkhjdBdHFVDpculs13V0VElFAlQ0cqEq6KoqFK0ysBaFVkW8jEWgda0OwS66K8z2WwSzEEdYyrRQwDRGHik0IjXBgBaVGHLzy21ucjRshkrdcZWNz0wctSbW5tEp2piSESoTsqslbEWJydNVufLpFFMDotcRutsZ3aqyVpzPkK1nmgvQGoR5WhkMpZktRKyDQ5ZykdatThbA6lvMDq8tIZsGC4ZXpcmGVqyD12MLXckdYlqiRylU9uWfQo7M1Mfqnmse5mc8iK0J38aCTqzqYnYet6tWHmpwDBG7AKqg1kldIHSEMsESqLIGWAUKFlJUqqCICtqVIu6hJRVJBLqrCqrKlwXGDSF6wOeWlKIKjFq6Ia1z9jErovKnV6Z42yGai5xiqvGXDTKTTKRjBoMSsSGoKUjaBlp1aYdDlQnVmljXZ6y2Wq5SNdkaqyyEqFGmqQvUGQnIpBZUuMCQrVdXQEqzs4o6KgaNkJcGUJAixZnacgef0704+23mbRUyzHqRTUnUCQFZaXCMztG0xK5CNTpQjB0rPpwl7sG3oRh6GGifnZzK3Z2dY3lb8VvaCm8KghaS1mSySOGDBSUpGMSEoohqMuVCyGUBSSVLlSS1qiolSgrGyqi6YRVQ2RC6ZQIsgsG2YWvpAW6qBNkt0DbrHl6WHdty12tdmKNd5gy1p0MzhL6qQoqsZ1RDabS5FiUAMSKW2xNPqszWCCs5C2lCqu1AhBCsRUoErRM5I+kugLJatWwauliHFFIslOtjUsJoCosTgF3JCEpQmoogkNDLSpQSpiLZCoxNhOzM5o2VoUu8pIvd0CF6EJVtQgeFCSpLQxfQBuVLvsHwgwqCIbUghEG6yB41TBkgYedXiNoRjZV1ZLqEsbS6ErZJZVS6G7orNqlIu8K9O+V0el1qCQ4QmcvEYWMGKXolYcXWyRn6eFnXfWnC7NstIprrKUr11VMALS8zhmhshZXn6ScZzMzhzxsmIstpZG6LW3i731NHB6u9dEA088IfSMZeC5aYrAsLTYevmbZWSSk0HLs6OnEUdG+fqW6RUlmh5pSxMZW5OrqovUoI4ORjLiQU6miDIYq5AlQjAaujsIsgyKA4jFEyFkY7I0ovLQmj3aqLq6QuzYfMdlruUtUutHrymnTJTJYu7lGMXIVicFUlDcouSqkGS0yrgZIMsCqDYQyKYXUKqliXUuqsgIQyoJwym6gZdiylFMUWY4QOrG5qkWJe9b+SxN1KJS9C8DU1HzhXrFxyOsXDYnaLhBL6GvOZj1p+W0anY5aNmcqFZcubaz6kPm6s2t8zv8AKb16ehPl9LEBSx5cqHGWj3YegqnvCWLZJENq7LxMq1lC2QItVPXqyyEda1zjpKXCZvpq2pioQyQLimI5bNRZ3URicpUNQxbBKSQyENQCaZWc3DakdAyCymat5NFVjmmIhG4IyPdQk13pmJ7YgivTpQpz1RidJhhEo1ZjlNqpQymCSw6uqMCCHillHKIkG1upIuVUhDdWkNyrlCFV0S6ou5RLG0gMUSmQKlN3qUSNa0UD9syt3ls3q48WGzt7/Od9daddS8ZmgpV1shjXpozV0liNGddmh2YTali5MjNOWYeOcrd+rjdm6Q/z/fXnqvjXO+9SsYm3I5oxQzGGjktNKYYsHurNHAQ+dpwaD0lixhRFRCA7SVLkUOmlzjtCEMuGPUAWNU2KttWGaRRgwyiiYZCCpaTwuVWjarNRkllMukQbVMiLcGrlmoLFihWprmJh3DWXPV2ADCWarIwQoNlKOw6Cirtgq7KlxygjS2ioYWVSAuDBFAW5dkugCqWENiHVSrqWLoV9N6rz0aQW6QLtmwkp+rdVJUc/VySPATv3xyjRhN60GzGbeT2sw3GcOjldwToj0+TLo53S4VnUyaQOPr5rLn0HT5zpro49VI/yvoxrFi6FyJaGWTXnyszzWQNi3h0M6yuB9hLhRmJwEolyGSzWykkuCK3Vqpym5x9JZI8AK2wO4uZDqmQxEJdWOaM9BmXTikMqhXK0til5PTmXptFG6Ekl2TagdRJEQ0gijWpY+4s9Ka65acInVyBT1jUGuzi4J2RdMoaYGQMWyghLDFiinhejFmRAKyoNrJVxAYMSxskqyQl0UhUtDZvacOzmujdGVy9Q8V65q0tljoDNS1Y8Odaep5lh2cqeVL3eh5Donc5WjKm+iTSOT6HMFze1yY9Dm5mhbx7+XKrq8npayLtczpB2tLz4E6nS6nmetEoOksCyTFyfRPmeTW4OeAZTKGoqRtRK6KQEmm82gYJpVoIZJdDQwTuqmbTko2CEdDS1urJwDWqdquATqTY8LsjMx0yDeVLsC8ZDqZtZtly2rRsnTWaNlUFSLvLlHH7uZGqUyMHM7Ts7OemgVU5NkUJ2CYAh1dRIBK0srKcAUjDA6WticmjRFsQVNIL0lZ3BjcghGwoIwwSLVTHy1V5HdNishlRztgNXoz4I67LC51LJdhaeW2yud19C+VD1WiOPx+9jXnP2uZwq6mamt4ipfRs83qr0PI6SZeQy9Zj08t6c/r8ka9jn86k7WfPsFa6uXP0uf6I4Po+O4u9JRaMHasTh3VMZF2nnnTMG6xyRvNIVOzKBmRdFBJG5qybm88G9q1aRBLC/M1pXcCwwoywsNhZHbDRULqkm0+b0ZZj0BI40lkK2KzLQ7L0GWfOPi36oRuaRkt+qSEoNWUrtmqpJYFcdVkrGiEBWzOks1Qau5ZdiMti6kQbaUbU0hrKoNlCjUaUtsKKpTQE6kCDaqgkkBWjHVvUrA/er5vQZbza6lS8G9WJt51sOP0tFXOLRnbSzGtczKn8+xEN2NSxrPEz+kws8lvalvEQlNvR6Hn+5GbsZMS6OVlXc9FCdapz9lxWToedHTGdnUXkGNPd4Hemn0Zg6s+gPn66TWGTSmfndzmznmEV4jdOE42LBOTiTqMppTpqwaLTfecpScipNCguJl2FakNQWo1WovI8LL00mXRi1GATBhOHrBnOW9GIcOa9NSm46ap+MNtqttaKp+vm2oHbCmRNaFy5CoGx3VaMuduQxkRLVobFMgLsKYNUHCGxgjaygZFDQ5aILNAorsCXS3VywKMihMSDcqmhVKDShayaBp0G1Y3nruupn0Z5EsC1ZapdNxvRvIwG1Rq43Pp6Wi4R3s5MsvTh0WHndDzC/W408/wBbDyz2CuVsXl+i837JF0ilefPeB5PRl1kezxurHVZTJorbUpZwzWMHTkOqWJ8ufpY8ydRuJ2s5ON6zi55qScxHuS4yHqz5FE5615GXpRyYidKNMBLEY/Oy1wnkUlOUhs5nUtBWqoqWqH0KDQkmSJHK1LRaquxPVusxUZglQgzTSKikbRqDCSUXAxENYs9HZVjSGHeQjm0aoNzOjPqWxFiwDQBrBhiMsKpufQAVrYlXFB3QDAllmMpTCqljoUXVLhsk0qpN6wGSZXZtPM3dHc4hG4elklxs0J44Qhy+qnC5u6Yybz5tZIbLdqCjZmTKzNqWSqlfytxJ5zR6ErOLn0YqylqKF97jejVXkvVeWsw6suiztacYZ1uTpYYud0/O2dBnM3j/AFfkuga3YulLzQ05DUrOrPKOhZgPyUmg1ZZOjkFq4Njg1TS9GI4ABHihRtfyuvdGNNi8WnOI3c7fbpJIwFqkzAC7DvGCm3G3QBYi3TmqqkPKPvMdppJgwbolpkjz0assENdAUSetCTnSAWQQXBUOlKpVhATBFnUUtoB1CDAIVcuS4F00BO2qlRGBdgMCWtQ9aLMIE0VaFm2cjeh7mDVrXNTrUDkfol09fgaR7dOOzCruc3nnLvzFyycQ1tiTvt1I0q1nfmRrSdHK2r52rzkdyvPdOXcQ3K5YFZwud7ROp5T0PMho6WLfLyVdkEi+gg8tlfns6/MvtHK7fE7lOeznyuRPOnc1804s+vyJmnY9WOblsUY76hGfMDYOZ3DA08utDsQjsc1WzZrxZuwczueXXkLTQmMqlBmk6CMVar1Em2714tVfX4j66OQcybF0ErMj1gK2Z7UaHgkE8qHUXdP6fJ9FnODT0Ak5rYUamC3HSFncgHISCMMkkFFlqVTAyErsXYyCaqtKOhCJJxZUNOXDBBogWVFku7FU5VNWShoK19Nc8N6rvTzNG6uJucqVINuVvT4OzWD3XhqsXc5vLHLK0887yxcbr09IObH0u/dzujK5g3KXI6cPKYvc8yzB1Ryr05ztmNNG7sN+OUHTyaLkOV38Vj2YOoZPN+tyS+P9Ehxxs/q8JwH9VNdBWjzEvseB6DIDOd2k84rtcCc9aUaJN+zl7czkMfeqjD0s9uLS1w4Znkzb+T1l2aue/lhZWVLllbnZh32tHAVFartETRUTHqq2UgNU5TXoRbl0sUjQDRCF6EJQ6BMta0Wzvc9uMlg3ZY6SqWnUY6Z6c7oVBqTJBlXANCFrNMOqjkogIiyrVXbFj0vCFWSsmwr1FMWcQhhCRoAl0SXNF2VGPXV9DVnG8eic7d61A0xVqyygjQFzs6Hn+nZW6sq5uL6/kYz51nYya0q0b6HaPTVK9eaLETll3QSHQzsuTSY6IlkWGJWR+eU+1NudqY/WcNwM7vF0eeODL1QkwR6Ss816Xg6zf5L2HHmcXRT0+fNPI9EBi0mcnODocan5wLdZyeii3M/Yg29DhN55eEWjx3c66sxG3CzRVHRnai32cuukoRelIonBbWbYso1AbFmkqTTJn0aqzObvFpgfozsrDbit3Dg1R6KgLO7okkOpiHYxLqwJk2BdAxY5jqoqW+iqlNMSVGiB0rVlIegxDotWjNK6ZNVgGMhw1LLsZUCFoZBWqeLct0x7sOrbRnfLMFaVSrToXZt2+f6yVrrGN4no+avn5ri4e7g6oHmOpyD1O7lyOgK85qnmuhL1aoixKgblgb8fQswgPJl68ljXZTuX5TYuY30oNxWmwFcE9CfmvQHOxdbFHUg1JhcOjHMWLbCiu5DwVrF4uhNXzzu3Kx87q8e22LTW0ivOU6soaupbyugBuM0OVpXIx60qBqtHJlKHKGAEVspY7PbT8tq7Ri34yxp4eeSXp52mk1rgLtPTWjTkRXqSk41BEQEgw2gZJcNVEtkVRtmrncK5GGMSDdBkq5bupUqQU2pEFOe3ogJSLqNkK1lUHMQ2mrsFwhTzVNWluVvpotRajMz7MS3qBVoGOho4PXsDZWNcPE9vw0z9HPJrj5w69mvDtz50GLr+YsS9OzUZ1OGUvq75vVlCS4J6bsXx+9DkuPEbm81UvYgwY3IqzoZ8+g0obS+c6iuui6EM5ath4yhGxciWMulUu4GwZJTDqrghCufuVqgnpurjdCaJEINtc/ZButClHrWB2xYq0rBOnilhVQlXIRCwDMyqvO5gj0PD24dZWPbzwkidHI1RGrsWGiMOfSrre+K9HLSn5ySksFTbRYyUVehKeFL0pNYSiShuhcvMuoYxacAow0FRwZF49stzp1Zx8gyHKPMFimaDIKCBAW4S3WrK99MugFF6hx6mvNrVSauoSDajqO4nWsXsDNTPO+q4ebx+3571K4h0jLk8/wB3j6i6rcmpJZa6HUF2NTGzFZ1Twb5aJcXRYt1jByvQjLgydbnBwOadFvH6U1p1ZGy624zsaAMZQTV5xY0WZZDMwYUFyOrmq6XPLJhotrlWkl6YzG5kmYxPTA3VdqIu7QJbLpN1VibElSVAl0JUYaspR3AdIHBVfZxMzM6sTWJDiCvS/pVcvfnTmo7OjemaRvnpZEqDpq0tdzJ1S7BtR0QHBJJ0wGld7tJfJKKj1aUVQa5clKed1VgTMG5aBXWQUBqUI2c5ouDNRWNFDN11jW7anDOpCJmDflDeNCtKVzMAosHDHQPladRuzNRz8PqONDZxN00jjbEalbFabMGzP6rnNYcbq7vOxbnS4etkatcDq+Ss9m7xPWj0FofLTOXK3oa9ObxPWNrm6MunNyFBzsmUG+e3TyD1ndmQ/nWg284pi6yaIhmOiD0WzM0ajRmpVahkGgYUt9CLCUCNeJXQHmRO0dsL2WKz9RK8/S6qXVkJq2CNFNGZh1S5NC7Rr82jlCEzxBz6D3RglJsNN66Go2ZgHL0oSTlbsz4Xa2WHYNFkSxejFqtK1yRliO9ENzGRFirWCyIuHAiWOqyhPJNnENDAFC5A8lywDz61Roi7G2BdNlk0ravnbyqWDbEDqVKuVJV83VgufQv893WprzoQsnRQnAxegzLl1bNExxO8i+bkPZq6a805zLfSTlbbOL571Hmkpybt3O59R6YsBL0igZ1enK3NfhcquNt0xDXL6chXdamjSE5dnuyKud6c7pEvcrnhRUMFKCSxZVEtIyNflfpeR2KGAWpMiOpK5FbuaaW4TuuglUSPzZ7drEFQJakLPCt0LTph7eeyTobuRqxMsd0dXIasuJuAJVpfzk9CFodd1UMzCowBo4GCa5damCnS0Iagk3DQtUm3RFXBiLcoQ1YqUYyqPQaiLvQebRjNhd2SVRLsKAHjGTcghqqGzQAK1ddrPpscXWyNXh3ZE6IYthnQzMqUM0o1Dcid2+P2JrNrWoPN0Us54xWMPkloDXnovqc3qdNp5vR47PS56O2nIH0XDus10w6md6prb1fPxO2WdU1srBvlz3UuRFiunKOWU1qvzPZxvZlvnS9UorOjZzT1O8HP2a5iL04wpkrMy6F806AIWmlUKDfllmq+Y0LFqOmJEyYifWA3saTFiFjMtUyarMANQjxXcdjR5/oyaRSPNea9SJ1ZgrdzXs1rpy1q1JVFtVRd0xcmqIDKjhD1lJcQNaRTqqs2iWoaQlWBwVrZIEKqpwQiH5bppBIIYGZpql6WUiVVSBp6CCFFNmLo6Cyzdb2g5mVrqlh1TSWElLwdMTlb4AtBjKW1LI6w4+nvOFxomgzblc8VKJnOjeuszxZrYcXVw01+h51XWrKnZZzEdzETPoyzWlelKOJHbOP2UWpZ892NHHp1jWdO59EmwF57GlI7PM+AxR3qOzI7fPRo5rrnoxTJKU3BnIjvVnOZxKSs2lJi0bxEoplHb1oxC31jZ0MeS8ZTWs2jV08zlq7QxwNHay25tbQlwK6HI1D63Go7PPRthmXSmQ9WDUdUGZZtg2MPoSDqikJLEU0HCqmpNVugpRiyJYlqYpqG2k6KgGixFjclhruRq6bq0NRDVRZUJS0odokHVaEYKLDQIfL6BaAl97Iap1YMXoVTrxXMRXUfy9li8/RQYGEzO7YDEfd1rDsnM2h9Hjbppoa3sc5fSyYzx9TZbzcujfqrrSbeHN1c5j1J6NYfPEFz0N2jaouRizrohyuql532vO5PX5Nz1deTNHUtTJbKUudUmema21c23RfTkgkaofo57smct+jGA1LzGrmbWmKaVo8cWtLTrAxp6aSyz6kiVPXmV0jrih1wA3ZqwjOV2NDzFpy5uc3ao6dJnLPZhhGba6zDtcPOdNcPfXM8bzBBWmA05n2CI2uhJhSbs1sotM/Qwaw4srLAgWGssrpi5Mukb1TgjIwRZVLqsHUEowKU2S6tTaqqu4C0GAUhzemo9BzvuxkLN03pRSppeXosrndrlMxndm2BveQmBK9NquVPsQjqDNOFsz01sDbArQrlH2nd00hexdZlOXnWDkUczyvUH3NXCO3mypw6zgtemVnxHlTOvWqzfqz3GhWVvPLsj6jCb1OqNadHQwKG5fv55gU28Yzm9OMgtuaNQhqrPpXzdXevQVJysmIZ4FJreGasQ9JNX0eSSaW59S3nvLVbMQHYHnb+SPzPFMrMmxEG10XUFFFZo1CDqrWvOmvE27Y20QGiUWJXJVgYeV6ahqesY1WpcQcpKEoOKdIMYsFghTEaUSELqhbhuhdUqgvLltpDNCG1RJTYG13pa2NRazlp2BVy8PouT065+3we3UwdTNjE28jo01ba1rLbalzVl02OgvkSyZefPsu4fe7dEc3r82F7ec9ejJN5R5v0nn83N6c2RFVjUEHuVXQtUXzLQowUGqj0XIcvXqzBAnc+dXULPMo1ZOizpvkO6SdarlbuSdDa7ODm3p54Q3LsznK+iqsbrplFIcsl20MSmwsSZHYtiKY5aUa/G2Cdn0QFNsyjWVd7kZ43sx6UdiEbdIgVY9JAdWVeNkBIt0jTkXn0hEK1UUuCXrK0XBQwc1LtpRsmqiyEiKlC1VGLUwxTVkZViXWOJYEGli2ihKoaBjVVCBJTCUcpLQORcvNVvS3VMRLelN1VrWcGCY078eMbH8o7ellAbcWlVtbDQ5g+N0+TF+u8t1LvU/n6hmV0q9PL6iSllZeYmZ0LZa1dqsrmWCSyZKgnCDmNkas2y2eXrUvnz1rBlZyYvI92bBuu2aMnTW7g9Vx5zUklPp45GhQVzxASpNiNEpsWiNKlvhG1dU7ESlzu6FWcudDjVo6HP35hrzrhiVFTEUWmsT1cyVaMmpe9bJaZd6Y8uvmL6QTvnq82jPbourS4ASaVSrXBVomyZvSwuS2jWgkamQjWMaKXByjiQKoZbFVcg5Lbay4JimriMUYw4lMoRGRZpIIgbpcobBTa83XmW/ZqVu1T053W0jQq1eXTnzldFeYWdx5me3o1Zp5nQ6aFW4bcWi6zrQxBGm4O4blMzee3HF3XadZ2sSuU+fdM0rRSkcSAXl+udzRk4J6c+Z0jBTQ5c6oayKxGwoIVWvKvV1aucVvR5GigxMcwXZTzDQyULkNNGc81TPvacl7G5cougygciobyeq3priM6T854wdeJyXOGM7t/NrROS46Ds7sH5isQUbXPz78OnoThZ1YJflRgVASWNMogQ5BDW1eqs4ZBOkBeioBTwVbgqSXUWUMRwmoIlMgkESgUJAiG2lLNAOs8jxFUrVOzU5izSisqoCIz5egitHH6pUHO6mBdbUZdTUpvNw2U2WYtSjhlCoF2PRq9IWh02CdOeaU1QZbNWDfdUh4azywYZuPDui8zD1M1xskK1rn5ZCc9tqs9Rk2pl4fq/M9s0Y+hzMYcFljIldqNXELIT4QrYmoUVGggrSqGZKfl2Bqcoj0RKakrRqIrNteiKgvI0FU1udOrtyLLGc+xJxnahpoLPoAhsxAzPzaXaG60zI5e3dXdcbn3LYCedmqLKpCuIl0KYWrQTHW60tJVXmXY2ljR2kpoCyGpVqdKBsRDM2k6U8Qh9QkGSUvQAZOVarRp+QY66kEluopCFZH2Wy4kS2opL61QwMcmeNZJT1N0DPNEYr0HmYMO7F0129HJ6+9itlW5l6Obm9DoY+gQbVvOIF1TNGZ2NaYYWVdKB5JIOpfN2WdHzfqcct6+T0jLe0BmHWnMysSfLm21OtoLaJh3IaTu1TLAskvSKIgLqso1UoYZoiUwy7c2zVTTEwVI1mV+ZGjMvR59bG0GJWTa3V47tmaXogqueSYCtKYBICAHWt14wrvrZXPUOzoFkYBwYsaYWQ3Q53Xqo0ZtIlthkRAaTNsz2uBgGd1rh4GpMzXLuowDkBcOmiY5zVDWtPpbs5URFqrU8oQt+eK0ZnjRWVC1LYoTSj7A6UNjq5dNjFkFJHI1SZRNMmhdZ9WAWje+f1+V0Nb2CWewebsyZuvveR9VrLMW2t58u9dzWrVl6USmKF81+nNwHumXMLanTVSWWECmrCTiXs3l0JlydLBzwTFnnLGZn2g0ACupElLgqqSNtdUxT0wy5YllIGhRpVkFHmaqnUd28vVow0LC0mUtnMkF51k+1nlTTxdBJXUOtdwyYn1WToZN30CinLWHphVCdVao8+jNMpbFMUy0oo6rO1NrDSeYTRKSVSta0UBVlTvxjiCZMWSpGncrk9KL1XWp2YEG1KquRlTNWgxKSKIFCx0UKXrtl2OYwJYLLBFtzla5LLsyHqSWdwDPpSiWbj3vDWxN6JOKZ2JsKwLgyh2ORrPRWJdeefB1+NE1c3TNdarOMi9/PkU3PfPOoAGnZ2s1uVWjRAtxwnVHwvPpy5ytljnLBGDKUZdiMExdDISVIaZIs2BbJQSMmTQglTIU0r3cy9tAWLkS4+fG5aTABUrYpd00FFgefVl0U4VlU9OrAY4zr2Bb1bA+SnJG1oEAwcOi3QCWo24oYYwz6KYZCqs3WtbLDqjpVECsxapq0ATEN4wYmkDGJbSHXIyuckY0LQAdnU9OZyXKCiKhzGAJWga5kVhSHnfVoMptJMqRTwVWhZ0QHnqquufbvHlXJ0ncvoa2pLYvPHpqrC+zxrpbeL2+vK+X1Qs8xsyac76O/kdWy1Oq541nk82Wuzt0mpTNaxESt73N5pmtB3CrOsc1DoDEAWDS7ZUKo5FQYPz2ZLEB9ZX1chmV6wGksiGu7Ggu4C5cCh6DTYXorSSIgKpFRma3aIZ6esla1siIVNGKGnm1V1iquVE4YoiPTm7hvJG3PaOEDJYFUOCLGnXSW5dttEqYydy91Q6FFZN0ggNMlqbGs2sSsBisi9Ac5pH3choMaU2TKVj0WtEwkNdFao6uLBqkbndl01ml4CjdCZakhqeiaZgtcJI0zl0Oadg+Ng309KHm+5L0Fvx1a6KFdfkajsyr6c+Ti73AzrXt5+g6sE7M3F9FxOecmlR845ih6bpiTdDS1mswkacZaussltzrmdaqOCWdgkI23n1IAIwyOGpIBQOmjQEBEU1lIj1xd0CUrRgrdkjTaS+fbozbUSIRozjADTQRbLVaM7qPK90JzdKW8/Rrz10H5S410CDbGWSllldMAWUBXGqWPGmIswvVyagZLlN2HVe1LoaqlGm1sF3CkAIV0chIqMWC5TZANGi1TIEi0saubbk1IEhwm5nutBEtGFASS7tXRSQXZyQxABqVVGjPorTNGyy8u3NScfVya3n1Ipe4zk9fVBGgDGcvGuw7ldXpynH7CbeJs5+zN27eR07DWcs5CtuTjN/O3Z99M8us7cS61y1jV4yS4yF3z3SPGiChMMwaKgRaijXn1yqfFJRwVZSojgJdVVOkinDbRjSGCzluqmlYullzK1Z9WmDJ2UryWanJl2r2LzGQbDVAuibVma2Yq9HGK4BbRUNEsWymRRocUd5dHSyCCqGLS5Q0DRWXXn3oqfeYKnVF0q6NdGA9So15ZRtzWSES7CYqhiNChuXWosTGAoxUTyuodCNBnYsS9NSQkPVZn0Mq1BOzwluV4VjrpaNi7EzIUmpdKt56tydaH0HI6N04bHcWp6ZQ7nC6SbpJrPGX1eLnWrZgfXUgFYPJ7HGwa/JsUUbENYg2ElWac5EojOKz3syzaQg+BZDAyhKiWVWqsxioYAXVIOfXVoNWKaAQ6GVaKcpuSTUqFCtKK00JuCGwygkrnurcaIdW5acus+fq54waqCusdTjbXd09NigKdntJuXTmzQN6kQ3JK/m9bm6ujSByNzA1TsogqNMaFuAMaiWpta1nrUAsHKV6GpQnrZmQ1nQicDobkljdo5zppUcuSta5TkPzMkwYoGJxRhKAH2YNkqxGkKLJZmOyuFnquzBm2L1Q0qlu7NqTvZDGJlas5e3eTXvM4nbyy8jVh1xs2cvo0QXLML2Bm2srlyXoULCXjC16LmcewM8arSxVMbUh3mMYsaCYqxkXdpJYJabLMiNKrXCuIczNCKRGWq7aZj1RSnLkHLuHRWkHrlmnAjG5dI3PeW1+jg7q6Rc0Sj1tp6LnE1Vtlkg0lytGrF2qNSNIWcvqLOVKd4UGPeAl0gTKkg5XRRmXVBkjSjFOV00oxmQ2LwMPR5idCpmWOsaeKjg6FklGBSKG61o0kLWsF3MNy6VDDC0C6pRckhl3ViiNYlhHQoeuLA1h3edKW+VnV0M1D0+N1t7gnW7mhhms7Pn+tc6ZBt4Y9LkS7tONtnQqSyAUF0VZ0ORqswYRZyazy5jwA4LIySNsGAlqUIK7qglBkswoDaFZQXDAAtKJWWhsjeftDbM5N4h0pJodjZRMx6KjEojRFuqQVDXZQtujdXNvpQmrJnOtg1VytMKFEQaSUUWDUw2IOjlWCxVhqNglhUVa3ClRpmNBrpq7kZdD0tAJ5K0DACsVoFXa0QUaK5vWimgCGwDkoAlrFmYDaKKoCLXUSxVqBMLg0GvVatmZnQEkkZSLXKXIOmhUdiOmZzzyFsyBq9cZXbVZ9KZc+rNZ3hBmoPC72Ew6MGvN2a+Z0qqEOoCtC8aVncnMlsXjNrJkziYac22EqBYs5NS6bu50PSNpLZHjnsfdTQmJPBlgWhqi9qKmZqqOD1aAsx8b0mY5rtdQmNhWffnDyvaJp6qFsfSoUMrJcZzYytEAualkUo5Xs0vDvOAIZUtOgBbShaHoGFapNMx7dUZVibeqMzUFLrBoVGVEVKZKVZitaDhrC1Oi1iHjIlwOrMUCXUDIi16SRLLqLGxhbkOVYx2lESZkqtNpnz9ttMGplufSgC4MCrQuGUnTosylis+ipVrNCdJmHod9gJVbmhjGvocXr2FVzU863ZgxvXpzXZ1RhagA0c1GfRmytL8vPL7WzOQGMXnNgo4HFCNoBpeZxRmLWmFI1JNDV0Mdlum2o7bBhIq7BaFiZFa8jTfkMKoSqLUR2USqXQGC02JLNb0qUFNLMeY8Abpa7GNKNeTOyehmIzOOjR+YlA6VLEjW3RwLdkKdVaiCz6cWWtyMGs+rqyuSc/aemVDJSFAbblYrRLmJplWDEC2LBWT7VqYckUVW2xczIxDYoTlLq8tutqrFuWwtQGDz+onVy70ukUZVI4Dy1aGwJWbQG3PJnRj1Z6q8m8z5zWM7HG371rWdddKVoRFbcRR15J0lcTuY4y2phr38npQdXFzZN2GLGs/PGiGrMlMioJ6zLpqpNCGr1TqOkTNGMtejNGiJKBaSaJvP2hCMq2LMRrphhPSFqyhmRWvNIrWqSalQbbaAhEstDxXeZSNl0nNvAJTQOhyemedIOyhVJ1rmF+STURjRwWklClUXHt7CTPMo876WMJRap4dKMGqq2xcooqWtNHGbot8ljRUsxXKRDVVoUUjFSou1jrTYwJKwdSrQuojBHFWkk7YSpgxVtXTRMJIQxFGI2jg3Y60sfaYK1ZMzSo21yWt0ViY7KdiwPv0WDlme5Muhp5XW0qFNTnKbycuo/BpOnS20GPcqMfP25+OdFLdJBTavgUGeciqMTNsS+S8+6VhQ6stayYDn1hoktC4TFFDDqtKcgVeQ3VEmooSGSqZYIFCJYNaAABgZWVoNRJY6MyrcZWNzNbz0yKym4CXThZgNIsXAOS6RhKZpYC1cpDeI2jrSrWNCdyUHJINWhVMJLCEEiuf07rKZoVgwsiy6gttZOkzMZDPWhGqLVuhgLMgMXbn15dheXXnst+eoYsdQDBkksUh2nWZQ0Z9amsQmRdhaapSEXoSdVWFiUqhjf0OJ2+u6A63UK0Igepy3x1botl+Z9Vxc0NOZ9mjdzOhDAKaYMfW5fLNQr55qo8QN1KwRdYstGe3QeaGldLqLJ2WZyCiqKkeSKpmQ6htWvR6mLg4Oil2xNOzvzQ5NqGhRBruyhhiSPMhOpMaiwXq7aGUzRkvnq3DZYrfZdrMVLyRrZj0hyUgFcoruUs2ZxJvVkV0KocV0qEBblSGAaYcxa6el1C1sEJw1aQVeY5LE6WDrhQtC6SwllslgEcSZdIrlQ9tuforOS0NXmNy6c9J6GZGroYsR2d65FaF2GQrQ7gpjmvOZUdPPq4u7ytWr0hMemgRoUIury62jl9LSlMquObEZaHZyl6sUzWQybQOPZzhkSo5KOqHJOlSaXouMCWmpNGUutDfnaOQFrLlIAb8kIfSxrM5Q7QodGZdQAisgxCgxbdo59pJzTp2WJlHWfTpyjcz1BmGg052FNZNSmVEvXmMJVUzOrTSHWGE0oYmd4lTaWu11BeYSDdaJCdUuygUdCqztzPFVbJUtXZNCisTV3kLRO1dtzyEcbop6bFA4JbZK0iXhlbKlIu2Woo3RmKrh6jBGq05rZnfQEcVLLI4fec5m0sqFmtoQRdimNDVxTdlOmWbV10sWAuazCK7HF21uqx1F8vr83Olvy6JdO3l9DWWVc1MfP7PO4zK1a+WdQruGsGqgmqmwaIhtwVVRGVZFtzmglTSzs5cA78MizcSSqC3QzOwdYnWY4erLU0TbAhVy0iWWEFBGnPSTQ1MDJ+TOh1qGtSoQum0mTZVLOb1sZrlFINHQNAwtZsgLRoKB+eidm1orOcVxWuyzJduZ+duSNFOACm0DlPik2ylNTYYlEXbVSko1w9dXRCDrbSozShwg0wpEMvOptzvpdLYtZHpt1HWWZ0jLzGLoKhMCw4hpaJk1dS4Oc5u9wez16NA61Up0JFyDHdrNq2BGmjiNi8XQ/MVdWLLWbzaaThOleZV2vOXlldQMzvM641T0oiOUEHWkSyGgTPMdCs23SZDMXF546BZnxTVqo24t9otpdXYyrIaM0TqzKYuAU6GI35ZDYMNGR62+hQpGmIw3NUHZdmawl5t5FEWUeqFM5ztXTArK6z6LLsLjTYMsGKO2Xa8xqDq0WUNqdCWyXBYUApjWzO+wbyutZMe1IJVLnmiUuUUoMo7AujBuLhl1RFMlqzlCnJ0mdO0BXM6nKuu1jF2YJNlyuCUmdzKXOVHohzM8mPQMrs1V9ugKeszCwJWdjgduw6k1M3J7/Ezo2Z3y6tnM6OslYzUVg6mHnEgd8Zl1JcWNEJcVRedwWBb1F0l8ZNOhNK0SaA7Fsh2R5BIoB4VcNvNVbYK1pcy1rYh4EaAIEssIMgw1QxgUIDXVmsl6ZrIvQhWaFTJelEqjkQrUyrBems9tXkWV51aW5h58/rViPUnKnZ4h5YUu3K9VNYMszrctrVlrTIswVQ6cz1Oz5KbCXQrclsMZnemNjpbKpNPsVhqNGWoIRUGlcBhUo1hqKLZrJEYN0trRQ5loYiS3XVWqxGKaGpQjcGp/J07LuB3+vSDdCk6c8q9WS07tDe5MmuHAcEzvTpyMTqBRbwInDAh6vNGLs4WF3kdgdiGwVIWXSgcKEtlGmZ5aKtueSPzmpLY6xNqymtJyGXdraWjpnmgZNIIqmnCl57dmezMNqh70HDRWVbkCc1i3c3rlUFQC9SqcliZCrDutjsbS9fH6ElENix1Zjnddq65WlWvIFbgsBl1K6879M5NoTAWB0ADIGR2ihTrguZ0V1ncpwTsLI01dpnbU1aIM0bhSyIttkW0LZY1C6HUFl05RoMlpFQIo7Zam23Mp0Zs9vRyuzzL0tzB3VgEMsxE21T1eTr6a2CSd6cltS4xYqOjt4/Y1Ko61MPN73Ezprcz416ud0NZq5VVzerz+cUwJxhpuRRiaMUJlaMrqznrUDldAc+wRpIoB0sUnXhTaGXQNXvmrhYDM1TWJsGWA5cSa4k7TZlaJQy5IB0MXpXVZ4bbH5XSWnVzcm6kvogbjkPBem7Tv5nSZp4TEim3oTufuS8GlA0IwVdVEfi16riJVLs0YKcyqYWXZYFpdblexUWEkYtGxa85jWyNJTKUJiCqMqTK7J7lloK82m2rBuZZwBGdx61dGuBJTywATUBDJFsTWjK5OcuWxercatAaJVePTnrE46t61Ld12BVZmRqzZp9Hm6Dpyx3msO8DhvQWdatOMzo3V6zEvqOXds4ZTcGU7ZlQ2ZGQwHKHsS3WcoaZLk1QqzL1lGPSwKmXUqTK5mkKZjurXoyJpGKpD4qFsUwYa21bVWtQLMuiSQTAh1tl0lJHGgROTI07Ih6zMbGW8/UT4yvuZi4yaUa7zFmNWthwEEaqVoFNa6zZo2Lp8vNo1D9lJke3Leo2+fvmrdkFHEMWjx75FMvPo8ZYuQxKHMBO0jAF0qjRaaZRUhewrc1kMua0vqmZnQQsGQVagolkMgFoRajLuqwtARE09UK59j03u6md27d1di8u3LnS7Eo6ruZ1N5GiGudg73Azp7cr5rdr5fS1grqamRPRw8YiU3nIg6jKbTsNYSEsCV0LzsXQkJR5niiWpeJcsAXZNGZWhWi1RGei8fQCEJZpMRa8Y+1WHLu1TCXBocgk02PqiFLenIyzODNcp6hEbVIkY0V1bFGopuD2LNJi0KXVlPAbTkGK18qupaaAszjE5lCI/LlqTp5O02ReQdRTKUN5xrqbJkUTlVqGKxUpAJmW1uZ2K1+hoSSEaKJioM8r6Zl1pOczUluIY8UxLbISzTOYpjppRq1MsEYKwfmOwORu8zo1u30fL4+nalXYKXDGKmVLXY42xOjRhuVyusqXgPzNxvXrxOs6dSbxAOGAWr4ZBG1UShYCtgQrUuU0soRvVY1dyzG12ORs0BWLWs5AVpzStZTNAbZrito0qMOTMw0DzoaKXFrM5ok1Cb7QnDaqro8+jKE3Lnt06UIxDMmjcjsmmjQKhywbEaokFL61TyN1Qq1mid2DZq1kz516+di8SW7GNfJDcWzPZlj9Vq2pbZnybsua/UhdabWiH2rVWW6kW5AKD6K0WQWbsRy0Y3IGPTooWDVDke9eVuy7LoQi0dFsRQMGTSt92BmNK2C35XRv253QG96Z4f2Xid32rseouYzg1ORKN1Je7eHfvA0VVxMvd4OOmp+TTls2crp7xKualcvq48RLM85DZBS5WUeVXALagcWB48qGGBRWGxeatSlMiZ8xHR183ZbdLuiVnbITAbUFigQjYEzXUrUFqgKRAVrxSscibFwdUE6ufW1WnlxvPNok1Z2CHm0YzRLVmNsW208C0ymZSAo7DzaLjlm/Zqyk6DMHSRCV1WT5McO083bsd0AwWWIVrJcxrclA0YgtTVUKlNq80r9KqRmjnag03aMzZ9a0BOo7uWZiIm+dIStDSpnPrE5kSXDQDUWZtIXlGJOk7+V2/Rvm+P9d5xfQa+N2ZeWHYEBbRhQsXms7XB6mpoxNxW68W0M7xlqqM+rJLjsVR9MDChgXtwcYVUWZmvUlaPPojJoirEbsjsjfyt9EnViNBo11zqMpCoXBsq7cYjnTfTCM+rO4Iby1pZmIepiBhqlt5tQRNOV3NjXpTu7sL6LbmZWrPtSc7pS8zMppSoLSzUWsH5KesqNTqs0LAjATqzZabiDqxVbmEGsVSBoIGlYdezUrIWxMxxktkA1ZBIYFmJJR0ZkkDlsyXfYyvKRV6BARtx6bUL1S8jspqR8Cs5dSX2roU6rVJ6CZ49CxxXIC3pkKmppMdhzCdTeuh2Ldu8bnac2tD6LyvpJNdFQEKGdWnNjc05iH56o6Yp03S6IJVp047nb0eH19YbyXci3tiB41FtkAo7zxTTbhGbQlGmZRi1TPTSrRGINySXY0FDUm3GHUXi65LMvU5HRGULYVdKq3URoULtVQWEFmcKEGi8aMee/YWm+FDGw3maQ00RWbJ2Ny600QI40NI/K6CmeJoxaERtPmt1dRLKQs20aTUmaPP1M1dORpZgPWzQYypAE5CA0EoHF2FlYUt6c1owcOqU+N2Ga1geb0vFbqVm1KaU7MZplyZGAmNhWujCnW5dUjOW61tIYtsiyQmTo1lunLa1M5ty6rRLm9NqpO1ON0qw2+nJL5RopqLy7M+NZyG86hrbcj0ufpaaLQulZ9Qxj243XCMfQwmno8frKdjbQ59S5ilsDHJmDaAUi6aJlJmpueNYVDPoYeiRY+Tn6NGdUKbhGamNkWyirLVmKYOkEHJtbUGwLNcOYylUcrCLbWgXSWmpY9nHh6XHutHVByKw6MMbHVUjafDObEKcGTL5mz262pqzRabhlrw1086yl0I1JCU0KiCZkUpSzVnYlHatAs7yzk265246I/K8pb89UcXDkMYcrQzRrVkWeZzw5k4gMWWPTrWgEyAYZCzi5kFHotwE5A/TlbYzPlejuVtzdNrpG3VsNeHGT6fjezrfeoq1AU9cuIXK57hDEO4C9UVt1QBy1BTczLeduzJn2c51d2lMmyGWiowcccOsLZNOhNoPTeJefbVIuZo1nleWxT9SgNcBRBKLgOQjXNXKQHAaFCmmkP0ZFJpjFty0EoyrU2UApF1NOZtUV3mMzaMWmullGZpNDEhRb+V0TRlmVdDsrsxTMW2n5nXZlfTMFVoXagNFQx6puJbTVWxBLa4+TKxOqBlM1cOxGuBB6plKtBW1oTcKsBVekLp0zMkeSh1SzaWCwdnkYazXIL1W6lQZaeLUHMypBmherlZppEp1YIavStnTz9PH3rbM2nWtGTSuZw5u15232t5361QGCJz68+drW2QY1aO2c7Y00Zdqk6VGJqiuMIa8i7urw+pNNl0tiYsWlyc8Vsq5cq98SZNtqCHKhW7ldKKjRQXKy7GAuyZVBDczJUzbLoLU6BJTRbsGxCITpZg7GrEL0zi3TQK2ZKbdTEyZ7fqtt2XJovNIumVw+9mGLE8tdFD0RzOxk0BkvCnRVl1q3FWusuzI6GrtqQFPXBpsyL0YtLdzetnUUY2Dpq8yZteeEuXatwM0aDT1CWsEuregrbVEfM3rWXXzct8dlqxJg3AcugdEyMDO+sWs1Gh2RrJrUyAUwZKybs2mXS3jbvbvBeUxPxb36tuHddUF5bHUjQIhIzUasJpsZiqb7ExnbqUmqHHqxM6chjYvZjqX0NYHTWqZaHrBWeWu8ZMsvPnOqeG123kZJao1aZjqZ2ZUp1djue3E2Bks2XlutSVLG6sydOlhuQOnNrioQo2LOaIL5tHtsK2YnXBZNQRk6KXyRZDq2kLzHxN6NU4MuL1VhbtJb6zIDWljoqTJtTmXXStNLOjFAcyUrYwyNpuloxdSuPvgzemlgy7LfPl69JdJlV0K1VPLMUZZTWtisxlhJNChbq2SXlKYYCHpGXKhVENrEtBHKcFWi5C065UbRSKzVrMGokCsbTpW47TBlvB012ex5bvt7FQ9EmQg8Tr8iMI913Xlwh9EGHDPtcW9JJozrNDEGhBIDqA0rinI1VSWgxqZkZdBSWUwbiS2UmShdNqEuS5BGEFRQGVQd1Qayhr6/D7uckY1GYzLOqzbIgsQ0F2dgxDKkaAqpynlF5zy3WDsg4QtGjUbzupmlIwxp0MXV5cnQg3llO2aYOhldTiQ2GQSMuyq0UaHQi2hGbQV2427MQI5Oot2zOzNXP22jm0gQR0QoTQPXk0Sk/PYxuXQNkBDz60USzTlbszjNoBtoCtsjgBqYdUVo8sOrKsXSDdxkDswEbskmjm9LJu8lO891HSbil6mjPp1oAJIvmdPmS7Hrd08/C7HO6XH0XwvQ+b9PD1YavO8u3ouNvxL02JKzhd7z3ooz+e9J5kv2PivXrxWbrNXlPS8dksHfGONs7nEOeHo/OHX6N+Wr1fmAZGxXR6R5lm6jnN9BjPN9DX1TzSPW8gy5e7yDRh7Ow891uV2OeYLBk5+/Jua0ZdIzNc/fkXl9nn77RKDma8sZTGrkCB5t6dRXJnfEUsNAg2rVmPoHIN2pVauZ00zVpiFl0jkMjN2YrdKG1TLlZBM1cdW6lG8DidDB05WshzKLvKu2rrUWOnnZbUTTSyircm4Vg6M2tUsjIrO1WYzNoHVIZWRnVSWLQ1QdmbM0rbntBeqjn5+4GnO1jch41aqj8W5Lobp2DTz7d7sWvWxzsQ0XL6PMTraOMzp5+i3j3w31vLdbk9New5nG6zp2eLjA7vBNAfa870U6nMvjh+y8bvXrBxaPUzgAducUJn1nI6PDOp5s856UeD1Dp5MOQ9Pq84uujhzpj0+LmidTf5jQdNXPQb9PKWeg2+fWD2OT2MZG6LOcu3B0G2DOfWkuUjo7DeMcvVLM2Uw08Q7WXk77Gq5G7TVq4JSdnNyWHcfxal6iuIuz0p+V1J3b4IzXV1+dXZ6hnmqPRI4W+G6eLok0bjnKaM+HibeovzcuvSzzRavpJ5qZna1eZlegLzwHpsnEmZ6aech6GvOnXc0eZOPRZuLenoF8MV77/LnJ22+cte9l5IL6kfMPT0a/Poj1SuBDst4E1fR8zCMemz8K5n0FefhvvmXq91fJkm93Hh3k8lNdsuEUd3jrVp2eh5XRdd5XIG3sc7PQNEJKOipLgyltVVyBlgBay1l6HQSQHK6iijchUsGTqVM1Li3F2GQkSwsoStJAsYF2KOWVUIAxo0d7z3oMwdGbRJg25tGdFi2YujJl0I7a0WkjpXgzS97Jm0xzuli22Yddajlo156VuLnl0L7FrKw1jSM34hmmBF2Wd2WZpgtfP6WXUWQ+Tnxef0cPfZFr3W8abMlSLOS5XQONoE1GUUlypRSWBD2nPuELKpbV3UMW3sVwp1uIMKhgq63KINjBXdJdWNphqzSWlyg6uEphUlgwXUKBu6piiGltS5XVLtETqgE6ipIglIOs5NKs4KjSM1a5ZkY4TEw7lEqktwSLCDckEqSyU2hFtQUokGDS21bUCmULOWtBS0Nq2lVcNPY43bzBTu5WZranZKrkb+f1qVHOtarVnAEqrsZNPIzWvx6rH615M6avm3vO3A5aUdxWkmKFhqkWMWNLO6rpestWnNKnZj1s+hzLd5c8XNv5fTXbw7deqXOZrB5AdyLvKVMy87umLZn3nF6ScJqj2gL5fWLWzYcs3+eDqqzPQ8ftcXV2D2MhyNiOoZV7MZr5Heyj8UCNvP6Oaut5Tt8IoqDM9hhx93VpR8s16Ob1zCrPvNXlfT+RBToXIBAFbSUy6lXLBl0DLqKAxNR5tRUlVcklGBhrpzNqgJdgwoDR0ZqMZClhIDRtQYNgsuWKs0SsJTC5IGFxBAhGEJA2MNXe4XoswEsXIJnxproc7Xg6Vei1dbpg9DN4tdnNYzmdkZeXoys1kbSumUB2KsqJBuQxYC6GryTWkH5kMVPoSGjTM8lPTh2zPXbafPng5H5966mTLdrexxRT0vN50t6LOZUegTxWWd1vnrOhjQqXu1xKPR5+PD0leeldjm5dkmnla8Zu6/m2L3eXnE9EPBKu5nDkHo8nFZG/RyBPQYuM872Xk9GsixrMY3PK72bmQ1dDjLOi7lQ7fCsQxuxY1VFoxarWVLoasQhuAUQxNWZhoq6qSQvLpsy6pChMA6lEkhSnLhMuZQxsuS0EgIpZ2oXcJLoslmgEdgVcJVrNva4nZxLEhkby+jnunYN+fdxHlnVualMvQw0cdTl6+dU0Z5YKHBYMcoUVHQyqg5IU8SV2WQ053ILoxKgOQNGTXmdu5XmnEydLm9NKnQG3HetQhe9ZA2gZrfSKHTBC9qBUIAi6mheFGKSiHoGFZXAkSA7W22TZiLV0txwb09COLO1iMR93jWZHd/IvInR2nDp/XOHfQ5cjUMdWRh6DJNZnPHZKzVsUc9trXWQFVCwaA6sATEl1I1WptSSqlWAV4bN1ZLjSWfQVJCVcrJbbwUSzgiXEs1kVLoBtQobi3KkhEBVViJYHF09rg+gzm8bURtsalz5+zw+lWqtHYq7aXuxvzeY1DNQCWwK8xJoyPWAUCyHDlsNWdbel0q0GOoQx8Z3RFmgs+3OsXQz7ZOkzHg8+FY9nP3rt9Tks1ejSMldGsxD8LccdhApNqws6HkvT+cMupRRurYNLxbQDmhYp2mzPi1c86APzm/y/oPPh9zCBo6GMirag5XYxaI386aaci8Bc1rD4nf4sZ+5xGJ6FyW23hbzq7fKdoNXB2c0xIeiRp5GW66uVVXRQMAklxWrK6mSVUkhgXtyRZicpuSSaKk0kkBW5ESS8AF6SSohlVkksGFCgaKwYoYQWXLtHej4HZzMGo6geb3OabMO49a4t7cnW53LbZ1edpxTWJugNZS6nRnpgGyIbNYx3WmJizsja0zWGthGJmtYiCIadlALbnsvZj3R0OduT58czJrzas1YHarUGIjflI0ZSgRAuTXmozRu5J1BoDfeKAdPnxdu7h2bxyCjkWtennz2bMqmh68KqmjEyXckInQ5t2mpWVS7tfH0F7sENHT4tIAHa1oVRoxEFajzGaM0BCztOMlMHV2Fn0VVEJKuA3cBuqjVQnpKuFYdyDOY3mssbscaHkklkq4ZrYvFhVUDJIJijskqlKSkhjCs7DtgHUWYXJr9B57tyLK7xKdnddUpmLpdS0a9b5WbuZ9ZwdJG6Xljqz1BfZz36QRNwW23XK831OzADp5mlinbwuepMrXWwQp2OzZeGSuFIXOrRz9MvRuD5sc3DuwdKyaU20NiU7NtrKc0yZh7XFVbuhgklP6dcQNWtede7Miq7PLVJ9CjCOjoJx1ady8qtxGInogc+wKWDMw9inxQGBefQmrcBpJLgSoqWWeWvsTkEG0QSgImqqKpCRjdVXQwbA6uqq6slEINWMHpx6quSWVRUuKORBkBBNVY+SWSSFKcEKKixRq7KISQaIS6MFlHaDTKUaKi5LG97jdrGVDl2wyXVXj6HO6V4rZvdZNDIyMMTogupTnPRZ2g5bBqn6prl49hef64uyN6+PWGPP18XaycyXJAOizMS9S0vWyXn6XyMjr2SbI1fCcnBuw9L3OL2eJWvp4N5i7XNacHfz7k6ZafP2+m8/2ORHZFnHrVrhh0/mGHryjNv5nUjNTMNRWo4cHNznU5YlJYygcuxdseJEBmcKU+BqokJOioBKU5VFko0sShQsAXAKjAzjKy11cWxdck0GXRdXAQIYtqrrTJLJJAce7MqjAoK6sY3O+pJElXDPGpxbICiWNIYjFMgtCg3UurKuqUhhyae7wO3mczbmOXcWQkNBL6aTGp6mPz3GZWqlVuyZk1vTnmqy6F6wTc8B6PP08fciaFdfGJ6alz3pcc9+ujG+WlGZqm5SBqy6E2p0L4zjYdmLV36uKquvs4RG1/Nkg78Nr2eZnhtnPId1uLQ/o8UzcrLJO7yFS3sBy6Nm/iAaexwIdblSpJIZSylpCQBgJCyFgMKQQkBbFmg1JbazSMtbSXAQWUBBddKK1lreAiyivZl1VUkqSQGjCKkg5mfRpLqJBKGGzXKZARbFEPlXZJJUzaRzU0I4NoKG0ayztYRCAyk6BVsoolGmjt8bt5RGZkdOwVpp5nR4+ruSvbrWRULUWd1ZEaAQ3Z2qCyfCBCDT5pW9JabjQeek0FkIaI1V1Uso1mXUkRydEbkMR53EzdDFu0S2VdMCSHVlDdRcsQkvOkVVylcCwgMwLuyhORWd9ULEPUgclLqOEQiBqhUs7VKTxKRTBujXZEqikggdsErEldFMSZayAI1lY5RGLFgQDlHStGTTaySVKuiAdA0VRT0lT5JZJIBk3ZVAhuCsbGNQ6rklkkkZqfnzbZBiXKhlVdkXa1bY3FjVB1CTX1eV3JF59q8NCxfu408+ta6F89PR01quV6tLEUvWoRWi6yEyWJhSxZgZVQVaMoKoAdSkujZGY9BmOum6XkP6OaKA8nBhx7sm3d4/X5VX0W8wm7ZmjFOiRk53Z5lF1Mugx7BWP5PZwGfseY9HCG8TfW/MvKei8509Bt8718g/K+wiFpi3cEox3Vio2i6NURbrq1lcXRDZQtipaJArYsuQhJiY0F2GUBClGJugo7VDZBLVlSEkhVFQNFRotLrJJCLbS4bsYIgMs1kPlXZJIUl9RkcF4suWkglbUqwTsC0kUUwSHej813sZ0CFFlOfqzP1MeqsWV0EWFZ1wxuG0tda1Z7DvInU6NDWVZM4bhWpsnU0cnvZ2F6lwRYlHRHmprrFywy6852M6nPXVz2gM+F4mTUjV67OIqu4/zjo6Qc9J23cDqnV890uOP7PCidW+FF9Hh42itmjmXB+l8kR1X8WDdmEU9Fxc9HfRx7XuFwap2WHJLgKwTFKo4XUoohUrTqJKhg1KLURKJxCGNRTZBSFKKBoFrOzO4wLbj2atS6qSQlXAaISacrRskskkE59uNYQFBXUGNQ6y5LKkgpehGbILclyXQPES4QgXJEu6pvf4Hb5RwR9mWOrV08vXzNQ8ddrpqw89oh9QKXt1ZTUpOs4i9mizNo3ZM1ODvJOG7p5dZrpxM1j1IZS2ZNJzmQ7my1hLnPnaLFbcu3M7yiT59cKmK1V2V1QktKdmdbcOQF0RDS1KGxWEUKS2Cm1ZLqJYyg5QhWFg2VEq4WshVtEElGNlFJQC2lkMUiXIVi2LLatiRLgUDsCiYKWEGjS+ipcBgyCNUrRLrVqXCVLBq6KkE1wDqSVZEvqMVySnYGRi7HyrskkKBlCCCYpAxRZXcAam1UIAkmk2dvkdHEfEQ2A7Pkzi9vh9Zl73BLqXs65Y1pHEhcXdFBq8/1NAyudsOb0H5xuvk6jPyutwbPTcTp8LU0kqtTJsR0YyM6HJl2ml5zt7my5WNblq53RXxnHybsWr1NHn+7ojbyQOlztRK5w8ZOgxnJO7zSeBo8/2RG7jMOr5b1nmjo9DgdyFlxe9WDDOvHU8l6Li1r2Aw89d7JO35r0vJt6/lfUc46Xl/YeQjT2MuE7GPSml5+ooI04Tred3YBWmelPL9zLrG8u9o7mdHMZXc1Z6Ll9fIaUZdxxAiUgwYaDF1rinatSQklEG4UJUE/Jqq6urJJZnVryRZActyQYxDrLlXUq5ALcrNEhLIaugGJYEJVUoxjV1+P1Mh1MUhMW6A8/3+P0mXqYNvW0euZuZ3M2WA84qcu1Zg38nDZ67gp15rcWo9MTNZJeReW53MBk0GbRjuelzmrG6M5TTN/FlaX5Dk9ElteVx+f0ef010Ox5ka2eg8mJ0X8PohdPzzDou5IldrjbQux5Uo29Hgqr03nguL7nChO5wmnTDnhXpcHLGO1t8wkb2+ARv6HDznpNfnKrtedcuNHc82072Tgvrs3yBjuc/OuulzqgnscgY0dzh2ei5eCzur4ya7M5WM9Nk5kPTI4cBtRgEohoWAzRmbRy6qVcKkhQkJTAo1VLsq6hM+kDNdXKUqyzWQ2SWSSFgdCZKxboqKkWE2iFCwDV3eB3MHDSpNDROxXG7Ca4WrZo6VQvGXKrp3ZieZxfG7WSuPO0qzOHSEzZ9y1w10GnmXdZtmO2dCXlK6a4DNs0qrn9nAnGZ0NycXY9qbGirhebg9Crd4FdcLeLO0kwh3cMc+dLRXJPotk4Lem2Xk11STlD3edXNLXqXmnt2HGvquk4QdezkH0Ycu/QIrhX0Dy5pdRWnOZ1DOTn78jiH26Tg309C8W+1lrnDuavPrrY6xL2a4wD1jk499ck4gd7FrXPV2zk499DQcVXXuuJo1srlztrjlq7IHKZtEXOq3d4s7MOLO1Rxa7IJyK60XnN2dGzhTu3XBneieYH0nOl5t9EjmX1Ljmn0NepxJ3bODO5a8APQ4sOQfQmLz67FpyJ2FHNHqHWTsDWVc/r8+XWBvZyPAYsgeqbBtMyuTJocISI18/oLAtWo5Vgp1R6rM+qq5PTpeSGtJJytaJXHk2Skpi9QNSqy1qyuQVkca6C9M1NpacBWc8HHKx2bZII5d6ZBRnmuiciMy6DrlacpXW5yGSPW1TNxDxbU4F6S2nIlerHbrxr6CqoXzNrZltW6seGhqD3dmVy7MexN50qPybY+4p2IvSkmWIbmFJ6M3oQNMhMyttxGKU0McVYt2Mg16ubGldiaOhyOz1oS6qVcgVtAXTBE9Lnw6dc6V1Zzm1s5PR58ihhDrq4rRnldUalVY0Hk0LjnkD/ObeHVTM9qNIp0rRiSFzda1/8QAAv/aAAwDAQACAAMAAAAhlGAUjCwF6fIBqMBPvEOUyrVbPBBAT+W3IBBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAARwBBRBWFaGmCH9WpyT9sqWknvjGhOuH6KGz8M/vQEShCTLBBAAABFAAAAAAAAAAAAAAAAAAAAABBBBBBBABF8iCbGOcpG+NpRTj99Y0S66EAZB9ZNH6NE7UYLIBBBFZhAAAAAAAAAAAAAAAAAABBBBBVgBcYnopRo8REWmMM2tESS2mKMyIEWk9yCXl9nZh8+MRNWrEXKBAAAAAAAAAAAAAAAAAABVz6iVEdGrXjVyUj/5SwIxznDLN4IyIOsT+wCeIemadNrKmRJKZYQxbNAAAAAAAAAAAAAAAABABZKq4WHjHrotrpFD0hrcLHOKyQkdHkm0mswyYixu4c9RwtCQq4+0QgAe2BAAAAAAAAAAABAF6KG+dfRfxeduSkbg5KQIyqcnGh5TvEBMaugCjEOmKvckFOKYoAKMGGeXug5kBJBBBBAAAABBQPIBBWMHc/Tk4OJq6ELm2ktTkULEIOElJOA9HNoSCjo9zkOA0/iEI+moJaEyKmSCAELLBBBABE5BVII2R63V7viIi2vatxB17sB4970or8YNyE0/uwADsDWf0QGeOIWSwuA3TYMqVdfbhSxkmhBCvb5TWJ9Io1cDU2cYyEkgIGUoKSOsxiAU7UhV3+nn1mklZguZC2JNy1h4lJzU</t>
+          <t>NEWLY IDENTIFIED SCARP</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>AAAAGGZ0eXBtcDQyAAAAAG1wNDJpc29tAAAAGGJlYW0BAAAAAQAAAAAAAAACAAAAAAAJUm1vb3YAAABsbXZoZAAAAAAAAAAAAAAAAAABX5AABEUdAAEAAAEAAAAAAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMAAASRdHJhawAAAFx0a2hkAAAABwAAAAAAAAAAAAAAAQAAAAAABEUdAAAAAAAAAAAAAAAAAQAAAAABAAAAAAAAAAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAQAAAAAKAAAABcAAAAAAELW1kaWEAAAAgbWRoZAAAAAAAAAAAAAAAAAABX5AABEUdVcQAAAAAACJoZGxyAAAAAAAAAAB2aWRlAAAAAAAAAAAAAAAAAAAAAAPjbWluZgAAABR2bWhkAAAAAAAAAAAAAAAAAAAAJGRpbmYAAAAcZHJlZgAAAAAAAAABAAAADHVybCAAAAABAAADo3N0YmwAAACzc3RzZAAAAAAAAAABAAAAo2F2YzEAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAACgAFwAEgAAABIAAAAAAAAAAEAICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIAAY//8AAAAqYXZjQwFkAB7/4QATZ2QAHqwbGoCgL6agoEBA8IhG4AEABGjqQ8sAAAAQcGFzcAABAAAAAQAAAAAAE2NvbHJuY2x4AAYAAQAGAAAAAOBzdHRzAAAAAAAAABoAAAABAAAN/gAAABIAAAvgAAAAAgAAC88AAAABAAAL6AAAAAEAAAvLAAAABAAAC9cAAAABAAALzgAAAAsAAAvfAAAAAQAAC88AAAABAAAL4AAAAAYAAAvUAAAAAQAAC70AAAACAAAL0AAAAAMAAAvgAAAAAQAAC80AAAABAAAL4AAAAAEAAAvRAAAAAQAAC98AAAACAAAL0AAAAA8AAAvfAAAAAQAAC+kAAAAIAAAL3wAAAAEAAAvTAAAAAQAAC+AAAAABAAALzwAAAAYAAAvfAAAAQHN0c2MAAAAAAAAABAAAAAEAAAANAAAAAQAAAAMAAAAMAAAAAQAAAAQAAAANAAAAAQAAAAgAAAACAAAAAQAAAYRzdHN6AAAAAAAAAAAAAABcAADAWQAAGD0AAAnHAAAEbwAABk8AABqDAAAJ2gAAHTQAAAlzAAAdLgAACPsAAAxtAAAZPwAACgQAACHeAAAIagAADPIAABYXAAAMswAAD4YAAA+0AAAPTAAAEGkAABCZAAAPXQAAEIkAABEhAAAR6AAAC6YAABXwAAAO8QAAI78AAA6aAAAijQAADqUAACKKAAAObwAAItMAAA8RAAAT6QAAFD8AABVFAAAVLQAAFgsAABWRAAAWpQAAGL0AABlsAAATCgAAG/wAAA69AAAjrAAADlkAABJ8AAAbjAAAEkEAABqEAAAQ0wAAEY8AABITAAAJHAAAJ08AAAvuAAApcgAACosAACKsAAAN+gAAJCsAAApJAAAp0QAACRwAACGmAAANCwAAIPcAAA6jAAAVdwAAGZUAABSyAAAYrAAAELgAABhmAAAP4wAAGGQAABN6AAAYkAAADa0AABl5AAANugAAED0AABX5AAAI2AAAJNYAAAAwc3RjbwAAAAAAAAAIAAAJigABqpEAApXdAAO65QAE6W4ABis3AAdudwAIjz0AAAAUc3RzcwAAAAAAAAABAAAAAQAABE10cmFrAAAAXHRraGQAAAAHAAAAAAAAAAAAAAACAAAAAAAEOAAAAAAAAAAAAAAAAAABAAAAAAEAAAAAAAAAAAAAAAAAAAABAAAAAAAAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAPpbWRpYQAAACBtZGhkAAAAAAAAAAAAAAAAAAC7gAACQABVxAAAAAAAImhkbHIAAAAAAAAAAHNvdW4AAAAAAAAAAAAAAAAAAAAAA59taW5mAAAAEHNtaGQAAAAAAAAAAAAAACRkaW5mAAAAHGRyZWYAAAAAAAAAAQAAAAx1cmwgAAAAAQAAA2NzdGJsAAAAW3N0c2QAAAAAAAAAAQAAAEttcDRhAAAAAAAAAAEAAAAAAAAAAAACABAAAAAAu4AAAAAAACdlc2RzAAAAAAMZAAAABBFAFQADAAAB9AAAAfQABQIRkAYBAgAAACBzdHRzAAAAAAAAAAIAAAABAAAAAAAAAJAAAAQAAAAAWHN0c2MAAAAAAAAABgAAAAEAAAAVAAAAAQAAAAIAAAATAAAAAQAAAAMAAAAUAAAAAQAAAAYAAAATAAAAAQAAAAcAAAAUAAAAAQAAAAgAAAAGAAAAAQAAAlhzdHN6AAAAAAAAAAAAAACRAAAAAgAAAVUAAAFVAAAB4wAAAcEAAAGmAAABkQAAAYMAAAF/AAABfwAAAXYAAAFsAAABWwAAAWwAAAFmAAABXAAAAV0AAAFjAAABTgAAAU0AAAFFAAABPAAAAUUAAAFFAAABQAAAATYAAAE5AAABLQAAATsAAAFTAAABUAAAAUYAAAE9AAABRwAAAUoAAAE8AAABOQAAAUEAAAFDAAABSQAAAVcAAAFBAAABRQAAAUcAAAFIAAABTQAAAUwAAAFKAAABUwAAAU4AAAFUAAABUAAAAVUAAAFSAAABTAAAAVEAAAFPAAABUwAAAVMAAAFUAAABVQAAAVAAAAFZAAABWQAAAVAAAAFvAAABTQAAAXMAAAFLAAABXwAAAUkAAAFaAAABUwAAAVIAAAFRAAABWgAAAVEAAAFKAAABUAAAAVMAAAFkAAABTAAAAVMAAAFXAAABVgAAAVQAAAFfAAABWwAAAVgAAAFbAAABWwAAAVEAAAFPAAABVAAAAVgAAAFYAAABYwAAAU8AAAFKAAABSwAAAXIAAAFHAAABUAAAAU4AAAFUAAABUgAAAVEAAAFTAAABWgAAAVsAAAFUAAABYAAAAWMAAAFSAAABUwAAAVEAAAFQAAABTgAAAVYAAAGvAAABRgAAAVkAAAFJAAABTAAAAVIAAAFVAAABUAAAAVQAAAFQAAABVgAAAVsAAAFMAAABVAAAAV8AAAFUAAABhQAAAUMAAAFKAAABTwAAAUwAAAFTAAABWgAAAVIAAAFPAAABUwAAADBzdGNvAAAAAAAAAAgAAY1+AAJ+BwADoMQABM69AAYQgAAHVSAACHRaAAi86wAIu1ZtZGF0AADAVWWIgABAAA/+vWX0yvSROA/grpqiQUGPZ2RS78M1epAw91MVxOFm0X1zyltWeCxdwEq71yP/EydKRmPtsjr7WajfNjZflXvYl0UbpeapfiJSPYCLJE3Eq/ZqawhHG6WAb96DN+I8I0iGupCZ51nfri2QlYc1cwWKbN8F8/vBy4f77XwzftzVahXQIWiNDlvAnqNydciFbzMZoDLHT9my1jQOEuQc4stA6hLlkhHTDEKii0J9hlLHEF/wXtoajkZkvzL4uoYxodaNEPqzA6MqmXWqHph2hR2dKA9ibzXpBsUBNBjyuCb7eOXRLpp6d1VK87yFkvyiOLXTpzrJcadvx9xA5l/1MuZH4L7dV3yJw6i/6Q5+cumoNWigcnqIHfrxVp8GT1E89QsnOqxQq8p6mMSbJk0jQUEf14qesLldjZnTdNEGH5RXwxQf/6JHtWqAx83pIedbFxrwYfLc6rhzo/ZDOISs7kIt7wGxxrIyHP2Mu8OiNd67omCaxGMz7iJBnwG/Hd6qwuAIvE1a2/XWfzex0TgA/mZqXjW24P+CwgBoYV05UoNri2WcwPYqLVCoeEXlacfjT8jW7BQqp4WYPMHjlQQGjOLWPOprkHSYLhgHSdV4tlkdQovsJwmth2a6nVbIr8IPIhVYvvCx2o4LTu6UyKp1PU6rcOEavBPtH8yrZ7Ny5O/5+ZvjM7H7T7d8DRz7ods/4KH9knIv2GI3lCMHd2blTrtOJ9qZd/XfaZ2VXUl02/7YZ7snVYB0am5KR6QjPFwWlLo2CWPArsq+8wDvmalu0W5Z+K7Qlgohb4a+rByGCWw70VcbWsfMiuMM9K4nC5+mjqEPJMsQ1w3M8NE+zBolsyEo2QUKM13sva5FIbq1OgrOzAOwXgVJ0086vXpSGOsKcDt9SRnrV99eBwYeE5mf22Y+6SUX+xjM/Qhpb+EKiVRMk1OqpFwseKBOFrGXeQvhp4zLDkNZ6GUZ/8+baGWIz6dnWvJuymz7SNCbdnuY39i8RsH6LINl5dDi/cusrXk9Kn45E/ymOs7Auwj6Fnlcyd9xa6yWQ/SZ6u1SDTdBVQ2CHGNq5DjdaxGulRPNSfmhBE5aIBNFxpKeJLc6nx3OhOOUuiKZkq2gUgVTR/k3564jvilXpwKIV47su7vdHfhqhxxft2XrhEjbzpEDQigAVhw9dYDNDcyvoI3+iPvekKGwW2n1VeXdNLC97DEoOCCD/8K3pc7DtpcXXF1Wlz8tQHqBMj4Nfy/1pJBh+6zZVmJVAg6yu3JfuqLy9loheHd60xHN2ogdOZTMnSsOrMeXOS8ajUgKsHC9qDDtf48YX5CiNRm4yz5Ahek+Kbnlf+o4i2vC4PONVzmBRkbOrHr3RdJjGkVhh6RPyJE8AvX2JMgu2hA2XSeoj5KtLa8UGzgQO9oyhrb68OYQva7+VT8+GD8Jvp+2LQkflSLiC1V8CJVONDidNqFKsJc3FmTCakld04S22hYS8LH/pdSx5v2IhfRcitFZQAxOgWIMghhuUHC8pzLYLPVwL3JTvnmfq79HNvGf7SgLEIfnqtfk0CooZoLVYT+mm9OGCk9CY47jK9y7gwSj00NqsyXhLplrlvieic/CSy5NJbS0vpC7TyB/Ag8jGczdKqOJ+CUXk6dIv7EPMFkKIc7fkVUyG+rBS6awOLZKfT8/2fUA8X60vwOjNVd6gi4NgZslHMTJ21O/akNJDbg+IUteV4pmKePMSDaRvfbISxf2BglKCfTCE62EqJ1S5Gk4EeYUjqrb4iZgBlUtwpoPied+wYcRmNvTm36A6oPU6TB762zeSnDuj1xG3wB5nhbydXKNdr7bcgoQjUf8Y+MpbtQDawuikuOwPGhy2P+AkC7Ui/jT/uekaECeLitqFA8E6IClJf4yNAc/SfDVTGJByGFbwMMwFaABrQjiwx7xCow2JlMNPorbhwXVb0U1DANi0Sl+aZwtg4vNmzdrozNJbabho25eGN5h4OcHZqWTvL+tJI+03yajZvBebt/7etjQmF+6I356tfjqngApEaQeqqPgpZwqNQxJSM8E1RZcuc1PUVwi8n4AB48VcWmWoxxqOVrMAGWYzmG3+DxTsMBeG7y3KR7WGDxXy0ghPxZ4l9ubNNHZTsKNSEhKmLA5NyDy1/ImhVil4J9WayeSAKRJu5sDogpGbuW6S7c/Fgnv9//WF9lBkLXC1WNzC9UP41pp5ziOkHd+fEuqh0cGTxZHOO1drh39nZXEDIxuwRtdeq0fZIwiyhylGjNfXhwa/mkxIOxxLl8K9tCMgOLTEMnb1KMV/o/Frlwn7duScD1wzRAstRjvluQIFTz240QiNur0lrL9cs9SLw2hKRZhFPw//MP2R41iJ4nagFm+9krQ7SXZyOgEJbPs2FMJjdgmrty3HJxCJZZRlUQ/zrX3ep1cRaCyTprRVDzS7ZBsK27dbZnRfRO0j2PU03BPqIz5GoZ7FHtXi0KhzK3AwgV4HIIuJERFt1YTr7McMmACRudFMTz957QDWLmVmvQV5Pr+Zhp0JWoYXh8oaabgJY9gGcn6Amq+KmRFzMWo06rWEE4mxMdb2dwa2dUuZbpMlZglPKVx1A0CEKG5rnq5uy9Wh7cfpgAvpDcE7zXQ/m+JSgc62f7MoBzzrzcUolLhpH3/g6sspB1Bf06UQWDXO7LqaWi33Ad+DQe27Oidewe3x3HeFczs47+C8fA/S81+jMqwT4bM4lpNSarqTbUKnF3PhRuDtR7CRT48GLlQrvC36RJh7OVT+4nMrwpk5bexwwc9NGkpZNOXRJHE2fyNm1LjOBEy9GanHes3kt2btp5uqbP4mcNo4Nm85KGgTJe7cPYNfzI7EYvjjqtuJiSpmHyTDsnb+8HcIbzqDGr/+ZBmiYhey+KBnOIY3UECo4LyhURbkqhQiy1U9FobWBzU8QtGPB6WkhVu1TEf5zs/P9HgUDRPsONkoBrM/1Mlx/Cuw37svXYdYO6fM2jP4or2cp+Pf1TaCwEXBRd1JdgYfapL7N0BZHTG0RC50eqq/dTQp6W2mt2D4NkE9/X56TgU/Gn3G6FBKp2DtZn+v/HhhWI4VJrwnBA4mg0TSzicqFHvx6bM37U4VbEd1UxP9WqlFkJZPj1qLnNXVwToVSF5uraBzSFBKHo2/V8jAKjKTsYr74ENgpmndyq3f/Otqhec3HdjjP5Xw0CUYTW/VDUVo2HVp2iTDQs/Fshzpt8JyfjpAOnDwCqBjn4/7gGxderUyr/5WjjuVd6B4mizoq06/kCmKIaDWMIRTxGh8PKF3Ul+vN3rKLSAp8Ff2F7aX4XGYULBbaVjXNpWXECbpqJudsPlCdFh/lQqY7jl8qVVKKYgPBAVeHgdXe2ZQNTbX1WVIv189lflzADHltsPpeg69fo52Shb4ynjwoEgc3VHipEbggCvDTQf+uCv24TWnRwaKgapUZ2vH5jxKdPJDa8UjiA8AHrCCHFVLj1aKL5B/hzeKWbT7GSBaeNmeA+yZp1IheKUvXvRjkStQOyksT5hcOA42VedU4heCfmpYsSnQMXFZZmx0Dm0vTq4zcdJj5VxSvSyu6NAFqxjes66nenBjn9SbukAGXXfxA2weyhES5qHKjJcUlq9+Cqr9QNZ9hfYgc0QPQPpFKbEQ+D7DPxCSjQI/gMdh8640kQVX//yv+rf+uAOZmez7SqXAW5iLxnZd2TSBWdCGNay77m7OqLkbU71VCcBb8hSxVLZLGq4Q9TM6lKf3gjosVeOIUErbRGGO/D/giGAFrhx+Sz2GtuCoFhoDzPySkmpAGqJJFfXV6t5I8NlrBt+tGybAAi3NYF+ZQd6VFXQVXJ5ztjzJDYkI6QmUh45tG1zUG2SL2/KFQNJ/wwE+rxN15fZTYlI9Gye8kXbzzfrjElD+i9/VT6Eab/7Nx/2tcUqQN0p4yVwCLGiej3pHOzGFl8iLbULp9dcRIV6waPFvNJfsUpnrBDirwsPttx5eFEpVHW2Y53rdfr697MBJ6wrHFa08Dd5jgXcGQLXgFnnw71g4ovvOGL148D77Ymd2rqvX7pSgRjty2O+kxVUedcye4y+BNjg76xr5jK1B+0LU1ykKT1s/0y15lkvFaAYEvWNJE+rLkeyLiMuOuwi8VEIQu+S3ww06GWAgRSdfo3M8wgAFA4fpHPmeTfRjJyvXJUkmn6GZr44SY7xkLuo08E95wz9PLQAckR4psbMuEzDlufFzwzJbJRPv8PkKA7KuZnd8wY/ZM/+cuyyGX+piMcZ6dlB2vW/koJAhusDXvxU9CrfUlkdW8Bhv5vLPGsZc0gaN9eF8d/jBs2Xbz7RMZFuTogaN1d6AtPdJgBzIRO9eGxbWjl7rarYLliFll3anuGr4B1cFoFnufgPlw0Edd4mGiN95Ur9RGA/dz4ij6f6AkekgYJLl6osUjeQqqmPdJpabfAiAedNK1hgQUpLtsPqW7IZrSs6ceVXrzWqdSOEj6/ellOIbp/yZS+Cdu1FIGJl8YgnQHAhkJoJoYMjQ82/n9uB/6WjIVF64Q/rwVgtiyVhFLsVrqRgpHmf1WBpjzhx3AS4gBytGIey6cxznFk5PR+PkmDE25NbeK9DBScsryr4HPi+nY/JRZmGFw+m00mEYYW0pDRxa9oc/Q0woa78UwbGFgFwR+aSEBPqjV2fN2xfjyh/mH7x1bzaUVXjFHGXydEdUvL1zs51jGtiPaO4waaDLn3SPzao+mgtUxYGx4acPFtCtP29M78XKSRb2IlBzmIk+TvN7y9pIsZrP9XagfyuyrQwtXBSfzcDOyZJPXB1uBEo1pDiTPaJq+bSyd3pz95bII2aEP3oXVAEuFWqlY8uUZD/AQMh88KBcCQEl4r4cJ1tSDveNtVhPOZ5E3zkdWRaBqB6mVaIPM0jTABDaiY7oMC0xTXeKJtzhj7HG2+lY2Teni00jUCnglr5iAneUdTYd6e/8h+Kup79Dt1ui3CevE4yumgzHiQ//OOjOIhOpWhYllj9xHjdTeV3efDO5RTCz1y2laXhhjYrG5Rw0T5RWc62ViydBe8tktViQjDHHTfmQzIx5okeepxkVnMLncqeJLHdX78Z1NtJlMoETsy4tvnqNLYLSjU6TH03oTidEiU05MF7IPzuIit9jilZkMJkm4Uw/1PscYE9L2MpsYL9LLu6K6m7wtrlSQCOTofdeYjxzZoD+ihMZOQQuJEhBkcZvKG7+rZpf9uiLifj+s1prvUxgZuYWnTuzdWDA5+VHq7p0Y/S/Bgxe63he74G6qUw84y6GFeFmgcaZkfiqvuj+LyILX3eJ8YQ2aZGDMrHDzFX/duf3tGLx36rmKp5VxdVtMIWTefaJ3pvIF9ZFrpdRD2h6gnVVddlHsUxA43U1gWn+nV1vBohJErtlx5E78jdkUgqa72vFqBff7++squ9Z/zKt9xHXL6ezTdUxLePFJE+ppAbK3wYWKvhM1ESOMONJPuXpJrwzIA1ifkOsYP+m8kF13Axm74TO+5Je2f45bbNu/8JBRM0p73Ng88tZqLFSR5oITZAPdAMHHKdTVMXFZ4ucAIskL1zB0yHITOclGSv2qGGYi6NB+U/2q3+H/NdHP9TXVs1ESxEsSufVbczfzqCjyMRNW9Fo9Qon40OzYP+32iifv2t88EoGoJQQVv4ebvRFZTfXlNyRBXsVRTQA3nvYsuwLqFsGW9PSg37mG6k1aednFiScEhm4F3GPoqA6bB60KNaQAON3/1ZlUDycL9AldPECU/ztqtWmJIptLavS6E4cIgxbEdzTjak/BtzeksPdEI1ajeJE7eUjv4Sbxbiz+xQiTRiqwMUKwYTAA8yI+DF2yknfyVuk9NQ+kPTvahfPD114X1++g4Uwp/3EOJqOUgHiwTijw8S2n+Ef3sAi8V3aglIKa5QYYtDzQdFbpHG2n3CACgmNEmj/tB45GL0Y5v5/Ihk9FqRTASCeLvhfnTqWXRZH0g6VCUCo8hS+7nkxJVQDTTQqW1ATb7TOhCSf8vouw3GC5UPxE+f6N19CmWa9bt68B7WK2UacDoxBb0yieyF4g2wS6/w76HVfWP5tgQBzLdVJ5gdEo//Pe4NRgGQ+6c8pUSR3CVWEvEeL2TobrcES4eR2PJ2gPuZ/0sblXVtOjYHDvrVfEmx2ekFqi1FKwcHmyPECsdVQmTki9Qy4hGLySA4pUBMfg0shtTec1P+LnRzjABKGJlnhp+inKtY/i6ApOywkcRgOOtQXdSysrlP6rHALBoLuCtN7Uztv8m7kRBI4mSAY7CE1uDNmtYvg8tGj5O/pRlgeIizbthsqbKmZ9iBVqNM4U8mxdjJWq7V/z4ako4h41jDyI0NAVVFgvYfUsefCWoQh78tM5r/Fn29VVHV0+BZBp2ku9D3z1NRksvIj61duE/uX40ABsn6t8VqZ6uESj9RJX0FZ3kHfNzdMKu/xDDMLALv8YPp1MfET3GZ85VnGrbwRMQhQXX+8kYxmLFTukEhEMU21b6GYOfb6+kZi21fQWT89Abd+8rLkT9HbM88PUE7P9Xvq93aLHc2pj4fpGqsRyVLGeP9awaH0AvqreQlZYAUkPWQyBzYK3Ur01Czr3LcxXkcWsx7zUsETMgt0mT1plUPUFURPWo+lRWNsSa9j0hRF2wPo+GYb8FA34EhJ7YQQ/6FisQ7Rd5h7ugeByx+6EqVSmHQn068vskSltpCsIhth2gqA7IPbK6OKzJIN/IglPzU2trstRXNZbsHCN6kLC1qds3Y22aMEBR1TwV3rcZUxsIAJS5fX9Iqzy1rxqW8bfye7a6Pk6hKutzQbaSAGBPRdZshOjOBqsrs4WLO+LhL+EpdTOW3cqAOgEWLk34nsMlGE+yx8sgmu645xJcI1rY3Ctet7Lg5V/rlZR1tnAG6KyN7GrmgGCJt8NUdAG/sR1TdtweAArKQcq72VKIUAjx5POKt1LECpgjaQjmR2fYJ89NX6RgYqZWAyei04U8SikYBe7XEzMLG4P9yx9eqvfsBX5w3P7T3IfMS9OR+0R/4w/zRBH0MdOEufLQwlUh/j0h/6sHvUmx+LL6bpjQpSZegFkEmO8Wd5g60H6R2DtnAvWjEcwKP3RYgSDw4pu/IA9ozbiBx/gYWytx/PLm5JFKEaVjv0qztpF1Je6x2KAiWfo8b1jolSNOdBvAw9VDwermh4i4b99PEFpKu5e9ZJsPa7iMo9j8/J0iSVZe2gbyHMD3t7B3CwepP2gBaxKcBG03SWNC/yZ5V5tSJcDOHTJoyr2ClmQol987Z1OMQpRZ+Nb7UJfAUEf7m/hVOhtBvrv4d6dzcQYnON2pecU7C2ZNZBF0UjAwCC04VoGWVZHuZ6UD7n2TpVqBYbpQtfZXgXzV4iuv2man5wpaDjG4A2VvdsNSV6Or7tJk3uIGG8QriS/Vi/33om0vQuGcsiCNhMoh7O5FK7ksk98yKv3dHrlB4PDW+XcWAS0rAVHp2CRlGhgPVH/8uEHwOcv6OjIe7u1vX2IU+pxtTnTY7oUrcjS66WWURU1KGmirwZrW7pSnwKTmr+X/6K2n0N1BG5lD5qKG28g0gFLHxX1Q5QB/+/wVmEGZN2mn7XqiNTyIFk5qiIRW+/NDeMdM+mpi529q2f0RmzkHlMDggjNdnT9EiRgkwJRtMF+cUqxHA8ThKTp+OQltdgoqfqzwEFkJr+PHNGYYEgUSgzu8L115Py/z3SUi4qvCZXv117L1joKP6QAT+tyeGIxcHhZI4jmTsd+XOVv7AF0ZKsF1WRrs/9YI8Ubt63VGlTnk6kE4q+jbyjg9Aod40nZxMZDskqJIE4cGF06FrzVQkXTrgACzbQnGMHHZvSslSdrYOqBMs2F3ngeGJHHKlDY/zBLz+zCfeCa30HcjO08C42KN5bOtGYpXsTtX0+xEXJlt9DVxWRul4UkixwLTuYK+wClS+OiVzcxTz534cgOWx+9OA/hPdHV0IMt9zkFITufmSxQLIa2eIOF9MTT7NibelieM2F/sWd0jbP6GfsMRJbope5/hQJtkvzrxCyLI7cPIwm5XRGK8w4yAIRLDysn5GSM+D8hheicfcjh3npjfpQYl7eZJznEmYzhyhG2oScqa1ZfeTX9kK1t02v4QvL+LomQNT99k8fVDkcZcgvunxfY/9I5InmJrNaD8qGjWTyEhFmW8pt0dbg7T1mDm3zLBWHdNj0MnIasYgl3n6WBnb5GXa5IqqSYAPFFCP/bTZjs+4AEfjTtZ7nmnIDfEltoYcq/SYeMyW38awT9iiAhJEshKxy4+MBSPy/i7p7R4r0YwfcwuE9eIefwlH2sW9Yc0hbttKh1Ss7UUAYZK47q8+Wg3BI3X9p6kSF3jKrMguW/FDkNbwaD1pLaueWjaK7LNALwvxT/lfv2f3F4PVe8VKg+CGSvNICHYvNAWJ4Qan7lhGRB+/a1CKlOFzOriaXe84PfAhKV350YotLKyLZZV90a3LqYjyxO3K4zL2h0hpdvdduFmbjm7opvqRfUuAYytqEPRaABlzH4hBfjkgHJ11ovxN+Utns20GB7vcpjxbKVCtoFUoBMDoxRVylzo0AHQZv5jfXYW8ZOLVrDZIsdcRJuWdIMCXMoh7sF/dIwl7nl3+5Su23jKVcYgN1nsFJTuxiB7oFB1aP3cVnyBING7JRoVX28HTDjHZOpGKtY+OIVaWIwgN+2pMmLHy7L++GD6tzcBR2jycXMZKAYC61jKP7PqSHvjyF2YGN0xpcPFBQmOXSpvybPAn4Ua8ISKcJcK+F1P9JZ0JAbX2XzzivqcnClMG6OG0v0A2TbBBu/Beo21ZgNisL2PZKIYhsS1GpLxxkCH6d2u7ivlsmdImoXzE8Qf0tmXwNc9UsLc4B33hZm2tpVHNk0pae2rLy4RBwc2kqHS2gYKjC65qwh6jLM3J4KN1L7BvdNBF3fuhjGeDczgagRc+6/zbojHxDzSWw4Mo+WY8KZOBtEn4C0aiKleJmJk3UJl0g0NSVKAEKGDXAKkThV25YkgIgN8Il++zmz8ukFeF6UrzmZcynSPfxWH71niM124AsHzBXClVrtiNXd1Q3TXA9JU5kjfYXAiY+ngilpYad8sNIOyVao1Yt/qoUI0dl4L0PMUEXQ3enwVv+wWWwdXHa0Ff5JxgDlo4jiZt1havrmyxI8ytyX7BN6QD/uWwbSGkHUo+9T1tNXd6eemmPgJOuK7Cs7dK8Y0iPev4fAuNfksIqxkP782krvzSoPN1tALcFQ1r0BDa+yKW0fguv5rSe/8ZIIn49CHwQCo8fkohZzPrmEZLBFLWJ1pNkwtoyDMNqo7AU4Swi1DkYrNq7jhmbcChA/AOJ9KM2So3X5vHTh43xS2QFAQAMheR4nGQhUyvPNj0/kSpsP5U9SHRamWVkLEc/BaEW29SJqjH/Eklf1cUT02GIdx2WWqY0jAo3T/C/8XJKiQsypbCAYjJSL0PN4hjmMQm5a6S+dQhoFXR0TydhWDKj1pt5KxotEC/XkrZFh5YSs6ZP+I/jblng1ESVaJ8+/5tMhFp9r1CrtKV/zl7TnYopLF6Y9k9YHY16Vnj7KiJOnJmMnsSkVYJE2y7QFlakmGegaLU9wRLXjSZ/Lba2txH4MSmx/06N1/LLGMh1jquSVu2kknJehH8cwrtqsXPfEgl3kpAY5bUKywoshE6jCo3rGzq0XV+/y/B4P5W9wxh2N1IPY2BI/kLfbN3oHPrjZ3A8skAaSGAzFRJUpVu+y3BhFw3WIcT465JsrbzbegloMxIM/5tQwLvUujyl4/VsLGDXFp4N3CeyimQf8ktGOfzaxaEEIwlQegFHpp7VXK+O7AkmUbA5uSACoL/5iUDUydd+wezQhA6hq5m1Pi3gmJB5MPgqqpeG4BHGPzTYJehqIi5mwqBfNvp/uMlNf79aW8VkzGY/F+3oa5rXSLwOzB8cYNzj55Rj62jqU+/XfJanwWcQCKsYj4duUwf/gy74qQhexdzohGJn1tWq+r42xydCF4Q+6Hu5tG69jklDPSvZjcqjLuL6nDra246XwHBzjPpRl/K5cxBWGXt5nZN4ZN0joU1s16AaRgr5SU4lr7Xmy7VQBAi7R7V0Q1L19VZmz1NwCKsnhotIbMqtAoEiPSx5xoKzRGjb57w2Qw/Wefm5VAgIF8wk7K1h+wcJwB8aBGJtqBbX9/V/gycRlbjquVmPlwvVKvNLhsk6tPa/YvhJLFHUrCdVcOboiCWlzS3cwOOEZ5MIZweu8qk06ykHneIxBaebeN7n2hYM8LRKkxd3Fwdqh9bwqEkSLm6BmiReXu8BCbUW+X3ITZ4NQ4797xWn373a864+gzSpscmrAv3Phduvek/hfLgFhd1sWN+PC/z/AK2GvejodzzxCWkpVZ43pN7WTE878HWo7zs+OslOv4FGoujf5pKdWw19ALWN8JZw9eWOi67H8ElonvwqR+zprjt1OeJ81IIYEZmY9PnHbjLDGcZ0Lu1RE1hWgTrLlPNevbVs8gjyJa0yUv2FS/AU3KyWLx9ozB17SuYjpXaubmOOkMuvWifrUWy7elPG9IOTaCYBefuzMOtpbMfzTvRMH/OFAAQ3IJ0IqgjTmZI45U8EUDZ2z2ZevSbIzenUQTI2kJUqrxs1U+tCA9sqoa2Vg89uiclIfgcXDpJj2TwfRLqJ4tUe184Wj30VAtf3hZzvXzJzCPBX9RdaSB+yh5zFjVGlFAmNm8aFRC7JVjDY1XMjaZDo5MbsmWnEi1W02PhMhndeSzQH/fSKyGofCLnsxbUJPyYXto9N0+YQE3H9bVXSvuxy4Kn6qoCiFyRNd5o197WrnlYclXS0t4KZkPgO1ZW61pbz6OSCJ1BAKv5N9Hq6bO+Z9DvBJ+y0X8vdsnTPFQPiHnskN/Q2CsugEa4E4FVo1UrTD/auadzqFo5C3ZmE0svFZbhpY35yV1cG/i+bJ/9eO7YBI+iKOUpgQzU0JtnaotghENEjOBL8wy6BYoZ6+qU9ar7P71M5OOdNWOVu71glPh1WKRQYuEcyIId/o/wXQ+SFWm+rw3WenWi6Oeynu+NpM1s8GovUvtM8cgJIWn8hnJJCAP6thtKDwiu2lJgf8YkR4ySyVxJKk41VJMTo8tLmbZzOcVlql+tYBWBTTEeyDFRLzoKZdDSADj5QncQlXw1z19H9VwVzCrCXfNywZOUj6o5s7Se/wA5spsBmrACY7sDws+9mykGD8Yk6PNNV/Mwbi4fE9uwqXljsn/PmGcW4RBLYGZiraX9/jyMxCb4XTgcjrLN5y17gucWcs6ZwJ74beOe96CZKrnGIQlNk4tP+vsU0Ro9iyr6EDtP4UDJsZZ0jC4gxI7f2YU8Oaewsp+3O234m+FPUvLdGREkrAZSHz/NSLxNARP8WV62cd9O5zvDcRLRGgHiw08IWlTckbK6UvuXI9HzPy09ZH/rXerDMpgn6gfvq8JBrwTKDrmaj/jreQKILm1OMz8p5dvFRE+BQrfWtwcWpIbnAfoYbfsXIcP4h93dlSyJT5GlCWAQ0uy3Gs46d8puftk7pAxuBIQ+jY1r5jM4XhXfxQTRB0CfeRweYuhB0+m8iUCE52v8Xak9dXlIKZ1x82Qsi4B69GUmjKj8FgBYo27k4PB5g21CY/kuZEFV95ZpcvMaWFEArVcDxeRRW4Ob+2+8RyywPmfmANdt5GpvjPO04M7B8rMcfOMLFJaqs/H3kfwQfCD7b8KPMSrK2ZEAwX4OCwD9KQ4RdyNvlGpkChwNB38DFVpWCRjr3Pm456vKVCQZQZ8HajbvRYwXZhmyDA82bOti0kf36+G/eQEO96qinAEoEtIwjtucdfcXT+Myet0rLteeaD2AhfHuHlqXldSmrTmyMsNG+x4dt3PvU3CvHxMPzz9g0FKJo5UxIaYQUeC4gFrELeuJ7IxdUSWBRqtIUwKHnz4ofUJubXBjnxGy6Ce87P0SLrQCe3g1t0SPx/GQcZc1mEUqtoFbjg/x3hBbQnoLzkLGBlrf0Te2JtAANHvJ1xp21qjrAvhw70yD6pkv3TggkiPNnI5U9A7XTeWvUzeRSNYoYqJFErIBob3036ccz+pf/+9YABBMB9lDKv4WvINoMOCYEqo/uEukkbBCZohY9UXRuQL/fgrgf7D1R4uIAWpjvPvGwXtRJ0a61qjGF9GoNkyd/OAO7/e31I5eWISE3Bdn/cKUSSHijmGc5haqNI+jt8BNwIilGdCPNo10kOuLxlJDmzIJo3HWoJVZoStXl5rlUAQOHl4hUB4JZ8i2Qq5P/Q1ZOVj6RDRxeELEnO30U7YIZswIikHDCf8X9AloO6OdeorZXfK2mgqTMQiANYlHb/RwzCb73WMmtS2Hrxo/X2GUhv7+5tW6lZv2DN3MMdnspUowHiAMvQMPoZgMzl2u1VE3oGvJ+Yt8X0uMViImPze3H6z4bfrpCN2ZX8oMflYu6g5Ms/yuw1hO1IDxFDgPF/9hCcAqYO3u7zL1o6wcyeo4JstmnZU6FkCIEh2VlfE63hwG1Va2dpI/p0qvr2SLdYCqSwczk/DnqEWC1Kt81iYMGQD02R8P4KKe7NiXySW3X2zBNDh0jWv5tYd1WK6svyyqV+HizEYS8KC+pu9MbhSKuPpS58EtR6WEgOMJtOCMs9oYB6kb7/d2fhMjZqCmwcRvrO0bmGYuysDDpaidbosGIfJNLQvMk64QpPQyseOY/J1P+N7nyva9RMzv3JYzrs4bHMhxXhIGG91TqbBnsDmK8hCreF/10o4DulhBnKTtJ4ebX1OZ+Fl4bVaZnCJx7ajjYegz7h4wQuq+gnMKS2JXjntP5SoQUcPq24+gC0UDeV4XsMMZNt+kGRkCmGQwHaMFsx7qHs+FMY0r6zAV6wthAJkW8pj1FVc96Oj5rI7FntxeLkmSK4sH5jg3niNTouL3Z9lZsV5hN+jaxxAHssjGwLbJdIfsv7bzCkKCoaZ/LH2lMN7nGKoe97G/WlLYLLpuIBPdTZBuwUzUNVR/xUjQdisNpetd3/IT7MNvWtLNAbscpftTS9yW520Ci9G+/zZ7YyMCB+g/2OohjnH/EIWaynCdutgxC5TGqa5EQjePGqdqKTHFP+wQAgi716vBRYenVv/NjVcuBl1zMTpU2b7ZXSn6MhnprQV/KlYQy4/aEHq7V5RP7ysoSYN2YaFr0stQqrP+SQJo4lYYVbi3doeOgMmz5at8r274iJ3X4OXv93SAkM9hFfP0lUXFjediT7ULB4lADhT6q85y76n0OAMquS3v7QbLhzbAp6HweIPdNjF5w4SgeXV5fY6LsV+wnCnOX3l26o2Wt/UMxe2gIg5v+Bw04WomL3yLiPi21M9odDu9qh4MLZ/94QM64r8v39nmur85mD85ImqmwP/SO5QpV3Vd/4q7k3Yh1CceGsVHaPQ8OvDnMQ2Epon23uB5vGcNBwvWTOTg0cp6COOAJTa5K0izQfVG5LVVz28J9MFjUXHjDSO5BoxZXc7788p4qC+gZxeW5SjMfsJ5FRuVgEwHKWSMbvHMGn01HQeg7UKNNit3CoFELCnwSHU9PvcoHDsDUcs4FeuskfLdQTt6e3LATv6hXqU4QdKga01glubuByUoMX7ns6z/CW4Zw9M98TAN+nGCUjCtKt3b8Peb1SvFX4ZAC9ZEUvuXRV1KlwHPJQZOhYFnEaGORRlDoulzT63gQDgukmxgjx2vo5uackhlhP5obJo2ASvhvkjqYpcRRtdiOODbcihThiRLN0yldLSUyGIhzajx7J0yO+hQyF2SJR1FfEXLfk3hWcOfdwgRuY3DhhygDzRKNDZXPVk/u2GskujJAq2QmpvH0ehxN3GfIfXlau0W4npyIFzfRnJXKkcaTtl1UzZH9mnoMyNtYYaGbzEsOpi6ObC2UkMhYBPruYsmoFt0x5ZwUYnLjn1OxYArlPayuaJEU+Zw/oLV26wI1mjiiqB+OCz61/c+qqmiYS+aSJTLVqLrQSHm1JeW/2ccRimvoLrboS9lDCnP7w8poxQdpFBusT/VpKZrBG0+QTDN59GzL6kR/PJdRGBsVleepc1C6I+K2PcEuqgtY3ViNCo/Sm9rm1cEJ7GcpNjyyh1i53raNLqIB+ndtkiabciB8QdQdepl51xPUCZXEDGMDr8vEs2wAd/B4t0E0gHoUnsVQVZAtCTeqJkPXF63z8UvLdOb7t6FjCDRzYEF5kFSeyoKeQF7Fz80oSAczm1d0gf7QOnkj5+5eVmnVVGAApmZ7goeHgmO+oFkZRRJjeVqFAaLVT8ppFHDtDfrWvbjFmmlbkBKn1kfzbdJ+iqWgWInzrTDawUk+b7UPMuHKL7EfOAdZLMFjbp0KpyYrPuGbP9VY6VEQjRlOA6lgYICo/8so9YTOtngM23dw+K9Ka/eFojDBVNLZBbyyN+qi7OPXS/qjQIXfaJLPSkF863i/ua+c6Bb3gMARiTgIN2bUoHvApmNTxSjYrFrC7gjBRpDZA9U2kOeM1H8xP80BoVvQ+vPnqHR9dDcAhgEBpwKFhH+SIzA70BwcJ+GIg4VsIAJ7aiTQQAmjCuez296vaflrhcYUEMNNLW1CFWidXvW2TPUI6XqhgCwSxyeenHON8iDGJN6Y4YkLhffg/WWx+oucwWUdbMCx1Nz4FigvAtzpbLaSRFdpcMBdR8jqQ/y4BMyM4qywGMk82LMrYJBPG81ocxJwSQ8QK8NKmoZh61KI59ay4pMRXuK/ekVYFO41lReHibliFHdahSgiR4QVIMtoyZAJ6nMISLrSNTtiXK2+7qvDDhsJcDZJkbvhJHxyZxAl6VI391y3KatduWqs3n7/4EsA80osW3TSnzddfWzz+qE29HXjyVhPtgXo4spbq3AfO89Xk514f+omVGXDdRiJi+XJh/SnpsocfsrZJp7vvIwgTUN6WUbjYTBalliaYBsigBeDcbuLGB97YoZ279dQMBWgLEIJpWCtTDL7EEe9mRGGZG5gr9mNWLXRPj/XDAaxTWjIDVxkcUTH1zF+g159zx91P6N+OlF9JIMBIKSdu3MXaYPlqvFRI2eHVYSWssEFffPxyuelCnyYlj9T5DIeDASnI2tft7PgpjrT90bGrCaL1Ex3AQyn2N4VdRKfU37tfGWiDZJgDG/OzM6GMEEIuOOtJgEconIrv2/6W23YTdBqP1G2h46eTy6iAW1zt7wpOSL3E9XJj4qL8BsJXzf5DU85NZgB7atJdUK0xuCZHvubp9FKQLV2p2dMYoVX5zxvPFAPsn/LUwCEJbnDIhn3sPquEXHk+2fHXlsjbuEKMoO5Jow+xi2U+NL0UTkM/eB9vbk79G4ScYImTqWi1CtWn1y/xwYfTCR3q1yUtpbIB5CVPUaDHaMPjqjTo8sjDgzCFnmZ90W+KwJQlH2IFw+Kc4xsIy0J9d2hEf6RRJ2m9xbcCFgViIlP+CYk/ez5yf2dOAS8I6/0jSUtzzJf0NJE50Tu4ub9GgvvVjL8HBAuuD9jUSGVCDmuKuRpg034ZisEg/8R/FdoOAWG8QoOfxUFa/q6+UsJ8a9BgEKBRdabtG1nkvuDlPFcMMx+ryhWmEq52fapCrr95C0Kvux1+xY7+N9Yr5exvaS/DYO1Wt7oJsy3DH6FGZVq6M7gbHwr5567q1EyFOxV5oeQlt3ervoSbfGDgFexWT2lAFIcU1K++RwhQ/XKve4Xmc9du0DAwvXZTPBzvwxz2NbWTBDMCB03UQS/gsaftYRWIWjgd9Pi6d12zMnKNZYNg112U1GCVTLL2/WJTWsoQiBGhFMqv+/Pp6PVnNwRwRdHl69vyfinwtP+yS5DVIhrEc2sf4TFZxpLLsZJ85MwtoWGbUO1X8xa3wsRTpc9lAMlmZHZJWncCROBh72sBebXc8PCIM6wt3vrsb1bYnfel2rKzKoJ+RdHzzh0HJOnp9Ucc2vwlgVy0pH/QIQqgZzioorGK8EiKuHhtF4tPqrCeGpcRNXm73xuPns65nb4cl6HNabKnDsWZYGb2DSSCHlzxkuXaCld896tMYbiVxfZtG18R3m2f05hfXeautMZyIOZSBIYe9sXSlP0SLOC4xJ75MiRrUmGsqwstNUPkSGs5SkmMcN3Kh4sHbTiTct5dTXZoo6r2lwWluAHqlXfBjgHrxW7kMwnD9j6Vhwvq68potg22JPGBbRAHru0avTM4bGnjqdumlq74CJLjZOqM76VD4cMU/05D9PgeyzVXN560a4rEKCYnBFLmnTkad/Yoi1rQRNlb/CItxk1Ms+WI/xHFa7knfCbjyUxVbkbwf12bAoLeWPK/vgygFa0R3kpJXDGQ3Cqv8JIhQ79mMepXvKWOM39eGeTcEM9AVVKga+ExH1aGinuiwFnQxX0Yq573LGCf6B7bo1wSytOT+7ZxxbRLlAPnxh7HwxZW3hN28Q5WXp3WhtluRdljy5VyJxtyW654kRK4InSnq7Kak5BCOZwi4UuFcxK++cWkHs5XNeMyUcmD5gApnvtM+hHIraefxKs0QCx+RNawrpprY4yW/1QShc+okkk6UOknxB4a8A7ZeVCEiZTwmabsFquWpDAOtgykH2AHkqHZBxP6AHiEmsmEOnVL3xDurGB1r096sTug2K1KXQ5QjYF2DO6tatu4+2JOaUOEPbahzXXU2T6gH9KrU9qsLYaWs1BiUNo0w5ni7byYx/K0TZXc9GFbRur+NaPkf6hO4FJ9e7qn1Rw0YdHs77vwsfAGGbqJyHGZD1peXxbwXkF57I/bClBPIxrH3OyegQ28JwEfQ7aRkoF0HXLX1Vo3vRldJCTWgC0hUmgKMeiYW/NzTPt6NOVwHPRSAb0Dl0XsrZghs7kxDLnJTEfY47Xna2egSp3BRv2DnjOJoWZXwMA++rwlhDIlrF/gggR2rVH/rlv2J2kOJw6rzkskUOwBCy6cfpLxiHA0qdResE1M+/Z+PvAcSHICyOaaUkNOWZLOW6OamUOHFJPRsUNizV1EQVKcZSu8z4gOcb0LlU732lK54j5MpcceTh24BS9kIcVaiqvGaphqk+bSl64eiNNMRvf/muikpr2+zFxDCNxcAZyNeLOnZ7sjRTqnzSI0E8fK+AE4RiAsu7/m815J+jzS549XeX7bmLx8jbhaUpR3d95pc0Ibq8NLqxwZxiKViw3N0Kf5lHXGs73GC8MrGKAVclwKfV4RxjbKeMQHNhZOZFjbMKxtPQoovrDEKaX3y+VwnXjEOxp7NpyqwCX0KPYCYO9THQM3LEuJVqKecGC6wC4P/XrZj5XOLl4c1hPwUx9IWyIGaI3vftVftW4P7JXVz1hVwY+9tqMjZPIegDjqkMqlgeafBh9OIeTVnbolPV5lNw8/e/BD4ym2ZwYij9/87yk85GT8SnW5jE2tfUkHun8jl/LYbiUXU7sBHHVoG12KbLLg/r1Zkp6LWaiZsp/FUhgZlpcITqndEsSROsGYoH9cvGgDlxZ3b4latai+8v7SBH6lKqKTmOeNugx3ga74aDBZw8Nr2ebUnwvrCK5GFDLXvqNn2TvIoAWguFZ6wIhle7YqxWHMkLFwtTi3CUpROHIp8EtNV+VW3gEhCIx6xa4IeFviQ01r6B4zbv2pUQH/o8K8WAvjgrTsrgXkURXHpJE15Mt3cSUWayWq2iV0gM4mqwZc1oZwHeM5UvV/KhR9wJK68QOmEwQ/L3PnmKdZNKUqpMYJxxCfNgtDIl7YLtCx7oqY8gejZcC/EFtx63dbqrK9qH5SRwjz7AVOoVUdZVwPDXqckxMFG6Yl730KwZZFapukkFwU1Wx6YCZZzRIHH/yJbrEkTcB3Ij5OzoJROru1+1b/xq6aH1dTOeU4XYY37AHGbyAt/o7lK6NCuYzWJMd3C5aR612ZiXIbvg5s9TNEj5W4gXadfsKa+KI1WR4+qieEKKFVJDqZihDZL8G4zBpnr5xKxkOFzsRTwwO/Y2me8IMFguG7wLm8fbMoRzz+vHKh3g4f1kMUdiK58z8IrA7Y5g78ryLGUJXytc5OTnqQbH6pGV60GO6nNV+fk7u07k5lBQJSKOwBrRIUDZuQkyjsw3x4ZhWFxu63shO4w+d7nCXidn5Ao/lSNGXZyeEMJgPMnE45uwP/oQVyacelXpYEVUB3YEfYq7ReMaBhXE2qP4CsllkNNTKR78LH/EeX7DcplmwWT3d937pUl3VpG6se0ARtWqc9gAl6tUSwvNUU3gPmhZOLcgFRy1xHT2FQxJFfHefQymzl9Jw1BUalIrt95xfo97XLiHq5PLGvRr+9OwOB8ua5c/hcwd8QG9hLebCANSZ4fV9JTKXOrTa3N/BxDmScAd9ZM7SBfLfuQmitJJRdkAgX3dXEuVsx6h+yq1w1cfZxqs/0mOtYuDs/QxZupQ3+29BvjVqHBQXDOwv/yempuasB+fS7l4E/MGn0OWGd7ocdpiO5xTs9Py3KfMHd0UqEkqtTQMidiot5LbUi+6jussGcp7CH361IpiZwI7n5V1BxwaEqhCXSuxO8gtOuVpiLXKA8P6r2gJHfv2XxzWnhx+WTAnBJXEVsHidAtwJfUTN0mzPWWpFmBYObfgNSEew6LCOyreHdpoGMlabMwXjaR7oOgkzaY9po4tbINxA3q6WB1zaaS4hE8OjTxS/R+D+eVCr/DCMgKRNq5vVbscvzP+E+3RyAnDCGUQj0zx45XcIoDBJ1Pr/gKSRGbjSTFiW41QOG/MYRQahdBxidjkhwRcRzTDqaKIHfdP3TQOyI6NfC4/Dll39qQhLctdF1W6uZWXZOKs/HRX7s7AoAc7jB+pFmSfa60k40EyWU97XI9ScKI4bCqwW5wIICdioUGv7lI7zkeLZeF1blnMS1EBkcp4uqcqMweeXXo1OdKKmc8YlJknXvRdKZPW4NbO06CsjbzV3Zf2x6uell6CIA8hOiU2IsSgRSaDZkxMpwVZ59h3OmPdG8FzpVhUT+nm8wlXbI7HNxoel33nLS40QXroLn1Ut4KtgE3xdM0jrRPI6Yq14CTWkEm2Rq2PfpbsqzASV+BrdEeWVdP+HeWicPtgR61TUrenkzGilUZYSKX2LrDwDjUARn4MUA+OYJEUCNQPH/nyiipfkoVrFRdsbHRj0pYqP8N45Evl9g8gdgfe02oNL6qmgr07FmeqWrxWvdqAmwAGh8baNwFtEmFB7G19VrBH/BzoDhbxNiO0kdosJE9+1YiiUbeBQzk5tiNXd/cMtoK3sdm73Ptim+LkbYjvNIVLZRlsCxF330VXCtIPd+zZ6GyI/yod5Mma8pVYpSVpxe/4AgT7SX3v2OQX2A/3id3oc/nKncdaB4vymA5zQ+fV5vfRiBRRaJhLztMflEVrv22nsiyByIEYm4XkroElA35Zhcx2AvjjLtf+fP5hzZAfDhO3fUJ5CW0+PfUcrXMiNzdrnwn2vGjXN4l/YYH/L08zrkRxSBfL8hCBy3loe4MWT6+r8pgQO/Dcf513vAC9bRA9Q0xcNheuJUhMLj0y9STriQkDxUEtvuyAoONsA7+6NYwQDPSXesYVpmay4NVZKQmway8fDoHOjGXV3wTwvfud1svMHf7/nPrAQ5Cz9tR8Q7RPu4vGx3uTXj7TKH9tnaFu9jf/p8zSrwVEeVWpfYRhSy7pTzV3ADZZhJXp9F2Eb8gq9qML3yGCza97rhAA1VJkIiV0Xc24aoKIJ7hEMr6d9G0hK+U691InzNLmX6a8a25VdvG+EY5KIeQlwGGttcgmDWNLQmfjAFcRv73JZT6uR4hNUx2IXYzFuB+IQntTyJ49MshIvZbj2s3kNxfXbqqsIYfw3aTEmUoVuebHYjXHITl/cz7csAefWHWBvzIYcIN3MTNyuir0eOU0DaDxNC+rkAxOUEa8JkQA/zMPCwrgY7dGXuE/lbKk1MsQpXhj1ewUSoF0P5NuUKWeGcVwFJoMxHZCJUg5hgb+OHINILxa7e+c0ZIaa+ERNlVLnpbGOECsQ9+xgq108a70KsDK+Rdnrx7+XAdrtDip5yXVHwVipk7gkv78PVFLyQf6KIQTHDSpeTwGbvz2h5vEM1clipB87WKtr2GxsJCAJrwzOS9ia6wKPGxl/z10b3DjAk3CQbBfxqpXJFvm8NPfvY3LKuDTI54IjkaMjbd0Ni4ngrLUwr3wazMbuaQ1uOWkraFUyhoAFruPTZOjEj5RjAgS5he7XXMJQU5xvsnyXnWTB3LijoPipHdKBE6Nnw5xQ5OJMLEM/udAxhDRFk9HsMOQciE5wA2Xsj/1IeMc/hLkN62NJq+VJAEIyASCAI+6Z0vyIlFUJGEGUDnL8IiudQuMuPUPu2FbDx7ia4JsOTCoM253sn9fGbt615ntmAVfKxU4EGfsp2N7UpMqR6MJOH8/t/gRQUHh30cDvVz/CjEOMNLfUBCTu68IKac7zHvaAlZ4Nv0U9ZJLASTTr171MKhr3MQfCHAXAHHfkk145FTSX43tVlP5ZY2rbGfr/Sx7BBKzusBQmg0uKqQ1/5FiQRXRoEtsbTo/4K+At/w3GnIYUCd7pYW8J+7znFsfgUbkPmwh1Khz7ip+q2ygt9WdiB/SKEne2AyyWOEYG98iLQba8vfTBHFeMZcy0bn+aLmlhWZsGb4/XCOhb0q5BCpIBFBXCocL3zgQ9aH0OGOZKaLvg19vOxS4WjN/f4ZN0QpxpJytSsKClAmTIjWGAWJN8E5c/Zi7shrMUA8OcmFti2CqVtUwOVHswItqWcCFblmu9lRdsevMECpsPKavfU9NjJIVa8kAh7+KtBeBGjoKbfSFOA8TcJZ/OsNZiVZM2U5mBhnIb5oQmCgzQAhaP6uMsOzENhXiyfRs+nBgl1KyPqhpIs9vXb1bFBwhs9dR46t3vUZWY2X9g+KEIgeVDR+z6kV7Td36BvyBiI1uReNCgy2XLKv15NfNUVmeJHAx8Y9M+kk/thWQE3Ep6veMZcDXzV2GgYGEehr+J96+0+4bjBhcRpYa28V3Hfb1fP4A9ZNLgrssiFSoH/imTmhhtPZ9xslDDkCmId0DqF1YdL0MSLsJIPYe6NQMIxL2xYs+ZDgHPLGNnYtKwW0kDWjXEer3ALK2VS+lSoOdFq3wuSa+zG+npzEPZaztrKe6tAhbKTakiwZ0eFdt8+3tKe9NYwwnojkpLBfcvae475AAcMFMvFEWqbE8MwKEUtwkwMveVRTHk3qIY0fBsFssVmcATp86mQ5bkqSESD214d+Z3WLJx2EoPr+/dijxwfcLAxoy3Pq8gPlgQoIA7I+9MQy8OO4YiFqlnkpjB/YZe6ruXinbDG1Ec8GZ8xtsHOCPcI++YbtIoGHlwshipxYH8H6PP1Gw4MRWFY3G+vNjz9WOsZHMKXO8kccFh9WzQkLejWJ3dvL/Y9/BIC2Rm3ac0zpJjgne1nKFZSLy/z1LzNJUXmx1h2fMgHm35OGTtuau29eY0Kh1xfdYusxl95+6RNEg0M0wN0LX9aYT3oZ5rt/GNZmKEm02SLtIquSTXLnhQ41hwdyt2K72pN0yCErjkfHKKXj9tWGQb3XnR8kriKj3/ubYdLJpMpgCP6WL1MWNk1sB9CHYv16fu2Q2E2BukHNsZpzSTAcq6knowGRXstJWTediPhPrNS/WcX3Zvkr4ve7njFNol/DULnEuDmZ4nkNCXWxlJVGlIDId7IqOu/vK74CuX+mcsAc1GG3vHoyO5WpG73eHvWOpnYvWMUPpHebkPdldry+eKmtOjFoZKk+p+as6lWwNaO9DhzGLIA8eeHBrg74TQ0MMovI/BAZh842gDoaAs139jxMo06RwdVu+Fzgn4QGPuDKmznnrV5MEVut5Si1voRr9I+Hn0SUsNA7klUlSla8E9Mu2j+mIOjXqCLWMt6oPUjv8uB0W4p3B2aupXgAM/8modE0PhGzImOWOAPyNxSTJaznmoLeGkqzDzPMLLYHN/BYUe7pa4RQxncT9YTjz9MKgSvlG8vEmWQiv+328h5t4PAyBprf6IaVWDPdJCx/Oq+ICu5jeUUQHf7dQk+IHyFo7B+uVo4SKxLMKagkT5Ty+yecDx6hUI6EIjTRXOVuOQkafxrdK1yFVCS0PeFV3dlToHohbbbpddeUZs3b8mCwmdkvm4BRWAUkS2lB9Ku+V3GaO6ZWsJKNDNN3WdejHfXUceMfja647VDjyLnjlQfm9rxRSoQwVkbjdVOeBtOcyT4xt6qZKFNZ5kvk457bCzNvm81G8Jl036Xf6HB4i1atEICYWpw5p+05aqXiEOs2mj7mYf2hqKGHJSzg73yJZmlt5sQlmXrZv6DPpZe6JSN08H6/B069gxUHHOaVFj/rQFvz3sbAg///ytjUB9jyJVRhxxfQUBdmbfEAKovQvi31ztFZEjr3WVRRRjxLPg1lXkc62tKSFdP1YQYc0XWiNUzEJp47ITKVjVW4ZGCNL9Izneb6PcPC7QmkcXCCimULgmiopA95fWI322slNifmq605/JAfouX7ASBhRDxKYTV+1TOVM3qAVx7oO6SBQru4ldqI05ftjQm3pXuuKTbxzL1toMyqokHprzbm++UBPXjk+KK1Rv3e//bKhc9QIlLcMQpiDpIvtAAY0YTR79hZ7OijXDTycNigbbDvdm9Vm9IF721ZC3Hriidpbgi1AtQ8KtqYM/p2VzGP6CfJMju/8Mc7oHssuOZiv10McVeivUS+z52iZQlODGW4vsYx684it4rzOO/5nGU0rdx/I+mmfp/JQJ6MLjsMGybj6XthhUrjHQMFaD6hp87+BE+J4sY6y535rTa9zRkV7OCrrqcKJvbXXOxhLtmb0VmTlsrbKA46QYTookUBEnsrZ5CjOyH18R81Znt/6yKDAXmdUGkDir9jTh5wAq15wOjydrPZEdGEKanvZYZNHMSDAcYdFRTSUdzzPD29REKOjUvgw7/sB1Dz1Hg4YjfLuYqOlWN17deSbBCnogFWdiC4fhArxFGNY5tJTVodR7b8bt84xk8s0oIQaApsUsbFFRTuWuAeHF8Wr3jtW1OtiiByPxe08S8vADcb/C1alhI7nCt3NNYWg9AFCbdbRjpWO4MBnzs8e2hcmPjOg55wQQeA5BELm8ro+xvskjx7+kPrBNvm53zspMTWNnWeJ3Wq8va+wnuZy4aF3bVzHKeMZD9zpt5BEa91hYFgp8YjYxhYNU4nwW2veHnJQu2nEmYPTKlJjPlCEa544DQ9iMe39rzRlQMH9KP+sb3jkFNBB1qZRjMFV7xld0+GoS2ACxJl6WwNHs6n7TwaB+PddbIdmdqfwkcTb8ss8pOrZ24vvETAbCZUkc4V7BbvvLiYd1YE8IrEzRo7rgKrKshj3Je1AZf+/daNXqsnmHpqo0JvZEwz4tNzB5mixKZ0GNv5YnBgJNaoDuVaZ0fJ9IyoWJKvq8HeJpIGFYHjPGVoGEV7vk2FRyfNJmn/1ZOACBZXFt2m3RSNO1TqNDSVetUAuZ0GPul6MX8YLT29ZB/yn/CVR846yH9tWLW382Tzs9g41Oe8Nd07PhIq7RiVWk9wfsHNLvEuitRWUZzJeJ9zZKQGdxjxbhGZsRImKEbfyWTH87SRKuOvv3ASSTkECWJGDgnKl/wMi0GFLE7WkJ02z2l68OQco4PcntcqjmIT3x6wOV2/kSUT/Nh70rgfEBY7QBLzCugwr/UMvQWnjN5e8kI8livZDikiU4elX9VXb245FYTbyJsmd14VYx9t8V6a3tBxSvCeQY7k1xm6tffPxyBHRljhahG76lquF0r+23ewkvilhlJcqUEXZ79YZLMXWgdB4kOfS+NtNgayQiP7bpD1D3bhjWT7jZM/p4OwN973O4ZpZtBR3Lp+QCqXdEb3M2/nXiJACxqdFtdiC2UDyKICzuKKuEvKxj8jnmNIUvdRcur9A6XXp1dj3nAkJvKd+TKHTZF0RFeO3DNPmzZoQ5mcKmvZY6tgWZAyxD/Mr7SjA182h7x6TdohgOMXPP/1XkpABykMhZp/G+sQ81Y87o+k6GufP4z/m79jvEdGq4W5inDuRasfB/EP4vNXOm/Hy9yoJnkdk2kNvsS/w8rwC7HORJqunqMazdCYPR3TlvKjE0M8P1FZiEMF1PhAwoQqtmZPvVO2n2bMGZbq1y7pb0fnAsMR5ZCcTCeRajeoX3HKTOODzsI6wpEjvfzncz6RQdtOvfqPcXV6WwlyQEeeEthA5F3pvxWEwcoHl6fVnLJwjuNjT3DR3F+FDdmgYZSvhGLxE02FTsovNMhv7g6iuJl34qdSugV0qFcMVYsLwSlInTY05QtJfJIYzRm9TdNkts30nDclzUTwn5A8JaC81OM34DqRoXXo95h3r1dqFlJ3tReET1rLNAT4lWzMyvSdeYbJ2I5s5GFo7fD69VshICpg1LexxChKxsbis9iN8A/ioTwIwEdARmxyJp2wk4sANfJoPDxOw2XrT0i7MhMpoIi6K9yLOX7fvcOr/PQqTMbkYtYv6gYket7prAQGxMn/syKutiaenxp+PMfM3CctssET1IRwt0WVrIDiv21vkknmzOTu1r5P3VgkUG7XC9O9NlrnWuAeYK87dMfVpWHp8snyKvAPRVlm62B/SDJXaUOeIvjdLCa2w0xSPFV+oRivS8LjO81XDHwkP/9iBq77hh2hwsKHZOjhP+Z81u2LzURbxbMSSgEQT8ipyMUq7AqO+87g8deSGjG4Va7IvazkbjsiXe0dl6yHLNJFfHO3GCnWzzfhdT5N06bMLn8PK1/hU8xwhJCX9o/zqKlKPfuawkTJxuD1mEzPQBnQXDM2sWRKhzuBvN7OVW6FrxvSAePJNdz9IBdaFYmu50JOlwMxpN2W7qcuj9FDAWgdy091n/yACNwAqomCZQWQk1TzyW9hnY1jVyRcDUedKqXcx7w4TWiJspHssO+cj34EB6cu5OlNB1Yme1IJcPlBl43RyPD0G6OX+xWvUjfFo5XIHR0Yk/axgkXQ2b32sGYNbdZOHi5/9ysUWknvCu6O2rHLDrYow6AEzXcHAkTqS9OfClNvARcEosNraeqJP7aqQdF3sPfGPbjdALP6dsb7ht4T/t9oXzMjJvZDYwbeN/Vhvd/yrXXfXge6Mlu8cNfQJ0esgetX/NfVKCS3ct+d93V34SFpLu0TqB+bgt1LGIEb+vyqmf577Yb3q31tp5bpPig9V6Zwf/xwfRewlUBo6dQ+/HkGBxRiE0IthEql8lyM1thMHDzP4kVZMxuCaHroroGnwXmFZFokLDCMJrGrSMvG8psQS1j9RSRn3BULyBCGQ15VjBzY2o2kmVXhbUtFLIZQKXbtUrdtHXxeV1QMEfjBgcYnyVvf8Uv+lpGM8zBLF7GjvdXY7apZZP5NJ6sSyngC+npua6GTw/bqDJFdbjamn2mfoAQFlVb0+s706XVKSM7DHuk7nGJwrrLN0UJ4CBLpCWg2iwSQ0GE/UTiE9lWwTfAa5dH6+kWar6HPxaDGoE2zq7R0/Mvce+c9cqAB4zW26aPJcED6CGAakcMn6gfQ9CDuFeIXmp7tPNFUf3rT+ZJ+AOW4nUjSPmYxbcz9GKW99kf3tn9Y+movtmkBOaHQ1aqAVjpa8O3roUIZCtG80tB7Ujnm+wmYllSNo7S9iZ2CFj7bumrxAIqXB6e5W3Ku2WrxrYd6LyjqD4IyLSBbfluzKESYgcGhRBaPGc4W2pcWV4z+H8s9bxy44vEVQseeElWw/NPYE/3AEXl2yGo2LutaTAhKzl7FU8GzQoBcuqvf1tDRhXxBK94YuRIQFvGS1Qm0ymSfRLgt2m2S9+DP7rwdNxmK6YOpLPLa1zH/7BRfVeMbyYXMgvvWDJ5g005dI6TQQmbZKPX1LeR6QJcgn++BiVKNSGGP2eWSs3bJ23DAF75/CX8btSIMjDb/mn4SN+3dlvQAWbiEr9JsV6fGmF4WiprV6dQPA5i2UExrBeKkg0UI3SFnPV8ZMyrMb48Z3Jpec/5yzYpMi0Nvy7Ho1ibKrIS2bZxWcTsYh5U6bZytlf1FpbLlMtrpGqzKZ0QYex58Jc8yWHaZAOQCPuzTmF7JA5jlsCrvlSsjmnKjyu23BbxOwd+x7BRBQk9QEwKikJnJHTLdlhZbL0ZXhyhGYGdLfUbHsvNdqb5Wy75OdHqw2RnGReVdWdyEjfgH0Yjni7+Fq4NDH3t5Na+6qgITSapmDlh59jJZqDHE1Xa6e9dOYhQh3/OJnrGYzOGWgnWOEUWod6svsElh0dNMv5xcO/Qfm/+A42fKWdJcj+LLOliFNWd3eI+5QPsqyj3hH29nYpO2ltj3oaZtd1375hWgjepp/89RazmYIn7wBAwi2N/pFsZZ6fdFNTsyF6wYxke/bVeUV96J9J9oJqn1lX5aYPmYT979DHeh4uE+yglHkp+03+Hi+E9+NiWD5R8+chis4MlIZWhZDfVZhTN/GDSJSeK9jOUKVfp27QZ4afltwg92d/pB6jT3yiMbblA/5vNy2zwjWBF6KqfLKPu2QFCSkMSt8YyBusWmQHFUdxN9uGSeUKKoCIr3PFiCjMW5HNZYoh6UhlfoDA0wn0Uow2aaqAwttoKXHEbRasGGPKVe5k7Not9qsKrddQvqYxhlsi6vegAZLxsBrwOVgnBu9R9Mt0rD4h1XGqvK5th8Bpz1PmI7VqJNuXuO6qE3xUFTBAjYM0GKFKT6ainsIvzdjiZYFnzOJ60uR/2IVT/UR3PIBBsNtA+KXQq6uZjqq+YbFVhwHaw8JmIt4kRgYuNHNWr07BSOCLoDTdoemCgmvTiyJfQt4IFf8Yl85A4hsDbGFxZuORySXAQoUTYaqQebfouyvJaBN018s0RopkqCWeiNqqQ8cJiVd7VY490N+2159SEgWkoDriM/y5leCs8nKeaUS2fC+qbEW3ShYaUM8ZzmLAooGVhM3DMu3d4l8yUAXkfPJUaE591eilzwDx/PPZOWpiEClrnID42EFQOYIMK6J0STcUdEhveSvwCIdhA+OxCVNhKa95DdirJfZ6QU5VRNFHho4z0AZJ4NdtB95+yqjgP5jcfdOjqyiAgzv0keNiOTKoJybCraRd6G9U33Su5HX5hBGYiBy3DKLzm71EvDVCgg58GL2GEBJ9OIAXNJfMiZUeeGHFl+Hkg22DSASJvKURuKBQMjvF1HVtXtrLAsL6W+Wv6psRLzsHnKFN+2NQFozgCFG3w54LCg/YJB+fQDjSWjcjDWfFa0xCTwRqmVWu7xlOoLNUl40ptpe1OPvvD1komk1abXociuY00VmEyOUMih5RxiDZucruAMs6eD2r9XmdxmLEccaDjInad+NpZht+yQVgW4TIGacP440Ny2rG3CAH4mdeLokDKGHzwN1dFWJ7XQpjdtadYutELwQ7cHVjGs/xWPGL1CQm//UEWMEmfD1QMjRalZmvDT8RwnZghOthMy4Q2erNX03otWqaYRcMtl3ng3O+CHTQlw9axDdoZ3pKV0sTU2xuWai7Y2uSKFTkHva4B3XPUpO+/c7yzzIxtzkA/2pOsJ4RJCp+C1Dw2GgchSUQJepf6VdBde/CTieQ4+JsQx6hILX/QrlYQHCOeI+L+9qLARznK+a2Um/q3IupoeclGot2zhDFCmUD7mQTJjWzeMuFfpUWyhy+5FF0No7AQpJDAN1kRFTMIGRluIWHDbYUtV6V3eKlERM4XsvpTibWEJMG7PS4Hso4bTUrICLRvWxuuVsBy4GqOY4XHQMUCPrt9U+bNM+0QtoV9w0oTA7fmMraA6KWrWjNjMM1ULr0hlK5/73nllT764V3lDR+1G0A0CfrrsIsDesLXM1nNXrZv8EDS9yq9/t/fMlDHY4j09yQTNoP0W/7cebVQjTGZKS6uwE9qDGwYV8y67+wM3PS+wmE32AleXh2syvBJVLswY+mgeygPRi8sMqP+SG6UpRBPvhP3MDunXIAymWOaJXoRwdDqnVNougtQk6jGIlwsIh52pleFN+mW0ByhRsgkojCJJ01cwegspXmLjtGjlip5CX3MwF1+C3P6qeEThFL38Vyphruphy1e02QhU+LvQIowQCpX+5sxon80TrjDfA8YFVHmGlguxm69jnODQFwNrVYJeKLS1PyLTmYDDEP5Kf3E7omQ1dMEN0bajEYUB/p+ZP4GC+TPEmnOm3BSBi+d9faIdOAadiO4Bs1mWFqNOiTRCjzZVpqgL8t1BK66i5ypR53QC2LcmXrOXMh/ZMp36OZSvLTXC8avMG5WN80xVmyMRgYp7zRJL4Pjn0xTImy0DR3IIomoM0xWtDoNCWqKstiOVvfrIua4F2vb6iMJb+P3sV15Mv+/QW1r4XfkLRRhYkCiwRGr5JuuK+W+mbZCNOhLFmjbPDGDufQ1rOgPLnRO4Wi3DdBo5b7gAdj7F4gGcIwipLS4QdFsN/R+fxIqluM5uqE+kXne/1aVfjOhZEgbwNaTrploDX+JVeOjOe7sAu3NifuvukFMWsOBBXGn7XXFT6Lo7MRvPWoh0VZUuHU3boxNhlPK/7aBElsAzIaEq3aIUVrAtHyDxS1WntrJPKzSBnaZqFOP6uqjLBqAY9TkGcQRvWm/KuaZErR3sUrJq63uPh+0/LODoAMbQHzqitbToSBVnt/9m1ZTYc8DFwsBOtLKQhf2tjKV1zySHJZGvHbT3ncYDnIDoTX4ErIi3I020+NBFzyF/+leu0Ojg0+yMVeaa7CDfvy+A1vI0nmoGN5bQ60aWsZW+Ui2dlryPz0h2FpGxn0mQb6FtL2VmYX3m8Lr1DwCqxO4ugfHrmgyivtTV6tEcbQ2Na3PGl15hX4kxEPIpWDcPgZALQre3qaDvqYmcYicNUIRJK3xpXeS1uYu7mx9SiMHD8YQCab3y/3CeeE+vxmDCdzUkoifAW/kr1LgToRsHqIGK0tYBHoTh1NiuD4NcU1Ln6/JoRiBCGSfThJtTBmK861YAVHMMyk5yNffSC8Na7JaFKeoe6m4OlTk5RDjrWlsl2DquSvoT2cAdkHJ5cgHDGFjsV3Ug82qyijMgDrarSffltBrXV+6oxLDNiTI3ESJCqyJTXTBqg3jsvEY6fmhGC9aQgyHPvZAtdue+sQMHamXlcsNoI/y5QzYv8oYHiegoTM/Qb9lj+JHtwKKt4tVngbnLxFE9prdzVkSEQ5ERFeZgdYkYNddsXtosKRGN80KzBWCEkAE0Kg4EurG/uu4UVe+/d6Gz6vi6hzYUbdUhZ0ODTJ1tb7pUWQ7bTI6B2hCwC3rheVWqcKuaZnbRkSUWi92g0dll+ra1S9V+DEj1t6nNkYgQH3jYtyYfI1jSkZRVGL6jR10n+xUiJ6WctugAnM9DAZsmxv1bhrEjvSSLftnOxhEwF/Kzc8lDUa4I0zX0/csuqw7sFUSi0F5xrQBJ6j94ZL6oP2PYAq5ZnOUmPKzp/Pqo4cJF6Z7y606i3sPUEe+x4j1z/rQ+HBGocJbvVJBXzWq1updAOAODnv+D06uBoue/7XA+MR+uzBFqtc1IYDygdKkvA8u2nDOiGsHpQlMHPjB3LWfsDpMi2Jq1dQznnOidhd1LLlpHjDgMXarAdNkk6Ok4OBn/zsJ7R53026L5bOnha4N4l+5UMK6u</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>ferrous</t>
+          <t>Sr. DEN(HQ)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>identified</t>
+          <t>SSE(P)VRL</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>test_data</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>test_data</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>POR-NAN</t>
+          <t>test_data</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>000000</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Pway Porbandar</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>garbage</t>
+          <t>test_data</t>
         </is>
       </c>
     </row>
